--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F1D81DF-B5B0-48CD-ABB2-D649B5A58587}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A03B6E-5DC3-473F-8F4B-122B5C68F09B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="191">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -4763,10 +4763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64845-990F-4F8F-9F7F-F4DBD3794313}">
-  <dimension ref="B2:AF12"/>
+  <dimension ref="B2:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4902,7 +4902,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
@@ -4911,111 +4911,111 @@
         <v>TRAPS</v>
       </c>
       <c r="F4" s="4">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24919348706604891</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14102260336618419</v>
       </c>
       <c r="H4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.9819686530101315</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.8193762108637852</v>
       </c>
       <c r="I4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.91879999280394731</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.51996369762144268</v>
       </c>
       <c r="J4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42626389455684793</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.2412295956815371</v>
       </c>
       <c r="K4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33606627740388867</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.19018531303154435</v>
       </c>
       <c r="L4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16886184308995011</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.5561633661176384E-2</v>
       </c>
       <c r="M4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.48421342433443482</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27402416687719383</v>
       </c>
       <c r="N4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.797027696417964</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45105079601868803</v>
       </c>
       <c r="O4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32993189380189941</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18671376666095213</v>
       </c>
       <c r="P4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37397423428835075</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21163803569729758</v>
       </c>
       <c r="Q4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.65087888007008443</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36834282959899767</v>
       </c>
       <c r="R4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.57573664768678368</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32581863140183054</v>
       </c>
       <c r="S4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50671859445735434</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.28676020471389613</v>
       </c>
       <c r="T4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.1428455103494626</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2126707484972317</v>
       </c>
       <c r="U4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.65608914938754559</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37129140482878509</v>
       </c>
       <c r="V4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.78233315899855904</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.44273492088669852</v>
       </c>
       <c r="W4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.7132297701493322</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40362820139863753</v>
       </c>
       <c r="X4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47360747597162428</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.26802209006972721</v>
       </c>
       <c r="Y4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0585444755924167</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.59904734864666986</v>
       </c>
       <c r="Z4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13585620127114331</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>7.6883209959732524E-2</v>
       </c>
       <c r="AA4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56690203368669112</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32081898120752922</v>
       </c>
       <c r="AB4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29655213802722385</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1678236258531208</v>
       </c>
       <c r="AC4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26145480029802121</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14796147778469043</v>
       </c>
       <c r="AD4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29162652995454996</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16503614500140071</v>
       </c>
       <c r="AE4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56570516301302765</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32014165283799628</v>
       </c>
       <c r="AF4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2713201852314594</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.15354445783325901</v>
       </c>
     </row>
     <row r="5" spans="2:32" x14ac:dyDescent="0.2">
@@ -5023,926 +5023,1970 @@
         <v>85</v>
       </c>
       <c r="E5" s="4" t="str">
+        <f>DEMANDS!$F$17</f>
+        <v>TRAPS</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2050</v>
+      </c>
+      <c r="G5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24919348706604891</v>
+      </c>
+      <c r="H5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.9819686530101315</v>
+      </c>
+      <c r="I5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.91879999280394731</v>
+      </c>
+      <c r="J5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.42626389455684793</v>
+      </c>
+      <c r="K5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.33606627740388867</v>
+      </c>
+      <c r="L5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16886184308995011</v>
+      </c>
+      <c r="M5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.48421342433443482</v>
+      </c>
+      <c r="N5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.797027696417964</v>
+      </c>
+      <c r="O5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32993189380189941</v>
+      </c>
+      <c r="P5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37397423428835075</v>
+      </c>
+      <c r="Q5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.65087888007008443</v>
+      </c>
+      <c r="R5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.57573664768678368</v>
+      </c>
+      <c r="S5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.50671859445735434</v>
+      </c>
+      <c r="T5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.1428455103494626</v>
+      </c>
+      <c r="U5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.65608914938754559</v>
+      </c>
+      <c r="V5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.78233315899855904</v>
+      </c>
+      <c r="W5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.7132297701493322</v>
+      </c>
+      <c r="X5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.47360747597162428</v>
+      </c>
+      <c r="Y5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0585444755924167</v>
+      </c>
+      <c r="Z5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13585620127114331</v>
+      </c>
+      <c r="AA5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.56690203368669112</v>
+      </c>
+      <c r="AB5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.29655213802722385</v>
+      </c>
+      <c r="AC5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.26145480029802121</v>
+      </c>
+      <c r="AD5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.29162652995454996</v>
+      </c>
+      <c r="AE5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.56570516301302765</v>
+      </c>
+      <c r="AF5" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.2713201852314594</v>
+      </c>
+    </row>
+    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D6" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="4" t="str">
         <f>DEMANDS!$F$18</f>
         <v>TRAPM</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F6" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32193664473309486</v>
+      </c>
+      <c r="H6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.637813854608976</v>
+      </c>
+      <c r="I6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.1480382927336128</v>
+      </c>
+      <c r="J6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.54522568908947855</v>
+      </c>
+      <c r="K6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41020881320348074</v>
+      </c>
+      <c r="L6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21133746790128183</v>
+      </c>
+      <c r="M6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.56924850267004323</v>
+      </c>
+      <c r="N6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.98828046988197249</v>
+      </c>
+      <c r="O6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41882409160736161</v>
+      </c>
+      <c r="P6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.47278848560105868</v>
+      </c>
+      <c r="Q6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.83850274795415447</v>
+      </c>
+      <c r="R6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.71154373932557857</v>
+      </c>
+      <c r="S6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.64533477367968184</v>
+      </c>
+      <c r="T6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.6080003354214218</v>
+      </c>
+      <c r="U6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.8535978085319772</v>
+      </c>
+      <c r="V6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.96137078018953437</v>
+      </c>
+      <c r="W6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.932415749736074</v>
+      </c>
+      <c r="X6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.58823966562202801</v>
+      </c>
+      <c r="Y6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.3170332096303565</v>
+      </c>
+      <c r="Z6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.17261327906182664</v>
+      </c>
+      <c r="AA6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.72941378774211518</v>
+      </c>
+      <c r="AB6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.39273887171064176</v>
+      </c>
+      <c r="AC6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32039449419408184</v>
+      </c>
+      <c r="AD6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.34813170258514758</v>
+      </c>
+      <c r="AE6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.64114085295794276</v>
+      </c>
+      <c r="AF6" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.35260315962707711</v>
+      </c>
+    </row>
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D7" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="4" t="str">
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
+      </c>
+      <c r="F7" s="4">
         <v>2050</v>
       </c>
-      <c r="G5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42806487464250859</v>
       </c>
-      <c r="H5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.4963509759251048</v>
       </c>
-      <c r="I5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5264955881963764</v>
       </c>
-      <c r="J5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.72496241130132655</v>
       </c>
-      <c r="K5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54543646109867361</v>
       </c>
-      <c r="L5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2810060556462261</v>
       </c>
-      <c r="M5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75690448081146366</v>
       </c>
-      <c r="N5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3140726983795172</v>
       </c>
-      <c r="O5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="O7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55689181459850601</v>
       </c>
-      <c r="P5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.62864587530576854</v>
       </c>
-      <c r="Q5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1149199060205524</v>
       </c>
-      <c r="R5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.94610814444434155</v>
       </c>
-      <c r="S5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.85807302000885533</v>
       </c>
-      <c r="T5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.4677423490430845</v>
       </c>
-      <c r="U5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.134991138418852</v>
       </c>
-      <c r="V5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2782920777719677</v>
       </c>
-      <c r="W5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2397918582905652</v>
       </c>
-      <c r="X5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.78215618769651429</v>
       </c>
-      <c r="Y5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.7512006321860119</v>
       </c>
-      <c r="Z5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22951621964157642</v>
       </c>
-      <c r="AA5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.96986915506685767</v>
       </c>
-      <c r="AB5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.52220745490292342</v>
       </c>
-      <c r="AC5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AC7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42601434548417128</v>
       </c>
-      <c r="AD5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46289528099462979</v>
       </c>
-      <c r="AE5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.85249654967724642</v>
       </c>
-      <c r="AF5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF7" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46884077905903881</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="D6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="4" t="str">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" s="4" t="str">
         <f>DEMANDS!$F$19</f>
         <v>TRAPL</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F8" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27435547637321495</v>
+      </c>
+      <c r="H8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.8874675973215007</v>
+      </c>
+      <c r="I8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.98750716185845822</v>
+      </c>
+      <c r="J8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.47552429060912443</v>
+      </c>
+      <c r="K8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.35331078909799174</v>
+      </c>
+      <c r="L8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18192405921838437</v>
+      </c>
+      <c r="M8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.49433293928500699</v>
+      </c>
+      <c r="N8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.84062004677085977</v>
+      </c>
+      <c r="O8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36232197941731037</v>
+      </c>
+      <c r="P8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40153594290187117</v>
+      </c>
+      <c r="Q8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.71368599033539704</v>
+      </c>
+      <c r="R8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.61113233633908892</v>
+      </c>
+      <c r="S8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.54794246709160832</v>
+      </c>
+      <c r="T8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2342931214267647</v>
+      </c>
+      <c r="U8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.74304638421703217</v>
+      </c>
+      <c r="V8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.82312954869858934</v>
+      </c>
+      <c r="W8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.79632066689536773</v>
+      </c>
+      <c r="X8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.5014811864865022</v>
+      </c>
+      <c r="Y8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.1393573908292929</v>
+      </c>
+      <c r="Z8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14698615350023855</v>
+      </c>
+      <c r="AA8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.63179454507028443</v>
+      </c>
+      <c r="AB8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.33116307912916793</v>
+      </c>
+      <c r="AC8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27602684102814479</v>
+      </c>
+      <c r="AD8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.2952095661319819</v>
+      </c>
+      <c r="AE8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.54379756531765255</v>
+      </c>
+      <c r="AF8" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.31412261464919838</v>
+      </c>
+    </row>
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D9" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="4" t="str">
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
+      </c>
+      <c r="F9" s="4">
         <v>2050</v>
       </c>
-      <c r="G6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36429509503519336</v>
       </c>
-      <c r="H6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.4896844647839922</v>
       </c>
-      <c r="I6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3112332224336185</v>
       </c>
-      <c r="J6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63141136794128272</v>
       </c>
-      <c r="K6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46913365533234114</v>
       </c>
-      <c r="L6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24156267379184618</v>
       </c>
-      <c r="M6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65638589568697026</v>
       </c>
-      <c r="N6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1161933556970411</v>
       </c>
-      <c r="O6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="O9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48109890741023575</v>
       </c>
-      <c r="P6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.53316805049116955</v>
       </c>
-      <c r="Q6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.94764758885601152</v>
       </c>
-      <c r="R6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81147464409594539</v>
       </c>
-      <c r="S6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.72756977830985914</v>
       </c>
-      <c r="T6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.9667424021068545</v>
       </c>
-      <c r="U6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98663295055089162</v>
       </c>
-      <c r="V6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0929690966383923</v>
       </c>
-      <c r="W6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0573716874909749</v>
       </c>
-      <c r="X6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.66587749187461598</v>
       </c>
-      <c r="Y6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5128632183983965</v>
       </c>
-      <c r="Z6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19517137206835286</v>
       </c>
-      <c r="AA6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.83891036869992042</v>
       </c>
-      <c r="AB6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43972545027457505</v>
       </c>
-      <c r="AC6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AC9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36651436892706152</v>
       </c>
-      <c r="AD6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39198560338942773</v>
       </c>
-      <c r="AE6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.7220660886966046</v>
       </c>
-      <c r="AF6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF9" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41709875548708081</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="D7" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="4" t="str">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D10" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="4" t="str">
         <f>DEMANDS!$F$20</f>
         <v>TRAF</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F10" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.17991488188042462</v>
+      </c>
+      <c r="H10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.6871723541686299</v>
+      </c>
+      <c r="I10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.48763398226070803</v>
+      </c>
+      <c r="J10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.3135901348759621</v>
+      </c>
+      <c r="K10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22335515894815736</v>
+      </c>
+      <c r="L10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.10778652622510916</v>
+      </c>
+      <c r="M10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.2824588239748011</v>
+      </c>
+      <c r="N10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.43704621254646414</v>
+      </c>
+      <c r="O10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.20559159765702764</v>
+      </c>
+      <c r="P10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.23409610092244049</v>
+      </c>
+      <c r="Q10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.47314719217489071</v>
+      </c>
+      <c r="R10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.31213492756751032</v>
+      </c>
+      <c r="S10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.30715715583422787</v>
+      </c>
+      <c r="T10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.643458450750628</v>
+      </c>
+      <c r="U10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.44716269403431846</v>
+      </c>
+      <c r="V10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.50383886577623815</v>
+      </c>
+      <c r="W10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41246493081645397</v>
+      </c>
+      <c r="X10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.38312416759737483</v>
+      </c>
+      <c r="Y10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.61177286314532875</v>
+      </c>
+      <c r="Z10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.1588596696128737E-2</v>
+      </c>
+      <c r="AA10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.34456408847334713</v>
+      </c>
+      <c r="AB10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.15301315083761008</v>
+      </c>
+      <c r="AC10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16686146187994025</v>
+      </c>
+      <c r="AD10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1939549663563945</v>
+      </c>
+      <c r="AE10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40532554878448751</v>
+      </c>
+      <c r="AF10" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.15629751581539669</v>
+      </c>
+    </row>
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="4" t="str">
+        <f>DEMANDS!$F$20</f>
+        <v>TRAF</v>
+      </c>
+      <c r="F11" s="4">
         <v>2050</v>
       </c>
-      <c r="G7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14827528364690531</v>
       </c>
-      <c r="H7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2146097024218854</v>
       </c>
-      <c r="I7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40187930136669486</v>
       </c>
-      <c r="J7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2584425796889217</v>
       </c>
-      <c r="K7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18407620982153458</v>
       </c>
-      <c r="L7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.8831327249319483E-2</v>
       </c>
-      <c r="M7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23278598082436783</v>
       </c>
-      <c r="N7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36018783135017274</v>
       </c>
-      <c r="O7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="O11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16943652542470969</v>
       </c>
-      <c r="P7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19292826364402085</v>
       </c>
-      <c r="Q7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38994013943269012</v>
       </c>
-      <c r="R7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25724328325401569</v>
       </c>
-      <c r="S7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25314089601418438</v>
       </c>
-      <c r="T7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3544419750052186</v>
       </c>
-      <c r="U7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36852524149902982</v>
       </c>
-      <c r="V7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41523441504387931</v>
       </c>
-      <c r="W7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33992938200553119</v>
       </c>
-      <c r="X7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31574844742549418</v>
       </c>
-      <c r="Y7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50418727935269625</v>
       </c>
-      <c r="Z7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.7240531694936503E-2</v>
       </c>
-      <c r="AA7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28396949390144766</v>
       </c>
-      <c r="AB7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12610445620186289</v>
       </c>
-      <c r="AC7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AC11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1375174211904778</v>
       </c>
-      <c r="AD7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15984629704136455</v>
       </c>
-      <c r="AE7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33404552245600816</v>
       </c>
-      <c r="AF7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF11" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12881123700615976</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="D8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E8" s="4" t="str">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D12" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="4" t="str">
         <f>DEMANDS!$F$21</f>
         <v>TTURS</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F12" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13064779508364899</v>
+      </c>
+      <c r="H12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>3.0919251481787136</v>
+      </c>
+      <c r="I12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.51060312297639665</v>
+      </c>
+      <c r="J12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22771801450398094</v>
+      </c>
+      <c r="K12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1943630348521006</v>
+      </c>
+      <c r="L12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.3795533767547012E-2</v>
+      </c>
+      <c r="M12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.29576354987636128</v>
+      </c>
+      <c r="N12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.4475877985016371</v>
+      </c>
+      <c r="O12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1789052334805798</v>
+      </c>
+      <c r="P12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.20370977252820086</v>
+      </c>
+      <c r="Q12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.3435826806631439</v>
+      </c>
+      <c r="R12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32683749411207558</v>
+      </c>
+      <c r="S12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27266175557601846</v>
+      </c>
+      <c r="T12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2457757890372787</v>
+      </c>
+      <c r="U12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.33895865011628784</v>
+      </c>
+      <c r="V12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.44725505188660325</v>
+      </c>
+      <c r="W12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.3661429011624644</v>
+      </c>
+      <c r="X12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.26660117757391238</v>
+      </c>
+      <c r="Y12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.5921925929827917</v>
+      </c>
+      <c r="Z12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>7.3534707118324452E-2</v>
+      </c>
+      <c r="AA12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.29948801716050255</v>
+      </c>
+      <c r="AB12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14811584497082575</v>
+      </c>
+      <c r="AC12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.15038999597426655</v>
+      </c>
+      <c r="AD12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.17480900790929571</v>
+      </c>
+      <c r="AE12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36531447683124091</v>
+      </c>
+      <c r="AF12" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14086885317580392</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D13" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f>DEMANDS!$F$21</f>
+        <v>TTURS</v>
+      </c>
+      <c r="F13" s="4">
         <v>2050</v>
       </c>
-      <c r="G8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2353600579585193E-2</v>
       </c>
-      <c r="H8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.18565051154552</v>
       </c>
-      <c r="I8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36094016622216002</v>
       </c>
-      <c r="J8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.160971553655473</v>
       </c>
-      <c r="K8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13739325701343899</v>
       </c>
-      <c r="L8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.6303111018221506E-2</v>
       </c>
-      <c r="M8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20907225210952099</v>
       </c>
-      <c r="N8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31639527280693802</v>
       </c>
-      <c r="O8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="O13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.126466294083908</v>
       </c>
-      <c r="P8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14400037102947</v>
       </c>
-      <c r="Q8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24287511041201201</v>
       </c>
-      <c r="R8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23103810796296301</v>
       </c>
-      <c r="S8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19274182814699201</v>
       </c>
-      <c r="T8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.880626263602864</v>
       </c>
-      <c r="U8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.239606430141375</v>
       </c>
-      <c r="V8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31616005760135901</v>
       </c>
-      <c r="W8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25882270135028701</v>
       </c>
-      <c r="X8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18845766705778599</v>
       </c>
-      <c r="Y8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.418614934630201</v>
       </c>
-      <c r="Z8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.1980938259190403E-2</v>
       </c>
-      <c r="AA8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21170504023817699</v>
       </c>
-      <c r="AB8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10470158778558201</v>
       </c>
-      <c r="AC8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AC13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.106309162052679</v>
       </c>
-      <c r="AD8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12357071379453501</v>
       </c>
-      <c r="AE8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25823709659708599</v>
       </c>
-      <c r="AF8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF13" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="D9" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E9" s="4" t="str">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D14" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E14" s="4" t="str">
         <f>DEMANDS!$F$22</f>
         <v>TNAV</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F14" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.2718404005341085E-2</v>
+      </c>
+      <c r="H14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2476395718090449</v>
+      </c>
+      <c r="I14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.20603624964526826</v>
+      </c>
+      <c r="J14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.1887737410560083E-2</v>
+      </c>
+      <c r="K14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>7.8428487740468913E-2</v>
+      </c>
+      <c r="L14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>3.7847947145898689E-2</v>
+      </c>
+      <c r="M14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.11934516233092786</v>
+      </c>
+      <c r="N14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18060859254580502</v>
+      </c>
+      <c r="O14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>7.2191026042654344E-2</v>
+      </c>
+      <c r="P14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>8.2200040812796554E-2</v>
+      </c>
+      <c r="Q14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13864092047508789</v>
+      </c>
+      <c r="R14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13188397896544479</v>
+      </c>
+      <c r="S14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.11002323137607345</v>
+      </c>
+      <c r="T14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.502689779835093</v>
+      </c>
+      <c r="U14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13677505270176574</v>
+      </c>
+      <c r="V14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18047432414524345</v>
+      </c>
+      <c r="W14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14774431803316512</v>
+      </c>
+      <c r="X14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.1075776945079131</v>
+      </c>
+      <c r="Y14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.23895886146297882</v>
+      </c>
+      <c r="Z14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.9672390535149896E-2</v>
+      </c>
+      <c r="AA14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.12084804242824863</v>
+      </c>
+      <c r="AB14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.9767032040341748E-2</v>
+      </c>
+      <c r="AC14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.0684687109007783E-2</v>
+      </c>
+      <c r="AD14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>7.0538135732292298E-2</v>
+      </c>
+      <c r="AE14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.14741003601521568</v>
+      </c>
+      <c r="AF14" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>5.6842758875006463E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D15" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="4" t="str">
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
+      </c>
+      <c r="F15" s="4">
         <v>2050</v>
       </c>
-      <c r="G9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.2004379525771102E-2</v>
       </c>
-      <c r="H9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.99408028513777102</v>
       </c>
-      <c r="I9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16416325549782501</v>
       </c>
-      <c r="J9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.3213282321037701E-2</v>
       </c>
-      <c r="K9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.2489372105217399E-2</v>
       </c>
-      <c r="L9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.0156063450376601E-2</v>
       </c>
-      <c r="M9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.5090501840783506E-2</v>
       </c>
-      <c r="N9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.143903291650118</v>
       </c>
-      <c r="O9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="O15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.75195572298293E-2</v>
       </c>
-      <c r="P9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.5494427922832596E-2</v>
       </c>
-      <c r="Q9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.110464759912835</v>
       </c>
-      <c r="R9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.105081039730871</v>
       </c>
-      <c r="S9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.7663078095158206E-2</v>
       </c>
-      <c r="T9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40052753292342302</v>
       </c>
-      <c r="U9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.108978094685117</v>
       </c>
-      <c r="V9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14379631077765201</v>
       </c>
-      <c r="W9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.117718063066032</v>
       </c>
-      <c r="X9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5714550618035304E-2</v>
       </c>
-      <c r="Y9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.190394965426499</v>
       </c>
-      <c r="Z9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.36420350158753E-2</v>
       </c>
-      <c r="AA9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.6287949813282703E-2</v>
       </c>
-      <c r="AB9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7620506430678201E-2</v>
       </c>
-      <c r="AC9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AC15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.8351665359049598E-2</v>
       </c>
-      <c r="AD9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.6202585799816303E-2</v>
       </c>
-      <c r="AE9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.117451717583548</v>
       </c>
-      <c r="AF9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF15" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="D10" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="4" t="str">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="D16" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E16" s="4" t="str">
         <f>DEMANDS!$F$23</f>
         <v>TOTH</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F16" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16235731275947515</v>
+      </c>
+      <c r="H16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>3.8423660957334085</v>
+      </c>
+      <c r="I16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.63453157307374231</v>
+      </c>
+      <c r="J16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.28298743869437681</v>
+      </c>
+      <c r="K16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24153687414440531</v>
+      </c>
+      <c r="L16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.11656064154461539</v>
+      </c>
+      <c r="M16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.3675483014419349</v>
+      </c>
+      <c r="N16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.55622180337699523</v>
+      </c>
+      <c r="O16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22232731082767995</v>
+      </c>
+      <c r="P16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.25315215790168288</v>
+      </c>
+      <c r="Q16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.42697361028901426</v>
+      </c>
+      <c r="R16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.40616420062123709</v>
+      </c>
+      <c r="S16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.3388394721798389</v>
+      </c>
+      <c r="T16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.5481379481330504</v>
+      </c>
+      <c r="U16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.4212272815949526</v>
+      </c>
+      <c r="V16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.55580829585310521</v>
+      </c>
+      <c r="W16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45500942040877851</v>
+      </c>
+      <c r="X16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.33130793169298151</v>
+      </c>
+      <c r="Y16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.73592361793165129</v>
+      </c>
+      <c r="Z16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.1382311003734881E-2</v>
+      </c>
+      <c r="AA16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.37217673393347922</v>
+      </c>
+      <c r="AB16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18406503187570397</v>
+      </c>
+      <c r="AC16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.18689114191829229</v>
+      </c>
+      <c r="AD16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.21723689061978846</v>
+      </c>
+      <c r="AE16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45397992926309294</v>
+      </c>
+      <c r="AF16" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.17505912318297531</v>
+      </c>
+    </row>
+    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E17" s="4" t="str">
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
+      </c>
+      <c r="F17" s="4">
         <v>2050</v>
       </c>
-      <c r="G10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26045346019004401</v>
       </c>
-      <c r="H10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.1639203553045512</v>
       </c>
-      <c r="I10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0179149987024101</v>
       </c>
-      <c r="J10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45396820349853301</v>
       </c>
-      <c r="K10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38747324382976506</v>
       </c>
-      <c r="L10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18698647998221901</v>
       </c>
-      <c r="M10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58962066611279595</v>
       </c>
-      <c r="N10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.89229053413382609</v>
       </c>
-      <c r="O10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="O17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35665727903246103</v>
       </c>
-      <c r="P10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40610647195022492</v>
       </c>
-      <c r="Q10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68495069497951599</v>
       </c>
-      <c r="R10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65156825805464502</v>
       </c>
-      <c r="S10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54356598713202597</v>
       </c>
-      <c r="T10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.4835215524915499</v>
       </c>
-      <c r="U10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.67573243947675998</v>
       </c>
-      <c r="V10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.89162718572295807</v>
       </c>
-      <c r="W10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.72992571723638999</v>
       </c>
-      <c r="X10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.53148389642096905</v>
       </c>
-      <c r="Y10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1805680290473299</v>
       </c>
-      <c r="Z10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.146595423985277</v>
       </c>
-      <c r="AA10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59704559349789399</v>
       </c>
-      <c r="AB10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29527696435231898</v>
       </c>
-      <c r="AC10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AC17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29981060762935702</v>
       </c>
-      <c r="AD10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34849123135384003</v>
       </c>
-      <c r="AE10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.72827420843415902</v>
       </c>
-      <c r="AF10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF17" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="D11" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="4" t="str">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D18" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E18" s="4" t="str">
         <f>DEMANDS!$F$24</f>
         <v>TAVIDOM</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F18" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13395677260860595</v>
+      </c>
+      <c r="I18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6779068407982807E-2</v>
+      </c>
+      <c r="T18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6352277307537207E-4</v>
+      </c>
+      <c r="U18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6529102661710439E-2</v>
+      </c>
+      <c r="V18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.2704554615074527E-5</v>
+      </c>
+      <c r="AB18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF18" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D19" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E19" s="4" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F19" s="4">
         <v>2050</v>
       </c>
-      <c r="G11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13599128494106499</v>
       </c>
-      <c r="I11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7489540821759602E-2</v>
       </c>
-      <c r="T11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T19" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7056267691773199E-4</v>
       </c>
-      <c r="U11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U19" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7235778638893701E-2</v>
       </c>
-      <c r="V11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Z11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AA11" s="16">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="16">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.4112535383546506E-5</v>
       </c>
-      <c r="AB11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AC11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AE11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="D12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="4" t="str">
+      <c r="AB19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF19" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="4" t="str">
         <f>DEMANDS!$F$25</f>
         <v>TAVIINT</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F20" s="4">
+        <v>2020</v>
+      </c>
+      <c r="G20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>41.184477806263274</v>
+      </c>
+      <c r="I20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4385793540260186</v>
+      </c>
+      <c r="T20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2547565653239303</v>
+      </c>
+      <c r="U20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24571396736982151</v>
+      </c>
+      <c r="V20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70149337318584271</v>
+      </c>
+      <c r="AB20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF20" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
+      <c r="D21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="4" t="str">
+        <f>DEMANDS!$F$25</f>
+        <v>TAVIINT</v>
+      </c>
+      <c r="F21" s="4">
         <v>2050</v>
       </c>
-      <c r="G12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>40.411547456014503</v>
       </c>
-      <c r="I12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.3928132767411898</v>
       </c>
-      <c r="T12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T21" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2124403851853902</v>
       </c>
-      <c r="U12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U21" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24110252653151398</v>
       </c>
-      <c r="V12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Z12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AA12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68832808501139198</v>
       </c>
-      <c r="AB12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AC12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AD12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AE12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AF12" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CL$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="4">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6719,10 +7763,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:I56"/>
+  <dimension ref="C1:Q57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6732,10 +7776,12 @@
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.85546875" customWidth="1"/>
+    <col min="11" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>190</v>
       </c>
@@ -6743,7 +7789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
@@ -6763,10 +7809,16 @@
         <v>2018</v>
       </c>
       <c r="I2" s="14">
+        <v>2019</v>
+      </c>
+      <c r="J2" s="14">
+        <v>2020</v>
+      </c>
+      <c r="K2" s="14">
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6785,10 +7837,17 @@
         <v>2.0712927345907701</v>
       </c>
       <c r="I3">
+        <v>2.0621875420000002</v>
+      </c>
+      <c r="J3">
+        <v>2.2653176519999998</v>
+      </c>
+      <c r="K3">
         <v>1.35257371315</v>
       </c>
-    </row>
-    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6807,10 +7866,17 @@
         <v>22.2490403410117</v>
       </c>
       <c r="I4">
+        <v>21.66628807</v>
+      </c>
+      <c r="J4">
+        <v>22.058152969999998</v>
+      </c>
+      <c r="K4">
         <v>16.999477698500002</v>
       </c>
-    </row>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6829,10 +7895,17 @@
         <v>1.2014578872914701</v>
       </c>
       <c r="I5">
+        <v>1.2266704420000001</v>
+      </c>
+      <c r="J5">
+        <v>0.82191421200000003</v>
+      </c>
+      <c r="K5">
         <v>1.5123719028</v>
       </c>
-    </row>
-    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6851,10 +7924,17 @@
         <v>6.6890404714869804</v>
       </c>
       <c r="I6">
+        <v>6.4509543440000003</v>
+      </c>
+      <c r="J6">
+        <v>5.7840131420000001</v>
+      </c>
+      <c r="K6">
         <v>4.7096123024500001</v>
       </c>
-    </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6873,10 +7953,17 @@
         <v>0.67287296253748397</v>
       </c>
       <c r="I7">
+        <v>0.68901566299999994</v>
+      </c>
+      <c r="J7">
+        <v>1.2574088990000001</v>
+      </c>
+      <c r="K7">
         <v>1.1058949143000001</v>
       </c>
-    </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6895,10 +7982,17 @@
         <v>10.5976971594968</v>
       </c>
       <c r="I8">
+        <v>10.01814809</v>
+      </c>
+      <c r="J8">
+        <v>10.12574641</v>
+      </c>
+      <c r="K8">
         <v>8.6539440184999989</v>
       </c>
-    </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6917,10 +8011,17 @@
         <v>1.14056826967015</v>
       </c>
       <c r="I9">
+        <v>1.166030828</v>
+      </c>
+      <c r="J9">
+        <v>1.449528948</v>
+      </c>
+      <c r="K9">
         <v>1.5435020469</v>
       </c>
-    </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6939,10 +8040,17 @@
         <v>17.770098364755199</v>
       </c>
       <c r="I10">
+        <v>17.35242646</v>
+      </c>
+      <c r="J10">
+        <v>14.23391084</v>
+      </c>
+      <c r="K10">
         <v>8.8850491823775997</v>
       </c>
-    </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6961,10 +8069,17 @@
         <v>19.5397050142764</v>
       </c>
       <c r="I11">
+        <v>20.047656180000001</v>
+      </c>
+      <c r="J11">
+        <v>18.18372415</v>
+      </c>
+      <c r="K11">
         <v>11.597079862500001</v>
       </c>
-    </row>
-    <row r="12" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6983,10 +8098,17 @@
         <v>1.28965569884044</v>
       </c>
       <c r="I12">
+        <v>1.3174050900000001</v>
+      </c>
+      <c r="J12">
+        <v>2.2668447500000002</v>
+      </c>
+      <c r="K12">
         <v>0.55274769385</v>
       </c>
-    </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7005,10 +8127,17 @@
         <v>4.2689583715443504</v>
       </c>
       <c r="I13">
+        <v>6.5958660199999999</v>
+      </c>
+      <c r="J13">
+        <v>7.0076904100000004</v>
+      </c>
+      <c r="K13">
         <v>15.964089531500001</v>
       </c>
-    </row>
-    <row r="14" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O13" s="2"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7027,10 +8156,17 @@
         <v>0.16518244671693</v>
       </c>
       <c r="I14">
+        <v>0.190364161</v>
+      </c>
+      <c r="J14">
+        <v>0.186509807</v>
+      </c>
+      <c r="K14">
         <v>3.6153808350000004E-2</v>
       </c>
-    </row>
-    <row r="15" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7049,10 +8185,17 @@
         <v>4.2546573385120396</v>
       </c>
       <c r="I15">
+        <v>3.3313444579999998</v>
+      </c>
+      <c r="J15">
+        <v>3.4153449619999998</v>
+      </c>
+      <c r="K15">
         <v>4.3738132234500009</v>
       </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7071,10 +8214,17 @@
         <v>4.0239683065477196</v>
       </c>
       <c r="I16">
+        <v>4.1335439039999997</v>
+      </c>
+      <c r="J16">
+        <v>4.0998448639999996</v>
+      </c>
+      <c r="K16">
         <v>4.2364449446000005</v>
       </c>
-    </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7092,11 +8242,18 @@
         <f>VLOOKUP(F17,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>14.5565610923972</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
+        <v>14.87639834</v>
+      </c>
+      <c r="J17">
+        <v>10.76129175</v>
+      </c>
+      <c r="K17" s="1">
         <v>19.015702110918735</v>
       </c>
-    </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7114,11 +8271,18 @@
         <f>VLOOKUP(F18,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>31.276118540281001</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
+        <v>31.984256429999999</v>
+      </c>
+      <c r="J18">
+        <v>23.13677727</v>
+      </c>
+      <c r="K18" s="1">
         <v>30.763946334612658</v>
       </c>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7136,11 +8300,18 @@
         <f>VLOOKUP(F19,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>27.131577542973599</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
+        <v>27.52133693</v>
+      </c>
+      <c r="J19">
+        <v>19.908389740000001</v>
+      </c>
+      <c r="K19" s="1">
         <v>26.43478755446861</v>
       </c>
-    </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7158,11 +8329,18 @@
         <f>VLOOKUP(F20,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>11.625551</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
+        <v>14.23064449</v>
+      </c>
+      <c r="J20">
+        <v>11.754512350000001</v>
+      </c>
+      <c r="K20" s="1">
         <v>9.6873790239635298</v>
       </c>
-    </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7181,11 +8359,18 @@
         <v>7.7245727925227703</v>
       </c>
       <c r="I21">
+        <v>10.927548</v>
+      </c>
+      <c r="J21">
+        <v>10.927548</v>
+      </c>
+      <c r="K21">
         <f>H21</f>
         <v>7.7245727925227703</v>
       </c>
-    </row>
-    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7204,11 +8389,18 @@
         <v>3.5132998087277199</v>
       </c>
       <c r="I22">
-        <f t="shared" ref="I22:I28" si="0">H22</f>
+        <v>4.2966351471015702</v>
+      </c>
+      <c r="J22">
+        <v>4.4094344637268001</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ref="K22:K28" si="0">H22</f>
         <v>3.5132998087277199</v>
       </c>
-    </row>
-    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7227,11 +8419,18 @@
         <v>21.784659175997099</v>
       </c>
       <c r="I23">
+        <v>13.63038308</v>
+      </c>
+      <c r="J23">
+        <v>13.57977245</v>
+      </c>
+      <c r="K23">
         <f t="shared" si="0"/>
         <v>21.784659175997099</v>
       </c>
-    </row>
-    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7250,11 +8449,18 @@
         <v>0.23349320028657899</v>
       </c>
       <c r="I24">
+        <v>0.23</v>
+      </c>
+      <c r="J24">
+        <v>0.23</v>
+      </c>
+      <c r="K24">
         <f t="shared" si="0"/>
         <v>0.23349320028657899</v>
       </c>
-    </row>
-    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O24" s="2"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7273,11 +8479,18 @@
         <v>45.935836654432002</v>
       </c>
       <c r="I25">
+        <v>46.104277330000002</v>
+      </c>
+      <c r="J25">
+        <v>46.814427170000002</v>
+      </c>
+      <c r="K25">
         <f t="shared" si="0"/>
         <v>45.935836654432002</v>
       </c>
-    </row>
-    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O25" s="2"/>
+    </row>
+    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7296,11 +8509,18 @@
         <v>206.79888500000001</v>
       </c>
       <c r="I26">
+        <v>218.95666940000001</v>
+      </c>
+      <c r="J26">
+        <v>225.3003382</v>
+      </c>
+      <c r="K26">
         <f t="shared" si="0"/>
         <v>206.79888500000001</v>
       </c>
-    </row>
-    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O26" s="2"/>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7319,11 +8539,18 @@
         <v>766.351721</v>
       </c>
       <c r="I27">
+        <v>776.01961870000002</v>
+      </c>
+      <c r="J27">
+        <v>788.3008562</v>
+      </c>
+      <c r="K27">
         <f t="shared" si="0"/>
         <v>766.351721</v>
       </c>
-    </row>
-    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O27" s="2"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7342,11 +8569,18 @@
         <v>724.42972899999995</v>
       </c>
       <c r="I28">
+        <v>729.04047590000005</v>
+      </c>
+      <c r="J28">
+        <v>739.68368569999996</v>
+      </c>
+      <c r="K28">
         <f t="shared" si="0"/>
         <v>724.42972899999995</v>
       </c>
-    </row>
-    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O28" s="2"/>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7364,11 +8598,22 @@
         <f>VLOOKUP(F29,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>12.7133829170957</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29">
         <v>8.3303707615599745</v>
       </c>
-    </row>
-    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O29" s="2"/>
+      <c r="P29" t="str">
+        <f>IF(P66&lt;&gt;"",P66*$H29,"")</f>
+        <v/>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" ref="Q29" si="1">IF(Q66&lt;&gt;"",Q66*$H29,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7386,11 +8631,22 @@
         <f>VLOOKUP(F30,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>11.4839387329157</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30">
         <v>7.5247845525179748</v>
       </c>
-    </row>
-    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O30" s="2"/>
+      <c r="P30" t="str">
+        <f>IF(P67&lt;&gt;"",P67*$H30,"")</f>
+        <v/>
+      </c>
+      <c r="Q30" t="str">
+        <f>IF(Q67&lt;&gt;"",Q67*$H30,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7408,11 +8664,22 @@
         <f>VLOOKUP(F31,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>8.8153537670115707</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31">
         <v>5.7762096629087072</v>
       </c>
-    </row>
-    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O31" s="2"/>
+      <c r="P31" t="str">
+        <f>IF(P68&lt;&gt;"",P68*$H31,"")</f>
+        <v/>
+      </c>
+      <c r="Q31" t="str">
+        <f>IF(Q68&lt;&gt;"",Q68*$H31,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7430,11 +8697,22 @@
         <f>VLOOKUP(F32,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>4.3126302226859501</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32">
         <v>2.8258260553410754</v>
       </c>
-    </row>
-    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O32" s="2"/>
+      <c r="P32" t="str">
+        <f>IF(P69&lt;&gt;"",P69*$H32,"")</f>
+        <v/>
+      </c>
+      <c r="Q32" t="str">
+        <f>IF(Q69&lt;&gt;"",Q69*$H32,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D33" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7452,11 +8730,22 @@
         <f>VLOOKUP(F33,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>1.3178746133407899</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33">
         <v>0.86352973225925755</v>
       </c>
-    </row>
-    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O33" s="2"/>
+      <c r="P33" t="str">
+        <f>IF(P70&lt;&gt;"",P70*$H33,"")</f>
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <f>IF(Q70&lt;&gt;"",Q70*$H33,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D34" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7474,11 +8763,22 @@
         <f>VLOOKUP(F34,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>1.2331093201030401</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34">
         <v>0.80798776317929155</v>
       </c>
-    </row>
-    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O34" s="2"/>
+      <c r="P34" t="str">
+        <f>IF(P71&lt;&gt;"",P71*$H34,"")</f>
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <f>IF(Q71&lt;&gt;"",Q71*$H34,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7496,11 +8796,22 @@
         <f>VLOOKUP(F35,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>35.9977015327608</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35">
         <v>23.587286108700724</v>
       </c>
-    </row>
-    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O35" s="2"/>
+      <c r="P35" t="str">
+        <f>IF(P72&lt;&gt;"",P72*$H35,"")</f>
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <f>IF(Q72&lt;&gt;"",Q72*$H35,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7518,11 +8829,22 @@
         <f>VLOOKUP(F36,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0.84071163403600102</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36">
         <v>0.55087144494553486</v>
       </c>
-    </row>
-    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O36" s="2"/>
+      <c r="P36" t="str">
+        <f>IF(P73&lt;&gt;"",P73*$H36,"")</f>
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <f>IF(Q73&lt;&gt;"",Q73*$H36,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D37" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7540,11 +8862,22 @@
         <f>VLOOKUP(F37,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>2.5953782987835501</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37">
         <v>1.7006066461478033</v>
       </c>
-    </row>
-    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O37" s="2"/>
+      <c r="P37" t="str">
+        <f>IF(P74&lt;&gt;"",P74*$H37,"")</f>
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <f>IF(Q74&lt;&gt;"",Q74*$H37,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D38" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7562,11 +8895,22 @@
         <f>VLOOKUP(F38,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>1.1448908452668201</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38">
         <v>0.75018311632173929</v>
       </c>
-    </row>
-    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O38" s="2"/>
+      <c r="P38" t="str">
+        <f>IF(P75&lt;&gt;"",P75*$H38,"")</f>
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <f>IF(Q75&lt;&gt;"",Q75*$H38,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D39" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7584,11 +8928,22 @@
         <f>VLOOKUP(F39,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>8.0991705816317694</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39">
         <v>5.3069347641179023</v>
       </c>
-    </row>
-    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="O39" s="2"/>
+      <c r="P39" t="str">
+        <f>IF(P76&lt;&gt;"",P76*$H39,"")</f>
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <f>IF(Q76&lt;&gt;"",Q76*$H39,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D40" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7606,11 +8961,13 @@
         <f>VLOOKUP(F40,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D41" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7627,33 +8984,11 @@
       <c r="H41">
         <v>7.8120000000000003</v>
       </c>
-      <c r="I41">
+      <c r="K41">
         <v>32.865000000000002</v>
       </c>
     </row>
-    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D42" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E42" t="s">
-        <v>85</v>
-      </c>
-      <c r="F42" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" t="s">
-        <v>161</v>
-      </c>
-      <c r="H42" s="2">
-        <f>VLOOKUP(F42,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>10.047893325490021</v>
-      </c>
-    </row>
-    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D43" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7662,20 +8997,22 @@
         <v>85</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H43" s="2">
         <f>VLOOKUP(F43,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>16.878788423834521</v>
-      </c>
-    </row>
-    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43">
+        <v>10.047893325490021</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D44" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7684,20 +9021,22 @@
         <v>85</v>
       </c>
       <c r="F44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H44" s="2">
         <f>VLOOKUP(F44,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>14.214862498864701</v>
-      </c>
-    </row>
-    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44">
+        <v>16.878788423834521</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D45" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7706,20 +9045,22 @@
         <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H45" s="2">
         <f>VLOOKUP(F45,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I45">
-        <v>0.179228357755223</v>
-      </c>
-    </row>
-    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45">
+        <v>14.214862498864701</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D46" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7728,20 +9069,22 @@
         <v>85</v>
       </c>
       <c r="F46" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G46" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="H46" s="2">
         <f>VLOOKUP(F46,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>0.30107381041032272</v>
-      </c>
-    </row>
-    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46">
+        <v>0.179228357755223</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D47" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7750,20 +9093,22 @@
         <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G47" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H47" s="2">
         <f>VLOOKUP(F47,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I47">
-        <v>0.2535562807901901</v>
-      </c>
-    </row>
-    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47">
+        <v>0.30107381041032272</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D48" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7772,20 +9117,22 @@
         <v>85</v>
       </c>
       <c r="F48" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G48" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="H48" s="2">
         <f>VLOOKUP(F48,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I48">
-        <v>5.3250910380053398</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48">
+        <v>0.2535562807901901</v>
+      </c>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7794,20 +9141,22 @@
         <v>85</v>
       </c>
       <c r="F49" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G49" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H49" s="2">
         <f>VLOOKUP(F49,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I49">
-        <v>8.9452666401358414</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49">
+        <v>5.3250910380053398</v>
+      </c>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7816,20 +9165,22 @@
         <v>85</v>
       </c>
       <c r="F50" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G50" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="H50" s="2">
         <f>VLOOKUP(F50,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I50">
-        <v>7.5334634283143167</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50">
+        <v>8.9452666401358414</v>
+      </c>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7838,20 +9189,22 @@
         <v>85</v>
       </c>
       <c r="F51" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G51" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H51" s="2">
         <f>VLOOKUP(F51,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I51">
-        <v>0.89996641800005883</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51">
+        <v>7.5334634283143167</v>
+      </c>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7860,20 +9213,22 @@
         <v>85</v>
       </c>
       <c r="F52" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G52" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="H52" s="2">
         <f>VLOOKUP(F52,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I52">
-        <v>1.5117937925797396</v>
-      </c>
-    </row>
-    <row r="53" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52">
+        <v>0.89996641800005883</v>
+      </c>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7882,20 +9237,22 @@
         <v>85</v>
       </c>
       <c r="F53" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G53" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H53" s="2">
         <f>VLOOKUP(F53,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I53">
-        <v>1.2731921479513455</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53">
+        <v>1.5117937925797396</v>
+      </c>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D54" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7904,20 +9261,22 @@
         <v>85</v>
       </c>
       <c r="F54" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G54" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H54" s="2">
         <f>VLOOKUP(F54,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I54">
-        <v>1.4030879288454441</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54">
+        <v>1.2731921479513455</v>
+      </c>
+    </row>
+    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D55" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7926,20 +9285,22 @@
         <v>85</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H55" s="2">
         <f>VLOOKUP(F55,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I55">
-        <v>2.3569541916751464</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55">
+        <v>1.4030879288454441</v>
+      </c>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D56" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7948,16 +9309,42 @@
         <v>85</v>
       </c>
       <c r="F56" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G56" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H56" s="2">
         <f>VLOOKUP(F56,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
         <v>0</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56">
+        <v>2.3569541916751464</v>
+      </c>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D57" t="str">
+        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
+        <v>IE,National</v>
+      </c>
+      <c r="E57" t="s">
+        <v>85</v>
+      </c>
+      <c r="F57" t="s">
+        <v>188</v>
+      </c>
+      <c r="G57" t="s">
+        <v>189</v>
+      </c>
+      <c r="H57" s="2">
+        <f>VLOOKUP(F57,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57">
         <v>1.9849635477078642</v>
       </c>
     </row>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -5,18 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A03B6E-5DC3-473F-8F4B-122B5C68F09B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3936600B-22EE-4D29-AF31-DFC1182F110D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
     <sheet name="REG_TRA_DEMANDS" sheetId="6" r:id="rId2"/>
     <sheet name="Regions" sheetId="7" r:id="rId3"/>
     <sheet name="DEMANDS" sheetId="1" r:id="rId4"/>
+    <sheet name="Residential" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
@@ -83,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="200">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -675,17 +676,46 @@
   <si>
     <t>~TFM_INS-TS</t>
   </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>Other_indexes</t>
+  </si>
+  <si>
+    <t>*Unit</t>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <t>PJ/000 dwelling</t>
+  </si>
+  <si>
+    <t>Pset_CI</t>
+  </si>
+  <si>
+    <t>*N*</t>
+  </si>
+  <si>
+    <t>*,-*N*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="167" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -773,8 +803,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -817,8 +867,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F497D"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD8E3F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -885,12 +953,44 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="7">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -926,8 +1026,24 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="13" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Attrib" xfId="2" xr:uid="{16EBE39D-6598-42BD-A97C-1EF313EA2EC2}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B46BF257-55DB-413D-9B8E-80136AD91CC6}"/>
   </cellStyles>
@@ -4765,8 +4881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64845-990F-4F8F-9F7F-F4DBD3794313}">
   <dimension ref="B2:AF21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7765,8 +7881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8395,7 +8511,7 @@
         <v>4.4094344637268001</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K28" si="0">H22</f>
+        <f t="shared" ref="K22:K25" si="0">H22</f>
         <v>3.5132998087277199</v>
       </c>
       <c r="O22" s="2"/>
@@ -8515,8 +8631,7 @@
         <v>225.3003382</v>
       </c>
       <c r="K26">
-        <f t="shared" si="0"/>
-        <v>206.79888500000001</v>
+        <v>740.74997310000003</v>
       </c>
       <c r="O26" s="2"/>
     </row>
@@ -8545,8 +8660,7 @@
         <v>788.3008562</v>
       </c>
       <c r="K27">
-        <f t="shared" si="0"/>
-        <v>766.351721</v>
+        <v>1244.336665</v>
       </c>
       <c r="O27" s="2"/>
     </row>
@@ -8575,8 +8689,7 @@
         <v>739.68368569999996</v>
       </c>
       <c r="K28">
-        <f t="shared" si="0"/>
-        <v>724.42972899999995</v>
+        <v>1047.9469349999999</v>
       </c>
       <c r="O28" s="2"/>
     </row>
@@ -8605,11 +8718,11 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="str">
-        <f>IF(P66&lt;&gt;"",P66*$H29,"")</f>
+        <f t="shared" ref="P29:P39" si="1">IF(P66&lt;&gt;"",P66*$H29,"")</f>
         <v/>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" ref="Q29" si="1">IF(Q66&lt;&gt;"",Q66*$H29,"")</f>
+        <f t="shared" ref="Q29" si="2">IF(Q66&lt;&gt;"",Q66*$H29,"")</f>
         <v/>
       </c>
     </row>
@@ -8638,11 +8751,11 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="str">
-        <f>IF(P67&lt;&gt;"",P67*$H30,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q30" t="str">
-        <f>IF(Q67&lt;&gt;"",Q67*$H30,"")</f>
+        <f t="shared" ref="Q30:Q39" si="3">IF(Q67&lt;&gt;"",Q67*$H30,"")</f>
         <v/>
       </c>
     </row>
@@ -8671,11 +8784,11 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="str">
-        <f>IF(P68&lt;&gt;"",P68*$H31,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q31" t="str">
-        <f>IF(Q68&lt;&gt;"",Q68*$H31,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8704,11 +8817,11 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="str">
-        <f>IF(P69&lt;&gt;"",P69*$H32,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q32" t="str">
-        <f>IF(Q69&lt;&gt;"",Q69*$H32,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8737,11 +8850,11 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="str">
-        <f>IF(P70&lt;&gt;"",P70*$H33,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q33" t="str">
-        <f>IF(Q70&lt;&gt;"",Q70*$H33,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8770,11 +8883,11 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="str">
-        <f>IF(P71&lt;&gt;"",P71*$H34,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q34" t="str">
-        <f>IF(Q71&lt;&gt;"",Q71*$H34,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8803,11 +8916,11 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="str">
-        <f>IF(P72&lt;&gt;"",P72*$H35,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q35" t="str">
-        <f>IF(Q72&lt;&gt;"",Q72*$H35,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8836,11 +8949,11 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="str">
-        <f>IF(P73&lt;&gt;"",P73*$H36,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q36" t="str">
-        <f>IF(Q73&lt;&gt;"",Q73*$H36,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8869,11 +8982,11 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="str">
-        <f>IF(P74&lt;&gt;"",P74*$H37,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q37" t="str">
-        <f>IF(Q74&lt;&gt;"",Q74*$H37,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8902,11 +9015,11 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="str">
-        <f>IF(P75&lt;&gt;"",P75*$H38,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q38" t="str">
-        <f>IF(Q75&lt;&gt;"",Q75*$H38,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -8935,11 +9048,11 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="str">
-        <f>IF(P76&lt;&gt;"",P76*$H39,"")</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="Q39" t="str">
-        <f>IF(Q76&lt;&gt;"",Q76*$H39,"")</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
@@ -9351,4 +9464,1163 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
+  <dimension ref="C4:N51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+    </row>
+    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="C5" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="30" t="str">
+        <f>IF(Regions!D5&lt;&gt;"",Regions!D5,"*")</f>
+        <v>National</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" s="30" t="s">
+        <v>197</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C6" s="31" t="s">
+        <v>194</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="N6" s="33"/>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F7" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G7" s="34">
+        <v>1.6534164675637491E-2</v>
+      </c>
+      <c r="H7" s="34">
+        <v>1.6534164675637491E-2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K7" t="s">
+        <v>199</v>
+      </c>
+      <c r="L7" s="32"/>
+    </row>
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G8" s="34">
+        <v>2.9990596485367418E-2</v>
+      </c>
+      <c r="H8" s="34">
+        <v>2.9990596485367418E-2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>162</v>
+      </c>
+      <c r="J8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K8" t="s">
+        <v>199</v>
+      </c>
+      <c r="L8" s="32"/>
+    </row>
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" t="s">
+        <v>195</v>
+      </c>
+      <c r="F9" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G9" s="34">
+        <v>5.2849616307060754E-2</v>
+      </c>
+      <c r="H9" s="34">
+        <v>5.2849616307060754E-2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>164</v>
+      </c>
+      <c r="J9" t="s">
+        <v>164</v>
+      </c>
+      <c r="K9" t="s">
+        <v>199</v>
+      </c>
+      <c r="L9" s="32"/>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" t="s">
+        <v>195</v>
+      </c>
+      <c r="F10" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G10" s="34">
+        <v>0</v>
+      </c>
+      <c r="H10" s="34">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J10" t="s">
+        <v>166</v>
+      </c>
+      <c r="K10" t="s">
+        <v>199</v>
+      </c>
+      <c r="L10" s="32"/>
+    </row>
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G11" s="34">
+        <v>0</v>
+      </c>
+      <c r="H11" s="34">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>168</v>
+      </c>
+      <c r="J11" t="s">
+        <v>168</v>
+      </c>
+      <c r="K11" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" s="32"/>
+    </row>
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" t="s">
+        <v>195</v>
+      </c>
+      <c r="F12" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G12" s="34">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>170</v>
+      </c>
+      <c r="J12" t="s">
+        <v>170</v>
+      </c>
+      <c r="K12" t="s">
+        <v>199</v>
+      </c>
+      <c r="L12" s="32"/>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" t="s">
+        <v>195</v>
+      </c>
+      <c r="F13" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G13" s="34">
+        <v>1.3128101846771158E-2</v>
+      </c>
+      <c r="H13" s="34">
+        <v>1.3128101846771158E-2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" t="s">
+        <v>199</v>
+      </c>
+      <c r="L13" s="32"/>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" t="s">
+        <v>195</v>
+      </c>
+      <c r="F14" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G14" s="34">
+        <v>1.0994534987992988E-2</v>
+      </c>
+      <c r="H14" s="34">
+        <v>1.0994534987992988E-2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>174</v>
+      </c>
+      <c r="J14" t="s">
+        <v>174</v>
+      </c>
+      <c r="K14" t="s">
+        <v>199</v>
+      </c>
+      <c r="L14" s="32"/>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F15" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G15" s="34">
+        <v>1.4648486376153701E-2</v>
+      </c>
+      <c r="H15" s="34">
+        <v>1.4648486376153701E-2</v>
+      </c>
+      <c r="I15" t="s">
+        <v>176</v>
+      </c>
+      <c r="J15" t="s">
+        <v>176</v>
+      </c>
+      <c r="K15" t="s">
+        <v>199</v>
+      </c>
+      <c r="L15" s="32"/>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" t="s">
+        <v>195</v>
+      </c>
+      <c r="F16" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G16" s="34">
+        <v>6.4458708104453747E-4</v>
+      </c>
+      <c r="H16" s="34">
+        <v>6.4458708104453747E-4</v>
+      </c>
+      <c r="I16" t="s">
+        <v>178</v>
+      </c>
+      <c r="J16" t="s">
+        <v>178</v>
+      </c>
+      <c r="K16" t="s">
+        <v>199</v>
+      </c>
+      <c r="L16" s="32"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G17" s="34">
+        <v>9.1487081392159866E-4</v>
+      </c>
+      <c r="H17" s="34">
+        <v>9.1487081392159866E-4</v>
+      </c>
+      <c r="I17" t="s">
+        <v>180</v>
+      </c>
+      <c r="J17" t="s">
+        <v>180</v>
+      </c>
+      <c r="K17" t="s">
+        <v>199</v>
+      </c>
+      <c r="L17" s="32"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" t="s">
+        <v>195</v>
+      </c>
+      <c r="F18" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G18" s="34">
+        <v>1.5069837916185766E-3</v>
+      </c>
+      <c r="H18" s="34">
+        <v>1.5069837916185766E-3</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>182</v>
+      </c>
+      <c r="K18" t="s">
+        <v>199</v>
+      </c>
+      <c r="L18" s="32"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G19" s="34">
+        <v>1.9923424990874787E-4</v>
+      </c>
+      <c r="H19" s="34">
+        <v>1.9923424990874787E-4</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>184</v>
+      </c>
+      <c r="K19" t="s">
+        <v>199</v>
+      </c>
+      <c r="L19" s="32"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" t="s">
+        <v>195</v>
+      </c>
+      <c r="F20" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G20" s="34">
+        <v>3.8001436556751221E-4</v>
+      </c>
+      <c r="H20" s="34">
+        <v>3.8001436556751221E-4</v>
+      </c>
+      <c r="I20" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" t="s">
+        <v>186</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" s="32"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" t="s">
+        <v>195</v>
+      </c>
+      <c r="F21" s="36">
+        <v>2020</v>
+      </c>
+      <c r="G21" s="34">
+        <v>4.7050395502371922E-4</v>
+      </c>
+      <c r="H21" s="34">
+        <v>4.7050395502371922E-4</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>188</v>
+      </c>
+      <c r="K21" t="s">
+        <v>199</v>
+      </c>
+      <c r="L21" s="32"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>195</v>
+      </c>
+      <c r="F22">
+        <v>2050</v>
+      </c>
+      <c r="G22" s="35">
+        <v>9.0742204224041785E-3</v>
+      </c>
+      <c r="H22">
+        <v>9.0742204224041785E-3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>160</v>
+      </c>
+      <c r="J22" t="s">
+        <v>160</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>195</v>
+      </c>
+      <c r="F23">
+        <v>2050</v>
+      </c>
+      <c r="G23" s="35">
+        <v>9.0742204224041785E-3</v>
+      </c>
+      <c r="H23">
+        <v>9.0742204224041785E-3</v>
+      </c>
+      <c r="I23" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23" t="s">
+        <v>162</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>195</v>
+      </c>
+      <c r="F24">
+        <v>2050</v>
+      </c>
+      <c r="G24" s="35">
+        <v>9.0742204224041785E-3</v>
+      </c>
+      <c r="H24">
+        <v>9.0742204224041785E-3</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>195</v>
+      </c>
+      <c r="F25">
+        <v>2050</v>
+      </c>
+      <c r="G25" s="35">
+        <v>1.6186055838098693E-4</v>
+      </c>
+      <c r="H25">
+        <v>1.6186055838098693E-4</v>
+      </c>
+      <c r="I25" t="s">
+        <v>166</v>
+      </c>
+      <c r="J25" t="s">
+        <v>166</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>195</v>
+      </c>
+      <c r="F26">
+        <v>2050</v>
+      </c>
+      <c r="G26" s="35">
+        <v>1.6186055838098693E-4</v>
+      </c>
+      <c r="H26">
+        <v>1.6186055838098693E-4</v>
+      </c>
+      <c r="I26" t="s">
+        <v>168</v>
+      </c>
+      <c r="J26" t="s">
+        <v>168</v>
+      </c>
+      <c r="K26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>195</v>
+      </c>
+      <c r="F27">
+        <v>2050</v>
+      </c>
+      <c r="G27" s="35">
+        <v>1.6186055838098693E-4</v>
+      </c>
+      <c r="H27">
+        <v>1.6186055838098693E-4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>170</v>
+      </c>
+      <c r="J27" t="s">
+        <v>170</v>
+      </c>
+      <c r="K27" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>195</v>
+      </c>
+      <c r="F28">
+        <v>2050</v>
+      </c>
+      <c r="G28" s="35">
+        <v>4.809072736236774E-3</v>
+      </c>
+      <c r="H28">
+        <v>4.809072736236774E-3</v>
+      </c>
+      <c r="I28" t="s">
+        <v>172</v>
+      </c>
+      <c r="J28" t="s">
+        <v>172</v>
+      </c>
+      <c r="K28" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29">
+        <v>2050</v>
+      </c>
+      <c r="G29" s="35">
+        <v>4.809072736236774E-3</v>
+      </c>
+      <c r="H29">
+        <v>4.809072736236774E-3</v>
+      </c>
+      <c r="I29" t="s">
+        <v>174</v>
+      </c>
+      <c r="J29" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>195</v>
+      </c>
+      <c r="F30">
+        <v>2050</v>
+      </c>
+      <c r="G30" s="35">
+        <v>4.809072736236774E-3</v>
+      </c>
+      <c r="H30">
+        <v>4.809072736236774E-3</v>
+      </c>
+      <c r="I30" t="s">
+        <v>176</v>
+      </c>
+      <c r="J30" t="s">
+        <v>176</v>
+      </c>
+      <c r="K30" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>195</v>
+      </c>
+      <c r="F31">
+        <v>2050</v>
+      </c>
+      <c r="G31" s="35">
+        <v>8.1275680236143433E-4</v>
+      </c>
+      <c r="H31">
+        <v>8.1275680236143433E-4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>178</v>
+      </c>
+      <c r="J31" t="s">
+        <v>178</v>
+      </c>
+      <c r="K31" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>195</v>
+      </c>
+      <c r="F32">
+        <v>2050</v>
+      </c>
+      <c r="G32" s="35">
+        <v>8.1275680236143433E-4</v>
+      </c>
+      <c r="H32">
+        <v>8.1275680236143433E-4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>180</v>
+      </c>
+      <c r="J32" t="s">
+        <v>180</v>
+      </c>
+      <c r="K32" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>195</v>
+      </c>
+      <c r="F33">
+        <v>2050</v>
+      </c>
+      <c r="G33" s="35">
+        <v>8.1275680236143433E-4</v>
+      </c>
+      <c r="H33">
+        <v>8.1275680236143433E-4</v>
+      </c>
+      <c r="I33" t="s">
+        <v>182</v>
+      </c>
+      <c r="J33" t="s">
+        <v>182</v>
+      </c>
+      <c r="K33" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34">
+        <v>2050</v>
+      </c>
+      <c r="G34" s="35">
+        <v>1.2671242344959102E-3</v>
+      </c>
+      <c r="H34">
+        <v>1.2671242344959102E-3</v>
+      </c>
+      <c r="I34" t="s">
+        <v>184</v>
+      </c>
+      <c r="J34" t="s">
+        <v>184</v>
+      </c>
+      <c r="K34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>195</v>
+      </c>
+      <c r="F35">
+        <v>2050</v>
+      </c>
+      <c r="G35" s="35">
+        <v>1.2671242344959102E-3</v>
+      </c>
+      <c r="H35">
+        <v>1.2671242344959102E-3</v>
+      </c>
+      <c r="I35" t="s">
+        <v>186</v>
+      </c>
+      <c r="J35" t="s">
+        <v>186</v>
+      </c>
+      <c r="K35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>195</v>
+      </c>
+      <c r="F36">
+        <v>2050</v>
+      </c>
+      <c r="G36" s="35">
+        <v>1.2671242344959102E-3</v>
+      </c>
+      <c r="H36">
+        <v>1.2671242344959102E-3</v>
+      </c>
+      <c r="I36" t="s">
+        <v>188</v>
+      </c>
+      <c r="J36" t="s">
+        <v>188</v>
+      </c>
+      <c r="K36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>195</v>
+      </c>
+      <c r="F37">
+        <v>2050</v>
+      </c>
+      <c r="G37" s="35">
+        <v>4.4902665035151208E-3</v>
+      </c>
+      <c r="H37">
+        <v>4.4902665035151208E-3</v>
+      </c>
+      <c r="I37" t="s">
+        <v>160</v>
+      </c>
+      <c r="J37" t="s">
+        <v>160</v>
+      </c>
+      <c r="K37" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>195</v>
+      </c>
+      <c r="F38">
+        <v>2050</v>
+      </c>
+      <c r="G38" s="35">
+        <v>4.4902665035151208E-3</v>
+      </c>
+      <c r="H38">
+        <v>4.4902665035151208E-3</v>
+      </c>
+      <c r="I38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J38" t="s">
+        <v>162</v>
+      </c>
+      <c r="K38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>195</v>
+      </c>
+      <c r="F39">
+        <v>2050</v>
+      </c>
+      <c r="G39" s="35">
+        <v>4.4902665035151208E-3</v>
+      </c>
+      <c r="H39">
+        <v>4.4902665035151208E-3</v>
+      </c>
+      <c r="I39" t="s">
+        <v>164</v>
+      </c>
+      <c r="J39" t="s">
+        <v>164</v>
+      </c>
+      <c r="K39" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>195</v>
+      </c>
+      <c r="F40">
+        <v>2050</v>
+      </c>
+      <c r="G40" s="35">
+        <v>8.0094708934328203E-5</v>
+      </c>
+      <c r="H40">
+        <v>8.0094708934328203E-5</v>
+      </c>
+      <c r="I40" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" t="s">
+        <v>166</v>
+      </c>
+      <c r="K40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>195</v>
+      </c>
+      <c r="F41">
+        <v>2050</v>
+      </c>
+      <c r="G41" s="35">
+        <v>8.0094708934328203E-5</v>
+      </c>
+      <c r="H41">
+        <v>8.0094708934328203E-5</v>
+      </c>
+      <c r="I41" t="s">
+        <v>168</v>
+      </c>
+      <c r="J41" t="s">
+        <v>168</v>
+      </c>
+      <c r="K41" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>195</v>
+      </c>
+      <c r="F42">
+        <v>2050</v>
+      </c>
+      <c r="G42" s="35">
+        <v>8.0094708934328203E-5</v>
+      </c>
+      <c r="H42">
+        <v>8.0094708934328203E-5</v>
+      </c>
+      <c r="I42" t="s">
+        <v>170</v>
+      </c>
+      <c r="J42" t="s">
+        <v>170</v>
+      </c>
+      <c r="K42" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>195</v>
+      </c>
+      <c r="F43">
+        <v>2050</v>
+      </c>
+      <c r="G43" s="35">
+        <v>2.379710566339819E-3</v>
+      </c>
+      <c r="H43">
+        <v>2.379710566339819E-3</v>
+      </c>
+      <c r="I43" t="s">
+        <v>172</v>
+      </c>
+      <c r="J43" t="s">
+        <v>172</v>
+      </c>
+      <c r="K43" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>195</v>
+      </c>
+      <c r="F44">
+        <v>2050</v>
+      </c>
+      <c r="G44" s="35">
+        <v>2.379710566339819E-3</v>
+      </c>
+      <c r="H44">
+        <v>2.379710566339819E-3</v>
+      </c>
+      <c r="I44" t="s">
+        <v>174</v>
+      </c>
+      <c r="J44" t="s">
+        <v>174</v>
+      </c>
+      <c r="K44" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>195</v>
+      </c>
+      <c r="F45">
+        <v>2050</v>
+      </c>
+      <c r="G45" s="35">
+        <v>2.379710566339819E-3</v>
+      </c>
+      <c r="H45">
+        <v>2.379710566339819E-3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>176</v>
+      </c>
+      <c r="J45" t="s">
+        <v>176</v>
+      </c>
+      <c r="K45" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>195</v>
+      </c>
+      <c r="F46">
+        <v>2050</v>
+      </c>
+      <c r="G46" s="35">
+        <v>4.0218271931515297E-4</v>
+      </c>
+      <c r="H46">
+        <v>4.0218271931515297E-4</v>
+      </c>
+      <c r="I46" t="s">
+        <v>178</v>
+      </c>
+      <c r="J46" t="s">
+        <v>178</v>
+      </c>
+      <c r="K46" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47">
+        <v>2050</v>
+      </c>
+      <c r="G47" s="35">
+        <v>4.0218271931515297E-4</v>
+      </c>
+      <c r="H47">
+        <v>4.0218271931515297E-4</v>
+      </c>
+      <c r="I47" t="s">
+        <v>180</v>
+      </c>
+      <c r="J47" t="s">
+        <v>180</v>
+      </c>
+      <c r="K47" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>195</v>
+      </c>
+      <c r="F48">
+        <v>2050</v>
+      </c>
+      <c r="G48" s="35">
+        <v>4.0218271931515297E-4</v>
+      </c>
+      <c r="H48">
+        <v>4.0218271931515297E-4</v>
+      </c>
+      <c r="I48" t="s">
+        <v>182</v>
+      </c>
+      <c r="J48" t="s">
+        <v>182</v>
+      </c>
+      <c r="K48" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>195</v>
+      </c>
+      <c r="F49">
+        <v>2050</v>
+      </c>
+      <c r="G49" s="35">
+        <v>6.2702086141761969E-4</v>
+      </c>
+      <c r="H49">
+        <v>6.2702086141761969E-4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>184</v>
+      </c>
+      <c r="J49" t="s">
+        <v>184</v>
+      </c>
+      <c r="K49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>195</v>
+      </c>
+      <c r="F50">
+        <v>2050</v>
+      </c>
+      <c r="G50" s="35">
+        <v>6.2702086141761969E-4</v>
+      </c>
+      <c r="H50">
+        <v>6.2702086141761969E-4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>186</v>
+      </c>
+      <c r="J50" t="s">
+        <v>186</v>
+      </c>
+      <c r="K50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>195</v>
+      </c>
+      <c r="F51">
+        <v>2050</v>
+      </c>
+      <c r="G51" s="35">
+        <v>6.2702086141761969E-4</v>
+      </c>
+      <c r="H51">
+        <v>6.2702086141761969E-4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>188</v>
+      </c>
+      <c r="J51" t="s">
+        <v>188</v>
+      </c>
+      <c r="K51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3936600B-22EE-4D29-AF31-DFC1182F110D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385821FF-365E-4EB6-B441-60E0C7308991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="201">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -702,6 +702,9 @@
   </si>
   <si>
     <t>*,-*N*</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
@@ -9470,8 +9473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9619,7 +9622,9 @@
       <c r="L9" s="32"/>
     </row>
     <row r="10" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C10" s="32"/>
+      <c r="C10" s="32" t="s">
+        <v>200</v>
+      </c>
       <c r="D10" s="32"/>
       <c r="E10" t="s">
         <v>195</v>
@@ -9645,7 +9650,9 @@
       <c r="L10" s="32"/>
     </row>
     <row r="11" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C11" s="32"/>
+      <c r="C11" s="32" t="s">
+        <v>200</v>
+      </c>
       <c r="D11" s="32"/>
       <c r="E11" t="s">
         <v>195</v>
@@ -9671,7 +9678,9 @@
       <c r="L11" s="32"/>
     </row>
     <row r="12" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C12" s="32"/>
+      <c r="C12" s="32" t="s">
+        <v>200</v>
+      </c>
       <c r="D12" s="32"/>
       <c r="E12" t="s">
         <v>195</v>
@@ -10000,6 +10009,9 @@
       </c>
     </row>
     <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>200</v>
+      </c>
       <c r="E25" t="s">
         <v>195</v>
       </c>
@@ -10023,6 +10035,9 @@
       </c>
     </row>
     <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>200</v>
+      </c>
       <c r="E26" t="s">
         <v>195</v>
       </c>
@@ -10046,6 +10061,9 @@
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>200</v>
+      </c>
       <c r="E27" t="s">
         <v>195</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-Ireland-model\main-8760\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385821FF-365E-4EB6-B441-60E0C7308991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B29F0C3-E053-43E1-835B-0606B5E9E5A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7230" yWindow="5850" windowWidth="42165" windowHeight="23985" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -1788,7 +1788,7 @@
         <v>0.67368745787157902</v>
       </c>
       <c r="S8" s="23">
-        <v>1.1456149031137901</v>
+        <v>1.1456149031137799</v>
       </c>
       <c r="T8" s="23">
         <v>0.49378011021821799</v>
@@ -1830,7 +1830,7 @@
         <v>0.86102306186829503</v>
       </c>
       <c r="AG8" s="23">
-        <v>0.451316097288887</v>
+        <v>0.451316097288886</v>
       </c>
       <c r="AH8" s="23">
         <v>0.37617525772313698</v>
@@ -2060,7 +2060,7 @@
         <v>44</v>
       </c>
       <c r="J11" s="23">
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="23">
@@ -5526,7 +5526,7 @@
       </c>
       <c r="N8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085977</v>
+        <v>0.84062004677085211</v>
       </c>
       <c r="O8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5582,7 +5582,7 @@
       </c>
       <c r="AB8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916793</v>
+        <v>0.33116307912916709</v>
       </c>
       <c r="AC8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5642,7 +5642,7 @@
       </c>
       <c r="N9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1161933556970411</v>
+        <v>1.1161933556970312</v>
       </c>
       <c r="O9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5698,7 +5698,7 @@
       </c>
       <c r="AB9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.43972545027457505</v>
+        <v>0.43972545027457405</v>
       </c>
       <c r="AC9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6194,107 +6194,107 @@
       </c>
       <c r="G14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341085E-2</v>
+        <v>5.2718404005341231E-2</v>
       </c>
       <c r="H14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090449</v>
+        <v>1.2476395718090483</v>
       </c>
       <c r="I14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526826</v>
+        <v>0.20603624964526884</v>
       </c>
       <c r="J14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560083E-2</v>
+        <v>9.1887737410560347E-2</v>
       </c>
       <c r="K14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740468913E-2</v>
+        <v>7.8428487740469136E-2</v>
       </c>
       <c r="L14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898689E-2</v>
+        <v>3.7847947145898793E-2</v>
       </c>
       <c r="M14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092786</v>
+        <v>0.11934516233092819</v>
       </c>
       <c r="N14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580502</v>
+        <v>0.18060859254580552</v>
       </c>
       <c r="O14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654344E-2</v>
+        <v>7.2191026042654552E-2</v>
       </c>
       <c r="P14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796554E-2</v>
+        <v>8.2200040812796776E-2</v>
       </c>
       <c r="Q14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508789</v>
+        <v>0.13864092047508828</v>
       </c>
       <c r="R14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544479</v>
+        <v>0.13188397896544515</v>
       </c>
       <c r="S14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607345</v>
+        <v>0.11002323137607375</v>
       </c>
       <c r="T14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.502689779835093</v>
+        <v>0.50268977983509444</v>
       </c>
       <c r="U14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13677505270176574</v>
+        <v>0.1367750527017661</v>
       </c>
       <c r="V14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524345</v>
+        <v>0.18047432414524395</v>
       </c>
       <c r="W14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316512</v>
+        <v>0.14774431803316554</v>
       </c>
       <c r="X14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1075776945079131</v>
+        <v>0.10757769450791341</v>
       </c>
       <c r="Y14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297882</v>
+        <v>0.23895886146297948</v>
       </c>
       <c r="Z14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.9672390535149896E-2</v>
+        <v>2.967239053514998E-2</v>
       </c>
       <c r="AA14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824863</v>
+        <v>0.12084804242824897</v>
       </c>
       <c r="AB14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341748E-2</v>
+        <v>5.9767032040341915E-2</v>
       </c>
       <c r="AC14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.0684687109007783E-2</v>
+        <v>6.068468710900795E-2</v>
       </c>
       <c r="AD14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292298E-2</v>
+        <v>7.0538135732292492E-2</v>
       </c>
       <c r="AE14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14741003601521568</v>
+        <v>0.1474100360152161</v>
       </c>
       <c r="AF14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006463E-2</v>
+        <v>5.6842758875006623E-2</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.2">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="H15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99408028513777102</v>
+        <v>0.99408028513777114</v>
       </c>
       <c r="I15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6358,7 +6358,7 @@
       </c>
       <c r="S15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7663078095158206E-2</v>
+        <v>8.7663078095158192E-2</v>
       </c>
       <c r="T15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6374,7 +6374,7 @@
       </c>
       <c r="W15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.117718063066032</v>
+        <v>0.11771806306603201</v>
       </c>
       <c r="X15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6410,7 +6410,7 @@
       </c>
       <c r="AF15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.5290536808279797E-2</v>
+        <v>4.529053680827979E-2</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.2">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="H22" s="2">
         <f>VLOOKUP(F22,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="I22">
         <v>4.2966351471015702</v>
@@ -8515,7 +8515,7 @@
       </c>
       <c r="K22">
         <f t="shared" ref="K22:K25" si="0">H22</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="O22" s="2"/>
     </row>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{385821FF-365E-4EB6-B441-60E0C7308991}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C6241-6F42-4E9F-BB06-F66179337899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1395,25 +1395,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226CF39-0357-4B21-823B-1B3093B14EE8}">
   <dimension ref="C4:AK65"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="4"/>
+    <col min="9" max="9" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>92</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>92</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>92</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>92</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>92</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>92</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>92</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>92</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>92</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="AJ15" s="24"/>
       <c r="AK15" s="24"/>
     </row>
-    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>92</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="AJ16" s="24"/>
       <c r="AK16" s="24"/>
     </row>
-    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>92</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="AJ17" s="24"/>
       <c r="AK17" s="24"/>
     </row>
-    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>92</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
     </row>
-    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>92</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="AJ19" s="24"/>
       <c r="AK19" s="24"/>
     </row>
-    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>92</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
     </row>
-    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="AJ21" s="24"/>
       <c r="AK21" s="24"/>
     </row>
-    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>92</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="AJ22" s="24"/>
       <c r="AK22" s="24"/>
     </row>
-    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>92</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="AJ23" s="24"/>
       <c r="AK23" s="24"/>
     </row>
-    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="AJ24" s="24"/>
       <c r="AK24" s="24"/>
     </row>
-    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="AJ25" s="24"/>
       <c r="AK25" s="24"/>
     </row>
-    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>92</v>
       </c>
@@ -3027,7 +3027,7 @@
       <c r="AJ26" s="24"/>
       <c r="AK26" s="24"/>
     </row>
-    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>92</v>
       </c>
@@ -3076,7 +3076,7 @@
       <c r="AJ27" s="24"/>
       <c r="AK27" s="24"/>
     </row>
-    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>92</v>
       </c>
@@ -3125,7 +3125,7 @@
       <c r="AJ28" s="24"/>
       <c r="AK28" s="24"/>
     </row>
-    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
         <v>92</v>
       </c>
@@ -3174,7 +3174,7 @@
       <c r="AJ29" s="24"/>
       <c r="AK29" s="24"/>
     </row>
-    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
         <v>92</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="AJ30" s="24"/>
       <c r="AK30" s="24"/>
     </row>
-    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
         <v>92</v>
       </c>
@@ -3272,7 +3272,7 @@
       <c r="AJ31" s="24"/>
       <c r="AK31" s="24"/>
     </row>
-    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
@@ -3321,7 +3321,7 @@
       <c r="AJ32" s="24"/>
       <c r="AK32" s="24"/>
     </row>
-    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
         <v>92</v>
       </c>
@@ -3370,7 +3370,7 @@
       <c r="AJ33" s="24"/>
       <c r="AK33" s="24"/>
     </row>
-    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
         <v>92</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="AJ34" s="24"/>
       <c r="AK34" s="24"/>
     </row>
-    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
         <v>92</v>
       </c>
@@ -3468,7 +3468,7 @@
       <c r="AJ35" s="24"/>
       <c r="AK35" s="24"/>
     </row>
-    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="AJ36" s="24"/>
       <c r="AK36" s="24"/>
     </row>
-    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
@@ -3562,7 +3562,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
     </row>
-    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="AJ38" s="24"/>
       <c r="AK38" s="24"/>
     </row>
-    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
@@ -3660,7 +3660,7 @@
       <c r="AJ39" s="24"/>
       <c r="AK39" s="24"/>
     </row>
-    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>92</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="AJ40" s="24"/>
       <c r="AK40" s="24"/>
     </row>
-    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>92</v>
       </c>
@@ -3758,7 +3758,7 @@
       <c r="AJ41" s="24"/>
       <c r="AK41" s="24"/>
     </row>
-    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
         <v>92</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="AJ42" s="24"/>
       <c r="AK42" s="24"/>
     </row>
-    <row r="43" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
         <v>92</v>
       </c>
@@ -3856,7 +3856,7 @@
       <c r="AJ43" s="24"/>
       <c r="AK43" s="24"/>
     </row>
-    <row r="44" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
         <v>92</v>
       </c>
@@ -3905,7 +3905,7 @@
       <c r="AJ44" s="24"/>
       <c r="AK44" s="24"/>
     </row>
-    <row r="45" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>92</v>
       </c>
@@ -3954,7 +3954,7 @@
       <c r="AJ45" s="24"/>
       <c r="AK45" s="24"/>
     </row>
-    <row r="46" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
         <v>92</v>
       </c>
@@ -4003,7 +4003,7 @@
       <c r="AJ46" s="24"/>
       <c r="AK46" s="24"/>
     </row>
-    <row r="47" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
         <v>92</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="AJ47" s="24"/>
       <c r="AK47" s="24"/>
     </row>
-    <row r="48" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4101,7 +4101,7 @@
       <c r="AJ48" s="24"/>
       <c r="AK48" s="24"/>
     </row>
-    <row r="49" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -4150,7 +4150,7 @@
       <c r="AJ49" s="24"/>
       <c r="AK49" s="24"/>
     </row>
-    <row r="50" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
         <v>92</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="AJ50" s="24"/>
       <c r="AK50" s="24"/>
     </row>
-    <row r="51" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
         <v>92</v>
       </c>
@@ -4244,7 +4244,7 @@
       <c r="AJ51" s="24"/>
       <c r="AK51" s="24"/>
     </row>
-    <row r="52" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
         <v>92</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="AJ52" s="24"/>
       <c r="AK52" s="24"/>
     </row>
-    <row r="53" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
         <v>92</v>
       </c>
@@ -4334,7 +4334,7 @@
       <c r="AJ53" s="24"/>
       <c r="AK53" s="24"/>
     </row>
-    <row r="54" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
         <v>92</v>
       </c>
@@ -4379,7 +4379,7 @@
       <c r="AJ54" s="24"/>
       <c r="AK54" s="24"/>
     </row>
-    <row r="55" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
         <v>92</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="AJ55" s="24"/>
       <c r="AK55" s="24"/>
     </row>
-    <row r="56" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>92</v>
       </c>
@@ -4469,7 +4469,7 @@
       <c r="AJ56" s="24"/>
       <c r="AK56" s="24"/>
     </row>
-    <row r="57" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
         <v>92</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="AJ57" s="24"/>
       <c r="AK57" s="24"/>
     </row>
-    <row r="58" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
         <v>92</v>
       </c>
@@ -4559,7 +4559,7 @@
       <c r="AJ58" s="24"/>
       <c r="AK58" s="24"/>
     </row>
-    <row r="59" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
         <v>92</v>
       </c>
@@ -4604,7 +4604,7 @@
       <c r="AJ59" s="24"/>
       <c r="AK59" s="24"/>
     </row>
-    <row r="60" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
         <v>92</v>
       </c>
@@ -4649,7 +4649,7 @@
       <c r="AJ60" s="24"/>
       <c r="AK60" s="24"/>
     </row>
-    <row r="61" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
         <v>92</v>
       </c>
@@ -4694,7 +4694,7 @@
       <c r="AJ61" s="24"/>
       <c r="AK61" s="24"/>
     </row>
-    <row r="62" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
         <v>92</v>
       </c>
@@ -4739,7 +4739,7 @@
       <c r="AJ62" s="24"/>
       <c r="AK62" s="24"/>
     </row>
-    <row r="63" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
@@ -4784,7 +4784,7 @@
       <c r="AJ63" s="24"/>
       <c r="AK63" s="24"/>
     </row>
-    <row r="64" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
         <v>92</v>
       </c>
@@ -4829,7 +4829,7 @@
       <c r="AJ64" s="24"/>
       <c r="AK64" s="24"/>
     </row>
-    <row r="65" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C65" s="4" t="s">
         <v>92</v>
       </c>
@@ -4885,22 +4885,22 @@
   <dimension ref="B2:AF21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G12" sqref="G12:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>91</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
@@ -5137,7 +5137,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
@@ -5253,7 +5253,7 @@
         <v>0.2713201852314594</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
         <v>85</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>0.46884077905903881</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>85</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>85</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0.41709875548708081</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>85</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
         <v>85</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>0.12881123700615976</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
         <v>85</v>
       </c>
@@ -5962,110 +5962,110 @@
       </c>
       <c r="G12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13064779508364899</v>
+        <v>0.11877072280331726</v>
       </c>
       <c r="H12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.0919251481787136</v>
+        <v>2.8108410437988307</v>
       </c>
       <c r="I12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.51060312297639665</v>
+        <v>0.46418465725126973</v>
       </c>
       <c r="J12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22771801450398094</v>
+        <v>0.20701637682180085</v>
       </c>
       <c r="K12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1943630348521006</v>
+        <v>0.17669366804736417</v>
       </c>
       <c r="L12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.3795533767547012E-2</v>
+        <v>8.5268667061406372E-2</v>
       </c>
       <c r="M12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29576354987636128</v>
+        <v>0.26887595443305573</v>
       </c>
       <c r="N12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4475877985016371</v>
+        <v>0.40689799863785192</v>
       </c>
       <c r="O12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1789052334805798</v>
+        <v>0.16264112134598166</v>
       </c>
       <c r="P12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20370977252820086</v>
+        <v>0.18519070229836443</v>
       </c>
       <c r="Q12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3435826806631439</v>
+        <v>0.31234789151194903</v>
       </c>
       <c r="R12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32683749411207558</v>
+        <v>0.29712499464734149</v>
       </c>
       <c r="S12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27266175557601846</v>
+        <v>0.2478743232509259</v>
       </c>
       <c r="T12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2457757890372787</v>
+        <v>1.1325234445793442</v>
       </c>
       <c r="U12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33895865011628784</v>
+        <v>0.30814422737844349</v>
       </c>
       <c r="V12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.44725505188660325</v>
+        <v>0.4065955017150939</v>
       </c>
       <c r="W12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3661429011624644</v>
+        <v>0.33285718287496763</v>
       </c>
       <c r="X12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26660117757391238</v>
+        <v>0.2423647068853749</v>
       </c>
       <c r="Y12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5921925929827917</v>
+        <v>0.53835690271162884</v>
       </c>
       <c r="Z12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3534707118324452E-2</v>
+        <v>6.6849733743931328E-2</v>
       </c>
       <c r="AA12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29948801716050255</v>
+        <v>0.27226183378227509</v>
       </c>
       <c r="AB12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14811584497082575</v>
+        <v>0.13465076815529611</v>
       </c>
       <c r="AC12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.15038999597426655</v>
+        <v>0.13671817815842413</v>
       </c>
       <c r="AD12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17480900790929571</v>
+        <v>0.15891727991754154</v>
       </c>
       <c r="AE12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36531447683124091</v>
+        <v>0.33210406984658275</v>
       </c>
       <c r="AF12" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14086885317580392</v>
-      </c>
-    </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+        <v>0.12806259379618537</v>
+      </c>
+    </row>
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>85</v>
       </c>
@@ -6078,110 +6078,110 @@
       </c>
       <c r="G13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.2353600579585193E-2</v>
+        <v>0</v>
       </c>
       <c r="H13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.18565051154552</v>
+        <v>0</v>
       </c>
       <c r="I13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36094016622216002</v>
+        <v>0</v>
       </c>
       <c r="J13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.160971553655473</v>
+        <v>0</v>
       </c>
       <c r="K13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13739325701343899</v>
+        <v>0</v>
       </c>
       <c r="L13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.6303111018221506E-2</v>
+        <v>0</v>
       </c>
       <c r="M13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20907225210952099</v>
+        <v>0</v>
       </c>
       <c r="N13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31639527280693802</v>
+        <v>0</v>
       </c>
       <c r="O13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.126466294083908</v>
+        <v>0</v>
       </c>
       <c r="P13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14400037102947</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24287511041201201</v>
+        <v>0</v>
       </c>
       <c r="R13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23103810796296301</v>
+        <v>0</v>
       </c>
       <c r="S13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.19274182814699201</v>
+        <v>0</v>
       </c>
       <c r="T13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.880626263602864</v>
+        <v>0</v>
       </c>
       <c r="U13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.239606430141375</v>
+        <v>0</v>
       </c>
       <c r="V13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.31616005760135901</v>
+        <v>0</v>
       </c>
       <c r="W13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25882270135028701</v>
+        <v>0</v>
       </c>
       <c r="X13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18845766705778599</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.418614934630201</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.1980938259190403E-2</v>
+        <v>0</v>
       </c>
       <c r="AA13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21170504023817699</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10470158778558201</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.106309162052679</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12357071379453501</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25823709659708599</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.95787628254481E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
         <v>85</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>5.6842758875006463E-2</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
         <v>85</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
         <v>85</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
         <v>85</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
         <v>85</v>
       </c>
@@ -6761,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
         <v>85</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
         <v>85</v>
       </c>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
         <v>85</v>
       </c>
@@ -7122,40 +7122,40 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="4" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="4"/>
+    <col min="29" max="29" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -7269,12 +7269,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>159</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>158</v>
       </c>
@@ -7506,7 +7506,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -7623,7 +7623,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>156</v>
       </c>
@@ -7631,7 +7631,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>102</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>125</v>
       </c>
@@ -7647,7 +7647,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>114</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>115</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>126</v>
       </c>
@@ -7671,7 +7671,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>103</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>120</v>
       </c>
@@ -7687,7 +7687,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>116</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>104</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>105</v>
       </c>
@@ -7711,7 +7711,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>106</v>
       </c>
@@ -7719,7 +7719,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>121</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>117</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>107</v>
       </c>
@@ -7743,7 +7743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>108</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>122</v>
       </c>
@@ -7759,7 +7759,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>109</v>
       </c>
@@ -7767,7 +7767,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>127</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>110</v>
       </c>
@@ -7783,7 +7783,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>124</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>118</v>
       </c>
@@ -7807,7 +7807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>119</v>
       </c>
@@ -7815,7 +7815,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>111</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>112</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>113</v>
       </c>
@@ -7839,7 +7839,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>128</v>
       </c>
@@ -7865,7 +7865,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7884,23 +7884,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.85546875" customWidth="1"/>
-    <col min="11" max="12" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="15.88671875" customWidth="1"/>
+    <col min="11" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>190</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7966,7 +7966,7 @@
       </c>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7995,7 +7995,7 @@
       </c>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8024,7 +8024,7 @@
       </c>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8053,7 +8053,7 @@
       </c>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8082,7 +8082,7 @@
       </c>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8111,7 +8111,7 @@
       </c>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8140,7 +8140,7 @@
       </c>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8169,7 +8169,7 @@
       </c>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8198,7 +8198,7 @@
       </c>
       <c r="O11" s="2"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8227,7 +8227,7 @@
       </c>
       <c r="O12" s="2"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8256,7 +8256,7 @@
       </c>
       <c r="O13" s="2"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8285,7 +8285,7 @@
       </c>
       <c r="O14" s="2"/>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8314,7 +8314,7 @@
       </c>
       <c r="O15" s="2"/>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8343,7 +8343,7 @@
       </c>
       <c r="O16" s="2"/>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8372,7 +8372,7 @@
       </c>
       <c r="O17" s="2"/>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8401,7 +8401,7 @@
       </c>
       <c r="O18" s="2"/>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8430,7 +8430,7 @@
       </c>
       <c r="O19" s="2"/>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8459,7 +8459,7 @@
       </c>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8481,15 +8481,14 @@
         <v>10.927548</v>
       </c>
       <c r="J21">
-        <v>10.927548</v>
+        <v>9.9341345454545458</v>
       </c>
       <c r="K21">
-        <f>H21</f>
-        <v>7.7245727925227703</v>
+        <v>0</v>
       </c>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8514,12 +8513,12 @@
         <v>4.4094344637268001</v>
       </c>
       <c r="K22">
-        <f t="shared" ref="K22:K25" si="0">H22</f>
+        <f>H22</f>
         <v>3.5132998087277199</v>
       </c>
       <c r="O22" s="2"/>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8544,12 +8543,12 @@
         <v>13.57977245</v>
       </c>
       <c r="K23">
-        <f t="shared" si="0"/>
+        <f>H23</f>
         <v>21.784659175997099</v>
       </c>
       <c r="O23" s="2"/>
     </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8574,12 +8573,12 @@
         <v>0.23</v>
       </c>
       <c r="K24">
-        <f t="shared" si="0"/>
+        <f>H24</f>
         <v>0.23349320028657899</v>
       </c>
       <c r="O24" s="2"/>
     </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8604,12 +8603,12 @@
         <v>46.814427170000002</v>
       </c>
       <c r="K25">
-        <f t="shared" si="0"/>
+        <f>H25</f>
         <v>45.935836654432002</v>
       </c>
       <c r="O25" s="2"/>
     </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8638,7 +8637,7 @@
       </c>
       <c r="O26" s="2"/>
     </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8667,7 +8666,7 @@
       </c>
       <c r="O27" s="2"/>
     </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8696,7 +8695,7 @@
       </c>
       <c r="O28" s="2"/>
     </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8721,15 +8720,15 @@
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="str">
-        <f t="shared" ref="P29:P39" si="1">IF(P66&lt;&gt;"",P66*$H29,"")</f>
+        <f t="shared" ref="P29:P39" si="0">IF(P66&lt;&gt;"",P66*$H29,"")</f>
         <v/>
       </c>
       <c r="Q29" t="str">
-        <f t="shared" ref="Q29" si="2">IF(Q66&lt;&gt;"",Q66*$H29,"")</f>
+        <f t="shared" ref="Q29" si="1">IF(Q66&lt;&gt;"",Q66*$H29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8754,15 +8753,15 @@
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q30" t="str">
-        <f t="shared" ref="Q30:Q39" si="3">IF(Q67&lt;&gt;"",Q67*$H30,"")</f>
+        <f t="shared" ref="Q30:Q39" si="2">IF(Q67&lt;&gt;"",Q67*$H30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8787,15 +8786,15 @@
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q31" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D32" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8820,15 +8819,15 @@
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q32" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D33" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8853,15 +8852,15 @@
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q33" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D34" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8886,15 +8885,15 @@
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q34" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D35" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8919,15 +8918,15 @@
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q35" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D36" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8952,15 +8951,15 @@
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D37" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8985,15 +8984,15 @@
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q37" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D38" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9018,15 +9017,15 @@
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q38" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D39" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9051,15 +9050,15 @@
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="Q39" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D40" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9083,7 +9082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D41" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9104,7 +9103,7 @@
         <v>32.865000000000002</v>
       </c>
     </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D43" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9128,7 +9127,7 @@
         <v>10.047893325490021</v>
       </c>
     </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D44" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9152,7 +9151,7 @@
         <v>16.878788423834521</v>
       </c>
     </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D45" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9176,7 +9175,7 @@
         <v>14.214862498864701</v>
       </c>
     </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D46" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9200,7 +9199,7 @@
         <v>0.179228357755223</v>
       </c>
     </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D47" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9224,7 +9223,7 @@
         <v>0.30107381041032272</v>
       </c>
     </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:17" x14ac:dyDescent="0.3">
       <c r="D48" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9248,7 +9247,7 @@
         <v>0.2535562807901901</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9272,7 +9271,7 @@
         <v>5.3250910380053398</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9296,7 +9295,7 @@
         <v>8.9452666401358414</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9320,7 +9319,7 @@
         <v>7.5334634283143167</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9344,7 +9343,7 @@
         <v>0.89996641800005883</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9368,7 +9367,7 @@
         <v>1.5117937925797396</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D54" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9392,7 +9391,7 @@
         <v>1.2731921479513455</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D55" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9416,7 +9415,7 @@
         <v>1.4030879288454441</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D56" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9440,7 +9439,7 @@
         <v>2.3569541916751464</v>
       </c>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D57" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9473,19 +9472,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="28" t="s">
         <v>191</v>
       </c>
@@ -9493,7 +9492,7 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="C5" s="30" t="s">
         <v>91</v>
       </c>
@@ -9526,7 +9525,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="31" t="s">
         <v>194</v>
       </c>
@@ -9543,7 +9542,7 @@
       <c r="L6" s="31"/>
       <c r="N6" s="33"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" t="s">
@@ -9569,7 +9568,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" t="s">
@@ -9595,7 +9594,7 @@
       </c>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" t="s">
@@ -9621,7 +9620,7 @@
       </c>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="32" t="s">
         <v>200</v>
       </c>
@@ -9649,7 +9648,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="32" t="s">
         <v>200</v>
       </c>
@@ -9677,7 +9676,7 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="32" t="s">
         <v>200</v>
       </c>
@@ -9705,7 +9704,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" t="s">
@@ -9731,7 +9730,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" t="s">
@@ -9757,7 +9756,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" t="s">
@@ -9783,7 +9782,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" t="s">
@@ -9809,7 +9808,7 @@
       </c>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" t="s">
@@ -9835,7 +9834,7 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" t="s">
@@ -9861,7 +9860,7 @@
       </c>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" t="s">
@@ -9887,7 +9886,7 @@
       </c>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" t="s">
@@ -9913,7 +9912,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" t="s">
@@ -9939,7 +9938,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>195</v>
       </c>
@@ -9962,7 +9961,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>195</v>
       </c>
@@ -9985,7 +9984,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>195</v>
       </c>
@@ -10008,7 +10007,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>200</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>200</v>
       </c>
@@ -10060,7 +10059,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>200</v>
       </c>
@@ -10086,7 +10085,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>195</v>
       </c>
@@ -10109,7 +10108,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>195</v>
       </c>
@@ -10132,7 +10131,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>195</v>
       </c>
@@ -10155,7 +10154,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>195</v>
       </c>
@@ -10178,7 +10177,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -10201,7 +10200,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>195</v>
       </c>
@@ -10224,7 +10223,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>195</v>
       </c>
@@ -10247,7 +10246,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>195</v>
       </c>
@@ -10270,7 +10269,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>195</v>
       </c>
@@ -10293,7 +10292,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>195</v>
       </c>
@@ -10316,7 +10315,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>195</v>
       </c>
@@ -10339,7 +10338,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>195</v>
       </c>
@@ -10362,7 +10361,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>195</v>
       </c>
@@ -10385,7 +10384,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>195</v>
       </c>
@@ -10408,7 +10407,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>195</v>
       </c>
@@ -10431,7 +10430,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>195</v>
       </c>
@@ -10454,7 +10453,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>195</v>
       </c>
@@ -10477,7 +10476,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>195</v>
       </c>
@@ -10500,7 +10499,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>195</v>
       </c>
@@ -10523,7 +10522,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>195</v>
       </c>
@@ -10546,7 +10545,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>195</v>
       </c>
@@ -10569,7 +10568,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>195</v>
       </c>
@@ -10592,7 +10591,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>195</v>
       </c>
@@ -10615,7 +10614,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>195</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447C6241-6F42-4E9F-BB06-F66179337899}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5033,107 +5033,107 @@
         <v>2020</v>
       </c>
       <c r="G4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14102260336618419</v>
       </c>
       <c r="H4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8193762108637852</v>
       </c>
       <c r="I4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.51996369762144268</v>
       </c>
       <c r="J4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2412295956815371</v>
       </c>
       <c r="K4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19018531303154435</v>
       </c>
       <c r="L4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.5561633661176384E-2</v>
       </c>
       <c r="M4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27402416687719383</v>
       </c>
       <c r="N4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45105079601868803</v>
       </c>
       <c r="O4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18671376666095213</v>
       </c>
       <c r="P4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21163803569729758</v>
       </c>
       <c r="Q4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36834282959899767</v>
       </c>
       <c r="R4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32581863140183054</v>
       </c>
       <c r="S4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28676020471389613</v>
       </c>
       <c r="T4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2126707484972317</v>
       </c>
       <c r="U4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37129140482878509</v>
       </c>
       <c r="V4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44273492088669852</v>
       </c>
       <c r="W4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40362820139863753</v>
       </c>
       <c r="X4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26802209006972721</v>
       </c>
       <c r="Y4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.59904734864666986</v>
       </c>
       <c r="Z4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.6883209959732524E-2</v>
       </c>
       <c r="AA4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32081898120752922</v>
       </c>
       <c r="AB4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1678236258531208</v>
       </c>
       <c r="AC4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14796147778469043</v>
       </c>
       <c r="AD4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16503614500140071</v>
       </c>
       <c r="AE4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32014165283799628</v>
       </c>
       <c r="AF4" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E4,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F4,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E4,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15354445783325901</v>
       </c>
     </row>
@@ -5149,107 +5149,107 @@
         <v>2050</v>
       </c>
       <c r="G5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24919348706604891</v>
       </c>
       <c r="H5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.9819686530101315</v>
       </c>
       <c r="I5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.91879999280394731</v>
       </c>
       <c r="J5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42626389455684793</v>
       </c>
       <c r="K5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33606627740388867</v>
       </c>
       <c r="L5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16886184308995011</v>
       </c>
       <c r="M5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48421342433443482</v>
       </c>
       <c r="N5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.797027696417964</v>
       </c>
       <c r="O5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32993189380189941</v>
       </c>
       <c r="P5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37397423428835075</v>
       </c>
       <c r="Q5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65087888007008443</v>
       </c>
       <c r="R5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.57573664768678368</v>
       </c>
       <c r="S5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50671859445735434</v>
       </c>
       <c r="T5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.1428455103494626</v>
       </c>
       <c r="U5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65608914938754559</v>
       </c>
       <c r="V5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.78233315899855904</v>
       </c>
       <c r="W5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.7132297701493322</v>
       </c>
       <c r="X5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47360747597162428</v>
       </c>
       <c r="Y5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0585444755924167</v>
       </c>
       <c r="Z5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13585620127114331</v>
       </c>
       <c r="AA5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56690203368669112</v>
       </c>
       <c r="AB5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29655213802722385</v>
       </c>
       <c r="AC5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26145480029802121</v>
       </c>
       <c r="AD5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29162652995454996</v>
       </c>
       <c r="AE5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56570516301302765</v>
       </c>
       <c r="AF5" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2713201852314594</v>
       </c>
     </row>
@@ -5265,107 +5265,107 @@
         <v>2020</v>
       </c>
       <c r="G6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32193664473309486</v>
       </c>
       <c r="H6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.637813854608976</v>
       </c>
       <c r="I6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1480382927336128</v>
       </c>
       <c r="J6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54522568908947855</v>
       </c>
       <c r="K6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41020881320348074</v>
       </c>
       <c r="L6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21133746790128183</v>
       </c>
       <c r="M6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.56924850267004323</v>
       </c>
       <c r="N6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98828046988197249</v>
       </c>
       <c r="O6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41882409160736161</v>
       </c>
       <c r="P6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47278848560105868</v>
       </c>
       <c r="Q6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.83850274795415447</v>
       </c>
       <c r="R6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71154373932557857</v>
       </c>
       <c r="S6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64533477367968184</v>
       </c>
       <c r="T6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.6080003354214218</v>
       </c>
       <c r="U6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.8535978085319772</v>
       </c>
       <c r="V6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.96137078018953437</v>
       </c>
       <c r="W6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.932415749736074</v>
       </c>
       <c r="X6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.58823966562202801</v>
       </c>
       <c r="Y6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3170332096303565</v>
       </c>
       <c r="Z6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17261327906182664</v>
       </c>
       <c r="AA6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.72941378774211518</v>
       </c>
       <c r="AB6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39273887171064176</v>
       </c>
       <c r="AC6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32039449419408184</v>
       </c>
       <c r="AD6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34813170258514758</v>
       </c>
       <c r="AE6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64114085295794276</v>
       </c>
       <c r="AF6" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35260315962707711</v>
       </c>
     </row>
@@ -5381,107 +5381,107 @@
         <v>2050</v>
       </c>
       <c r="G7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42806487464250859</v>
       </c>
       <c r="H7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.4963509759251048</v>
       </c>
       <c r="I7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5264955881963764</v>
       </c>
       <c r="J7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.72496241130132655</v>
       </c>
       <c r="K7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54543646109867361</v>
       </c>
       <c r="L7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2810060556462261</v>
       </c>
       <c r="M7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.75690448081146366</v>
       </c>
       <c r="N7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3140726983795172</v>
       </c>
       <c r="O7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55689181459850601</v>
       </c>
       <c r="P7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.62864587530576854</v>
       </c>
       <c r="Q7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1149199060205524</v>
       </c>
       <c r="R7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.94610814444434155</v>
       </c>
       <c r="S7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.85807302000885533</v>
       </c>
       <c r="T7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.4677423490430845</v>
       </c>
       <c r="U7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.134991138418852</v>
       </c>
       <c r="V7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2782920777719677</v>
       </c>
       <c r="W7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2397918582905652</v>
       </c>
       <c r="X7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.78215618769651429</v>
       </c>
       <c r="Y7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.7512006321860119</v>
       </c>
       <c r="Z7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22951621964157642</v>
       </c>
       <c r="AA7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.96986915506685767</v>
       </c>
       <c r="AB7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.52220745490292342</v>
       </c>
       <c r="AC7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42601434548417128</v>
       </c>
       <c r="AD7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46289528099462979</v>
       </c>
       <c r="AE7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.85249654967724642</v>
       </c>
       <c r="AF7" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46884077905903881</v>
       </c>
     </row>
@@ -5497,107 +5497,107 @@
         <v>2020</v>
       </c>
       <c r="G8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27435547637321495</v>
       </c>
       <c r="H8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.8874675973215007</v>
       </c>
       <c r="I8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98750716185845822</v>
       </c>
       <c r="J8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47552429060912443</v>
       </c>
       <c r="K8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35331078909799174</v>
       </c>
       <c r="L8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18192405921838437</v>
       </c>
       <c r="M8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49433293928500699</v>
       </c>
       <c r="N8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.84062004677085977</v>
       </c>
       <c r="O8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36232197941731037</v>
       </c>
       <c r="P8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40153594290187117</v>
       </c>
       <c r="Q8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71368599033539704</v>
       </c>
       <c r="R8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61113233633908892</v>
       </c>
       <c r="S8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54794246709160832</v>
       </c>
       <c r="T8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2342931214267647</v>
       </c>
       <c r="U8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74304638421703217</v>
       </c>
       <c r="V8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.82312954869858934</v>
       </c>
       <c r="W8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.79632066689536773</v>
       </c>
       <c r="X8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5014811864865022</v>
       </c>
       <c r="Y8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1393573908292929</v>
       </c>
       <c r="Z8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14698615350023855</v>
       </c>
       <c r="AA8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63179454507028443</v>
       </c>
       <c r="AB8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33116307912916793</v>
       </c>
       <c r="AC8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27602684102814479</v>
       </c>
       <c r="AD8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2952095661319819</v>
       </c>
       <c r="AE8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54379756531765255</v>
       </c>
       <c r="AF8" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31412261464919838</v>
       </c>
     </row>
@@ -5613,107 +5613,107 @@
         <v>2050</v>
       </c>
       <c r="G9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36429509503519336</v>
       </c>
       <c r="H9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.4896844647839922</v>
       </c>
       <c r="I9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3112332224336185</v>
       </c>
       <c r="J9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63141136794128272</v>
       </c>
       <c r="K9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46913365533234114</v>
       </c>
       <c r="L9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24156267379184618</v>
       </c>
       <c r="M9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.65638589568697026</v>
       </c>
       <c r="N9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1161933556970411</v>
       </c>
       <c r="O9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48109890741023575</v>
       </c>
       <c r="P9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.53316805049116955</v>
       </c>
       <c r="Q9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.94764758885601152</v>
       </c>
       <c r="R9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81147464409594539</v>
       </c>
       <c r="S9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.72756977830985914</v>
       </c>
       <c r="T9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.9667424021068545</v>
       </c>
       <c r="U9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98663295055089162</v>
       </c>
       <c r="V9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0929690966383923</v>
       </c>
       <c r="W9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0573716874909749</v>
       </c>
       <c r="X9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.66587749187461598</v>
       </c>
       <c r="Y9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5128632183983965</v>
       </c>
       <c r="Z9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19517137206835286</v>
       </c>
       <c r="AA9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.83891036869992042</v>
       </c>
       <c r="AB9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43972545027457505</v>
       </c>
       <c r="AC9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36651436892706152</v>
       </c>
       <c r="AD9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39198560338942773</v>
       </c>
       <c r="AE9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.7220660886966046</v>
       </c>
       <c r="AF9" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41709875548708081</v>
       </c>
     </row>
@@ -5729,107 +5729,107 @@
         <v>2020</v>
       </c>
       <c r="G10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17991488188042462</v>
       </c>
       <c r="H10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.6871723541686299</v>
       </c>
       <c r="I10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48763398226070803</v>
       </c>
       <c r="J10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3135901348759621</v>
       </c>
       <c r="K10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22335515894815736</v>
       </c>
       <c r="L10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10778652622510916</v>
       </c>
       <c r="M10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2824588239748011</v>
       </c>
       <c r="N10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43704621254646414</v>
       </c>
       <c r="O10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20559159765702764</v>
       </c>
       <c r="P10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23409610092244049</v>
       </c>
       <c r="Q10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47314719217489071</v>
       </c>
       <c r="R10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31213492756751032</v>
       </c>
       <c r="S10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30715715583422787</v>
       </c>
       <c r="T10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.643458450750628</v>
       </c>
       <c r="U10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44716269403431846</v>
       </c>
       <c r="V10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50383886577623815</v>
       </c>
       <c r="W10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41246493081645397</v>
       </c>
       <c r="X10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38312416759737483</v>
       </c>
       <c r="Y10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61177286314532875</v>
       </c>
       <c r="Z10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.1588596696128737E-2</v>
       </c>
       <c r="AA10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34456408847334713</v>
       </c>
       <c r="AB10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15301315083761008</v>
       </c>
       <c r="AC10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16686146187994025</v>
       </c>
       <c r="AD10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1939549663563945</v>
       </c>
       <c r="AE10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40532554878448751</v>
       </c>
       <c r="AF10" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15629751581539669</v>
       </c>
     </row>
@@ -5845,107 +5845,107 @@
         <v>2050</v>
       </c>
       <c r="G11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14827528364690531</v>
       </c>
       <c r="H11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2146097024218854</v>
       </c>
       <c r="I11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40187930136669486</v>
       </c>
       <c r="J11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2584425796889217</v>
       </c>
       <c r="K11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18407620982153458</v>
       </c>
       <c r="L11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.8831327249319483E-2</v>
       </c>
       <c r="M11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23278598082436783</v>
       </c>
       <c r="N11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36018783135017274</v>
       </c>
       <c r="O11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16943652542470969</v>
       </c>
       <c r="P11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19292826364402085</v>
       </c>
       <c r="Q11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38994013943269012</v>
       </c>
       <c r="R11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25724328325401569</v>
       </c>
       <c r="S11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25314089601418438</v>
       </c>
       <c r="T11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3544419750052186</v>
       </c>
       <c r="U11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36852524149902982</v>
       </c>
       <c r="V11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41523441504387931</v>
       </c>
       <c r="W11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33992938200553119</v>
       </c>
       <c r="X11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31574844742549418</v>
       </c>
       <c r="Y11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50418727935269625</v>
       </c>
       <c r="Z11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.7240531694936503E-2</v>
       </c>
       <c r="AA11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28396949390144766</v>
       </c>
       <c r="AB11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12610445620186289</v>
       </c>
       <c r="AC11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1375174211904778</v>
       </c>
       <c r="AD11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15984629704136455</v>
       </c>
       <c r="AE11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33404552245600816</v>
       </c>
       <c r="AF11" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12881123700615976</v>
       </c>
     </row>
@@ -5961,107 +5961,107 @@
         <v>2020</v>
       </c>
       <c r="G12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11877072280331726</v>
       </c>
       <c r="H12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8108410437988307</v>
       </c>
       <c r="I12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46418465725126973</v>
       </c>
       <c r="J12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20701637682180085</v>
       </c>
       <c r="K12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17669366804736417</v>
       </c>
       <c r="L12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5268667061406372E-2</v>
       </c>
       <c r="M12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26887595443305573</v>
       </c>
       <c r="N12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40689799863785192</v>
       </c>
       <c r="O12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16264112134598166</v>
       </c>
       <c r="P12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18519070229836443</v>
       </c>
       <c r="Q12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31234789151194903</v>
       </c>
       <c r="R12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29712499464734149</v>
       </c>
       <c r="S12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2478743232509259</v>
       </c>
       <c r="T12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1325234445793442</v>
       </c>
       <c r="U12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30814422737844349</v>
       </c>
       <c r="V12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4065955017150939</v>
       </c>
       <c r="W12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33285718287496763</v>
       </c>
       <c r="X12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2423647068853749</v>
       </c>
       <c r="Y12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.53835690271162884</v>
       </c>
       <c r="Z12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.6849733743931328E-2</v>
       </c>
       <c r="AA12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27226183378227509</v>
       </c>
       <c r="AB12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13465076815529611</v>
       </c>
       <c r="AC12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13671817815842413</v>
       </c>
       <c r="AD12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15891727991754154</v>
       </c>
       <c r="AE12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33210406984658275</v>
       </c>
       <c r="AF12" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12806259379618537</v>
       </c>
     </row>
@@ -6077,107 +6077,107 @@
         <v>2050</v>
       </c>
       <c r="G13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="I13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="T13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="U13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="V13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AB13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF13" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6193,107 +6193,107 @@
         <v>2020</v>
       </c>
       <c r="G14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.2718404005341085E-2</v>
       </c>
       <c r="H14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2476395718090449</v>
       </c>
       <c r="I14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20603624964526826</v>
       </c>
       <c r="J14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1887737410560083E-2</v>
       </c>
       <c r="K14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.8428487740468913E-2</v>
       </c>
       <c r="L14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.7847947145898689E-2</v>
       </c>
       <c r="M14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11934516233092786</v>
       </c>
       <c r="N14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18060859254580502</v>
       </c>
       <c r="O14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.2191026042654344E-2</v>
       </c>
       <c r="P14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.2200040812796554E-2</v>
       </c>
       <c r="Q14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13864092047508789</v>
       </c>
       <c r="R14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13188397896544479</v>
       </c>
       <c r="S14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11002323137607345</v>
       </c>
       <c r="T14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.502689779835093</v>
       </c>
       <c r="U14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13677505270176574</v>
       </c>
       <c r="V14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18047432414524345</v>
       </c>
       <c r="W14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14774431803316512</v>
       </c>
       <c r="X14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1075776945079131</v>
       </c>
       <c r="Y14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23895886146297882</v>
       </c>
       <c r="Z14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.9672390535149896E-2</v>
       </c>
       <c r="AA14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12084804242824863</v>
       </c>
       <c r="AB14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.9767032040341748E-2</v>
       </c>
       <c r="AC14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.0684687109007783E-2</v>
       </c>
       <c r="AD14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.0538135732292298E-2</v>
       </c>
       <c r="AE14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14741003601521568</v>
       </c>
       <c r="AF14" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.6842758875006463E-2</v>
       </c>
     </row>
@@ -6309,107 +6309,107 @@
         <v>2050</v>
       </c>
       <c r="G15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.2004379525771102E-2</v>
       </c>
       <c r="H15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.99408028513777102</v>
       </c>
       <c r="I15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16416325549782501</v>
       </c>
       <c r="J15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>7.3213282321037701E-2</v>
       </c>
       <c r="K15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.2489372105217399E-2</v>
       </c>
       <c r="L15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.0156063450376601E-2</v>
       </c>
       <c r="M15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.5090501840783506E-2</v>
       </c>
       <c r="N15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.143903291650118</v>
       </c>
       <c r="O15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.75195572298293E-2</v>
       </c>
       <c r="P15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.5494427922832596E-2</v>
       </c>
       <c r="Q15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.110464759912835</v>
       </c>
       <c r="R15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.105081039730871</v>
       </c>
       <c r="S15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.7663078095158206E-2</v>
       </c>
       <c r="T15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40052753292342302</v>
       </c>
       <c r="U15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.108978094685117</v>
       </c>
       <c r="V15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14379631077765201</v>
       </c>
       <c r="W15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.117718063066032</v>
       </c>
       <c r="X15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5714550618035304E-2</v>
       </c>
       <c r="Y15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.190394965426499</v>
       </c>
       <c r="Z15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.36420350158753E-2</v>
       </c>
       <c r="AA15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.6287949813282703E-2</v>
       </c>
       <c r="AB15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7620506430678201E-2</v>
       </c>
       <c r="AC15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.8351665359049598E-2</v>
       </c>
       <c r="AD15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>5.6202585799816303E-2</v>
       </c>
       <c r="AE15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.117451717583548</v>
       </c>
       <c r="AF15" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
@@ -6425,107 +6425,107 @@
         <v>2020</v>
       </c>
       <c r="G16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16235731275947515</v>
       </c>
       <c r="H16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>3.8423660957334085</v>
       </c>
       <c r="I16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63453157307374231</v>
       </c>
       <c r="J16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.28298743869437681</v>
       </c>
       <c r="K16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24153687414440531</v>
       </c>
       <c r="L16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11656064154461539</v>
       </c>
       <c r="M16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3675483014419349</v>
       </c>
       <c r="N16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55622180337699523</v>
       </c>
       <c r="O16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22232731082767995</v>
       </c>
       <c r="P16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25315215790168288</v>
       </c>
       <c r="Q16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.42697361028901426</v>
       </c>
       <c r="R16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40616420062123709</v>
       </c>
       <c r="S16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3388394721798389</v>
       </c>
       <c r="T16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.5481379481330504</v>
       </c>
       <c r="U16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4212272815949526</v>
       </c>
       <c r="V16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.55580829585310521</v>
       </c>
       <c r="W16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45500942040877851</v>
       </c>
       <c r="X16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33130793169298151</v>
       </c>
       <c r="Y16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.73592361793165129</v>
       </c>
       <c r="Z16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.1382311003734881E-2</v>
       </c>
       <c r="AA16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.37217673393347922</v>
       </c>
       <c r="AB16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18406503187570397</v>
       </c>
       <c r="AC16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18689114191829229</v>
       </c>
       <c r="AD16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.21723689061978846</v>
       </c>
       <c r="AE16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45397992926309294</v>
       </c>
       <c r="AF16" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17505912318297531</v>
       </c>
     </row>
@@ -6541,108 +6541,108 @@
         <v>2050</v>
       </c>
       <c r="G17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.26045346019004401</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="H17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.1639203553045512</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="I17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0179149987024101</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="J17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45396820349853301</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="K17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.38747324382976506</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="L17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18698647998221901</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="M17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.58962066611279595</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="N17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.89229053413382609</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="O17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35665727903246103</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="P17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40610647195022492</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Q17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.68495069497951599</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="R17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.65156825805464502</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="S17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54356598713202597</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="T17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.4835215524915499</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="U17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.67573243947675998</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="V17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.89162718572295807</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="W17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.72992571723638999</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="X17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.53148389642096905</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Y17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1805680290473299</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="Z17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.146595423985277</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="AA17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.59704559349789399</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="AB17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29527696435231898</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="AC17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.29981060762935702</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="AD17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34849123135384003</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="AE17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.72827420843415902</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
       <c r="AF17" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28082969344526898</v>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="4:32" x14ac:dyDescent="0.25">
@@ -6657,107 +6657,107 @@
         <v>2020</v>
       </c>
       <c r="G18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13395677260860595</v>
       </c>
       <c r="I18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6779068407982807E-2</v>
       </c>
       <c r="T18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6352277307537207E-4</v>
       </c>
       <c r="U18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.6529102661710439E-2</v>
       </c>
       <c r="V18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.2704554615074527E-5</v>
       </c>
       <c r="AB18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF18" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6773,107 +6773,107 @@
         <v>2050</v>
       </c>
       <c r="G19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H19" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13599128494106499</v>
       </c>
       <c r="I19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S19" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7489540821759602E-2</v>
       </c>
       <c r="T19" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7056267691773199E-4</v>
       </c>
       <c r="U19" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.7235778638893701E-2</v>
       </c>
       <c r="V19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA19" s="16">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>9.4112535383546506E-5</v>
       </c>
       <c r="AB19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF19" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -6889,107 +6889,107 @@
         <v>2020</v>
       </c>
       <c r="G20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>41.184477806263274</v>
       </c>
       <c r="I20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.4385793540260186</v>
       </c>
       <c r="T20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2547565653239303</v>
       </c>
       <c r="U20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24571396736982151</v>
       </c>
       <c r="V20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.70149337318584271</v>
       </c>
       <c r="AB20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF20" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7005,107 +7005,107 @@
         <v>2050</v>
       </c>
       <c r="G21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="H21" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>40.411547456014503</v>
       </c>
       <c r="I21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="J21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="L21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="M21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="N21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="O21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="P21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="R21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="S21" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.3928132767411898</v>
       </c>
       <c r="T21" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2124403851853902</v>
       </c>
       <c r="U21" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24110252653151398</v>
       </c>
       <c r="V21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="W21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="X21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Y21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="Z21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AA21" s="15">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68832808501139198</v>
       </c>
       <c r="AB21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AC21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AD21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AE21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
       <c r="AF21" s="4">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CN$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -7882,10 +7882,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:Q57"/>
+  <dimension ref="C1:R57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7896,11 +7896,11 @@
     <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="15.88671875" customWidth="1"/>
-    <col min="11" max="12" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>190</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
@@ -7934,10 +7934,13 @@
         <v>2020</v>
       </c>
       <c r="K2" s="14">
+        <v>2030</v>
+      </c>
+      <c r="L2" s="14">
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="3:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7962,11 +7965,15 @@
         <v>2.2653176519999998</v>
       </c>
       <c r="K3">
+        <f>(J3*2/3)+(L3/3)</f>
+        <v>1.9610696723833332</v>
+      </c>
+      <c r="L3">
         <v>1.35257371315</v>
       </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7991,11 +7998,15 @@
         <v>22.058152969999998</v>
       </c>
       <c r="K4">
+        <f t="shared" ref="K4:K28" si="0">(J4*2/3)+(L4/3)</f>
+        <v>20.371927879499999</v>
+      </c>
+      <c r="L4">
         <v>16.999477698500002</v>
       </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8020,11 +8031,15 @@
         <v>0.82191421200000003</v>
       </c>
       <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1.0520667756000002</v>
+      </c>
+      <c r="L5">
         <v>1.5123719028</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8049,11 +8064,15 @@
         <v>5.7840131420000001</v>
       </c>
       <c r="K6">
+        <f t="shared" si="0"/>
+        <v>5.425879528816667</v>
+      </c>
+      <c r="L6">
         <v>4.7096123024500001</v>
       </c>
-      <c r="O6" s="2"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8078,11 +8097,15 @@
         <v>1.2574088990000001</v>
       </c>
       <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1.2069042374333334</v>
+      </c>
+      <c r="L7">
         <v>1.1058949143000001</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8107,11 +8130,15 @@
         <v>10.12574641</v>
       </c>
       <c r="K8">
+        <f t="shared" si="0"/>
+        <v>9.6351456128333322</v>
+      </c>
+      <c r="L8">
         <v>8.6539440184999989</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8136,11 +8163,15 @@
         <v>1.449528948</v>
       </c>
       <c r="K9">
+        <f t="shared" si="0"/>
+        <v>1.4808533143</v>
+      </c>
+      <c r="L9">
         <v>1.5435020469</v>
       </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8165,11 +8196,15 @@
         <v>14.23391084</v>
       </c>
       <c r="K10">
+        <f t="shared" si="0"/>
+        <v>12.450956954125866</v>
+      </c>
+      <c r="L10">
         <v>8.8850491823775997</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8194,11 +8229,15 @@
         <v>18.18372415</v>
       </c>
       <c r="K11">
+        <f t="shared" si="0"/>
+        <v>15.988176054166667</v>
+      </c>
+      <c r="L11">
         <v>11.597079862500001</v>
       </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8223,11 +8262,15 @@
         <v>2.2668447500000002</v>
       </c>
       <c r="K12">
+        <f t="shared" si="0"/>
+        <v>1.6954790646166666</v>
+      </c>
+      <c r="L12">
         <v>0.55274769385</v>
       </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8252,11 +8295,15 @@
         <v>7.0076904100000004</v>
       </c>
       <c r="K13">
+        <f t="shared" si="0"/>
+        <v>9.9931567838333351</v>
+      </c>
+      <c r="L13">
         <v>15.964089531500001</v>
       </c>
-      <c r="O13" s="2"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8281,11 +8328,15 @@
         <v>0.186509807</v>
       </c>
       <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0.13639114078333334</v>
+      </c>
+      <c r="L14">
         <v>3.6153808350000004E-2</v>
       </c>
-      <c r="O14" s="2"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="2"/>
+    </row>
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8310,11 +8361,15 @@
         <v>3.4153449619999998</v>
       </c>
       <c r="K15">
+        <f t="shared" si="0"/>
+        <v>3.7348343824833337</v>
+      </c>
+      <c r="L15">
         <v>4.3738132234500009</v>
       </c>
-      <c r="O15" s="2"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8339,11 +8394,15 @@
         <v>4.0998448639999996</v>
       </c>
       <c r="K16">
+        <f t="shared" si="0"/>
+        <v>4.1453782241999999</v>
+      </c>
+      <c r="L16">
         <v>4.2364449446000005</v>
       </c>
-      <c r="O16" s="2"/>
-    </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8367,12 +8426,16 @@
       <c r="J17">
         <v>10.76129175</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>13.512761870306244</v>
+      </c>
+      <c r="L17" s="1">
         <v>19.015702110918735</v>
       </c>
-      <c r="O17" s="2"/>
-    </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8396,12 +8459,16 @@
       <c r="J18">
         <v>23.13677727</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>25.67916695820422</v>
+      </c>
+      <c r="L18" s="1">
         <v>30.763946334612658</v>
       </c>
-      <c r="O18" s="2"/>
-    </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8425,12 +8492,16 @@
       <c r="J19">
         <v>19.908389740000001</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>22.083855678156205</v>
+      </c>
+      <c r="L19" s="1">
         <v>26.43478755446861</v>
       </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8454,12 +8525,16 @@
       <c r="J20">
         <v>11.754512350000001</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>11.065467907987845</v>
+      </c>
+      <c r="L20" s="1">
         <v>9.6873790239635298</v>
       </c>
-      <c r="O20" s="2"/>
-    </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8486,9 +8561,12 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="O21" s="2"/>
-    </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8513,12 +8591,16 @@
         <v>4.4094344637268001</v>
       </c>
       <c r="K22">
+        <f t="shared" si="0"/>
+        <v>4.1107229120604405</v>
+      </c>
+      <c r="L22">
         <f>H22</f>
         <v>3.5132998087277199</v>
       </c>
-      <c r="O22" s="2"/>
-    </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8543,12 +8625,14 @@
         <v>13.57977245</v>
       </c>
       <c r="K23">
-        <f>H23</f>
-        <v>21.784659175997099</v>
-      </c>
-      <c r="O23" s="2"/>
-    </row>
-    <row r="24" spans="4:17" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8573,12 +8657,16 @@
         <v>0.23</v>
       </c>
       <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0.23116440009552636</v>
+      </c>
+      <c r="L24">
         <f>H24</f>
         <v>0.23349320028657899</v>
       </c>
-      <c r="O24" s="2"/>
-    </row>
-    <row r="25" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8603,12 +8691,16 @@
         <v>46.814427170000002</v>
       </c>
       <c r="K25">
+        <f t="shared" si="0"/>
+        <v>46.521563664810671</v>
+      </c>
+      <c r="L25">
         <f>H25</f>
         <v>45.935836654432002</v>
       </c>
-      <c r="O25" s="2"/>
-    </row>
-    <row r="26" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8633,11 +8725,15 @@
         <v>225.3003382</v>
       </c>
       <c r="K26">
+        <f t="shared" si="0"/>
+        <v>397.11688316666664</v>
+      </c>
+      <c r="L26">
         <v>740.74997310000003</v>
       </c>
-      <c r="O26" s="2"/>
-    </row>
-    <row r="27" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8662,11 +8758,15 @@
         <v>788.3008562</v>
       </c>
       <c r="K27">
+        <f t="shared" si="0"/>
+        <v>940.31279246666668</v>
+      </c>
+      <c r="L27">
         <v>1244.336665</v>
       </c>
-      <c r="O27" s="2"/>
-    </row>
-    <row r="28" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P27" s="2"/>
+    </row>
+    <row r="28" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8691,11 +8791,15 @@
         <v>739.68368569999996</v>
       </c>
       <c r="K28">
+        <f t="shared" si="0"/>
+        <v>842.43810213333325</v>
+      </c>
+      <c r="L28">
         <v>1047.9469349999999</v>
       </c>
-      <c r="O28" s="2"/>
-    </row>
-    <row r="29" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="P28" s="2"/>
+    </row>
+    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8715,20 +8819,21 @@
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
-      <c r="K29">
+      <c r="K29" s="2"/>
+      <c r="L29">
         <v>8.3303707615599745</v>
       </c>
-      <c r="O29" s="2"/>
-      <c r="P29" t="str">
-        <f t="shared" ref="P29:P39" si="0">IF(P66&lt;&gt;"",P66*$H29,"")</f>
+      <c r="P29" s="2"/>
+      <c r="Q29" t="str">
+        <f t="shared" ref="Q29:Q39" si="1">IF(Q66&lt;&gt;"",Q66*$H29,"")</f>
         <v/>
       </c>
-      <c r="Q29" t="str">
-        <f t="shared" ref="Q29" si="1">IF(Q66&lt;&gt;"",Q66*$H29,"")</f>
+      <c r="R29" t="str">
+        <f t="shared" ref="R29" si="2">IF(R66&lt;&gt;"",R66*$H29,"")</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8748,20 +8853,21 @@
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
-      <c r="K30">
+      <c r="K30" s="2"/>
+      <c r="L30">
         <v>7.5247845525179748</v>
       </c>
-      <c r="O30" s="2"/>
-      <c r="P30" t="str">
-        <f t="shared" si="0"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q30" t="str">
-        <f t="shared" ref="Q30:Q39" si="2">IF(Q67&lt;&gt;"",Q67*$H30,"")</f>
+      <c r="R30" t="str">
+        <f t="shared" ref="R30:R39" si="3">IF(R67&lt;&gt;"",R67*$H30,"")</f>
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8781,20 +8887,21 @@
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
-      <c r="K31">
+      <c r="K31" s="2"/>
+      <c r="L31">
         <v>5.7762096629087072</v>
       </c>
-      <c r="O31" s="2"/>
-      <c r="P31" t="str">
-        <f t="shared" si="0"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q31" t="str">
-        <f t="shared" si="2"/>
+      <c r="R31" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D32" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8814,20 +8921,21 @@
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
-      <c r="K32">
+      <c r="K32" s="2"/>
+      <c r="L32">
         <v>2.8258260553410754</v>
       </c>
-      <c r="O32" s="2"/>
-      <c r="P32" t="str">
-        <f t="shared" si="0"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q32" t="str">
-        <f t="shared" si="2"/>
+      <c r="R32" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D33" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8847,20 +8955,21 @@
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
-      <c r="K33">
+      <c r="K33" s="2"/>
+      <c r="L33">
         <v>0.86352973225925755</v>
       </c>
-      <c r="O33" s="2"/>
-      <c r="P33" t="str">
-        <f t="shared" si="0"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q33" t="str">
-        <f t="shared" si="2"/>
+      <c r="R33" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D34" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8880,20 +8989,21 @@
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="K34">
+      <c r="K34" s="2"/>
+      <c r="L34">
         <v>0.80798776317929155</v>
       </c>
-      <c r="O34" s="2"/>
-      <c r="P34" t="str">
-        <f t="shared" si="0"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q34" t="str">
-        <f t="shared" si="2"/>
+      <c r="R34" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D35" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8913,20 +9023,21 @@
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
-      <c r="K35">
+      <c r="K35" s="2"/>
+      <c r="L35">
         <v>23.587286108700724</v>
       </c>
-      <c r="O35" s="2"/>
-      <c r="P35" t="str">
-        <f t="shared" si="0"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q35" t="str">
-        <f t="shared" si="2"/>
+      <c r="R35" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D36" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8946,20 +9057,21 @@
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
-      <c r="K36">
+      <c r="K36" s="2"/>
+      <c r="L36">
         <v>0.55087144494553486</v>
       </c>
-      <c r="O36" s="2"/>
-      <c r="P36" t="str">
-        <f t="shared" si="0"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q36" t="str">
-        <f t="shared" si="2"/>
+      <c r="R36" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D37" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8979,20 +9091,21 @@
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
-      <c r="K37">
+      <c r="K37" s="2"/>
+      <c r="L37">
         <v>1.7006066461478033</v>
       </c>
-      <c r="O37" s="2"/>
-      <c r="P37" t="str">
-        <f t="shared" si="0"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q37" t="str">
-        <f t="shared" si="2"/>
+      <c r="R37" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D38" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9012,20 +9125,21 @@
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
-      <c r="K38">
+      <c r="K38" s="2"/>
+      <c r="L38">
         <v>0.75018311632173929</v>
       </c>
-      <c r="O38" s="2"/>
-      <c r="P38" t="str">
-        <f t="shared" si="0"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q38" t="str">
-        <f t="shared" si="2"/>
+      <c r="R38" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D39" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9045,20 +9159,21 @@
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
-      <c r="K39">
+      <c r="K39" s="2"/>
+      <c r="L39">
         <v>5.3069347641179023</v>
       </c>
-      <c r="O39" s="2"/>
-      <c r="P39" t="str">
-        <f t="shared" si="0"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="str">
+        <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Q39" t="str">
-        <f t="shared" si="2"/>
+      <c r="R39" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D40" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9078,11 +9193,12 @@
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
-      <c r="K40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.3">
+      <c r="K40" s="2"/>
+      <c r="L40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D41" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9099,11 +9215,11 @@
       <c r="H41">
         <v>7.8120000000000003</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>32.865000000000002</v>
       </c>
     </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D43" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9123,11 +9239,12 @@
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
-      <c r="K43">
+      <c r="K43" s="2"/>
+      <c r="L43">
         <v>10.047893325490021</v>
       </c>
     </row>
-    <row r="44" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D44" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9147,11 +9264,12 @@
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
-      <c r="K44">
+      <c r="K44" s="2"/>
+      <c r="L44">
         <v>16.878788423834521</v>
       </c>
     </row>
-    <row r="45" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D45" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9171,11 +9289,12 @@
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
-      <c r="K45">
+      <c r="K45" s="2"/>
+      <c r="L45">
         <v>14.214862498864701</v>
       </c>
     </row>
-    <row r="46" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D46" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9195,11 +9314,12 @@
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
-      <c r="K46">
+      <c r="K46" s="2"/>
+      <c r="L46">
         <v>0.179228357755223</v>
       </c>
     </row>
-    <row r="47" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D47" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9219,11 +9339,12 @@
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
-      <c r="K47">
+      <c r="K47" s="2"/>
+      <c r="L47">
         <v>0.30107381041032272</v>
       </c>
     </row>
-    <row r="48" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D48" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9243,11 +9364,12 @@
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
-      <c r="K48">
+      <c r="K48" s="2"/>
+      <c r="L48">
         <v>0.2535562807901901</v>
       </c>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D49" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9267,11 +9389,12 @@
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
-      <c r="K49">
+      <c r="K49" s="2"/>
+      <c r="L49">
         <v>5.3250910380053398</v>
       </c>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9291,11 +9414,12 @@
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
-      <c r="K50">
+      <c r="K50" s="2"/>
+      <c r="L50">
         <v>8.9452666401358414</v>
       </c>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D51" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9315,11 +9439,12 @@
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
-      <c r="K51">
+      <c r="K51" s="2"/>
+      <c r="L51">
         <v>7.5334634283143167</v>
       </c>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D52" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9339,11 +9464,12 @@
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
-      <c r="K52">
+      <c r="K52" s="2"/>
+      <c r="L52">
         <v>0.89996641800005883</v>
       </c>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D53" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9363,11 +9489,12 @@
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
-      <c r="K53">
+      <c r="K53" s="2"/>
+      <c r="L53">
         <v>1.5117937925797396</v>
       </c>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D54" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9387,11 +9514,12 @@
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="K54">
+      <c r="K54" s="2"/>
+      <c r="L54">
         <v>1.2731921479513455</v>
       </c>
     </row>
-    <row r="55" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D55" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9411,11 +9539,12 @@
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
-      <c r="K55">
+      <c r="K55" s="2"/>
+      <c r="L55">
         <v>1.4030879288454441</v>
       </c>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D56" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9435,11 +9564,12 @@
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
-      <c r="K56">
+      <c r="K56" s="2"/>
+      <c r="L56">
         <v>2.3569541916751464</v>
       </c>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D57" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9459,7 +9589,8 @@
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="K57">
+      <c r="K57" s="2"/>
+      <c r="L57">
         <v>1.9849635477078642</v>
       </c>
     </row>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96AD5E0-4E6B-4D7D-B3E8-BBF65A6DD8B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>22860</xdr:colOff>
+          <xdr:colOff>19050</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1399,21 +1399,21 @@
       <selection activeCell="I5" sqref="I5:J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.109375" style="4"/>
-    <col min="7" max="7" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.109375" style="4"/>
-    <col min="9" max="9" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="6" width="9.140625" style="4"/>
+    <col min="7" max="7" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="4"/>
+    <col min="9" max="9" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C4" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="4" t="s">
         <v>92</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="4" t="s">
         <v>92</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="4" t="s">
         <v>92</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>0.67368745787157902</v>
       </c>
       <c r="S8" s="23">
-        <v>1.1456149031137901</v>
+        <v>1.1456149031137799</v>
       </c>
       <c r="T8" s="23">
         <v>0.49378011021821799</v>
@@ -1830,7 +1830,7 @@
         <v>0.86102306186829503</v>
       </c>
       <c r="AG8" s="23">
-        <v>0.451316097288887</v>
+        <v>0.451316097288886</v>
       </c>
       <c r="AH8" s="23">
         <v>0.37617525772313698</v>
@@ -1845,7 +1845,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="4" t="s">
         <v>92</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="4" t="s">
         <v>92</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>44</v>
       </c>
       <c r="J11" s="23">
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="23">
@@ -2142,7 +2142,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="4" t="s">
         <v>92</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="4" t="s">
         <v>92</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="4" t="s">
         <v>92</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="4" t="s">
         <v>92</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="AJ15" s="24"/>
       <c r="AK15" s="24"/>
     </row>
-    <row r="16" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="4" t="s">
         <v>92</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="AJ16" s="24"/>
       <c r="AK16" s="24"/>
     </row>
-    <row r="17" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="4" t="s">
         <v>92</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="AJ17" s="24"/>
       <c r="AK17" s="24"/>
     </row>
-    <row r="18" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="4" t="s">
         <v>92</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
     </row>
-    <row r="19" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="4" t="s">
         <v>92</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="AJ19" s="24"/>
       <c r="AK19" s="24"/>
     </row>
-    <row r="20" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="4" t="s">
         <v>92</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
     </row>
-    <row r="21" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="AJ21" s="24"/>
       <c r="AK21" s="24"/>
     </row>
-    <row r="22" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="4" t="s">
         <v>92</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="AJ22" s="24"/>
       <c r="AK22" s="24"/>
     </row>
-    <row r="23" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="4" t="s">
         <v>92</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="AJ23" s="24"/>
       <c r="AK23" s="24"/>
     </row>
-    <row r="24" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="AJ24" s="24"/>
       <c r="AK24" s="24"/>
     </row>
-    <row r="25" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
@@ -2945,12 +2945,8 @@
       <c r="I25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="23">
-        <v>12.7133829170957</v>
-      </c>
-      <c r="K25" s="23">
-        <v>12.7133829170957</v>
-      </c>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -2978,7 +2974,7 @@
       <c r="AJ25" s="24"/>
       <c r="AK25" s="24"/>
     </row>
-    <row r="26" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="4" t="s">
         <v>92</v>
       </c>
@@ -2994,12 +2990,8 @@
       <c r="I26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="23">
-        <v>11.4839387329157</v>
-      </c>
-      <c r="K26" s="23">
-        <v>11.4839387329157</v>
-      </c>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -3027,7 +3019,7 @@
       <c r="AJ26" s="24"/>
       <c r="AK26" s="24"/>
     </row>
-    <row r="27" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="4" t="s">
         <v>92</v>
       </c>
@@ -3043,12 +3035,8 @@
       <c r="I27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="23">
-        <v>8.8153537670115707</v>
-      </c>
-      <c r="K27" s="23">
-        <v>8.8153537670115707</v>
-      </c>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -3076,7 +3064,7 @@
       <c r="AJ27" s="24"/>
       <c r="AK27" s="24"/>
     </row>
-    <row r="28" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="4" t="s">
         <v>92</v>
       </c>
@@ -3092,12 +3080,8 @@
       <c r="I28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="23">
-        <v>4.3126302226859501</v>
-      </c>
-      <c r="K28" s="23">
-        <v>4.3126302226859501</v>
-      </c>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -3125,7 +3109,7 @@
       <c r="AJ28" s="24"/>
       <c r="AK28" s="24"/>
     </row>
-    <row r="29" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="4" t="s">
         <v>92</v>
       </c>
@@ -3141,12 +3125,8 @@
       <c r="I29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="23">
-        <v>1.3178746133407899</v>
-      </c>
-      <c r="K29" s="23">
-        <v>1.3178746133407899</v>
-      </c>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -3174,7 +3154,7 @@
       <c r="AJ29" s="24"/>
       <c r="AK29" s="24"/>
     </row>
-    <row r="30" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="4" t="s">
         <v>92</v>
       </c>
@@ -3190,12 +3170,8 @@
       <c r="I30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="23">
-        <v>1.2331093201030401</v>
-      </c>
-      <c r="K30" s="23">
-        <v>1.2331093201030401</v>
-      </c>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
@@ -3223,7 +3199,7 @@
       <c r="AJ30" s="24"/>
       <c r="AK30" s="24"/>
     </row>
-    <row r="31" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="4" t="s">
         <v>92</v>
       </c>
@@ -3239,12 +3215,8 @@
       <c r="I31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="23">
-        <v>35.9977015327608</v>
-      </c>
-      <c r="K31" s="23">
-        <v>35.9977015327608</v>
-      </c>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
@@ -3272,7 +3244,7 @@
       <c r="AJ31" s="24"/>
       <c r="AK31" s="24"/>
     </row>
-    <row r="32" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
@@ -3288,12 +3260,8 @@
       <c r="I32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="23">
-        <v>0.84071163403600102</v>
-      </c>
-      <c r="K32" s="23">
-        <v>0.84071163403600102</v>
-      </c>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -3321,7 +3289,7 @@
       <c r="AJ32" s="24"/>
       <c r="AK32" s="24"/>
     </row>
-    <row r="33" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="4" t="s">
         <v>92</v>
       </c>
@@ -3337,12 +3305,8 @@
       <c r="I33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="23">
-        <v>2.5953782987835501</v>
-      </c>
-      <c r="K33" s="23">
-        <v>2.5953782987835501</v>
-      </c>
+      <c r="J33" s="23"/>
+      <c r="K33" s="23"/>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
@@ -3370,7 +3334,7 @@
       <c r="AJ33" s="24"/>
       <c r="AK33" s="24"/>
     </row>
-    <row r="34" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="4" t="s">
         <v>92</v>
       </c>
@@ -3386,12 +3350,8 @@
       <c r="I34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="23">
-        <v>1.1448908452668201</v>
-      </c>
-      <c r="K34" s="23">
-        <v>1.1448908452668201</v>
-      </c>
+      <c r="J34" s="23"/>
+      <c r="K34" s="23"/>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -3419,7 +3379,7 @@
       <c r="AJ34" s="24"/>
       <c r="AK34" s="24"/>
     </row>
-    <row r="35" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="4" t="s">
         <v>92</v>
       </c>
@@ -3435,12 +3395,8 @@
       <c r="I35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="23">
-        <v>8.0991705816317694</v>
-      </c>
-      <c r="K35" s="23">
-        <v>8.0991705816317694</v>
-      </c>
+      <c r="J35" s="23"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
@@ -3468,7 +3424,7 @@
       <c r="AJ35" s="24"/>
       <c r="AK35" s="24"/>
     </row>
-    <row r="36" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3513,7 +3469,7 @@
       <c r="AJ36" s="24"/>
       <c r="AK36" s="24"/>
     </row>
-    <row r="37" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
@@ -3562,7 +3518,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
     </row>
-    <row r="38" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
@@ -3611,7 +3567,7 @@
       <c r="AJ38" s="24"/>
       <c r="AK38" s="24"/>
     </row>
-    <row r="39" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
@@ -3660,7 +3616,7 @@
       <c r="AJ39" s="24"/>
       <c r="AK39" s="24"/>
     </row>
-    <row r="40" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="4" t="s">
         <v>92</v>
       </c>
@@ -3709,7 +3665,7 @@
       <c r="AJ40" s="24"/>
       <c r="AK40" s="24"/>
     </row>
-    <row r="41" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="4" t="s">
         <v>92</v>
       </c>
@@ -3758,7 +3714,7 @@
       <c r="AJ41" s="24"/>
       <c r="AK41" s="24"/>
     </row>
-    <row r="42" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C42" s="4" t="s">
         <v>92</v>
       </c>
@@ -3807,7 +3763,7 @@
       <c r="AJ42" s="24"/>
       <c r="AK42" s="24"/>
     </row>
-    <row r="43" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C43" s="4" t="s">
         <v>92</v>
       </c>
@@ -3856,7 +3812,7 @@
       <c r="AJ43" s="24"/>
       <c r="AK43" s="24"/>
     </row>
-    <row r="44" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C44" s="4" t="s">
         <v>92</v>
       </c>
@@ -3905,7 +3861,7 @@
       <c r="AJ44" s="24"/>
       <c r="AK44" s="24"/>
     </row>
-    <row r="45" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C45" s="4" t="s">
         <v>92</v>
       </c>
@@ -3954,7 +3910,7 @@
       <c r="AJ45" s="24"/>
       <c r="AK45" s="24"/>
     </row>
-    <row r="46" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C46" s="4" t="s">
         <v>92</v>
       </c>
@@ -4003,7 +3959,7 @@
       <c r="AJ46" s="24"/>
       <c r="AK46" s="24"/>
     </row>
-    <row r="47" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C47" s="4" t="s">
         <v>92</v>
       </c>
@@ -4052,7 +4008,7 @@
       <c r="AJ47" s="24"/>
       <c r="AK47" s="24"/>
     </row>
-    <row r="48" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4101,7 +4057,7 @@
       <c r="AJ48" s="24"/>
       <c r="AK48" s="24"/>
     </row>
-    <row r="49" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -4150,7 +4106,7 @@
       <c r="AJ49" s="24"/>
       <c r="AK49" s="24"/>
     </row>
-    <row r="50" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C50" s="4" t="s">
         <v>92</v>
       </c>
@@ -4199,7 +4155,7 @@
       <c r="AJ50" s="24"/>
       <c r="AK50" s="24"/>
     </row>
-    <row r="51" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C51" s="4" t="s">
         <v>92</v>
       </c>
@@ -4244,7 +4200,7 @@
       <c r="AJ51" s="24"/>
       <c r="AK51" s="24"/>
     </row>
-    <row r="52" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C52" s="4" t="s">
         <v>92</v>
       </c>
@@ -4289,7 +4245,7 @@
       <c r="AJ52" s="24"/>
       <c r="AK52" s="24"/>
     </row>
-    <row r="53" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C53" s="4" t="s">
         <v>92</v>
       </c>
@@ -4334,7 +4290,7 @@
       <c r="AJ53" s="24"/>
       <c r="AK53" s="24"/>
     </row>
-    <row r="54" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C54" s="4" t="s">
         <v>92</v>
       </c>
@@ -4379,7 +4335,7 @@
       <c r="AJ54" s="24"/>
       <c r="AK54" s="24"/>
     </row>
-    <row r="55" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C55" s="4" t="s">
         <v>92</v>
       </c>
@@ -4424,7 +4380,7 @@
       <c r="AJ55" s="24"/>
       <c r="AK55" s="24"/>
     </row>
-    <row r="56" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C56" s="4" t="s">
         <v>92</v>
       </c>
@@ -4469,7 +4425,7 @@
       <c r="AJ56" s="24"/>
       <c r="AK56" s="24"/>
     </row>
-    <row r="57" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C57" s="4" t="s">
         <v>92</v>
       </c>
@@ -4514,7 +4470,7 @@
       <c r="AJ57" s="24"/>
       <c r="AK57" s="24"/>
     </row>
-    <row r="58" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C58" s="4" t="s">
         <v>92</v>
       </c>
@@ -4559,7 +4515,7 @@
       <c r="AJ58" s="24"/>
       <c r="AK58" s="24"/>
     </row>
-    <row r="59" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C59" s="4" t="s">
         <v>92</v>
       </c>
@@ -4604,7 +4560,7 @@
       <c r="AJ59" s="24"/>
       <c r="AK59" s="24"/>
     </row>
-    <row r="60" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C60" s="4" t="s">
         <v>92</v>
       </c>
@@ -4649,7 +4605,7 @@
       <c r="AJ60" s="24"/>
       <c r="AK60" s="24"/>
     </row>
-    <row r="61" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C61" s="4" t="s">
         <v>92</v>
       </c>
@@ -4694,7 +4650,7 @@
       <c r="AJ61" s="24"/>
       <c r="AK61" s="24"/>
     </row>
-    <row r="62" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C62" s="4" t="s">
         <v>92</v>
       </c>
@@ -4739,7 +4695,7 @@
       <c r="AJ62" s="24"/>
       <c r="AK62" s="24"/>
     </row>
-    <row r="63" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
@@ -4784,7 +4740,7 @@
       <c r="AJ63" s="24"/>
       <c r="AK63" s="24"/>
     </row>
-    <row r="64" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C64" s="4" t="s">
         <v>92</v>
       </c>
@@ -4829,7 +4785,7 @@
       <c r="AJ64" s="24"/>
       <c r="AK64" s="24"/>
     </row>
-    <row r="65" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C65" s="4" t="s">
         <v>92</v>
       </c>
@@ -4888,19 +4844,19 @@
       <selection activeCell="G12" sqref="G12:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.109375" style="4"/>
-    <col min="4" max="4" width="11.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.109375" style="4"/>
+    <col min="1" max="3" width="9.140625" style="4"/>
+    <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
         <v>91</v>
       </c>
@@ -5021,7 +4977,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
@@ -5137,7 +5093,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
@@ -5253,7 +5209,7 @@
         <v>0.2713201852314594</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D6" s="4" t="s">
         <v>85</v>
       </c>
@@ -5369,7 +5325,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
@@ -5485,7 +5441,7 @@
         <v>0.46884077905903881</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D8" s="4" t="s">
         <v>85</v>
       </c>
@@ -5526,7 +5482,7 @@
       </c>
       <c r="N8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085977</v>
+        <v>0.84062004677085211</v>
       </c>
       <c r="O8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5582,7 +5538,7 @@
       </c>
       <c r="AB8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916793</v>
+        <v>0.33116307912916709</v>
       </c>
       <c r="AC8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5601,7 +5557,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>85</v>
       </c>
@@ -5642,7 +5598,7 @@
       </c>
       <c r="N9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1161933556970411</v>
+        <v>1.1161933556970312</v>
       </c>
       <c r="O9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5698,7 +5654,7 @@
       </c>
       <c r="AB9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.43972545027457505</v>
+        <v>0.43972545027457405</v>
       </c>
       <c r="AC9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5717,7 +5673,7 @@
         <v>0.41709875548708081</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D10" s="4" t="s">
         <v>85</v>
       </c>
@@ -5833,7 +5789,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D11" s="4" t="s">
         <v>85</v>
       </c>
@@ -5949,7 +5905,7 @@
         <v>0.12881123700615976</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D12" s="4" t="s">
         <v>85</v>
       </c>
@@ -6065,7 +6021,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D13" s="4" t="s">
         <v>85</v>
       </c>
@@ -6181,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D14" s="4" t="s">
         <v>85</v>
       </c>
@@ -6194,110 +6150,110 @@
       </c>
       <c r="G14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341085E-2</v>
+        <v>5.2718404005341231E-2</v>
       </c>
       <c r="H14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090449</v>
+        <v>1.2476395718090483</v>
       </c>
       <c r="I14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526826</v>
+        <v>0.20603624964526884</v>
       </c>
       <c r="J14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560083E-2</v>
+        <v>9.1887737410560347E-2</v>
       </c>
       <c r="K14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740468913E-2</v>
+        <v>7.8428487740469136E-2</v>
       </c>
       <c r="L14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898689E-2</v>
+        <v>3.7847947145898793E-2</v>
       </c>
       <c r="M14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092786</v>
+        <v>0.11934516233092819</v>
       </c>
       <c r="N14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580502</v>
+        <v>0.18060859254580552</v>
       </c>
       <c r="O14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654344E-2</v>
+        <v>7.2191026042654552E-2</v>
       </c>
       <c r="P14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796554E-2</v>
+        <v>8.2200040812796776E-2</v>
       </c>
       <c r="Q14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508789</v>
+        <v>0.13864092047508828</v>
       </c>
       <c r="R14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544479</v>
+        <v>0.13188397896544515</v>
       </c>
       <c r="S14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607345</v>
+        <v>0.11002323137607375</v>
       </c>
       <c r="T14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.502689779835093</v>
+        <v>0.50268977983509444</v>
       </c>
       <c r="U14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13677505270176574</v>
+        <v>0.1367750527017661</v>
       </c>
       <c r="V14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524345</v>
+        <v>0.18047432414524395</v>
       </c>
       <c r="W14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316512</v>
+        <v>0.14774431803316554</v>
       </c>
       <c r="X14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1075776945079131</v>
+        <v>0.10757769450791341</v>
       </c>
       <c r="Y14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297882</v>
+        <v>0.23895886146297948</v>
       </c>
       <c r="Z14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.9672390535149896E-2</v>
+        <v>2.967239053514998E-2</v>
       </c>
       <c r="AA14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824863</v>
+        <v>0.12084804242824897</v>
       </c>
       <c r="AB14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341748E-2</v>
+        <v>5.9767032040341915E-2</v>
       </c>
       <c r="AC14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.0684687109007783E-2</v>
+        <v>6.068468710900795E-2</v>
       </c>
       <c r="AD14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292298E-2</v>
+        <v>7.0538135732292492E-2</v>
       </c>
       <c r="AE14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14741003601521568</v>
+        <v>0.1474100360152161</v>
       </c>
       <c r="AF14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006463E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+        <v>5.6842758875006623E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D15" s="4" t="s">
         <v>85</v>
       </c>
@@ -6314,7 +6270,7 @@
       </c>
       <c r="H15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99408028513777102</v>
+        <v>0.99408028513777114</v>
       </c>
       <c r="I15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6358,7 +6314,7 @@
       </c>
       <c r="S15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7663078095158206E-2</v>
+        <v>8.7663078095158192E-2</v>
       </c>
       <c r="T15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6374,7 +6330,7 @@
       </c>
       <c r="W15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.117718063066032</v>
+        <v>0.11771806306603201</v>
       </c>
       <c r="X15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6410,10 +6366,10 @@
       </c>
       <c r="AF15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.5290536808279797E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+        <v>4.529053680827979E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D16" s="4" t="s">
         <v>85</v>
       </c>
@@ -6529,7 +6485,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D17" s="4" t="s">
         <v>85</v>
       </c>
@@ -6645,7 +6601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D18" s="4" t="s">
         <v>85</v>
       </c>
@@ -6761,7 +6717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D19" s="4" t="s">
         <v>85</v>
       </c>
@@ -6877,7 +6833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D20" s="4" t="s">
         <v>85</v>
       </c>
@@ -6993,7 +6949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D21" s="4" t="s">
         <v>85</v>
       </c>
@@ -7122,40 +7078,40 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5546875" style="4" customWidth="1"/>
-    <col min="25" max="25" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="4" customWidth="1"/>
+    <col min="25" max="25" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.109375" style="4"/>
+    <col min="29" max="29" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="21" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -7269,12 +7225,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>159</v>
       </c>
@@ -7389,7 +7345,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>158</v>
       </c>
@@ -7506,7 +7462,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -7623,7 +7579,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>156</v>
       </c>
@@ -7631,7 +7587,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="19" t="s">
         <v>102</v>
       </c>
@@ -7639,7 +7595,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="18" t="s">
         <v>125</v>
       </c>
@@ -7647,7 +7603,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="18" t="s">
         <v>114</v>
       </c>
@@ -7655,7 +7611,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="18" t="s">
         <v>115</v>
       </c>
@@ -7663,7 +7619,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>126</v>
       </c>
@@ -7671,7 +7627,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>103</v>
       </c>
@@ -7679,7 +7635,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>120</v>
       </c>
@@ -7687,7 +7643,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>116</v>
       </c>
@@ -7695,7 +7651,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="18" t="s">
         <v>104</v>
       </c>
@@ -7703,7 +7659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="18" t="s">
         <v>105</v>
       </c>
@@ -7711,7 +7667,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="18" t="s">
         <v>106</v>
       </c>
@@ -7719,7 +7675,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="18" t="s">
         <v>121</v>
       </c>
@@ -7727,7 +7683,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="18" t="s">
         <v>117</v>
       </c>
@@ -7735,7 +7691,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>107</v>
       </c>
@@ -7743,7 +7699,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>108</v>
       </c>
@@ -7751,7 +7707,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="18" t="s">
         <v>122</v>
       </c>
@@ -7759,7 +7715,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>109</v>
       </c>
@@ -7767,7 +7723,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>127</v>
       </c>
@@ -7775,7 +7731,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>110</v>
       </c>
@@ -7783,7 +7739,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
@@ -7791,7 +7747,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="18" t="s">
         <v>124</v>
       </c>
@@ -7799,7 +7755,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="18" t="s">
         <v>118</v>
       </c>
@@ -7807,7 +7763,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="18" t="s">
         <v>119</v>
       </c>
@@ -7815,7 +7771,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="18" t="s">
         <v>111</v>
       </c>
@@ -7823,7 +7779,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="18" t="s">
         <v>112</v>
       </c>
@@ -7831,7 +7787,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="18" t="s">
         <v>113</v>
       </c>
@@ -7839,7 +7795,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="17" t="s">
         <v>128</v>
       </c>
@@ -7865,7 +7821,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>22860</xdr:colOff>
+                    <xdr:colOff>19050</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7888,19 +7844,19 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.88671875" customWidth="1"/>
-    <col min="12" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>190</v>
       </c>
@@ -7908,7 +7864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
@@ -7940,7 +7896,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7973,7 +7929,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8006,7 +7962,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8039,7 +7995,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8072,7 +8028,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8105,7 +8061,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8138,7 +8094,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8171,7 +8127,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8204,7 +8160,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8237,7 +8193,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8270,7 +8226,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8303,7 +8259,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8336,7 +8292,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8369,7 +8325,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8402,7 +8358,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8435,7 +8391,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8468,7 +8424,7 @@
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8501,7 +8457,7 @@
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8534,7 +8490,7 @@
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8566,7 +8522,7 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8582,7 +8538,7 @@
       </c>
       <c r="H22" s="2">
         <f>VLOOKUP(F22,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="I22">
         <v>4.2966351471015702</v>
@@ -8592,15 +8548,15 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>4.1107229120604405</v>
+        <v>4.1107229120604369</v>
       </c>
       <c r="L22">
         <f>H22</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8632,7 +8588,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8666,7 +8622,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8700,7 +8656,7 @@
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8733,7 +8689,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8766,7 +8722,7 @@
       </c>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8799,7 +8755,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8815,7 +8771,7 @@
       </c>
       <c r="H29" s="2">
         <f>VLOOKUP(F29,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>12.7133829170957</v>
+        <v>0</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -8833,7 +8789,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8849,7 +8805,7 @@
       </c>
       <c r="H30" s="2">
         <f>VLOOKUP(F30,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>11.4839387329157</v>
+        <v>0</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -8867,7 +8823,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8883,7 +8839,7 @@
       </c>
       <c r="H31" s="2">
         <f>VLOOKUP(F31,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>8.8153537670115707</v>
+        <v>0</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -8901,7 +8857,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8917,7 +8873,7 @@
       </c>
       <c r="H32" s="2">
         <f>VLOOKUP(F32,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>4.3126302226859501</v>
+        <v>0</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -8935,7 +8891,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D33" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8951,7 +8907,7 @@
       </c>
       <c r="H33" s="2">
         <f>VLOOKUP(F33,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>1.3178746133407899</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -8969,7 +8925,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D34" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8985,7 +8941,7 @@
       </c>
       <c r="H34" s="2">
         <f>VLOOKUP(F34,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>1.2331093201030401</v>
+        <v>0</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -9003,7 +8959,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D35" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9019,7 +8975,7 @@
       </c>
       <c r="H35" s="2">
         <f>VLOOKUP(F35,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>35.9977015327608</v>
+        <v>0</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -9037,7 +8993,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D36" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9053,7 +9009,7 @@
       </c>
       <c r="H36" s="2">
         <f>VLOOKUP(F36,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0.84071163403600102</v>
+        <v>0</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -9071,7 +9027,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D37" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9087,7 +9043,7 @@
       </c>
       <c r="H37" s="2">
         <f>VLOOKUP(F37,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>2.5953782987835501</v>
+        <v>0</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -9105,7 +9061,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D38" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9121,7 +9077,7 @@
       </c>
       <c r="H38" s="2">
         <f>VLOOKUP(F38,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>1.1448908452668201</v>
+        <v>0</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -9139,7 +9095,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D39" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9155,7 +9111,7 @@
       </c>
       <c r="H39" s="2">
         <f>VLOOKUP(F39,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>8.0991705816317694</v>
+        <v>0</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -9173,7 +9129,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9198,7 +9154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9219,7 +9175,7 @@
         <v>32.865000000000002</v>
       </c>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D43" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9244,7 +9200,7 @@
         <v>10.047893325490021</v>
       </c>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D44" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9269,7 +9225,7 @@
         <v>16.878788423834521</v>
       </c>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D45" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9294,7 +9250,7 @@
         <v>14.214862498864701</v>
       </c>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D46" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9319,7 +9275,7 @@
         <v>0.179228357755223</v>
       </c>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D47" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9344,7 +9300,7 @@
         <v>0.30107381041032272</v>
       </c>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D48" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9369,7 +9325,7 @@
         <v>0.2535562807901901</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D49" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9394,7 +9350,7 @@
         <v>5.3250910380053398</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9419,7 +9375,7 @@
         <v>8.9452666401358414</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D51" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9444,7 +9400,7 @@
         <v>7.5334634283143167</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D52" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9469,7 +9425,7 @@
         <v>0.89996641800005883</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D53" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9494,7 +9450,7 @@
         <v>1.5117937925797396</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D54" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9519,7 +9475,7 @@
         <v>1.2731921479513455</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D55" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9544,7 +9500,7 @@
         <v>1.4030879288454441</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D56" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9569,7 +9525,7 @@
         <v>2.3569541916751464</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D57" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9607,15 +9563,15 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.7109375" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="28" t="s">
         <v>191</v>
       </c>
@@ -9623,7 +9579,7 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="3:14" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C5" s="30" t="s">
         <v>91</v>
       </c>
@@ -9656,7 +9612,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="31" t="s">
         <v>194</v>
       </c>
@@ -9673,7 +9629,7 @@
       <c r="L6" s="31"/>
       <c r="N6" s="33"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" t="s">
@@ -9699,7 +9655,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" t="s">
@@ -9725,7 +9681,7 @@
       </c>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" t="s">
@@ -9751,7 +9707,7 @@
       </c>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="32" t="s">
         <v>200</v>
       </c>
@@ -9779,7 +9735,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="32" t="s">
         <v>200</v>
       </c>
@@ -9807,7 +9763,7 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="32" t="s">
         <v>200</v>
       </c>
@@ -9835,7 +9791,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" t="s">
@@ -9861,7 +9817,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" t="s">
@@ -9887,7 +9843,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" t="s">
@@ -9913,7 +9869,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" t="s">
@@ -9939,7 +9895,7 @@
       </c>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" t="s">
@@ -9965,7 +9921,7 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" t="s">
@@ -9991,7 +9947,7 @@
       </c>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" t="s">
@@ -10017,7 +9973,7 @@
       </c>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" t="s">
@@ -10043,7 +9999,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" t="s">
@@ -10069,7 +10025,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>195</v>
       </c>
@@ -10092,7 +10048,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>195</v>
       </c>
@@ -10115,7 +10071,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>195</v>
       </c>
@@ -10138,7 +10094,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>200</v>
       </c>
@@ -10164,7 +10120,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>200</v>
       </c>
@@ -10190,7 +10146,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>200</v>
       </c>
@@ -10216,7 +10172,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>195</v>
       </c>
@@ -10239,7 +10195,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>195</v>
       </c>
@@ -10262,7 +10218,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>195</v>
       </c>
@@ -10285,7 +10241,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>195</v>
       </c>
@@ -10308,7 +10264,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -10331,7 +10287,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>195</v>
       </c>
@@ -10354,7 +10310,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>195</v>
       </c>
@@ -10377,7 +10333,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>195</v>
       </c>
@@ -10400,7 +10356,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>195</v>
       </c>
@@ -10423,7 +10379,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>195</v>
       </c>
@@ -10446,7 +10402,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>195</v>
       </c>
@@ -10469,7 +10425,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>195</v>
       </c>
@@ -10492,7 +10448,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>195</v>
       </c>
@@ -10515,7 +10471,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>195</v>
       </c>
@@ -10538,7 +10494,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>195</v>
       </c>
@@ -10561,7 +10517,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>195</v>
       </c>
@@ -10584,7 +10540,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>195</v>
       </c>
@@ -10607,7 +10563,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>195</v>
       </c>
@@ -10630,7 +10586,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>195</v>
       </c>
@@ -10653,7 +10609,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>195</v>
       </c>
@@ -10676,7 +10632,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>195</v>
       </c>
@@ -10699,7 +10655,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>195</v>
       </c>
@@ -10722,7 +10678,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>195</v>
       </c>
@@ -10745,7 +10701,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>195</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E96AD5E0-4E6B-4D7D-B3E8-BBF65A6DD8B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -1080,7 +1080,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>19050</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1399,21 +1399,21 @@
       <selection activeCell="I5" sqref="I5:J65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="4"/>
-    <col min="7" max="7" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="4"/>
-    <col min="9" max="9" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="6" width="9.109375" style="4"/>
+    <col min="7" max="7" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="4"/>
+    <col min="9" max="9" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="5" t="s">
         <v>89</v>
       </c>
@@ -1548,7 +1548,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C6" s="4" t="s">
         <v>92</v>
       </c>
@@ -1647,7 +1647,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C7" s="4" t="s">
         <v>92</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C8" s="4" t="s">
         <v>92</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>0.67368745787157902</v>
       </c>
       <c r="S8" s="23">
-        <v>1.1456149031137799</v>
+        <v>1.1456149031137901</v>
       </c>
       <c r="T8" s="23">
         <v>0.49378011021821799</v>
@@ -1830,7 +1830,7 @@
         <v>0.86102306186829503</v>
       </c>
       <c r="AG8" s="23">
-        <v>0.451316097288886</v>
+        <v>0.451316097288887</v>
       </c>
       <c r="AH8" s="23">
         <v>0.37617525772313698</v>
@@ -1845,7 +1845,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C9" s="4" t="s">
         <v>92</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C10" s="4" t="s">
         <v>92</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C11" s="4" t="s">
         <v>92</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>44</v>
       </c>
       <c r="J11" s="23">
-        <v>3.5132998087277101</v>
+        <v>3.5132998087277199</v>
       </c>
       <c r="K11" s="24"/>
       <c r="L11" s="23">
@@ -2142,7 +2142,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="4" t="s">
         <v>92</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C13" s="4" t="s">
         <v>92</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C14" s="4" t="s">
         <v>92</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C15" s="4" t="s">
         <v>92</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="AJ15" s="24"/>
       <c r="AK15" s="24"/>
     </row>
-    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C16" s="4" t="s">
         <v>92</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="AJ16" s="24"/>
       <c r="AK16" s="24"/>
     </row>
-    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C17" s="4" t="s">
         <v>92</v>
       </c>
@@ -2586,7 +2586,7 @@
       <c r="AJ17" s="24"/>
       <c r="AK17" s="24"/>
     </row>
-    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18" s="4" t="s">
         <v>92</v>
       </c>
@@ -2635,7 +2635,7 @@
       <c r="AJ18" s="24"/>
       <c r="AK18" s="24"/>
     </row>
-    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19" s="4" t="s">
         <v>92</v>
       </c>
@@ -2684,7 +2684,7 @@
       <c r="AJ19" s="24"/>
       <c r="AK19" s="24"/>
     </row>
-    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C20" s="4" t="s">
         <v>92</v>
       </c>
@@ -2733,7 +2733,7 @@
       <c r="AJ20" s="24"/>
       <c r="AK20" s="24"/>
     </row>
-    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21" s="4" t="s">
         <v>92</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="AJ21" s="24"/>
       <c r="AK21" s="24"/>
     </row>
-    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C22" s="4" t="s">
         <v>92</v>
       </c>
@@ -2831,7 +2831,7 @@
       <c r="AJ22" s="24"/>
       <c r="AK22" s="24"/>
     </row>
-    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C23" s="4" t="s">
         <v>92</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="AJ23" s="24"/>
       <c r="AK23" s="24"/>
     </row>
-    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C24" s="4" t="s">
         <v>92</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="AJ24" s="24"/>
       <c r="AK24" s="24"/>
     </row>
-    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25" s="4" t="s">
         <v>92</v>
       </c>
@@ -2945,8 +2945,12 @@
       <c r="I25" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
+      <c r="J25" s="23">
+        <v>12.7133829170957</v>
+      </c>
+      <c r="K25" s="23">
+        <v>12.7133829170957</v>
+      </c>
       <c r="L25" s="24"/>
       <c r="M25" s="24"/>
       <c r="N25" s="24"/>
@@ -2974,7 +2978,7 @@
       <c r="AJ25" s="24"/>
       <c r="AK25" s="24"/>
     </row>
-    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C26" s="4" t="s">
         <v>92</v>
       </c>
@@ -2990,8 +2994,12 @@
       <c r="I26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
+      <c r="J26" s="23">
+        <v>11.4839387329157</v>
+      </c>
+      <c r="K26" s="23">
+        <v>11.4839387329157</v>
+      </c>
       <c r="L26" s="24"/>
       <c r="M26" s="24"/>
       <c r="N26" s="24"/>
@@ -3019,7 +3027,7 @@
       <c r="AJ26" s="24"/>
       <c r="AK26" s="24"/>
     </row>
-    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C27" s="4" t="s">
         <v>92</v>
       </c>
@@ -3035,8 +3043,12 @@
       <c r="I27" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
+      <c r="J27" s="23">
+        <v>8.8153537670115707</v>
+      </c>
+      <c r="K27" s="23">
+        <v>8.8153537670115707</v>
+      </c>
       <c r="L27" s="24"/>
       <c r="M27" s="24"/>
       <c r="N27" s="24"/>
@@ -3064,7 +3076,7 @@
       <c r="AJ27" s="24"/>
       <c r="AK27" s="24"/>
     </row>
-    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C28" s="4" t="s">
         <v>92</v>
       </c>
@@ -3080,8 +3092,12 @@
       <c r="I28" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
+      <c r="J28" s="23">
+        <v>4.3126302226859501</v>
+      </c>
+      <c r="K28" s="23">
+        <v>4.3126302226859501</v>
+      </c>
       <c r="L28" s="24"/>
       <c r="M28" s="24"/>
       <c r="N28" s="24"/>
@@ -3109,7 +3125,7 @@
       <c r="AJ28" s="24"/>
       <c r="AK28" s="24"/>
     </row>
-    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C29" s="4" t="s">
         <v>92</v>
       </c>
@@ -3125,8 +3141,12 @@
       <c r="I29" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
+      <c r="J29" s="23">
+        <v>1.3178746133407899</v>
+      </c>
+      <c r="K29" s="23">
+        <v>1.3178746133407899</v>
+      </c>
       <c r="L29" s="24"/>
       <c r="M29" s="24"/>
       <c r="N29" s="24"/>
@@ -3154,7 +3174,7 @@
       <c r="AJ29" s="24"/>
       <c r="AK29" s="24"/>
     </row>
-    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C30" s="4" t="s">
         <v>92</v>
       </c>
@@ -3170,8 +3190,12 @@
       <c r="I30" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
+      <c r="J30" s="23">
+        <v>1.2331093201030401</v>
+      </c>
+      <c r="K30" s="23">
+        <v>1.2331093201030401</v>
+      </c>
       <c r="L30" s="24"/>
       <c r="M30" s="24"/>
       <c r="N30" s="24"/>
@@ -3199,7 +3223,7 @@
       <c r="AJ30" s="24"/>
       <c r="AK30" s="24"/>
     </row>
-    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C31" s="4" t="s">
         <v>92</v>
       </c>
@@ -3215,8 +3239,12 @@
       <c r="I31" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="J31" s="23"/>
-      <c r="K31" s="23"/>
+      <c r="J31" s="23">
+        <v>35.9977015327608</v>
+      </c>
+      <c r="K31" s="23">
+        <v>35.9977015327608</v>
+      </c>
       <c r="L31" s="24"/>
       <c r="M31" s="24"/>
       <c r="N31" s="24"/>
@@ -3244,7 +3272,7 @@
       <c r="AJ31" s="24"/>
       <c r="AK31" s="24"/>
     </row>
-    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C32" s="4" t="s">
         <v>92</v>
       </c>
@@ -3260,8 +3288,12 @@
       <c r="I32" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="J32" s="23"/>
-      <c r="K32" s="23"/>
+      <c r="J32" s="23">
+        <v>0.84071163403600102</v>
+      </c>
+      <c r="K32" s="23">
+        <v>0.84071163403600102</v>
+      </c>
       <c r="L32" s="24"/>
       <c r="M32" s="24"/>
       <c r="N32" s="24"/>
@@ -3289,7 +3321,7 @@
       <c r="AJ32" s="24"/>
       <c r="AK32" s="24"/>
     </row>
-    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C33" s="4" t="s">
         <v>92</v>
       </c>
@@ -3305,8 +3337,12 @@
       <c r="I33" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="J33" s="23"/>
-      <c r="K33" s="23"/>
+      <c r="J33" s="23">
+        <v>2.5953782987835501</v>
+      </c>
+      <c r="K33" s="23">
+        <v>2.5953782987835501</v>
+      </c>
       <c r="L33" s="24"/>
       <c r="M33" s="24"/>
       <c r="N33" s="24"/>
@@ -3334,7 +3370,7 @@
       <c r="AJ33" s="24"/>
       <c r="AK33" s="24"/>
     </row>
-    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C34" s="4" t="s">
         <v>92</v>
       </c>
@@ -3350,8 +3386,12 @@
       <c r="I34" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="J34" s="23"/>
-      <c r="K34" s="23"/>
+      <c r="J34" s="23">
+        <v>1.1448908452668201</v>
+      </c>
+      <c r="K34" s="23">
+        <v>1.1448908452668201</v>
+      </c>
       <c r="L34" s="24"/>
       <c r="M34" s="24"/>
       <c r="N34" s="24"/>
@@ -3379,7 +3419,7 @@
       <c r="AJ34" s="24"/>
       <c r="AK34" s="24"/>
     </row>
-    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C35" s="4" t="s">
         <v>92</v>
       </c>
@@ -3395,8 +3435,12 @@
       <c r="I35" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J35" s="23"/>
-      <c r="K35" s="23"/>
+      <c r="J35" s="23">
+        <v>8.0991705816317694</v>
+      </c>
+      <c r="K35" s="23">
+        <v>8.0991705816317694</v>
+      </c>
       <c r="L35" s="24"/>
       <c r="M35" s="24"/>
       <c r="N35" s="24"/>
@@ -3424,7 +3468,7 @@
       <c r="AJ35" s="24"/>
       <c r="AK35" s="24"/>
     </row>
-    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C36" s="4" t="s">
         <v>92</v>
       </c>
@@ -3469,7 +3513,7 @@
       <c r="AJ36" s="24"/>
       <c r="AK36" s="24"/>
     </row>
-    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C37" s="4" t="s">
         <v>92</v>
       </c>
@@ -3518,7 +3562,7 @@
       <c r="AJ37" s="24"/>
       <c r="AK37" s="24"/>
     </row>
-    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C38" s="4" t="s">
         <v>92</v>
       </c>
@@ -3567,7 +3611,7 @@
       <c r="AJ38" s="24"/>
       <c r="AK38" s="24"/>
     </row>
-    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C39" s="4" t="s">
         <v>92</v>
       </c>
@@ -3616,7 +3660,7 @@
       <c r="AJ39" s="24"/>
       <c r="AK39" s="24"/>
     </row>
-    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
         <v>92</v>
       </c>
@@ -3665,7 +3709,7 @@
       <c r="AJ40" s="24"/>
       <c r="AK40" s="24"/>
     </row>
-    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41" s="4" t="s">
         <v>92</v>
       </c>
@@ -3714,7 +3758,7 @@
       <c r="AJ41" s="24"/>
       <c r="AK41" s="24"/>
     </row>
-    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C42" s="4" t="s">
         <v>92</v>
       </c>
@@ -3763,7 +3807,7 @@
       <c r="AJ42" s="24"/>
       <c r="AK42" s="24"/>
     </row>
-    <row r="43" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C43" s="4" t="s">
         <v>92</v>
       </c>
@@ -3812,7 +3856,7 @@
       <c r="AJ43" s="24"/>
       <c r="AK43" s="24"/>
     </row>
-    <row r="44" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C44" s="4" t="s">
         <v>92</v>
       </c>
@@ -3861,7 +3905,7 @@
       <c r="AJ44" s="24"/>
       <c r="AK44" s="24"/>
     </row>
-    <row r="45" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C45" s="4" t="s">
         <v>92</v>
       </c>
@@ -3910,7 +3954,7 @@
       <c r="AJ45" s="24"/>
       <c r="AK45" s="24"/>
     </row>
-    <row r="46" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C46" s="4" t="s">
         <v>92</v>
       </c>
@@ -3959,7 +4003,7 @@
       <c r="AJ46" s="24"/>
       <c r="AK46" s="24"/>
     </row>
-    <row r="47" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C47" s="4" t="s">
         <v>92</v>
       </c>
@@ -4008,7 +4052,7 @@
       <c r="AJ47" s="24"/>
       <c r="AK47" s="24"/>
     </row>
-    <row r="48" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
         <v>92</v>
       </c>
@@ -4057,7 +4101,7 @@
       <c r="AJ48" s="24"/>
       <c r="AK48" s="24"/>
     </row>
-    <row r="49" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C49" s="4" t="s">
         <v>92</v>
       </c>
@@ -4106,7 +4150,7 @@
       <c r="AJ49" s="24"/>
       <c r="AK49" s="24"/>
     </row>
-    <row r="50" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
         <v>92</v>
       </c>
@@ -4155,7 +4199,7 @@
       <c r="AJ50" s="24"/>
       <c r="AK50" s="24"/>
     </row>
-    <row r="51" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
         <v>92</v>
       </c>
@@ -4200,7 +4244,7 @@
       <c r="AJ51" s="24"/>
       <c r="AK51" s="24"/>
     </row>
-    <row r="52" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C52" s="4" t="s">
         <v>92</v>
       </c>
@@ -4245,7 +4289,7 @@
       <c r="AJ52" s="24"/>
       <c r="AK52" s="24"/>
     </row>
-    <row r="53" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C53" s="4" t="s">
         <v>92</v>
       </c>
@@ -4290,7 +4334,7 @@
       <c r="AJ53" s="24"/>
       <c r="AK53" s="24"/>
     </row>
-    <row r="54" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C54" s="4" t="s">
         <v>92</v>
       </c>
@@ -4335,7 +4379,7 @@
       <c r="AJ54" s="24"/>
       <c r="AK54" s="24"/>
     </row>
-    <row r="55" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C55" s="4" t="s">
         <v>92</v>
       </c>
@@ -4380,7 +4424,7 @@
       <c r="AJ55" s="24"/>
       <c r="AK55" s="24"/>
     </row>
-    <row r="56" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
         <v>92</v>
       </c>
@@ -4425,7 +4469,7 @@
       <c r="AJ56" s="24"/>
       <c r="AK56" s="24"/>
     </row>
-    <row r="57" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C57" s="4" t="s">
         <v>92</v>
       </c>
@@ -4470,7 +4514,7 @@
       <c r="AJ57" s="24"/>
       <c r="AK57" s="24"/>
     </row>
-    <row r="58" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C58" s="4" t="s">
         <v>92</v>
       </c>
@@ -4515,7 +4559,7 @@
       <c r="AJ58" s="24"/>
       <c r="AK58" s="24"/>
     </row>
-    <row r="59" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
         <v>92</v>
       </c>
@@ -4560,7 +4604,7 @@
       <c r="AJ59" s="24"/>
       <c r="AK59" s="24"/>
     </row>
-    <row r="60" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
         <v>92</v>
       </c>
@@ -4605,7 +4649,7 @@
       <c r="AJ60" s="24"/>
       <c r="AK60" s="24"/>
     </row>
-    <row r="61" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
         <v>92</v>
       </c>
@@ -4650,7 +4694,7 @@
       <c r="AJ61" s="24"/>
       <c r="AK61" s="24"/>
     </row>
-    <row r="62" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
         <v>92</v>
       </c>
@@ -4695,7 +4739,7 @@
       <c r="AJ62" s="24"/>
       <c r="AK62" s="24"/>
     </row>
-    <row r="63" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
         <v>92</v>
       </c>
@@ -4740,7 +4784,7 @@
       <c r="AJ63" s="24"/>
       <c r="AK63" s="24"/>
     </row>
-    <row r="64" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
         <v>92</v>
       </c>
@@ -4785,7 +4829,7 @@
       <c r="AJ64" s="24"/>
       <c r="AK64" s="24"/>
     </row>
-    <row r="65" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C65" s="4" t="s">
         <v>92</v>
       </c>
@@ -4844,19 +4888,19 @@
       <selection activeCell="G12" sqref="G12:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="4"/>
-    <col min="4" max="4" width="11.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="3" width="9.109375" style="4"/>
+    <col min="4" max="4" width="11.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="14" t="s">
         <v>91</v>
       </c>
@@ -4977,7 +5021,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D4" s="4" t="s">
         <v>85</v>
       </c>
@@ -5093,7 +5137,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D5" s="4" t="s">
         <v>85</v>
       </c>
@@ -5209,7 +5253,7 @@
         <v>0.2713201852314594</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D6" s="4" t="s">
         <v>85</v>
       </c>
@@ -5325,7 +5369,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="4" t="s">
         <v>85</v>
       </c>
@@ -5441,7 +5485,7 @@
         <v>0.46884077905903881</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="4" t="s">
         <v>85</v>
       </c>
@@ -5482,7 +5526,7 @@
       </c>
       <c r="N8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085211</v>
+        <v>0.84062004677085977</v>
       </c>
       <c r="O8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5538,7 +5582,7 @@
       </c>
       <c r="AB8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916709</v>
+        <v>0.33116307912916793</v>
       </c>
       <c r="AC8" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5557,7 +5601,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="4" t="s">
         <v>85</v>
       </c>
@@ -5598,7 +5642,7 @@
       </c>
       <c r="N9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1161933556970312</v>
+        <v>1.1161933556970411</v>
       </c>
       <c r="O9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5654,7 +5698,7 @@
       </c>
       <c r="AB9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.43972545027457405</v>
+        <v>0.43972545027457505</v>
       </c>
       <c r="AC9" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5673,7 +5717,7 @@
         <v>0.41709875548708081</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="4" t="s">
         <v>85</v>
       </c>
@@ -5789,7 +5833,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" s="4" t="s">
         <v>85</v>
       </c>
@@ -5905,7 +5949,7 @@
         <v>0.12881123700615976</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D12" s="4" t="s">
         <v>85</v>
       </c>
@@ -6021,7 +6065,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>85</v>
       </c>
@@ -6137,7 +6181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D14" s="4" t="s">
         <v>85</v>
       </c>
@@ -6150,110 +6194,110 @@
       </c>
       <c r="G14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341231E-2</v>
+        <v>5.2718404005341085E-2</v>
       </c>
       <c r="H14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090483</v>
+        <v>1.2476395718090449</v>
       </c>
       <c r="I14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526884</v>
+        <v>0.20603624964526826</v>
       </c>
       <c r="J14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560347E-2</v>
+        <v>9.1887737410560083E-2</v>
       </c>
       <c r="K14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740469136E-2</v>
+        <v>7.8428487740468913E-2</v>
       </c>
       <c r="L14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898793E-2</v>
+        <v>3.7847947145898689E-2</v>
       </c>
       <c r="M14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092819</v>
+        <v>0.11934516233092786</v>
       </c>
       <c r="N14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580552</v>
+        <v>0.18060859254580502</v>
       </c>
       <c r="O14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654552E-2</v>
+        <v>7.2191026042654344E-2</v>
       </c>
       <c r="P14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796776E-2</v>
+        <v>8.2200040812796554E-2</v>
       </c>
       <c r="Q14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508828</v>
+        <v>0.13864092047508789</v>
       </c>
       <c r="R14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544515</v>
+        <v>0.13188397896544479</v>
       </c>
       <c r="S14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607375</v>
+        <v>0.11002323137607345</v>
       </c>
       <c r="T14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50268977983509444</v>
+        <v>0.502689779835093</v>
       </c>
       <c r="U14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1367750527017661</v>
+        <v>0.13677505270176574</v>
       </c>
       <c r="V14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524395</v>
+        <v>0.18047432414524345</v>
       </c>
       <c r="W14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316554</v>
+        <v>0.14774431803316512</v>
       </c>
       <c r="X14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10757769450791341</v>
+        <v>0.1075776945079131</v>
       </c>
       <c r="Y14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297948</v>
+        <v>0.23895886146297882</v>
       </c>
       <c r="Z14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.967239053514998E-2</v>
+        <v>2.9672390535149896E-2</v>
       </c>
       <c r="AA14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824897</v>
+        <v>0.12084804242824863</v>
       </c>
       <c r="AB14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341915E-2</v>
+        <v>5.9767032040341748E-2</v>
       </c>
       <c r="AC14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.068468710900795E-2</v>
+        <v>6.0684687109007783E-2</v>
       </c>
       <c r="AD14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292492E-2</v>
+        <v>7.0538135732292298E-2</v>
       </c>
       <c r="AE14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1474100360152161</v>
+        <v>0.14741003601521568</v>
       </c>
       <c r="AF14" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006623E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+        <v>5.6842758875006463E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D15" s="4" t="s">
         <v>85</v>
       </c>
@@ -6270,7 +6314,7 @@
       </c>
       <c r="H15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99408028513777114</v>
+        <v>0.99408028513777102</v>
       </c>
       <c r="I15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6314,7 +6358,7 @@
       </c>
       <c r="S15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7663078095158192E-2</v>
+        <v>8.7663078095158206E-2</v>
       </c>
       <c r="T15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6330,7 +6374,7 @@
       </c>
       <c r="W15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11771806306603201</v>
+        <v>0.117718063066032</v>
       </c>
       <c r="X15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -6366,10 +6410,10 @@
       </c>
       <c r="AF15" s="15">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.529053680827979E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+        <v>4.5290536808279797E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" s="4" t="s">
         <v>85</v>
       </c>
@@ -6485,7 +6529,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D17" s="4" t="s">
         <v>85</v>
       </c>
@@ -6601,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D18" s="4" t="s">
         <v>85</v>
       </c>
@@ -6717,7 +6761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D19" s="4" t="s">
         <v>85</v>
       </c>
@@ -6833,7 +6877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" s="4" t="s">
         <v>85</v>
       </c>
@@ -6949,7 +6993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" s="4" t="s">
         <v>85</v>
       </c>
@@ -7078,40 +7122,40 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="4" customWidth="1"/>
-    <col min="25" max="25" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="4" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="4" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="4"/>
+    <col min="29" max="29" width="5.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C3" s="21" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -7225,12 +7269,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>159</v>
       </c>
@@ -7345,7 +7389,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>158</v>
       </c>
@@ -7462,7 +7506,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>157</v>
       </c>
@@ -7579,7 +7623,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="20" t="s">
         <v>156</v>
       </c>
@@ -7587,7 +7631,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>102</v>
       </c>
@@ -7595,7 +7639,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
         <v>125</v>
       </c>
@@ -7603,7 +7647,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
         <v>114</v>
       </c>
@@ -7611,7 +7655,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>115</v>
       </c>
@@ -7619,7 +7663,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>126</v>
       </c>
@@ -7627,7 +7671,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>103</v>
       </c>
@@ -7635,7 +7679,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>120</v>
       </c>
@@ -7643,7 +7687,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>116</v>
       </c>
@@ -7651,7 +7695,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>104</v>
       </c>
@@ -7659,7 +7703,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>105</v>
       </c>
@@ -7667,7 +7711,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>106</v>
       </c>
@@ -7675,7 +7719,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
         <v>121</v>
       </c>
@@ -7683,7 +7727,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="18" t="s">
         <v>117</v>
       </c>
@@ -7691,7 +7735,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>107</v>
       </c>
@@ -7699,7 +7743,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>108</v>
       </c>
@@ -7707,7 +7751,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>122</v>
       </c>
@@ -7715,7 +7759,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>109</v>
       </c>
@@ -7723,7 +7767,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>127</v>
       </c>
@@ -7731,7 +7775,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>110</v>
       </c>
@@ -7739,7 +7783,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>123</v>
       </c>
@@ -7747,7 +7791,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>124</v>
       </c>
@@ -7755,7 +7799,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>118</v>
       </c>
@@ -7763,7 +7807,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>119</v>
       </c>
@@ -7771,7 +7815,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>111</v>
       </c>
@@ -7779,7 +7823,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>112</v>
       </c>
@@ -7787,7 +7831,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>113</v>
       </c>
@@ -7795,7 +7839,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>128</v>
       </c>
@@ -7821,7 +7865,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>19050</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -7844,19 +7888,19 @@
       <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>190</v>
       </c>
@@ -7864,7 +7908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="14" t="s">
         <v>1</v>
       </c>
@@ -7896,7 +7940,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7929,7 +7973,7 @@
       </c>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7962,7 +8006,7 @@
       </c>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7995,7 +8039,7 @@
       </c>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8028,7 +8072,7 @@
       </c>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8061,7 +8105,7 @@
       </c>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8094,7 +8138,7 @@
       </c>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8127,7 +8171,7 @@
       </c>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8160,7 +8204,7 @@
       </c>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8193,7 +8237,7 @@
       </c>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8226,7 +8270,7 @@
       </c>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8259,7 +8303,7 @@
       </c>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8292,7 +8336,7 @@
       </c>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8325,7 +8369,7 @@
       </c>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8358,7 +8402,7 @@
       </c>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8391,7 +8435,7 @@
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8424,7 +8468,7 @@
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8457,7 +8501,7 @@
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8490,7 +8534,7 @@
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8522,7 +8566,7 @@
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8538,7 +8582,7 @@
       </c>
       <c r="H22" s="2">
         <f>VLOOKUP(F22,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>3.5132998087277101</v>
+        <v>3.5132998087277199</v>
       </c>
       <c r="I22">
         <v>4.2966351471015702</v>
@@ -8548,15 +8592,15 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>4.1107229120604369</v>
+        <v>4.1107229120604405</v>
       </c>
       <c r="L22">
         <f>H22</f>
-        <v>3.5132998087277101</v>
+        <v>3.5132998087277199</v>
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8588,7 +8632,7 @@
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8622,7 +8666,7 @@
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -8656,7 +8700,7 @@
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8689,7 +8733,7 @@
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8722,7 +8766,7 @@
       </c>
       <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8755,7 +8799,7 @@
       </c>
       <c r="P28" s="2"/>
     </row>
-    <row r="29" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8771,7 +8815,7 @@
       </c>
       <c r="H29" s="2">
         <f>VLOOKUP(F29,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>12.7133829170957</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -8789,7 +8833,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8805,7 +8849,7 @@
       </c>
       <c r="H30" s="2">
         <f>VLOOKUP(F30,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>11.4839387329157</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -8823,7 +8867,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8839,7 +8883,7 @@
       </c>
       <c r="H31" s="2">
         <f>VLOOKUP(F31,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>8.8153537670115707</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -8857,7 +8901,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D32" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8873,7 +8917,7 @@
       </c>
       <c r="H32" s="2">
         <f>VLOOKUP(F32,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>4.3126302226859501</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -8891,7 +8935,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D33" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8907,7 +8951,7 @@
       </c>
       <c r="H33" s="2">
         <f>VLOOKUP(F33,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>1.3178746133407899</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -8925,7 +8969,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D34" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8941,7 +8985,7 @@
       </c>
       <c r="H34" s="2">
         <f>VLOOKUP(F34,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>1.2331093201030401</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -8959,7 +9003,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D35" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8975,7 +9019,7 @@
       </c>
       <c r="H35" s="2">
         <f>VLOOKUP(F35,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>35.9977015327608</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -8993,7 +9037,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D36" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9009,7 +9053,7 @@
       </c>
       <c r="H36" s="2">
         <f>VLOOKUP(F36,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>0.84071163403600102</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -9027,7 +9071,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D37" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9043,7 +9087,7 @@
       </c>
       <c r="H37" s="2">
         <f>VLOOKUP(F37,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>2.5953782987835501</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -9061,7 +9105,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D38" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9077,7 +9121,7 @@
       </c>
       <c r="H38" s="2">
         <f>VLOOKUP(F38,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>1.1448908452668201</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -9095,7 +9139,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D39" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9111,7 +9155,7 @@
       </c>
       <c r="H39" s="2">
         <f>VLOOKUP(F39,'BY-Demands'!$I$5:$J$65,2,FALSE)</f>
-        <v>0</v>
+        <v>8.0991705816317694</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -9129,7 +9173,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D40" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9154,7 +9198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D41" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9175,7 +9219,7 @@
         <v>32.865000000000002</v>
       </c>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D43" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9200,7 +9244,7 @@
         <v>10.047893325490021</v>
       </c>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D44" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9225,7 +9269,7 @@
         <v>16.878788423834521</v>
       </c>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D45" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9250,7 +9294,7 @@
         <v>14.214862498864701</v>
       </c>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D46" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9275,7 +9319,7 @@
         <v>0.179228357755223</v>
       </c>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D47" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9300,7 +9344,7 @@
         <v>0.30107381041032272</v>
       </c>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D48" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9325,7 +9369,7 @@
         <v>0.2535562807901901</v>
       </c>
     </row>
-    <row r="49" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D49" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9350,7 +9394,7 @@
         <v>5.3250910380053398</v>
       </c>
     </row>
-    <row r="50" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D50" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9375,7 +9419,7 @@
         <v>8.9452666401358414</v>
       </c>
     </row>
-    <row r="51" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D51" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9400,7 +9444,7 @@
         <v>7.5334634283143167</v>
       </c>
     </row>
-    <row r="52" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D52" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9425,7 +9469,7 @@
         <v>0.89996641800005883</v>
       </c>
     </row>
-    <row r="53" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D53" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9450,7 +9494,7 @@
         <v>1.5117937925797396</v>
       </c>
     </row>
-    <row r="54" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D54" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9475,7 +9519,7 @@
         <v>1.2731921479513455</v>
       </c>
     </row>
-    <row r="55" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D55" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9500,7 +9544,7 @@
         <v>1.4030879288454441</v>
       </c>
     </row>
-    <row r="56" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D56" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9525,7 +9569,7 @@
         <v>2.3569541916751464</v>
       </c>
     </row>
-    <row r="57" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:12" x14ac:dyDescent="0.3">
       <c r="D57" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9563,15 +9607,15 @@
       <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="28" t="s">
         <v>191</v>
       </c>
@@ -9579,7 +9623,7 @@
       <c r="J4" s="29"/>
       <c r="K4" s="29"/>
     </row>
-    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="C5" s="30" t="s">
         <v>91</v>
       </c>
@@ -9612,7 +9656,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="31" t="s">
         <v>194</v>
       </c>
@@ -9629,7 +9673,7 @@
       <c r="L6" s="31"/>
       <c r="N6" s="33"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="32"/>
       <c r="D7" s="32"/>
       <c r="E7" t="s">
@@ -9655,7 +9699,7 @@
       </c>
       <c r="L7" s="32"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="32"/>
       <c r="D8" s="32"/>
       <c r="E8" t="s">
@@ -9681,7 +9725,7 @@
       </c>
       <c r="L8" s="32"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
       <c r="E9" t="s">
@@ -9707,7 +9751,7 @@
       </c>
       <c r="L9" s="32"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="32" t="s">
         <v>200</v>
       </c>
@@ -9735,7 +9779,7 @@
       </c>
       <c r="L10" s="32"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="32" t="s">
         <v>200</v>
       </c>
@@ -9763,7 +9807,7 @@
       </c>
       <c r="L11" s="32"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="32" t="s">
         <v>200</v>
       </c>
@@ -9791,7 +9835,7 @@
       </c>
       <c r="L12" s="32"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="32"/>
       <c r="D13" s="32"/>
       <c r="E13" t="s">
@@ -9817,7 +9861,7 @@
       </c>
       <c r="L13" s="32"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="32"/>
       <c r="D14" s="32"/>
       <c r="E14" t="s">
@@ -9843,7 +9887,7 @@
       </c>
       <c r="L14" s="32"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="32"/>
       <c r="D15" s="32"/>
       <c r="E15" t="s">
@@ -9869,7 +9913,7 @@
       </c>
       <c r="L15" s="32"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="32"/>
       <c r="D16" s="32"/>
       <c r="E16" t="s">
@@ -9895,7 +9939,7 @@
       </c>
       <c r="L16" s="32"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="32"/>
       <c r="D17" s="32"/>
       <c r="E17" t="s">
@@ -9921,7 +9965,7 @@
       </c>
       <c r="L17" s="32"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="32"/>
       <c r="D18" s="32"/>
       <c r="E18" t="s">
@@ -9947,7 +9991,7 @@
       </c>
       <c r="L18" s="32"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="32"/>
       <c r="D19" s="32"/>
       <c r="E19" t="s">
@@ -9973,7 +10017,7 @@
       </c>
       <c r="L19" s="32"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="32"/>
       <c r="D20" s="32"/>
       <c r="E20" t="s">
@@ -9999,7 +10043,7 @@
       </c>
       <c r="L20" s="32"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="32"/>
       <c r="D21" s="32"/>
       <c r="E21" t="s">
@@ -10025,7 +10069,7 @@
       </c>
       <c r="L21" s="32"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>195</v>
       </c>
@@ -10048,7 +10092,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>195</v>
       </c>
@@ -10071,7 +10115,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>195</v>
       </c>
@@ -10094,7 +10138,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>200</v>
       </c>
@@ -10120,7 +10164,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>200</v>
       </c>
@@ -10146,7 +10190,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>200</v>
       </c>
@@ -10172,7 +10216,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>195</v>
       </c>
@@ -10195,7 +10239,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>195</v>
       </c>
@@ -10218,7 +10262,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>195</v>
       </c>
@@ -10241,7 +10285,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>195</v>
       </c>
@@ -10264,7 +10308,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>195</v>
       </c>
@@ -10287,7 +10331,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>195</v>
       </c>
@@ -10310,7 +10354,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>195</v>
       </c>
@@ -10333,7 +10377,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>195</v>
       </c>
@@ -10356,7 +10400,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>195</v>
       </c>
@@ -10379,7 +10423,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>195</v>
       </c>
@@ -10402,7 +10446,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>195</v>
       </c>
@@ -10425,7 +10469,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>195</v>
       </c>
@@ -10448,7 +10492,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>195</v>
       </c>
@@ -10471,7 +10515,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>195</v>
       </c>
@@ -10494,7 +10538,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>195</v>
       </c>
@@ -10517,7 +10561,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>195</v>
       </c>
@@ -10540,7 +10584,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>195</v>
       </c>
@@ -10563,7 +10607,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>195</v>
       </c>
@@ -10586,7 +10630,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>195</v>
       </c>
@@ -10609,7 +10653,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>195</v>
       </c>
@@ -10632,7 +10676,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>195</v>
       </c>
@@ -10655,7 +10699,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>195</v>
       </c>
@@ -10678,7 +10722,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>195</v>
       </c>
@@ -10701,7 +10745,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>195</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccireland-my.sharepoint.com/personal/agaur_ucc_ie/Documents/TIM-2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\2-NewVeda\TIMES-Ireland-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{063A455A-82FA-45DE-BC87-194ABD9AAF51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2026F9C7-B273-4ED1-AAE4-40CA5447DAC6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6675" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1339,21 +1339,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.08984375" style="3"/>
-    <col min="7" max="7" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="3"/>
-    <col min="9" max="9" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="3"/>
+    <col min="1" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0.67368745787157902</v>
       </c>
       <c r="S8" s="22">
-        <v>1.1456149031137901</v>
+        <v>1.1456149031137799</v>
       </c>
       <c r="T8" s="22">
         <v>0.49378011021821799</v>
@@ -1770,7 +1770,7 @@
         <v>0.86102306186829503</v>
       </c>
       <c r="AG8" s="22">
-        <v>0.451316097288887</v>
+        <v>0.451316097288886</v>
       </c>
       <c r="AH8" s="22">
         <v>0.37617525772313698</v>
@@ -1785,7 +1785,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>44</v>
       </c>
       <c r="J11" s="22">
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="22">
@@ -2082,7 +2082,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
     </row>
-    <row r="16" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
     </row>
-    <row r="17" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="AJ17" s="23"/>
       <c r="AK17" s="23"/>
     </row>
-    <row r="18" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="AJ18" s="23"/>
       <c r="AK18" s="23"/>
     </row>
-    <row r="19" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="AJ19" s="23"/>
       <c r="AK19" s="23"/>
     </row>
-    <row r="20" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="23"/>
     </row>
-    <row r="21" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="23"/>
     </row>
-    <row r="22" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
     </row>
-    <row r="23" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="AJ23" s="23"/>
       <c r="AK23" s="23"/>
     </row>
-    <row r="24" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="AJ24" s="23"/>
       <c r="AK24" s="23"/>
     </row>
-    <row r="25" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="AJ25" s="23"/>
       <c r="AK25" s="23"/>
     </row>
-    <row r="26" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
     </row>
-    <row r="27" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
     </row>
-    <row r="28" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
     </row>
-    <row r="29" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="AJ29" s="23"/>
       <c r="AK29" s="23"/>
     </row>
-    <row r="30" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="AJ30" s="23"/>
       <c r="AK30" s="23"/>
     </row>
-    <row r="31" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="AJ31" s="23"/>
       <c r="AK31" s="23"/>
     </row>
-    <row r="32" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="AJ32" s="23"/>
       <c r="AK32" s="23"/>
     </row>
-    <row r="33" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="AJ33" s="23"/>
       <c r="AK33" s="23"/>
     </row>
-    <row r="34" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="AJ34" s="23"/>
       <c r="AK34" s="23"/>
     </row>
-    <row r="35" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="AJ35" s="23"/>
       <c r="AK35" s="23"/>
     </row>
-    <row r="36" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="AJ36" s="23"/>
       <c r="AK36" s="23"/>
     </row>
-    <row r="37" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="23"/>
     </row>
-    <row r="38" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
     </row>
-    <row r="39" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="AJ39" s="23"/>
       <c r="AK39" s="23"/>
     </row>
-    <row r="40" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3645,7 +3645,7 @@
       <c r="AJ40" s="23"/>
       <c r="AK40" s="23"/>
     </row>
-    <row r="41" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3661,8 +3661,12 @@
       <c r="I41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="J41" s="23">
+        <v>5.6291760000000002</v>
+      </c>
+      <c r="K41" s="23">
+        <v>5.6291760000000002</v>
+      </c>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
@@ -3690,7 +3694,7 @@
       <c r="AJ41" s="23"/>
       <c r="AK41" s="23"/>
     </row>
-    <row r="42" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3706,8 +3710,12 @@
       <c r="I42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
+      <c r="J42" s="23">
+        <v>0.48</v>
+      </c>
+      <c r="K42" s="23">
+        <v>0.48</v>
+      </c>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
@@ -3749,19 +3757,19 @@
       <selection activeCell="G12" sqref="G12:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.08984375" style="3"/>
-    <col min="4" max="4" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.08984375" style="3"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -3998,7 +4006,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4230,7 +4238,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4346,7 +4354,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4387,7 +4395,7 @@
       </c>
       <c r="N8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085977</v>
+        <v>0.84062004677085211</v>
       </c>
       <c r="O8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4443,7 +4451,7 @@
       </c>
       <c r="AB8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916793</v>
+        <v>0.33116307912916709</v>
       </c>
       <c r="AC8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4462,7 +4470,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4503,7 +4511,7 @@
       </c>
       <c r="N9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0888953831144683</v>
+        <v>1.0888953831144585</v>
       </c>
       <c r="O9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4559,7 +4567,7 @@
       </c>
       <c r="AB9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4289713876167135</v>
+        <v>0.4289713876167125</v>
       </c>
       <c r="AC9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4578,7 +4586,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4694,7 +4702,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4810,7 +4818,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4926,7 +4934,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5042,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5055,110 +5063,110 @@
       </c>
       <c r="G14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341085E-2</v>
+        <v>5.2718404005341231E-2</v>
       </c>
       <c r="H14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090449</v>
+        <v>1.2476395718090483</v>
       </c>
       <c r="I14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526826</v>
+        <v>0.20603624964526884</v>
       </c>
       <c r="J14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560083E-2</v>
+        <v>9.1887737410560347E-2</v>
       </c>
       <c r="K14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740468913E-2</v>
+        <v>7.8428487740469136E-2</v>
       </c>
       <c r="L14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898689E-2</v>
+        <v>3.7847947145898793E-2</v>
       </c>
       <c r="M14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092786</v>
+        <v>0.11934516233092819</v>
       </c>
       <c r="N14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580502</v>
+        <v>0.18060859254580552</v>
       </c>
       <c r="O14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654344E-2</v>
+        <v>7.2191026042654552E-2</v>
       </c>
       <c r="P14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796554E-2</v>
+        <v>8.2200040812796776E-2</v>
       </c>
       <c r="Q14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508789</v>
+        <v>0.13864092047508828</v>
       </c>
       <c r="R14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544479</v>
+        <v>0.13188397896544515</v>
       </c>
       <c r="S14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607345</v>
+        <v>0.11002323137607375</v>
       </c>
       <c r="T14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.502689779835093</v>
+        <v>0.50268977983509444</v>
       </c>
       <c r="U14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13677505270176574</v>
+        <v>0.1367750527017661</v>
       </c>
       <c r="V14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524345</v>
+        <v>0.18047432414524395</v>
       </c>
       <c r="W14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316512</v>
+        <v>0.14774431803316554</v>
       </c>
       <c r="X14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1075776945079131</v>
+        <v>0.10757769450791341</v>
       </c>
       <c r="Y14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297882</v>
+        <v>0.23895886146297948</v>
       </c>
       <c r="Z14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.9672390535149896E-2</v>
+        <v>2.967239053514998E-2</v>
       </c>
       <c r="AA14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824863</v>
+        <v>0.12084804242824897</v>
       </c>
       <c r="AB14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341748E-2</v>
+        <v>5.9767032040341915E-2</v>
       </c>
       <c r="AC14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.0684687109007783E-2</v>
+        <v>6.068468710900795E-2</v>
       </c>
       <c r="AD14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292298E-2</v>
+        <v>7.0538135732292492E-2</v>
       </c>
       <c r="AE14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14741003601521568</v>
+        <v>0.1474100360152161</v>
       </c>
       <c r="AF14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006463E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+        <v>5.6842758875006623E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5175,7 +5183,7 @@
       </c>
       <c r="H15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99408028513777102</v>
+        <v>0.99408028513777114</v>
       </c>
       <c r="I15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5219,7 +5227,7 @@
       </c>
       <c r="S15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7663078095158206E-2</v>
+        <v>8.7663078095158192E-2</v>
       </c>
       <c r="T15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5235,7 +5243,7 @@
       </c>
       <c r="W15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.117718063066032</v>
+        <v>0.11771806306603201</v>
       </c>
       <c r="X15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5271,10 +5279,10 @@
       </c>
       <c r="AF15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.5290536808279797E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+        <v>4.529053680827979E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5390,7 +5398,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5506,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5622,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5854,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -5983,40 +5991,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.08984375" style="3"/>
+    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="20" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -6130,12 +6136,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -6367,7 +6373,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -6484,7 +6490,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>130</v>
       </c>
@@ -6492,7 +6498,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>76</v>
       </c>
@@ -6500,7 +6506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -6508,7 +6514,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>88</v>
       </c>
@@ -6516,7 +6522,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>89</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>100</v>
       </c>
@@ -6532,7 +6538,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>77</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>94</v>
       </c>
@@ -6548,7 +6554,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>90</v>
       </c>
@@ -6556,7 +6562,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>79</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
@@ -6580,7 +6586,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
@@ -6588,7 +6594,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
@@ -6596,7 +6602,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>81</v>
       </c>
@@ -6604,7 +6610,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>82</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>96</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>83</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>101</v>
       </c>
@@ -6636,7 +6642,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>84</v>
       </c>
@@ -6644,7 +6650,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>97</v>
       </c>
@@ -6652,7 +6658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>98</v>
       </c>
@@ -6660,7 +6666,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>92</v>
       </c>
@@ -6668,7 +6674,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>93</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
@@ -6684,7 +6690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>86</v>
       </c>
@@ -6692,7 +6698,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>87</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
@@ -6726,7 +6732,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -6749,19 +6755,19 @@
       <selection activeCell="F29" sqref="F29:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.90625" customWidth="1"/>
-    <col min="12" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -6801,7 +6807,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6833,7 +6839,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6865,7 +6871,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6897,7 +6903,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6929,7 +6935,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6961,7 +6967,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6993,7 +6999,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7025,7 +7031,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7057,7 +7063,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7089,7 +7095,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7121,7 +7127,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7153,7 +7159,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7185,7 +7191,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7217,7 +7223,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7249,7 +7255,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7282,7 +7288,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7315,7 +7321,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7348,7 +7354,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7381,7 +7387,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7413,7 +7419,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7429,7 +7435,7 @@
       </c>
       <c r="H22" s="37">
         <f>VLOOKUP(F22,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="I22" s="36">
         <v>4.2966351471015702</v>
@@ -7439,15 +7445,15 @@
       </c>
       <c r="K22" s="36">
         <f t="shared" si="1"/>
-        <v>4.1107229120604405</v>
+        <v>4.1107229120604369</v>
       </c>
       <c r="L22" s="36">
         <f>H22</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7479,7 +7485,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7513,7 +7519,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7547,7 +7553,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7578,7 +7584,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7609,7 +7615,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7640,7 +7646,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7671,7 +7677,7 @@
         <v>32.772151050078904</v>
       </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7702,7 +7708,7 @@
         <v>66.089343999999997</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7728,7 +7734,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7754,73 +7760,73 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -7840,15 +7846,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.6328125" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
@@ -7856,7 +7862,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="3:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>65</v>
       </c>
@@ -7889,7 +7895,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
         <v>153</v>
       </c>
@@ -7906,7 +7912,7 @@
       <c r="L6" s="29"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" t="s">
@@ -7932,7 +7938,7 @@
       </c>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" t="s">
@@ -7958,7 +7964,7 @@
       </c>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" t="s">
@@ -7984,7 +7990,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
@@ -8012,7 +8018,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="30" t="s">
         <v>159</v>
       </c>
@@ -8040,7 +8046,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="30" t="s">
         <v>159</v>
       </c>
@@ -8068,7 +8074,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" t="s">
@@ -8094,7 +8100,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" t="s">
@@ -8120,7 +8126,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" t="s">
@@ -8146,7 +8152,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" t="s">
@@ -8172,7 +8178,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" t="s">
@@ -8198,7 +8204,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" t="s">
@@ -8224,7 +8230,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" t="s">
@@ -8250,7 +8256,7 @@
       </c>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" t="s">
@@ -8276,7 +8282,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" t="s">
@@ -8302,7 +8308,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -8325,7 +8331,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -8348,7 +8354,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -8472,7 +8478,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -8495,7 +8501,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -8518,7 +8524,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -8541,7 +8547,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -8633,7 +8639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -8679,7 +8685,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -8702,7 +8708,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -8725,7 +8731,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -8748,7 +8754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -8771,7 +8777,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -8794,7 +8800,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -8817,7 +8823,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -8840,7 +8846,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -8863,7 +8869,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -8886,7 +8892,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -8909,7 +8915,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -8932,7 +8938,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -8955,7 +8961,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -8978,7 +8984,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -9014,18 +9020,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
@@ -9033,7 +9039,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="28" t="s">
         <v>65</v>
       </c>
@@ -9066,7 +9072,7 @@
       </c>
       <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="29" t="s">
         <v>153</v>
       </c>
@@ -9082,7 +9088,7 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -9099,7 +9105,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -9116,7 +9122,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -9133,7 +9139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -9150,7 +9156,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -9167,7 +9173,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -9184,7 +9190,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -9201,7 +9207,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -9218,7 +9224,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -9235,7 +9241,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -9252,7 +9258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -9269,7 +9275,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -9286,7 +9292,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -9337,7 +9343,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -9354,7 +9360,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -9371,7 +9377,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -9405,7 +9411,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -9439,7 +9445,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -9456,7 +9462,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -9473,7 +9479,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -9490,7 +9496,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -9507,7 +9513,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -9524,7 +9530,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -9541,7 +9547,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccireland-my.sharepoint.com/personal/agaur_ucc_ie/Documents/TIM-2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{063A455A-82FA-45DE-BC87-194ABD9AAF51}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F95F6CE-D2D2-43BD-AC95-2271ABB22125}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -931,7 +931,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -984,6 +984,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Attrib" xfId="2" xr:uid="{16EBE39D-6598-42BD-A97C-1EF313EA2EC2}"/>
@@ -6745,8 +6746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F32"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7273,9 +7274,8 @@
       <c r="J17" s="36">
         <v>10.76129175</v>
       </c>
-      <c r="K17" s="36">
-        <f t="shared" ref="K17:K25" si="1">(J17*2/3)+(L17/3)</f>
-        <v>13.357743891204088</v>
+      <c r="K17" s="39">
+        <v>16.798154247711324</v>
       </c>
       <c r="L17" s="36">
         <v>18.550648173612263</v>
@@ -7306,9 +7306,8 @@
       <c r="J18" s="36">
         <v>23.13677727</v>
       </c>
-      <c r="K18" s="36">
-        <f t="shared" si="1"/>
-        <v>25.428376071694668</v>
+      <c r="K18" s="39">
+        <v>30.018312954312446</v>
       </c>
       <c r="L18" s="36">
         <v>30.011573675084005</v>
@@ -7339,9 +7338,8 @@
       <c r="J19" s="36">
         <v>19.908389740000001</v>
       </c>
-      <c r="K19" s="36">
-        <f t="shared" si="1"/>
-        <v>21.868356543767916</v>
+      <c r="K19" s="39">
+        <v>25.857221286837778</v>
       </c>
       <c r="L19" s="36">
         <v>25.788290151303741</v>
@@ -7373,7 +7371,7 @@
         <v>11.754512350000001</v>
       </c>
       <c r="K20" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K17:K25" si="1">(J20*2/3)+(L20/3)</f>
         <v>10.986341566666667</v>
       </c>
       <c r="L20" s="36">
@@ -7836,7 +7834,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
@@ -9010,7 +9008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2523A896-A3FC-4F9A-B5DF-A205D08521A3}">
   <dimension ref="C3:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HannahD\Documents\GitHub\Irish-TIMES-model\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccireland-my.sharepoint.com/personal/agaur_ucc_ie/Documents/TIM-2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361BA2B-5903-4882-9618-75CB96DE6F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F95F6CE-D2D2-43BD-AC95-2271ABB22125}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -931,7 +931,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -984,6 +984,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Attrib" xfId="2" xr:uid="{16EBE39D-6598-42BD-A97C-1EF313EA2EC2}"/>
@@ -1020,7 +1021,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>25400</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1339,21 +1340,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="6" width="9.08984375" style="3"/>
+    <col min="7" max="7" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.08984375" style="3"/>
+    <col min="9" max="9" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.08984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:37" ht="13" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1488,7 +1489,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1587,7 +1588,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +1687,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>0.67368745787157902</v>
       </c>
       <c r="S8" s="22">
-        <v>1.1456149031137799</v>
+        <v>1.1456149031137901</v>
       </c>
       <c r="T8" s="22">
         <v>0.49378011021821799</v>
@@ -1770,7 +1771,7 @@
         <v>0.86102306186829503</v>
       </c>
       <c r="AG8" s="22">
-        <v>0.451316097288886</v>
+        <v>0.451316097288887</v>
       </c>
       <c r="AH8" s="22">
         <v>0.37617525772313698</v>
@@ -1785,7 +1786,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1884,7 +1885,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1983,7 +1984,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +2001,7 @@
         <v>44</v>
       </c>
       <c r="J11" s="22">
-        <v>3.5132998087277101</v>
+        <v>3.5132998087277199</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="22">
@@ -2082,7 +2083,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2181,7 +2182,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2280,7 +2281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2379,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +2429,7 @@
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
     </row>
-    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2477,7 +2478,7 @@
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
     </row>
-    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2526,7 +2527,7 @@
       <c r="AJ17" s="23"/>
       <c r="AK17" s="23"/>
     </row>
-    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2575,7 +2576,7 @@
       <c r="AJ18" s="23"/>
       <c r="AK18" s="23"/>
     </row>
-    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2624,7 +2625,7 @@
       <c r="AJ19" s="23"/>
       <c r="AK19" s="23"/>
     </row>
-    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2673,7 +2674,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="23"/>
     </row>
-    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2722,7 +2723,7 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="23"/>
     </row>
-    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2771,7 +2772,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
     </row>
-    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2820,7 +2821,7 @@
       <c r="AJ23" s="23"/>
       <c r="AK23" s="23"/>
     </row>
-    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2869,7 +2870,7 @@
       <c r="AJ24" s="23"/>
       <c r="AK24" s="23"/>
     </row>
-    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2918,7 +2919,7 @@
       <c r="AJ25" s="23"/>
       <c r="AK25" s="23"/>
     </row>
-    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -2967,7 +2968,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
     </row>
-    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3016,7 +3017,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
     </row>
-    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3065,7 +3066,7 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
     </row>
-    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3114,7 +3115,7 @@
       <c r="AJ29" s="23"/>
       <c r="AK29" s="23"/>
     </row>
-    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3163,7 +3164,7 @@
       <c r="AJ30" s="23"/>
       <c r="AK30" s="23"/>
     </row>
-    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3212,7 +3213,7 @@
       <c r="AJ31" s="23"/>
       <c r="AK31" s="23"/>
     </row>
-    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3261,7 +3262,7 @@
       <c r="AJ32" s="23"/>
       <c r="AK32" s="23"/>
     </row>
-    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3310,7 +3311,7 @@
       <c r="AJ33" s="23"/>
       <c r="AK33" s="23"/>
     </row>
-    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3359,7 +3360,7 @@
       <c r="AJ34" s="23"/>
       <c r="AK34" s="23"/>
     </row>
-    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3408,7 +3409,7 @@
       <c r="AJ35" s="23"/>
       <c r="AK35" s="23"/>
     </row>
-    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3457,7 +3458,7 @@
       <c r="AJ36" s="23"/>
       <c r="AK36" s="23"/>
     </row>
-    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3506,7 +3507,7 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="23"/>
     </row>
-    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3555,7 +3556,7 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
     </row>
-    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3600,7 +3601,7 @@
       <c r="AJ39" s="23"/>
       <c r="AK39" s="23"/>
     </row>
-    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3645,7 +3646,7 @@
       <c r="AJ40" s="23"/>
       <c r="AK40" s="23"/>
     </row>
-    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3661,12 +3662,8 @@
       <c r="I41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J41" s="23">
-        <v>5.6291760000000002</v>
-      </c>
-      <c r="K41" s="23">
-        <v>5.6291760000000002</v>
-      </c>
+      <c r="J41" s="23"/>
+      <c r="K41" s="23"/>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
@@ -3694,7 +3691,7 @@
       <c r="AJ41" s="23"/>
       <c r="AK41" s="23"/>
     </row>
-    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3710,12 +3707,8 @@
       <c r="I42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J42" s="23">
-        <v>0.48</v>
-      </c>
-      <c r="K42" s="23">
-        <v>0.48</v>
-      </c>
+      <c r="J42" s="23"/>
+      <c r="K42" s="23"/>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
@@ -3757,19 +3750,19 @@
       <selection activeCell="G12" sqref="G12:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.08984375" style="3"/>
+    <col min="4" max="4" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3890,7 +3883,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4006,7 +3999,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4122,7 +4115,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4238,7 +4231,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4354,7 +4347,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4395,7 +4388,7 @@
       </c>
       <c r="N8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085211</v>
+        <v>0.84062004677085977</v>
       </c>
       <c r="O8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4451,7 +4444,7 @@
       </c>
       <c r="AB8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916709</v>
+        <v>0.33116307912916793</v>
       </c>
       <c r="AC8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4470,7 +4463,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4511,7 +4504,7 @@
       </c>
       <c r="N9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0888953831144585</v>
+        <v>1.0888953831144683</v>
       </c>
       <c r="O9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4567,7 +4560,7 @@
       </c>
       <c r="AB9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4289713876167125</v>
+        <v>0.4289713876167135</v>
       </c>
       <c r="AC9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4586,7 +4579,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4702,7 +4695,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4818,7 +4811,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4934,7 +4927,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5050,7 +5043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5063,110 +5056,110 @@
       </c>
       <c r="G14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341231E-2</v>
+        <v>5.2718404005341085E-2</v>
       </c>
       <c r="H14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090483</v>
+        <v>1.2476395718090449</v>
       </c>
       <c r="I14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526884</v>
+        <v>0.20603624964526826</v>
       </c>
       <c r="J14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560347E-2</v>
+        <v>9.1887737410560083E-2</v>
       </c>
       <c r="K14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740469136E-2</v>
+        <v>7.8428487740468913E-2</v>
       </c>
       <c r="L14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898793E-2</v>
+        <v>3.7847947145898689E-2</v>
       </c>
       <c r="M14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092819</v>
+        <v>0.11934516233092786</v>
       </c>
       <c r="N14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580552</v>
+        <v>0.18060859254580502</v>
       </c>
       <c r="O14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654552E-2</v>
+        <v>7.2191026042654344E-2</v>
       </c>
       <c r="P14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796776E-2</v>
+        <v>8.2200040812796554E-2</v>
       </c>
       <c r="Q14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508828</v>
+        <v>0.13864092047508789</v>
       </c>
       <c r="R14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544515</v>
+        <v>0.13188397896544479</v>
       </c>
       <c r="S14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607375</v>
+        <v>0.11002323137607345</v>
       </c>
       <c r="T14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50268977983509444</v>
+        <v>0.502689779835093</v>
       </c>
       <c r="U14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1367750527017661</v>
+        <v>0.13677505270176574</v>
       </c>
       <c r="V14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524395</v>
+        <v>0.18047432414524345</v>
       </c>
       <c r="W14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316554</v>
+        <v>0.14774431803316512</v>
       </c>
       <c r="X14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.10757769450791341</v>
+        <v>0.1075776945079131</v>
       </c>
       <c r="Y14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297948</v>
+        <v>0.23895886146297882</v>
       </c>
       <c r="Z14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.967239053514998E-2</v>
+        <v>2.9672390535149896E-2</v>
       </c>
       <c r="AA14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824897</v>
+        <v>0.12084804242824863</v>
       </c>
       <c r="AB14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341915E-2</v>
+        <v>5.9767032040341748E-2</v>
       </c>
       <c r="AC14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.068468710900795E-2</v>
+        <v>6.0684687109007783E-2</v>
       </c>
       <c r="AD14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292492E-2</v>
+        <v>7.0538135732292298E-2</v>
       </c>
       <c r="AE14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1474100360152161</v>
+        <v>0.14741003601521568</v>
       </c>
       <c r="AF14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006623E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+        <v>5.6842758875006463E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5183,7 +5176,7 @@
       </c>
       <c r="H15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99408028513777114</v>
+        <v>0.99408028513777102</v>
       </c>
       <c r="I15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5227,7 +5220,7 @@
       </c>
       <c r="S15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7663078095158192E-2</v>
+        <v>8.7663078095158206E-2</v>
       </c>
       <c r="T15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5243,7 +5236,7 @@
       </c>
       <c r="W15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11771806306603201</v>
+        <v>0.117718063066032</v>
       </c>
       <c r="X15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5279,10 +5272,10 @@
       </c>
       <c r="AF15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.529053680827979E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+        <v>4.5290536808279797E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5398,7 +5391,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5514,7 +5507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5630,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5746,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5862,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -5991,38 +5984,40 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.08984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.36328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.90625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="29" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.08984375" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -6136,12 +6131,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -6256,7 +6251,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -6373,7 +6368,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -6490,7 +6485,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
         <v>130</v>
       </c>
@@ -6498,7 +6493,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>76</v>
       </c>
@@ -6506,7 +6501,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -6514,7 +6509,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
         <v>88</v>
       </c>
@@ -6522,7 +6517,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>89</v>
       </c>
@@ -6530,7 +6525,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>100</v>
       </c>
@@ -6538,7 +6533,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>77</v>
       </c>
@@ -6546,7 +6541,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>94</v>
       </c>
@@ -6554,7 +6549,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>90</v>
       </c>
@@ -6562,7 +6557,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -6570,7 +6565,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>79</v>
       </c>
@@ -6578,7 +6573,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
@@ -6586,7 +6581,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
@@ -6594,7 +6589,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
@@ -6602,7 +6597,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>81</v>
       </c>
@@ -6610,7 +6605,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>82</v>
       </c>
@@ -6618,7 +6613,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>96</v>
       </c>
@@ -6626,7 +6621,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>83</v>
       </c>
@@ -6634,7 +6629,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>101</v>
       </c>
@@ -6642,7 +6637,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>84</v>
       </c>
@@ -6650,7 +6645,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>97</v>
       </c>
@@ -6658,7 +6653,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>98</v>
       </c>
@@ -6666,7 +6661,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>92</v>
       </c>
@@ -6674,7 +6669,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>93</v>
       </c>
@@ -6682,7 +6677,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
@@ -6690,7 +6685,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>86</v>
       </c>
@@ -6698,7 +6693,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>87</v>
       </c>
@@ -6706,7 +6701,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
@@ -6732,7 +6727,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>25400</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -6751,23 +6746,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P44"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29:F32"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6328125" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.90625" customWidth="1"/>
+    <col min="12" max="13" width="15.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -6775,7 +6770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -6807,7 +6802,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6839,7 +6834,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6871,7 +6866,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6903,7 +6898,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6935,7 +6930,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6967,7 +6962,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6999,7 +6994,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7031,7 +7026,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7063,7 +7058,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7095,7 +7090,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7127,7 +7122,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7159,7 +7154,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7191,7 +7186,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7223,7 +7218,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7255,7 +7250,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7279,16 +7274,15 @@
       <c r="J17" s="36">
         <v>10.76129175</v>
       </c>
-      <c r="K17" s="36">
-        <f t="shared" ref="K17:K25" si="1">(J17*2/3)+(L17/3)</f>
-        <v>13.357743891204088</v>
+      <c r="K17" s="39">
+        <v>16.798154247711324</v>
       </c>
       <c r="L17" s="36">
         <v>18.550648173612263</v>
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7312,16 +7306,15 @@
       <c r="J18" s="36">
         <v>23.13677727</v>
       </c>
-      <c r="K18" s="36">
-        <f t="shared" si="1"/>
-        <v>25.428376071694668</v>
+      <c r="K18" s="39">
+        <v>30.018312954312446</v>
       </c>
       <c r="L18" s="36">
         <v>30.011573675084005</v>
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7345,16 +7338,15 @@
       <c r="J19" s="36">
         <v>19.908389740000001</v>
       </c>
-      <c r="K19" s="36">
-        <f t="shared" si="1"/>
-        <v>21.868356543767916</v>
+      <c r="K19" s="39">
+        <v>25.857221286837778</v>
       </c>
       <c r="L19" s="36">
         <v>25.788290151303741</v>
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7379,7 +7371,7 @@
         <v>11.754512350000001</v>
       </c>
       <c r="K20" s="36">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="K17:K25" si="1">(J20*2/3)+(L20/3)</f>
         <v>10.986341566666667</v>
       </c>
       <c r="L20" s="36">
@@ -7387,7 +7379,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7419,7 +7411,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7435,7 +7427,7 @@
       </c>
       <c r="H22" s="37">
         <f>VLOOKUP(F22,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
-        <v>3.5132998087277101</v>
+        <v>3.5132998087277199</v>
       </c>
       <c r="I22" s="36">
         <v>4.2966351471015702</v>
@@ -7445,15 +7437,15 @@
       </c>
       <c r="K22" s="36">
         <f t="shared" si="1"/>
-        <v>4.1107229120604369</v>
+        <v>4.1107229120604405</v>
       </c>
       <c r="L22" s="36">
         <f>H22</f>
-        <v>3.5132998087277101</v>
+        <v>3.5132998087277199</v>
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7485,7 +7477,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7519,7 +7511,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7553,7 +7545,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7584,7 +7576,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7615,7 +7607,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7646,7 +7638,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7677,7 +7669,7 @@
         <v>32.772151050078904</v>
       </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7708,7 +7700,7 @@
         <v>66.089343999999997</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7734,7 +7726,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.35">
       <c r="D32" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7760,73 +7752,73 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.35">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -7842,19 +7834,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
@@ -7862,7 +7854,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" ht="26" x14ac:dyDescent="0.35">
       <c r="C5" s="28" t="s">
         <v>65</v>
       </c>
@@ -7895,7 +7887,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C6" s="29" t="s">
         <v>153</v>
       </c>
@@ -7912,7 +7904,7 @@
       <c r="L6" s="29"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" t="s">
@@ -7938,7 +7930,7 @@
       </c>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" t="s">
@@ -7964,7 +7956,7 @@
       </c>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" t="s">
@@ -7990,7 +7982,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
@@ -8018,7 +8010,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C11" s="30" t="s">
         <v>159</v>
       </c>
@@ -8046,7 +8038,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C12" s="30" t="s">
         <v>159</v>
       </c>
@@ -8074,7 +8066,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" t="s">
@@ -8100,7 +8092,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" t="s">
@@ -8126,7 +8118,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" t="s">
@@ -8152,7 +8144,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" t="s">
@@ -8178,7 +8170,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" t="s">
@@ -8204,7 +8196,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" t="s">
@@ -8230,7 +8222,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" t="s">
@@ -8256,7 +8248,7 @@
       </c>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" t="s">
@@ -8282,7 +8274,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" t="s">
@@ -8308,7 +8300,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -8331,7 +8323,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -8354,7 +8346,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -8377,7 +8369,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -8403,7 +8395,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -8429,7 +8421,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -8455,7 +8447,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -8478,7 +8470,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -8501,7 +8493,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -8524,7 +8516,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -8547,7 +8539,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -8570,7 +8562,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -8593,7 +8585,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -8616,7 +8608,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -8639,7 +8631,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -8662,7 +8654,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -8685,7 +8677,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -8708,7 +8700,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -8731,7 +8723,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -8754,7 +8746,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -8777,7 +8769,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -8800,7 +8792,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -8823,7 +8815,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -8846,7 +8838,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -8869,7 +8861,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -8892,7 +8884,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -8915,7 +8907,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -8938,7 +8930,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -8961,7 +8953,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -8984,7 +8976,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -9016,22 +9008,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2523A896-A3FC-4F9A-B5DF-A205D08521A3}">
   <dimension ref="C3:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
@@ -9039,7 +9031,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="28" t="s">
         <v>65</v>
       </c>
@@ -9072,7 +9064,7 @@
       </c>
       <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C5" s="29" t="s">
         <v>153</v>
       </c>
@@ -9088,7 +9080,7 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -9105,7 +9097,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -9122,7 +9114,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -9139,7 +9131,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -9156,7 +9148,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -9173,7 +9165,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -9190,7 +9182,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -9207,7 +9199,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -9224,7 +9216,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -9241,7 +9233,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -9258,7 +9250,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -9275,7 +9267,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -9292,7 +9284,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -9309,7 +9301,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -9326,7 +9318,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -9343,7 +9335,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -9360,7 +9352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -9377,7 +9369,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -9394,7 +9386,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -9411,7 +9403,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -9428,7 +9420,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -9445,7 +9437,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -9462,7 +9454,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -9479,7 +9471,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -9496,7 +9488,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -9513,7 +9505,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -9530,7 +9522,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -9547,7 +9539,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccireland-my.sharepoint.com/personal/agaur_ucc_ie/Documents/TIM-2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HannahD\Documents\GitHub\Irish-TIMES-model\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{063A455A-82FA-45DE-BC87-194ABD9AAF51}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361BA2B-5903-4882-9618-75CB96DE6F27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -1020,7 +1020,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1339,21 +1339,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.08984375" style="3"/>
-    <col min="7" max="7" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="3"/>
-    <col min="9" max="9" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="3"/>
+    <col min="1" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1728,7 +1728,7 @@
         <v>0.67368745787157902</v>
       </c>
       <c r="S8" s="22">
-        <v>1.1456149031137901</v>
+        <v>1.1456149031137799</v>
       </c>
       <c r="T8" s="22">
         <v>0.49378011021821799</v>
@@ -1770,7 +1770,7 @@
         <v>0.86102306186829503</v>
       </c>
       <c r="AG8" s="22">
-        <v>0.451316097288887</v>
+        <v>0.451316097288886</v>
       </c>
       <c r="AH8" s="22">
         <v>0.37617525772313698</v>
@@ -1785,7 +1785,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>44</v>
       </c>
       <c r="J11" s="22">
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="22">
@@ -2082,7 +2082,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2428,7 +2428,7 @@
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
     </row>
-    <row r="16" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
     </row>
-    <row r="17" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2526,7 +2526,7 @@
       <c r="AJ17" s="23"/>
       <c r="AK17" s="23"/>
     </row>
-    <row r="18" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="AJ18" s="23"/>
       <c r="AK18" s="23"/>
     </row>
-    <row r="19" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2624,7 +2624,7 @@
       <c r="AJ19" s="23"/>
       <c r="AK19" s="23"/>
     </row>
-    <row r="20" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2673,7 +2673,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="23"/>
     </row>
-    <row r="21" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2722,7 +2722,7 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="23"/>
     </row>
-    <row r="22" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2771,7 +2771,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
     </row>
-    <row r="23" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2820,7 +2820,7 @@
       <c r="AJ23" s="23"/>
       <c r="AK23" s="23"/>
     </row>
-    <row r="24" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2869,7 +2869,7 @@
       <c r="AJ24" s="23"/>
       <c r="AK24" s="23"/>
     </row>
-    <row r="25" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2918,7 +2918,7 @@
       <c r="AJ25" s="23"/>
       <c r="AK25" s="23"/>
     </row>
-    <row r="26" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -2967,7 +2967,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
     </row>
-    <row r="27" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3016,7 +3016,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
     </row>
-    <row r="28" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3065,7 +3065,7 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
     </row>
-    <row r="29" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="AJ29" s="23"/>
       <c r="AK29" s="23"/>
     </row>
-    <row r="30" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3163,7 +3163,7 @@
       <c r="AJ30" s="23"/>
       <c r="AK30" s="23"/>
     </row>
-    <row r="31" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3212,7 +3212,7 @@
       <c r="AJ31" s="23"/>
       <c r="AK31" s="23"/>
     </row>
-    <row r="32" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3261,7 +3261,7 @@
       <c r="AJ32" s="23"/>
       <c r="AK32" s="23"/>
     </row>
-    <row r="33" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="AJ33" s="23"/>
       <c r="AK33" s="23"/>
     </row>
-    <row r="34" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3359,7 +3359,7 @@
       <c r="AJ34" s="23"/>
       <c r="AK34" s="23"/>
     </row>
-    <row r="35" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3408,7 +3408,7 @@
       <c r="AJ35" s="23"/>
       <c r="AK35" s="23"/>
     </row>
-    <row r="36" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="AJ36" s="23"/>
       <c r="AK36" s="23"/>
     </row>
-    <row r="37" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3506,7 +3506,7 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="23"/>
     </row>
-    <row r="38" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3555,7 +3555,7 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
     </row>
-    <row r="39" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3600,7 +3600,7 @@
       <c r="AJ39" s="23"/>
       <c r="AK39" s="23"/>
     </row>
-    <row r="40" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3645,7 +3645,7 @@
       <c r="AJ40" s="23"/>
       <c r="AK40" s="23"/>
     </row>
-    <row r="41" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3661,8 +3661,12 @@
       <c r="I41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="J41" s="23">
+        <v>5.6291760000000002</v>
+      </c>
+      <c r="K41" s="23">
+        <v>5.6291760000000002</v>
+      </c>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
@@ -3690,7 +3694,7 @@
       <c r="AJ41" s="23"/>
       <c r="AK41" s="23"/>
     </row>
-    <row r="42" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3706,8 +3710,12 @@
       <c r="I42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
+      <c r="J42" s="23">
+        <v>0.48</v>
+      </c>
+      <c r="K42" s="23">
+        <v>0.48</v>
+      </c>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
@@ -3749,19 +3757,19 @@
       <selection activeCell="G12" sqref="G12:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.08984375" style="3"/>
-    <col min="4" max="4" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.08984375" style="3"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3882,7 +3890,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -3998,7 +4006,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4114,7 +4122,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4230,7 +4238,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4346,7 +4354,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4387,7 +4395,7 @@
       </c>
       <c r="N8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085977</v>
+        <v>0.84062004677085211</v>
       </c>
       <c r="O8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4443,7 +4451,7 @@
       </c>
       <c r="AB8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916793</v>
+        <v>0.33116307912916709</v>
       </c>
       <c r="AC8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4462,7 +4470,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4503,7 +4511,7 @@
       </c>
       <c r="N9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0888953831144683</v>
+        <v>1.0888953831144585</v>
       </c>
       <c r="O9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4559,7 +4567,7 @@
       </c>
       <c r="AB9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4289713876167135</v>
+        <v>0.4289713876167125</v>
       </c>
       <c r="AC9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4578,7 +4586,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4694,7 +4702,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4810,7 +4818,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4926,7 +4934,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5042,7 +5050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5055,110 +5063,110 @@
       </c>
       <c r="G14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341085E-2</v>
+        <v>5.2718404005341231E-2</v>
       </c>
       <c r="H14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090449</v>
+        <v>1.2476395718090483</v>
       </c>
       <c r="I14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526826</v>
+        <v>0.20603624964526884</v>
       </c>
       <c r="J14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560083E-2</v>
+        <v>9.1887737410560347E-2</v>
       </c>
       <c r="K14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740468913E-2</v>
+        <v>7.8428487740469136E-2</v>
       </c>
       <c r="L14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898689E-2</v>
+        <v>3.7847947145898793E-2</v>
       </c>
       <c r="M14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092786</v>
+        <v>0.11934516233092819</v>
       </c>
       <c r="N14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580502</v>
+        <v>0.18060859254580552</v>
       </c>
       <c r="O14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654344E-2</v>
+        <v>7.2191026042654552E-2</v>
       </c>
       <c r="P14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796554E-2</v>
+        <v>8.2200040812796776E-2</v>
       </c>
       <c r="Q14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508789</v>
+        <v>0.13864092047508828</v>
       </c>
       <c r="R14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544479</v>
+        <v>0.13188397896544515</v>
       </c>
       <c r="S14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607345</v>
+        <v>0.11002323137607375</v>
       </c>
       <c r="T14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.502689779835093</v>
+        <v>0.50268977983509444</v>
       </c>
       <c r="U14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13677505270176574</v>
+        <v>0.1367750527017661</v>
       </c>
       <c r="V14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524345</v>
+        <v>0.18047432414524395</v>
       </c>
       <c r="W14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316512</v>
+        <v>0.14774431803316554</v>
       </c>
       <c r="X14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1075776945079131</v>
+        <v>0.10757769450791341</v>
       </c>
       <c r="Y14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297882</v>
+        <v>0.23895886146297948</v>
       </c>
       <c r="Z14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.9672390535149896E-2</v>
+        <v>2.967239053514998E-2</v>
       </c>
       <c r="AA14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824863</v>
+        <v>0.12084804242824897</v>
       </c>
       <c r="AB14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341748E-2</v>
+        <v>5.9767032040341915E-2</v>
       </c>
       <c r="AC14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.0684687109007783E-2</v>
+        <v>6.068468710900795E-2</v>
       </c>
       <c r="AD14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292298E-2</v>
+        <v>7.0538135732292492E-2</v>
       </c>
       <c r="AE14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14741003601521568</v>
+        <v>0.1474100360152161</v>
       </c>
       <c r="AF14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006463E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+        <v>5.6842758875006623E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5175,7 +5183,7 @@
       </c>
       <c r="H15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99408028513777102</v>
+        <v>0.99408028513777114</v>
       </c>
       <c r="I15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5219,7 +5227,7 @@
       </c>
       <c r="S15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7663078095158206E-2</v>
+        <v>8.7663078095158192E-2</v>
       </c>
       <c r="T15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5235,7 +5243,7 @@
       </c>
       <c r="W15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.117718063066032</v>
+        <v>0.11771806306603201</v>
       </c>
       <c r="X15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5271,10 +5279,10 @@
       </c>
       <c r="AF15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.5290536808279797E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+        <v>4.529053680827979E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5390,7 +5398,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5506,7 +5514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5622,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5738,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5854,7 +5862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -5983,40 +5991,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.08984375" style="3"/>
+    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="20" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -6130,12 +6136,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -6250,7 +6256,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -6367,7 +6373,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -6484,7 +6490,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>130</v>
       </c>
@@ -6492,7 +6498,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>76</v>
       </c>
@@ -6500,7 +6506,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -6508,7 +6514,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>88</v>
       </c>
@@ -6516,7 +6522,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>89</v>
       </c>
@@ -6524,7 +6530,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>100</v>
       </c>
@@ -6532,7 +6538,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>77</v>
       </c>
@@ -6540,7 +6546,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>94</v>
       </c>
@@ -6548,7 +6554,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>90</v>
       </c>
@@ -6556,7 +6562,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -6564,7 +6570,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>79</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
@@ -6580,7 +6586,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
@@ -6588,7 +6594,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
@@ -6596,7 +6602,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>81</v>
       </c>
@@ -6604,7 +6610,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>82</v>
       </c>
@@ -6612,7 +6618,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>96</v>
       </c>
@@ -6620,7 +6626,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>83</v>
       </c>
@@ -6628,7 +6634,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>101</v>
       </c>
@@ -6636,7 +6642,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>84</v>
       </c>
@@ -6644,7 +6650,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>97</v>
       </c>
@@ -6652,7 +6658,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>98</v>
       </c>
@@ -6660,7 +6666,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>92</v>
       </c>
@@ -6668,7 +6674,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>93</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
@@ -6684,7 +6690,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>86</v>
       </c>
@@ -6692,7 +6698,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>87</v>
       </c>
@@ -6700,7 +6706,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
@@ -6726,7 +6732,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -6749,19 +6755,19 @@
       <selection activeCell="F29" sqref="F29:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.90625" customWidth="1"/>
-    <col min="12" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -6769,7 +6775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -6801,7 +6807,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6833,7 +6839,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6865,7 +6871,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6897,7 +6903,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6929,7 +6935,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6961,7 +6967,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6993,7 +6999,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7025,7 +7031,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7057,7 +7063,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7089,7 +7095,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7121,7 +7127,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7153,7 +7159,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7185,7 +7191,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7217,7 +7223,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7249,7 +7255,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7282,7 +7288,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7315,7 +7321,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7348,7 +7354,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7381,7 +7387,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7413,7 +7419,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7429,7 +7435,7 @@
       </c>
       <c r="H22" s="37">
         <f>VLOOKUP(F22,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="I22" s="36">
         <v>4.2966351471015702</v>
@@ -7439,15 +7445,15 @@
       </c>
       <c r="K22" s="36">
         <f t="shared" si="1"/>
-        <v>4.1107229120604405</v>
+        <v>4.1107229120604369</v>
       </c>
       <c r="L22" s="36">
         <f>H22</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7479,7 +7485,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7513,7 +7519,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7547,7 +7553,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7578,7 +7584,7 @@
       </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7609,7 +7615,7 @@
       </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7640,7 +7646,7 @@
       </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7671,7 +7677,7 @@
         <v>32.772151050078904</v>
       </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7702,7 +7708,7 @@
         <v>66.089343999999997</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7728,7 +7734,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D32" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7754,73 +7760,73 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.25">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -7840,15 +7846,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.6328125" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
@@ -7856,7 +7862,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="3:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>65</v>
       </c>
@@ -7889,7 +7895,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
         <v>153</v>
       </c>
@@ -7906,7 +7912,7 @@
       <c r="L6" s="29"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" t="s">
@@ -7932,7 +7938,7 @@
       </c>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" t="s">
@@ -7958,7 +7964,7 @@
       </c>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" t="s">
@@ -7984,7 +7990,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
@@ -8012,7 +8018,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="30" t="s">
         <v>159</v>
       </c>
@@ -8040,7 +8046,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="30" t="s">
         <v>159</v>
       </c>
@@ -8068,7 +8074,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" t="s">
@@ -8094,7 +8100,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" t="s">
@@ -8120,7 +8126,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" t="s">
@@ -8146,7 +8152,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" t="s">
@@ -8172,7 +8178,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" t="s">
@@ -8198,7 +8204,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" t="s">
@@ -8224,7 +8230,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" t="s">
@@ -8250,7 +8256,7 @@
       </c>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" t="s">
@@ -8276,7 +8282,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" t="s">
@@ -8302,7 +8308,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -8325,7 +8331,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -8348,7 +8354,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -8371,7 +8377,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -8397,7 +8403,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -8423,7 +8429,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -8472,7 +8478,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -8495,7 +8501,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -8518,7 +8524,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -8541,7 +8547,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -8564,7 +8570,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -8587,7 +8593,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -8610,7 +8616,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -8633,7 +8639,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -8656,7 +8662,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -8679,7 +8685,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -8702,7 +8708,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -8725,7 +8731,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -8748,7 +8754,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -8771,7 +8777,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -8794,7 +8800,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -8817,7 +8823,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -8840,7 +8846,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -8863,7 +8869,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -8886,7 +8892,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -8909,7 +8915,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -8932,7 +8938,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -8955,7 +8961,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -8978,7 +8984,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -9014,18 +9020,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
@@ -9033,7 +9039,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="28" t="s">
         <v>65</v>
       </c>
@@ -9066,7 +9072,7 @@
       </c>
       <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="29" t="s">
         <v>153</v>
       </c>
@@ -9082,7 +9088,7 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -9099,7 +9105,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -9116,7 +9122,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -9133,7 +9139,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -9150,7 +9156,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -9167,7 +9173,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -9184,7 +9190,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -9201,7 +9207,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -9218,7 +9224,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -9235,7 +9241,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -9252,7 +9258,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -9269,7 +9275,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -9286,7 +9292,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -9303,7 +9309,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -9320,7 +9326,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -9337,7 +9343,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -9354,7 +9360,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -9371,7 +9377,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -9388,7 +9394,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -9405,7 +9411,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -9422,7 +9428,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -9439,7 +9445,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -9456,7 +9462,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -9473,7 +9479,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -9490,7 +9496,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -9507,7 +9513,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -9524,7 +9530,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -9541,7 +9547,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccireland-my.sharepoint.com/personal/agaur_ucc_ie/Documents/TIM-2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccireland-my.sharepoint.com/personal/agaur_ucc_ie/Documents/TIM-2.0/TIM/SuppXLS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F95F6CE-D2D2-43BD-AC95-2271ABB22125}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="113_{293D1C48-0FAE-4514-9C4F-F95949ADE232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{CBD545CB-4069-4125-80D8-739C9EBC099F}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="186">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -651,6 +651,15 @@
   </si>
   <si>
     <t>SRVOEL-PU</t>
+  </si>
+  <si>
+    <t>Attrib_Cond</t>
+  </si>
+  <si>
+    <t>Val_Cond</t>
+  </si>
+  <si>
+    <t>IE,National</t>
   </si>
 </sst>
 </file>
@@ -6744,10 +6753,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:P44"/>
+  <dimension ref="C1:AP42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7250,7 +7259,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7282,7 +7291,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7314,7 +7323,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7346,7 +7355,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7371,7 +7380,7 @@
         <v>11.754512350000001</v>
       </c>
       <c r="K20" s="36">
-        <f t="shared" ref="K17:K25" si="1">(J20*2/3)+(L20/3)</f>
+        <f t="shared" ref="K20:K25" si="1">(J20*2/3)+(L20/3)</f>
         <v>10.986341566666667</v>
       </c>
       <c r="L20" s="36">
@@ -7379,7 +7388,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7411,7 +7420,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7445,7 +7454,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7477,7 +7486,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7511,7 +7520,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7545,7 +7554,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7554,29 +7563,29 @@
         <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>160</v>
       </c>
       <c r="G26" t="s">
-        <v>53</v>
+        <v>161</v>
       </c>
       <c r="H26" s="37">
-        <v>206.79888500000001</v>
-      </c>
-      <c r="I26" s="36">
-        <v>227.33367966704699</v>
-      </c>
-      <c r="J26" s="36">
-        <v>234.01489904006499</v>
+        <v>28.901664567933956</v>
+      </c>
+      <c r="I26" s="38">
+        <v>29.285472960899106</v>
+      </c>
+      <c r="J26" s="38">
+        <v>29.618106901468909</v>
       </c>
       <c r="K26" s="36">
-        <v>355.09166996739799</v>
+        <f>J26*2/3+L26*1/3</f>
+        <v>30.669454951005577</v>
       </c>
       <c r="L26" s="36">
-        <v>614.82387830734103</v>
-      </c>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.35">
+        <v>32.772151050078904</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7585,29 +7594,29 @@
         <v>59</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>163</v>
       </c>
       <c r="H27" s="37">
-        <v>766.351721</v>
-      </c>
-      <c r="I27" s="36">
-        <v>805.70916346620595</v>
-      </c>
-      <c r="J27" s="36">
-        <v>818.79213614191099</v>
+        <v>58.151541961987604</v>
+      </c>
+      <c r="I27" s="38">
+        <v>58.923782945423504</v>
+      </c>
+      <c r="J27" s="38">
+        <v>59.593058464401295</v>
       </c>
       <c r="K27" s="36">
-        <v>918.02415110284801</v>
+        <f>J27*2/3+L27*1/3</f>
+        <v>61.758486976267527</v>
       </c>
       <c r="L27" s="36">
-        <v>1051.6575592105</v>
-      </c>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
+        <v>66.089343999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7616,29 +7625,24 @@
         <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>56</v>
+        <v>164</v>
       </c>
       <c r="G28" t="s">
-        <v>57</v>
+        <v>165</v>
       </c>
       <c r="H28" s="37">
-        <v>724.42972899999995</v>
-      </c>
-      <c r="I28" s="36">
-        <v>756.93265686674704</v>
-      </c>
-      <c r="J28" s="36">
-        <v>768.29446481802404</v>
-      </c>
-      <c r="K28" s="36">
-        <v>832.59337892975498</v>
+        <v>5.6291760000000002</v>
+      </c>
+      <c r="I28" s="37"/>
+      <c r="J28" s="37"/>
+      <c r="K28" s="38">
+        <v>40.299999999999997</v>
       </c>
       <c r="L28" s="36">
-        <v>889.16483547498206</v>
-      </c>
-      <c r="P28" s="1"/>
-    </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.35">
+        <v>40.299999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7647,182 +7651,549 @@
         <v>59</v>
       </c>
       <c r="F29" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="H29" s="37">
-        <v>28.901664567933956</v>
-      </c>
-      <c r="I29" s="38">
-        <v>29.285472960899106</v>
-      </c>
-      <c r="J29" s="38">
-        <v>29.618106901468909</v>
-      </c>
-      <c r="K29" s="36">
-        <f>J29*2/3+L29*1/3</f>
-        <v>30.669454951005577</v>
+        <v>0.48</v>
+      </c>
+      <c r="I29" s="37"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="37">
+        <v>0.5</v>
       </c>
       <c r="L29" s="36">
-        <v>32.772151050078904</v>
-      </c>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="D30" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E30" t="s">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="3:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C33" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="J33" s="13">
+        <v>2018</v>
+      </c>
+      <c r="K33" s="13">
+        <v>2019</v>
+      </c>
+      <c r="L33" s="13">
+        <v>2020</v>
+      </c>
+      <c r="M33" s="13">
+        <v>2021</v>
+      </c>
+      <c r="N33" s="13">
+        <v>2022</v>
+      </c>
+      <c r="O33" s="13">
+        <v>2023</v>
+      </c>
+      <c r="P33" s="13">
+        <v>2024</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>2025</v>
+      </c>
+      <c r="R33" s="13">
+        <v>2026</v>
+      </c>
+      <c r="S33" s="13">
+        <v>2027</v>
+      </c>
+      <c r="T33" s="13">
+        <v>2028</v>
+      </c>
+      <c r="U33" s="13">
+        <v>2029</v>
+      </c>
+      <c r="V33" s="13">
+        <v>2030</v>
+      </c>
+      <c r="W33" s="13">
+        <v>2031</v>
+      </c>
+      <c r="X33" s="13">
+        <v>2032</v>
+      </c>
+      <c r="Y33" s="13">
+        <v>2033</v>
+      </c>
+      <c r="Z33" s="13">
+        <v>2034</v>
+      </c>
+      <c r="AA33" s="13">
+        <v>2035</v>
+      </c>
+      <c r="AB33" s="13">
+        <v>2036</v>
+      </c>
+      <c r="AC33" s="13">
+        <v>2037</v>
+      </c>
+      <c r="AD33" s="13">
+        <v>2038</v>
+      </c>
+      <c r="AE33" s="13">
+        <v>2039</v>
+      </c>
+      <c r="AF33" s="13">
+        <v>2040</v>
+      </c>
+      <c r="AG33" s="13">
+        <v>2041</v>
+      </c>
+      <c r="AH33" s="13">
+        <v>2042</v>
+      </c>
+      <c r="AI33" s="13">
+        <v>2043</v>
+      </c>
+      <c r="AJ33" s="13">
+        <v>2044</v>
+      </c>
+      <c r="AK33" s="13">
+        <v>2045</v>
+      </c>
+      <c r="AL33" s="13">
+        <v>2046</v>
+      </c>
+      <c r="AM33" s="13">
+        <v>2047</v>
+      </c>
+      <c r="AN33" s="13">
+        <v>2048</v>
+      </c>
+      <c r="AO33" s="13">
+        <v>2049</v>
+      </c>
+      <c r="AP33" s="13">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="34" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="D34" t="s">
         <v>59</v>
       </c>
-      <c r="F30" t="s">
-        <v>162</v>
-      </c>
-      <c r="G30" t="s">
-        <v>163</v>
-      </c>
-      <c r="H30" s="37">
-        <v>58.151541961987604</v>
-      </c>
-      <c r="I30" s="38">
-        <v>58.923782945423504</v>
-      </c>
-      <c r="J30" s="38">
-        <v>59.593058464401295</v>
-      </c>
-      <c r="K30" s="36">
-        <f>J30*2/3+L30*1/3</f>
-        <v>61.758486976267527</v>
-      </c>
-      <c r="L30" s="36">
-        <v>66.089343999999997</v>
-      </c>
-    </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="D31" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="E34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J34" s="1">
+        <v>206.79888500000001</v>
+      </c>
+      <c r="K34" s="1">
+        <v>227.33367966704699</v>
+      </c>
+      <c r="L34">
+        <v>234.01489904006499</v>
+      </c>
+      <c r="M34">
+        <v>250.52243040236399</v>
+      </c>
+      <c r="N34">
+        <v>265.47273899323898</v>
+      </c>
+      <c r="O34">
+        <v>279.23643876610601</v>
+      </c>
+      <c r="P34">
+        <v>291.97758934464099</v>
+      </c>
+      <c r="Q34">
+        <v>303.745747309416</v>
+      </c>
+      <c r="R34">
+        <v>314.88867210903697</v>
+      </c>
+      <c r="S34">
+        <v>325.448418136599</v>
+      </c>
+      <c r="T34">
+        <v>335.72138230120601</v>
+      </c>
+      <c r="U34">
+        <v>345.60194314472</v>
+      </c>
+      <c r="V34">
+        <v>355.09166996739799</v>
+      </c>
+      <c r="W34">
+        <v>372.33998569365798</v>
+      </c>
+      <c r="X34">
+        <v>385.16674421872602</v>
+      </c>
+      <c r="Y34">
+        <v>398.22461473825501</v>
+      </c>
+      <c r="Z34">
+        <v>411.45770972769901</v>
+      </c>
+      <c r="AA34">
+        <v>424.76161479887702</v>
+      </c>
+      <c r="AB34">
+        <v>438.12862011422999</v>
+      </c>
+      <c r="AC34">
+        <v>451.68804802308699</v>
+      </c>
+      <c r="AD34">
+        <v>465.40875684082903</v>
+      </c>
+      <c r="AE34">
+        <v>479.13103817121703</v>
+      </c>
+      <c r="AF34">
+        <v>492.828423833106</v>
+      </c>
+      <c r="AG34">
+        <v>502.36472594874499</v>
+      </c>
+      <c r="AH34">
+        <v>516.22001380752999</v>
+      </c>
+      <c r="AI34">
+        <v>530.17405404626902</v>
+      </c>
+      <c r="AJ34">
+        <v>544.19495314722303</v>
+      </c>
+      <c r="AK34">
+        <v>558.26962802562196</v>
+      </c>
+      <c r="AL34">
+        <v>572.38852326507094</v>
+      </c>
+      <c r="AM34">
+        <v>586.53294139438299</v>
+      </c>
+      <c r="AN34">
+        <v>600.68795864299398</v>
+      </c>
+      <c r="AO34">
+        <v>614.82387830734103</v>
+      </c>
+      <c r="AP34">
+        <v>628.93152164032301</v>
+      </c>
+    </row>
+    <row r="35" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="D35" t="s">
         <v>59</v>
       </c>
-      <c r="F31" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" t="s">
-        <v>165</v>
-      </c>
-      <c r="H31" s="37">
-        <v>5.6291760000000002</v>
-      </c>
-      <c r="I31" s="37"/>
-      <c r="J31" s="37"/>
-      <c r="K31" s="38">
-        <v>40.299999999999997</v>
-      </c>
-      <c r="L31" s="36">
-        <v>40.299999999999997</v>
-      </c>
-    </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.35">
-      <c r="D32" t="str">
-        <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
-        <v>IE,National</v>
-      </c>
-      <c r="E32" t="s">
+      <c r="E35" t="s">
+        <v>185</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J35" s="1">
+        <v>766.351721</v>
+      </c>
+      <c r="K35" s="1">
+        <v>805.70916346620595</v>
+      </c>
+      <c r="L35">
+        <v>818.79213614191099</v>
+      </c>
+      <c r="M35">
+        <v>828.23348265178799</v>
+      </c>
+      <c r="N35">
+        <v>837.71211748108306</v>
+      </c>
+      <c r="O35">
+        <v>847.44596259241098</v>
+      </c>
+      <c r="P35">
+        <v>857.22660991181897</v>
+      </c>
+      <c r="Q35">
+        <v>866.69288183161598</v>
+      </c>
+      <c r="R35">
+        <v>876.45317782380505</v>
+      </c>
+      <c r="S35">
+        <v>886.30184769788696</v>
+      </c>
+      <c r="T35">
+        <v>896.78868422421601</v>
+      </c>
+      <c r="U35">
+        <v>907.41397234982298</v>
+      </c>
+      <c r="V35">
+        <v>918.02415110284801</v>
+      </c>
+      <c r="W35">
+        <v>926.06233489012698</v>
+      </c>
+      <c r="X35">
+        <v>935.42249419952896</v>
+      </c>
+      <c r="Y35">
+        <v>944.78624082315798</v>
+      </c>
+      <c r="Z35">
+        <v>954.01952778809903</v>
+      </c>
+      <c r="AA35">
+        <v>962.89022086688499</v>
+      </c>
+      <c r="AB35">
+        <v>971.40101477560995</v>
+      </c>
+      <c r="AC35">
+        <v>979.85184308314797</v>
+      </c>
+      <c r="AD35">
+        <v>988.17666058914301</v>
+      </c>
+      <c r="AE35">
+        <v>996.04767237168198</v>
+      </c>
+      <c r="AF35">
+        <v>1003.43540212397</v>
+      </c>
+      <c r="AG35">
+        <v>1002.11497030569</v>
+      </c>
+      <c r="AH35">
+        <v>1009.1830944926101</v>
+      </c>
+      <c r="AI35">
+        <v>1016.05596064786</v>
+      </c>
+      <c r="AJ35">
+        <v>1022.6819321704</v>
+      </c>
+      <c r="AK35">
+        <v>1029.0480878439801</v>
+      </c>
+      <c r="AL35">
+        <v>1035.14898193112</v>
+      </c>
+      <c r="AM35">
+        <v>1040.9634765099099</v>
+      </c>
+      <c r="AN35">
+        <v>1046.47869262623</v>
+      </c>
+      <c r="AO35">
+        <v>1051.6575592105</v>
+      </c>
+      <c r="AP35">
+        <v>1056.50027926231</v>
+      </c>
+    </row>
+    <row r="36" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="D36" t="s">
         <v>59</v>
       </c>
-      <c r="F32" t="s">
-        <v>166</v>
-      </c>
-      <c r="G32" t="s">
-        <v>167</v>
-      </c>
-      <c r="H32" s="37">
-        <v>0.48</v>
-      </c>
-      <c r="I32" s="37"/>
-      <c r="J32" s="37"/>
-      <c r="K32" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="L32" s="36">
-        <v>0.54</v>
-      </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-    </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-    </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-    </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J36" s="1">
+        <v>724.42972899999995</v>
+      </c>
+      <c r="K36" s="1">
+        <v>756.93265686674704</v>
+      </c>
+      <c r="L36">
+        <v>768.29446481802404</v>
+      </c>
+      <c r="M36">
+        <v>772.86208694584798</v>
+      </c>
+      <c r="N36">
+        <v>777.95194352567796</v>
+      </c>
+      <c r="O36">
+        <v>783.67269864148204</v>
+      </c>
+      <c r="P36">
+        <v>789.75930268250397</v>
+      </c>
+      <c r="Q36">
+        <v>795.82537085896797</v>
+      </c>
+      <c r="R36">
+        <v>802.38775006715798</v>
+      </c>
+      <c r="S36">
+        <v>809.22213416551403</v>
+      </c>
+      <c r="T36">
+        <v>816.80113347457802</v>
+      </c>
+      <c r="U36">
+        <v>824.64428658311704</v>
+      </c>
+      <c r="V36">
+        <v>832.59337892975498</v>
+      </c>
+      <c r="W36">
+        <v>835.494721776652</v>
+      </c>
+      <c r="X36">
+        <v>841.12386901591697</v>
+      </c>
+      <c r="Y36">
+        <v>846.68490394820003</v>
+      </c>
+      <c r="Z36">
+        <v>852.05750789504805</v>
+      </c>
+      <c r="AA36">
+        <v>857.03569133233998</v>
+      </c>
+      <c r="AB36">
+        <v>861.62461714738197</v>
+      </c>
+      <c r="AC36">
+        <v>866.09217418652202</v>
+      </c>
+      <c r="AD36">
+        <v>870.38020137632998</v>
+      </c>
+      <c r="AE36">
+        <v>874.20163295403097</v>
+      </c>
+      <c r="AF36">
+        <v>877.53441615506995</v>
+      </c>
+      <c r="AG36">
+        <v>873.21565965240802</v>
+      </c>
+      <c r="AH36">
+        <v>876.17112006521802</v>
+      </c>
+      <c r="AI36">
+        <v>878.89535131181003</v>
+      </c>
+      <c r="AJ36">
+        <v>881.34522505719599</v>
+      </c>
+      <c r="AK36">
+        <v>883.51153419697505</v>
+      </c>
+      <c r="AL36">
+        <v>885.39165384489604</v>
+      </c>
+      <c r="AM36">
+        <v>886.96968161539996</v>
+      </c>
+      <c r="AN36">
+        <v>888.23702563617996</v>
+      </c>
+      <c r="AO36">
+        <v>889.16483547498206</v>
+      </c>
+      <c r="AP36">
+        <v>889.75617108824804</v>
+      </c>
+    </row>
+    <row r="37" spans="3:42" x14ac:dyDescent="0.35">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:42" x14ac:dyDescent="0.35">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:42" x14ac:dyDescent="0.35">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-    </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-    </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.35">
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
+    <row r="40" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="H40" s="37"/>
+      <c r="I40" s="36"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="P40" s="1"/>
+    </row>
+    <row r="41" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="H41" s="37"/>
+      <c r="I41" s="36"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="3:42" x14ac:dyDescent="0.35">
+      <c r="H42" s="37"/>
+      <c r="I42" s="36"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="P42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7834,7 +8205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccireland-my.sharepoint.com/personal/agaur_ucc_ie/Documents/TIM-2.0/TIM/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\VEDA_Models\~g2v_TIMES-IE\updates_from_ccr-40a\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="113_{293D1C48-0FAE-4514-9C4F-F95949ADE232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{CBD545CB-4069-4125-80D8-739C9EBC099F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3BC35C3-A84D-4A05-AE15-4D7D3C6DA8A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -1030,7 +1030,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>28575</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1349,21 +1349,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9.08984375" style="3"/>
-    <col min="7" max="7" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="3"/>
-    <col min="9" max="9" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="3"/>
+    <col min="1" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>0.67368745787157902</v>
       </c>
       <c r="S8" s="22">
-        <v>1.1456149031137901</v>
+        <v>1.1456149031137799</v>
       </c>
       <c r="T8" s="22">
         <v>0.49378011021821799</v>
@@ -1780,7 +1780,7 @@
         <v>0.86102306186829503</v>
       </c>
       <c r="AG8" s="22">
-        <v>0.451316097288887</v>
+        <v>0.451316097288886</v>
       </c>
       <c r="AH8" s="22">
         <v>0.37617525772313698</v>
@@ -1795,7 +1795,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2010,7 +2010,7 @@
         <v>44</v>
       </c>
       <c r="J11" s="22">
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="22">
@@ -2092,7 +2092,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
     </row>
-    <row r="16" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2487,7 +2487,7 @@
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
     </row>
-    <row r="17" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2536,7 +2536,7 @@
       <c r="AJ17" s="23"/>
       <c r="AK17" s="23"/>
     </row>
-    <row r="18" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2585,7 +2585,7 @@
       <c r="AJ18" s="23"/>
       <c r="AK18" s="23"/>
     </row>
-    <row r="19" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2634,7 +2634,7 @@
       <c r="AJ19" s="23"/>
       <c r="AK19" s="23"/>
     </row>
-    <row r="20" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2683,7 +2683,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="23"/>
     </row>
-    <row r="21" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2732,7 +2732,7 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="23"/>
     </row>
-    <row r="22" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2781,7 +2781,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
     </row>
-    <row r="23" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2830,7 +2830,7 @@
       <c r="AJ23" s="23"/>
       <c r="AK23" s="23"/>
     </row>
-    <row r="24" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2879,7 +2879,7 @@
       <c r="AJ24" s="23"/>
       <c r="AK24" s="23"/>
     </row>
-    <row r="25" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2928,7 +2928,7 @@
       <c r="AJ25" s="23"/>
       <c r="AK25" s="23"/>
     </row>
-    <row r="26" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -2977,7 +2977,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
     </row>
-    <row r="27" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3026,7 +3026,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
     </row>
-    <row r="28" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3075,7 +3075,7 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
     </row>
-    <row r="29" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3124,7 +3124,7 @@
       <c r="AJ29" s="23"/>
       <c r="AK29" s="23"/>
     </row>
-    <row r="30" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3173,7 +3173,7 @@
       <c r="AJ30" s="23"/>
       <c r="AK30" s="23"/>
     </row>
-    <row r="31" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="AJ31" s="23"/>
       <c r="AK31" s="23"/>
     </row>
-    <row r="32" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="AJ32" s="23"/>
       <c r="AK32" s="23"/>
     </row>
-    <row r="33" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3320,7 +3320,7 @@
       <c r="AJ33" s="23"/>
       <c r="AK33" s="23"/>
     </row>
-    <row r="34" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3369,7 +3369,7 @@
       <c r="AJ34" s="23"/>
       <c r="AK34" s="23"/>
     </row>
-    <row r="35" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="AJ35" s="23"/>
       <c r="AK35" s="23"/>
     </row>
-    <row r="36" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3467,7 +3467,7 @@
       <c r="AJ36" s="23"/>
       <c r="AK36" s="23"/>
     </row>
-    <row r="37" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="23"/>
     </row>
-    <row r="38" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3565,7 +3565,7 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
     </row>
-    <row r="39" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="AJ39" s="23"/>
       <c r="AK39" s="23"/>
     </row>
-    <row r="40" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3655,7 +3655,7 @@
       <c r="AJ40" s="23"/>
       <c r="AK40" s="23"/>
     </row>
-    <row r="41" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3671,8 +3671,12 @@
       <c r="I41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="J41" s="23">
+        <v>5.6291760000000002</v>
+      </c>
+      <c r="K41" s="23">
+        <v>5.6291760000000002</v>
+      </c>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
@@ -3700,7 +3704,7 @@
       <c r="AJ41" s="23"/>
       <c r="AK41" s="23"/>
     </row>
-    <row r="42" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3716,8 +3720,12 @@
       <c r="I42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
+      <c r="J42" s="23">
+        <v>0.48</v>
+      </c>
+      <c r="K42" s="23">
+        <v>0.48</v>
+      </c>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
@@ -3759,19 +3767,19 @@
       <selection activeCell="G12" sqref="G12:AF12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.08984375" style="3"/>
-    <col min="4" max="4" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.08984375" style="3"/>
+    <col min="1" max="3" width="9.140625" style="3"/>
+    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3892,7 +3900,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4008,7 +4016,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4124,7 +4132,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4240,7 +4248,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4356,7 +4364,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4397,7 +4405,7 @@
       </c>
       <c r="N8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085977</v>
+        <v>0.84062004677085211</v>
       </c>
       <c r="O8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4453,7 +4461,7 @@
       </c>
       <c r="AB8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916793</v>
+        <v>0.33116307912916709</v>
       </c>
       <c r="AC8" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4472,7 +4480,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4513,7 +4521,7 @@
       </c>
       <c r="N9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0888953831144683</v>
+        <v>1.0888953831144585</v>
       </c>
       <c r="O9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4569,7 +4577,7 @@
       </c>
       <c r="AB9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4289713876167135</v>
+        <v>0.4289713876167125</v>
       </c>
       <c r="AC9" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -4588,7 +4596,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4820,7 +4828,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4936,7 +4944,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5052,7 +5060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5065,110 +5073,110 @@
       </c>
       <c r="G14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341085E-2</v>
+        <v>5.2718404005341231E-2</v>
       </c>
       <c r="H14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090449</v>
+        <v>1.2476395718090483</v>
       </c>
       <c r="I14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526826</v>
+        <v>0.20603624964526884</v>
       </c>
       <c r="J14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560083E-2</v>
+        <v>9.1887737410560347E-2</v>
       </c>
       <c r="K14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740468913E-2</v>
+        <v>7.8428487740469136E-2</v>
       </c>
       <c r="L14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898689E-2</v>
+        <v>3.7847947145898793E-2</v>
       </c>
       <c r="M14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092786</v>
+        <v>0.11934516233092819</v>
       </c>
       <c r="N14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580502</v>
+        <v>0.18060859254580552</v>
       </c>
       <c r="O14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654344E-2</v>
+        <v>7.2191026042654552E-2</v>
       </c>
       <c r="P14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796554E-2</v>
+        <v>8.2200040812796776E-2</v>
       </c>
       <c r="Q14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508789</v>
+        <v>0.13864092047508828</v>
       </c>
       <c r="R14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544479</v>
+        <v>0.13188397896544515</v>
       </c>
       <c r="S14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607345</v>
+        <v>0.11002323137607375</v>
       </c>
       <c r="T14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.502689779835093</v>
+        <v>0.50268977983509444</v>
       </c>
       <c r="U14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13677505270176574</v>
+        <v>0.1367750527017661</v>
       </c>
       <c r="V14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524345</v>
+        <v>0.18047432414524395</v>
       </c>
       <c r="W14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316512</v>
+        <v>0.14774431803316554</v>
       </c>
       <c r="X14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1075776945079131</v>
+        <v>0.10757769450791341</v>
       </c>
       <c r="Y14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297882</v>
+        <v>0.23895886146297948</v>
       </c>
       <c r="Z14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.9672390535149896E-2</v>
+        <v>2.967239053514998E-2</v>
       </c>
       <c r="AA14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824863</v>
+        <v>0.12084804242824897</v>
       </c>
       <c r="AB14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341748E-2</v>
+        <v>5.9767032040341915E-2</v>
       </c>
       <c r="AC14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.0684687109007783E-2</v>
+        <v>6.068468710900795E-2</v>
       </c>
       <c r="AD14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292298E-2</v>
+        <v>7.0538135732292492E-2</v>
       </c>
       <c r="AE14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14741003601521568</v>
+        <v>0.1474100360152161</v>
       </c>
       <c r="AF14" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006463E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
+        <v>5.6842758875006623E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5185,7 +5193,7 @@
       </c>
       <c r="H15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99408028513777102</v>
+        <v>0.99408028513777114</v>
       </c>
       <c r="I15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5229,7 +5237,7 @@
       </c>
       <c r="S15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7663078095158206E-2</v>
+        <v>8.7663078095158192E-2</v>
       </c>
       <c r="T15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5245,7 +5253,7 @@
       </c>
       <c r="W15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.117718063066032</v>
+        <v>0.11771806306603201</v>
       </c>
       <c r="X15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5281,10 +5289,10 @@
       </c>
       <c r="AF15" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.5290536808279797E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
+        <v>4.529053680827979E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5400,7 +5408,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5516,7 +5524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5632,7 +5640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5748,7 +5756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5864,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -5993,40 +6001,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.08984375" style="3"/>
+    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="20" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -6140,12 +6146,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -6260,7 +6266,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -6377,7 +6383,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -6494,7 +6500,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>130</v>
       </c>
@@ -6502,7 +6508,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="18" t="s">
         <v>76</v>
       </c>
@@ -6510,7 +6516,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="17" t="s">
         <v>99</v>
       </c>
@@ -6518,7 +6524,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="17" t="s">
         <v>88</v>
       </c>
@@ -6526,7 +6532,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="17" t="s">
         <v>89</v>
       </c>
@@ -6534,7 +6540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="17" t="s">
         <v>100</v>
       </c>
@@ -6542,7 +6548,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="17" t="s">
         <v>77</v>
       </c>
@@ -6550,7 +6556,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="17" t="s">
         <v>94</v>
       </c>
@@ -6558,7 +6564,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="17" t="s">
         <v>90</v>
       </c>
@@ -6566,7 +6572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -6574,7 +6580,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="17" t="s">
         <v>79</v>
       </c>
@@ -6582,7 +6588,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="17" t="s">
         <v>80</v>
       </c>
@@ -6590,7 +6596,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
         <v>95</v>
       </c>
@@ -6598,7 +6604,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
         <v>91</v>
       </c>
@@ -6606,7 +6612,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="17" t="s">
         <v>81</v>
       </c>
@@ -6614,7 +6620,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="17" t="s">
         <v>82</v>
       </c>
@@ -6622,7 +6628,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="17" t="s">
         <v>96</v>
       </c>
@@ -6630,7 +6636,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="17" t="s">
         <v>83</v>
       </c>
@@ -6638,7 +6644,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="17" t="s">
         <v>101</v>
       </c>
@@ -6646,7 +6652,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="17" t="s">
         <v>84</v>
       </c>
@@ -6654,7 +6660,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="17" t="s">
         <v>97</v>
       </c>
@@ -6662,7 +6668,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="17" t="s">
         <v>98</v>
       </c>
@@ -6670,7 +6676,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="17" t="s">
         <v>92</v>
       </c>
@@ -6678,7 +6684,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="17" t="s">
         <v>93</v>
       </c>
@@ -6686,7 +6692,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="17" t="s">
         <v>85</v>
       </c>
@@ -6694,7 +6700,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="17" t="s">
         <v>86</v>
       </c>
@@ -6702,7 +6708,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="17" t="s">
         <v>87</v>
       </c>
@@ -6710,7 +6716,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
@@ -6736,7 +6742,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>28575</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -6759,19 +6765,19 @@
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.90625" customWidth="1"/>
-    <col min="12" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.85546875" customWidth="1"/>
+    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -6779,7 +6785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -6811,7 +6817,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6843,7 +6849,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6875,7 +6881,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6907,7 +6913,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6939,7 +6945,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6971,7 +6977,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7003,7 +7009,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7035,7 +7041,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7067,7 +7073,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7099,7 +7105,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7131,7 +7137,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7163,7 +7169,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7195,7 +7201,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7227,7 +7233,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7259,7 +7265,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7291,7 +7297,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7323,7 +7329,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7355,7 +7361,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7388,7 +7394,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7420,7 +7426,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7436,7 +7442,7 @@
       </c>
       <c r="H22" s="37">
         <f>VLOOKUP(F22,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="I22" s="36">
         <v>4.2966351471015702</v>
@@ -7446,15 +7452,15 @@
       </c>
       <c r="K22" s="36">
         <f t="shared" si="1"/>
-        <v>4.1107229120604405</v>
+        <v>4.1107229120604369</v>
       </c>
       <c r="L22" s="36">
         <f>H22</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7486,7 +7492,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7520,7 +7526,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7554,7 +7560,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7585,7 +7591,7 @@
         <v>32.772151050078904</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7616,7 +7622,7 @@
         <v>66.089343999999997</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7642,7 +7648,7 @@
         <v>40.299999999999997</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7668,19 +7674,19 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>149</v>
       </c>
@@ -7692,7 +7698,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:42" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="3:42" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C33" s="13" t="s">
         <v>1</v>
       </c>
@@ -7814,7 +7820,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="34" spans="3:42" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:42" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -7927,7 +7933,7 @@
         <v>628.93152164032301</v>
       </c>
     </row>
-    <row r="35" spans="3:42" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:42" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -8040,7 +8046,7 @@
         <v>1056.50027926231</v>
       </c>
     </row>
-    <row r="36" spans="3:42" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:42" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -8153,25 +8159,25 @@
         <v>889.75617108824804</v>
       </c>
     </row>
-    <row r="37" spans="3:42" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:42" x14ac:dyDescent="0.25">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="3:42" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:42" x14ac:dyDescent="0.25">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="3:42" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:42" x14ac:dyDescent="0.25">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="3:42" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:42" x14ac:dyDescent="0.25">
       <c r="H40" s="37"/>
       <c r="I40" s="36"/>
       <c r="J40" s="36"/>
@@ -8179,7 +8185,7 @@
       <c r="L40" s="36"/>
       <c r="P40" s="1"/>
     </row>
-    <row r="41" spans="3:42" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:42" x14ac:dyDescent="0.25">
       <c r="H41" s="37"/>
       <c r="I41" s="36"/>
       <c r="J41" s="36"/>
@@ -8187,7 +8193,7 @@
       <c r="L41" s="36"/>
       <c r="P41" s="1"/>
     </row>
-    <row r="42" spans="3:42" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:42" x14ac:dyDescent="0.25">
       <c r="H42" s="37"/>
       <c r="I42" s="36"/>
       <c r="J42" s="36"/>
@@ -8209,15 +8215,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.6328125" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
@@ -8225,7 +8231,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="3:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="C5" s="28" t="s">
         <v>65</v>
       </c>
@@ -8258,7 +8264,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C6" s="29" t="s">
         <v>153</v>
       </c>
@@ -8275,7 +8281,7 @@
       <c r="L6" s="29"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" t="s">
@@ -8301,7 +8307,7 @@
       </c>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" t="s">
@@ -8327,7 +8333,7 @@
       </c>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" t="s">
@@ -8353,7 +8359,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
@@ -8381,7 +8387,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C11" s="30" t="s">
         <v>159</v>
       </c>
@@ -8409,7 +8415,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C12" s="30" t="s">
         <v>159</v>
       </c>
@@ -8437,7 +8443,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" t="s">
@@ -8463,7 +8469,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" t="s">
@@ -8489,7 +8495,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" t="s">
@@ -8515,7 +8521,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" t="s">
@@ -8541,7 +8547,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" t="s">
@@ -8567,7 +8573,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" t="s">
@@ -8593,7 +8599,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" t="s">
@@ -8619,7 +8625,7 @@
       </c>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" t="s">
@@ -8645,7 +8651,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" t="s">
@@ -8671,7 +8677,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -8694,7 +8700,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -8717,7 +8723,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -8740,7 +8746,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -8766,7 +8772,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -8792,7 +8798,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -8818,7 +8824,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -8841,7 +8847,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -8864,7 +8870,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -8887,7 +8893,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -8910,7 +8916,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -8933,7 +8939,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -8956,7 +8962,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -8979,7 +8985,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -9002,7 +9008,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -9025,7 +9031,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -9048,7 +9054,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -9071,7 +9077,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -9094,7 +9100,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -9117,7 +9123,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -9140,7 +9146,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -9163,7 +9169,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -9186,7 +9192,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -9209,7 +9215,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -9232,7 +9238,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -9255,7 +9261,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -9278,7 +9284,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -9301,7 +9307,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -9324,7 +9330,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -9347,7 +9353,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -9383,18 +9389,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
@@ -9402,7 +9408,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="28" t="s">
         <v>65</v>
       </c>
@@ -9435,7 +9441,7 @@
       </c>
       <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="29" t="s">
         <v>153</v>
       </c>
@@ -9451,7 +9457,7 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -9468,7 +9474,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -9485,7 +9491,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -9502,7 +9508,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -9519,7 +9525,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -9536,7 +9542,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -9553,7 +9559,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -9570,7 +9576,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -9587,7 +9593,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -9604,7 +9610,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -9621,7 +9627,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -9638,7 +9644,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -9655,7 +9661,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -9672,7 +9678,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -9689,7 +9695,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -9706,7 +9712,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -9723,7 +9729,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -9740,7 +9746,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -9757,7 +9763,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -9774,7 +9780,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -9791,7 +9797,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -9808,7 +9814,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -9825,7 +9831,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -9842,7 +9848,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -9859,7 +9865,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -9876,7 +9882,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -9893,7 +9899,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -9910,7 +9916,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccireland-my.sharepoint.com/personal/agaur_ucc_ie/Documents/TIM-2.0/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda_models\TRA_VA5\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="106" documentId="13_ncr:1_{C69F530E-E3CE-485A-943C-5B1B3FC47B5F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{3F95F6CE-D2D2-43BD-AC95-2271ABB22125}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C9EDD2-9422-448F-B1B8-1AC1FD1C3606}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4440" yWindow="1392" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="184">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>SRVOEL-PU</t>
+  </si>
+  <si>
+    <t>TS_Filter</t>
   </si>
 </sst>
 </file>
@@ -931,7 +934,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -985,6 +988,8 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Attrib" xfId="2" xr:uid="{16EBE39D-6598-42BD-A97C-1EF313EA2EC2}"/>
@@ -1021,7 +1026,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>25400</xdr:colOff>
+          <xdr:colOff>22860</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1336,25 +1341,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226CF39-0357-4B21-823B-1B3093B14EE8}">
   <dimension ref="C4:AK42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N42" sqref="N42"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.08984375" style="3"/>
-    <col min="7" max="7" width="10.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.08984375" style="3"/>
-    <col min="9" max="9" width="11.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.08984375" style="3"/>
+    <col min="1" max="6" width="9.109375" style="3"/>
+    <col min="7" max="7" width="10.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="3"/>
+    <col min="9" max="9" width="11.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1489,7 +1494,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1588,7 +1593,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1729,7 +1734,7 @@
         <v>0.67368745787157902</v>
       </c>
       <c r="S8" s="22">
-        <v>1.1456149031137901</v>
+        <v>1.1456149031137799</v>
       </c>
       <c r="T8" s="22">
         <v>0.49378011021821799</v>
@@ -1771,7 +1776,7 @@
         <v>0.86102306186829503</v>
       </c>
       <c r="AG8" s="22">
-        <v>0.451316097288887</v>
+        <v>0.451316097288886</v>
       </c>
       <c r="AH8" s="22">
         <v>0.37617525772313698</v>
@@ -1786,7 +1791,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1885,7 +1890,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1984,7 +1989,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2001,7 +2006,7 @@
         <v>44</v>
       </c>
       <c r="J11" s="22">
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="K11" s="23"/>
       <c r="L11" s="22">
@@ -2083,7 +2088,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2182,7 +2187,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2281,7 +2286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2380,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2429,7 +2434,7 @@
       <c r="AJ15" s="23"/>
       <c r="AK15" s="23"/>
     </row>
-    <row r="16" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2478,7 +2483,7 @@
       <c r="AJ16" s="23"/>
       <c r="AK16" s="23"/>
     </row>
-    <row r="17" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2527,7 +2532,7 @@
       <c r="AJ17" s="23"/>
       <c r="AK17" s="23"/>
     </row>
-    <row r="18" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2576,7 +2581,7 @@
       <c r="AJ18" s="23"/>
       <c r="AK18" s="23"/>
     </row>
-    <row r="19" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2625,7 +2630,7 @@
       <c r="AJ19" s="23"/>
       <c r="AK19" s="23"/>
     </row>
-    <row r="20" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2674,7 +2679,7 @@
       <c r="AJ20" s="23"/>
       <c r="AK20" s="23"/>
     </row>
-    <row r="21" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2723,7 +2728,7 @@
       <c r="AJ21" s="23"/>
       <c r="AK21" s="23"/>
     </row>
-    <row r="22" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2772,7 +2777,7 @@
       <c r="AJ22" s="23"/>
       <c r="AK22" s="23"/>
     </row>
-    <row r="23" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2821,7 +2826,7 @@
       <c r="AJ23" s="23"/>
       <c r="AK23" s="23"/>
     </row>
-    <row r="24" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2870,7 +2875,7 @@
       <c r="AJ24" s="23"/>
       <c r="AK24" s="23"/>
     </row>
-    <row r="25" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2919,7 +2924,7 @@
       <c r="AJ25" s="23"/>
       <c r="AK25" s="23"/>
     </row>
-    <row r="26" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -2968,7 +2973,7 @@
       <c r="AJ26" s="23"/>
       <c r="AK26" s="23"/>
     </row>
-    <row r="27" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3017,7 +3022,7 @@
       <c r="AJ27" s="23"/>
       <c r="AK27" s="23"/>
     </row>
-    <row r="28" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3066,7 +3071,7 @@
       <c r="AJ28" s="23"/>
       <c r="AK28" s="23"/>
     </row>
-    <row r="29" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3115,7 +3120,7 @@
       <c r="AJ29" s="23"/>
       <c r="AK29" s="23"/>
     </row>
-    <row r="30" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3164,7 +3169,7 @@
       <c r="AJ30" s="23"/>
       <c r="AK30" s="23"/>
     </row>
-    <row r="31" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3213,7 +3218,7 @@
       <c r="AJ31" s="23"/>
       <c r="AK31" s="23"/>
     </row>
-    <row r="32" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3262,7 +3267,7 @@
       <c r="AJ32" s="23"/>
       <c r="AK32" s="23"/>
     </row>
-    <row r="33" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3311,7 +3316,7 @@
       <c r="AJ33" s="23"/>
       <c r="AK33" s="23"/>
     </row>
-    <row r="34" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3360,7 +3365,7 @@
       <c r="AJ34" s="23"/>
       <c r="AK34" s="23"/>
     </row>
-    <row r="35" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3409,7 +3414,7 @@
       <c r="AJ35" s="23"/>
       <c r="AK35" s="23"/>
     </row>
-    <row r="36" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3458,7 +3463,7 @@
       <c r="AJ36" s="23"/>
       <c r="AK36" s="23"/>
     </row>
-    <row r="37" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3507,7 +3512,7 @@
       <c r="AJ37" s="23"/>
       <c r="AK37" s="23"/>
     </row>
-    <row r="38" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3556,7 +3561,7 @@
       <c r="AJ38" s="23"/>
       <c r="AK38" s="23"/>
     </row>
-    <row r="39" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3601,7 +3606,7 @@
       <c r="AJ39" s="23"/>
       <c r="AK39" s="23"/>
     </row>
-    <row r="40" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3646,7 +3651,7 @@
       <c r="AJ40" s="23"/>
       <c r="AK40" s="23"/>
     </row>
-    <row r="41" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3662,8 +3667,12 @@
       <c r="I41" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="J41" s="23"/>
-      <c r="K41" s="23"/>
+      <c r="J41" s="23">
+        <v>5.6291760000000002</v>
+      </c>
+      <c r="K41" s="23">
+        <v>5.6291760000000002</v>
+      </c>
       <c r="L41" s="23"/>
       <c r="M41" s="23"/>
       <c r="N41" s="23"/>
@@ -3691,7 +3700,7 @@
       <c r="AJ41" s="23"/>
       <c r="AK41" s="23"/>
     </row>
-    <row r="42" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="3:37" ht="14.4" x14ac:dyDescent="0.3">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3707,8 +3716,12 @@
       <c r="I42" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="J42" s="23"/>
-      <c r="K42" s="23"/>
+      <c r="J42" s="23">
+        <v>0.48</v>
+      </c>
+      <c r="K42" s="23">
+        <v>0.48</v>
+      </c>
       <c r="L42" s="23"/>
       <c r="M42" s="23"/>
       <c r="N42" s="23"/>
@@ -3744,25 +3757,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64845-990F-4F8F-9F7F-F4DBD3794313}">
-  <dimension ref="B2:AF21"/>
+  <dimension ref="B2:AG24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:AF12"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AG5:AG13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.08984375" style="3"/>
-    <col min="4" max="4" width="11.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.08984375" style="3"/>
+    <col min="1" max="3" width="9.109375" style="3"/>
+    <col min="4" max="4" width="11.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:33" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:33" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3883,7 +3896,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -3999,7 +4012,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="5" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:33" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4008,230 +4021,231 @@
         <v>TRAPS</v>
       </c>
       <c r="F5" s="3">
-        <v>2050</v>
+        <v>2030</v>
       </c>
       <c r="G5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24309913348208881</v>
+        <v>0.22013337234900038</v>
       </c>
       <c r="H5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.8601280749391584</v>
+        <v>4.4009880572578792</v>
       </c>
       <c r="I5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.89632953382440306</v>
+        <v>0.81165259699007086</v>
       </c>
       <c r="J5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41583905190108156</v>
+        <v>0.37655441851313964</v>
       </c>
       <c r="K5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32784733578443265</v>
+        <v>0.29687534713972835</v>
       </c>
       <c r="L5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16473210522743295</v>
+        <v>0.14916973721149449</v>
       </c>
       <c r="M5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47237134991773067</v>
+        <v>0.42774606708378576</v>
       </c>
       <c r="N5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.77753533867069746</v>
+        <v>0.70408098034094257</v>
       </c>
       <c r="O5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32186297657967117</v>
+        <v>0.29145633492762191</v>
       </c>
       <c r="P5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.36482820386083858</v>
+        <v>0.33036260431521525</v>
       </c>
       <c r="Q5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63496078332453143</v>
+        <v>0.57497555232088293</v>
       </c>
       <c r="R5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56165625279541498</v>
+        <v>0.50859615687551163</v>
       </c>
       <c r="S5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.49432612658610575</v>
+        <v>0.44762675920289052</v>
       </c>
       <c r="T5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.0904394127037014</v>
+        <v>1.8929540020085456</v>
       </c>
       <c r="U5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64004362867171904</v>
+        <v>0.57957821737928084</v>
       </c>
       <c r="V5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.7632001754381581</v>
+        <v>0.69110007094669024</v>
       </c>
       <c r="W5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.6957868006035649</v>
+        <v>0.63005528921010856</v>
       </c>
       <c r="X5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.46202478393355773</v>
+        <v>0.41837694910420542</v>
       </c>
       <c r="Y5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0326563819886783</v>
+        <v>0.93510054350577965</v>
       </c>
       <c r="Z5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13253365967156872</v>
+        <v>0.1200131034420438</v>
       </c>
       <c r="AA5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55303770086872694</v>
+        <v>0.50079180614331698</v>
       </c>
       <c r="AB5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2892995665154402</v>
+        <v>0.26196921512614108</v>
       </c>
       <c r="AC5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.2550605802162681</v>
+        <v>0.23096481205860275</v>
       </c>
       <c r="AD5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28449442064891911</v>
+        <v>0.25761801506600557</v>
       </c>
       <c r="AE5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55187010123727831</v>
+        <v>0.49973451054237167</v>
       </c>
       <c r="AF5" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E5,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F5,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E5,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.23967972865007509</v>
+      </c>
+      <c r="AG5" s="41"/>
+    </row>
+    <row r="6" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D6" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="11" t="str">
+        <f>DEMANDS!$F$17</f>
+        <v>TRAPS</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2050</v>
+      </c>
+      <c r="G6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24309913348208881</v>
+      </c>
+      <c r="H6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.8601280749391584</v>
+      </c>
+      <c r="I6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.89632953382440306</v>
+      </c>
+      <c r="J6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41583905190108156</v>
+      </c>
+      <c r="K6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32784733578443265</v>
+      </c>
+      <c r="L6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.16473210522743295</v>
+      </c>
+      <c r="M6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.47237134991773067</v>
+      </c>
+      <c r="N6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.77753533867069746</v>
+      </c>
+      <c r="O6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.32186297657967117</v>
+      </c>
+      <c r="P6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.36482820386083858</v>
+      </c>
+      <c r="Q6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.63496078332453143</v>
+      </c>
+      <c r="R6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.56165625279541498</v>
+      </c>
+      <c r="S6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.49432612658610575</v>
+      </c>
+      <c r="T6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.0904394127037014</v>
+      </c>
+      <c r="U6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.64004362867171904</v>
+      </c>
+      <c r="V6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.7632001754381581</v>
+      </c>
+      <c r="W6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.6957868006035649</v>
+      </c>
+      <c r="X6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.46202478393355773</v>
+      </c>
+      <c r="Y6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0326563819886783</v>
+      </c>
+      <c r="Z6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13253365967156872</v>
+      </c>
+      <c r="AA6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.55303770086872694</v>
+      </c>
+      <c r="AB6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.2892995665154402</v>
+      </c>
+      <c r="AC6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.2550605802162681</v>
+      </c>
+      <c r="AD6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.28449442064891911</v>
+      </c>
+      <c r="AE6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.55187010123727831</v>
+      </c>
+      <c r="AF6" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="6" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E6" s="3" t="str">
-        <f>DEMANDS!$F$18</f>
-        <v>TRAPM</v>
-      </c>
-      <c r="F6" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32193664473309486</v>
-      </c>
-      <c r="H6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.637813854608976</v>
-      </c>
-      <c r="I6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1480382927336128</v>
-      </c>
-      <c r="J6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54522568908947855</v>
-      </c>
-      <c r="K6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41020881320348074</v>
-      </c>
-      <c r="L6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21133746790128183</v>
-      </c>
-      <c r="M6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.56924850267004323</v>
-      </c>
-      <c r="N6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.98828046988197249</v>
-      </c>
-      <c r="O6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41882409160736161</v>
-      </c>
-      <c r="P6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.47278848560105868</v>
-      </c>
-      <c r="Q6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83850274795415447</v>
-      </c>
-      <c r="R6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.71154373932557857</v>
-      </c>
-      <c r="S6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64533477367968184</v>
-      </c>
-      <c r="T6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.6080003354214218</v>
-      </c>
-      <c r="U6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.8535978085319772</v>
-      </c>
-      <c r="V6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.96137078018953437</v>
-      </c>
-      <c r="W6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.932415749736074</v>
-      </c>
-      <c r="X6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.58823966562202801</v>
-      </c>
-      <c r="Y6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.3170332096303565</v>
-      </c>
-      <c r="Z6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17261327906182664</v>
-      </c>
-      <c r="AA6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.72941378774211518</v>
-      </c>
-      <c r="AB6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.39273887171064176</v>
-      </c>
-      <c r="AC6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.32039449419408184</v>
-      </c>
-      <c r="AD6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.34813170258514758</v>
-      </c>
-      <c r="AE6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.64114085295794276</v>
-      </c>
-      <c r="AF6" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E6,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F6,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E6,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.35260315962707711</v>
-      </c>
-    </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4240,1155 +4254,1157 @@
         <v>TRAPM</v>
       </c>
       <c r="F7" s="3">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41759598665646924</v>
+        <v>0.32193664473309486</v>
       </c>
       <c r="H7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3130178801261643</v>
+        <v>5.637813854608976</v>
       </c>
       <c r="I7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.4891631363399678</v>
+        <v>1.1480382927336128</v>
       </c>
       <c r="J7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70723250462692167</v>
+        <v>0.54522568908947855</v>
       </c>
       <c r="K7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.5320970970139367</v>
+        <v>0.41020881320348074</v>
       </c>
       <c r="L7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.27413368397028359</v>
+        <v>0.21133746790128183</v>
       </c>
       <c r="M7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73839338892997242</v>
+        <v>0.56924850267004323</v>
       </c>
       <c r="N7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2819353269207252</v>
+        <v>0.98828046988197249</v>
       </c>
       <c r="O7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.54327229481837269</v>
+        <v>0.41882409160736161</v>
       </c>
       <c r="P7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.61327151585392625</v>
+        <v>0.47278848560105868</v>
       </c>
       <c r="Q7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0876530773201545</v>
+        <v>0.83850274795415447</v>
       </c>
       <c r="R7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.92296982879735212</v>
+        <v>0.71154373932557857</v>
       </c>
       <c r="S7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83708771880230992</v>
+        <v>0.64533477367968184</v>
       </c>
       <c r="T7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.3829341613895312</v>
+        <v>2.6080003354214218</v>
       </c>
       <c r="U7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.1072334414034699</v>
+        <v>0.8535978085319772</v>
       </c>
       <c r="V7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2470297683222329</v>
+        <v>0.96137078018953437</v>
       </c>
       <c r="W7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2094711222075432</v>
+        <v>0.932415749736074</v>
       </c>
       <c r="X7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.76302753220143149</v>
+        <v>0.58823966562202801</v>
       </c>
       <c r="Y7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.7083727237416502</v>
+        <v>1.3170332096303565</v>
       </c>
       <c r="Z7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22390309944241621</v>
+        <v>0.17261327906182664</v>
       </c>
       <c r="AA7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.94614973273866743</v>
+        <v>0.72941378774211518</v>
       </c>
       <c r="AB7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.50943618663332069</v>
+        <v>0.39273887171064176</v>
       </c>
       <c r="AC7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.41559560587830136</v>
+        <v>0.32039449419408184</v>
       </c>
       <c r="AD7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45157456973551047</v>
+        <v>0.34813170258514758</v>
       </c>
       <c r="AE7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.83164762836710771</v>
+        <v>0.64114085295794276</v>
       </c>
       <c r="AF7" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E7,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F7,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E7,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45737466284626727</v>
-      </c>
-    </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
+        <v>0.35260315962707711</v>
+      </c>
+    </row>
+    <row r="8" spans="2:33" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="3" t="str">
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
+      </c>
+      <c r="F8" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41768976034488769</v>
+      </c>
+      <c r="H8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>7.3146600622399829</v>
+      </c>
+      <c r="I8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.4894975368716143</v>
+      </c>
+      <c r="J8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70739131793607068</v>
+      </c>
+      <c r="K8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.53221658261479987</v>
+      </c>
+      <c r="L8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27419524233647252</v>
+      </c>
+      <c r="M8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.73855919960295846</v>
+      </c>
+      <c r="N8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2822231932023955</v>
+      </c>
+      <c r="O8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.54339428987706229</v>
+      </c>
+      <c r="P8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.61340922965837164</v>
+      </c>
+      <c r="Q8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0878973163551044</v>
+      </c>
+      <c r="R8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.92317708721915415</v>
+      </c>
+      <c r="S8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.83727569188018924</v>
+      </c>
+      <c r="T8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>3.383693819585794</v>
+      </c>
+      <c r="U8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.1074820773268463</v>
+      </c>
+      <c r="V8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.247309796350949</v>
+      </c>
+      <c r="W8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.209742716216559</v>
+      </c>
+      <c r="X8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.76319887461933211</v>
+      </c>
+      <c r="Y8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.7087563491035254</v>
+      </c>
+      <c r="Z8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22395337822898009</v>
+      </c>
+      <c r="AA8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.94636219634720298</v>
+      </c>
+      <c r="AB8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.50955058359057326</v>
+      </c>
+      <c r="AC8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41568893036919446</v>
+      </c>
+      <c r="AD8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45167597351895944</v>
+      </c>
+      <c r="AE8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.83183437983998654</v>
+      </c>
+      <c r="AF8" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45747736907548092</v>
+      </c>
+      <c r="AG8" s="14"/>
+    </row>
+    <row r="9" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D9" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E9" s="11" t="str">
+        <f>DEMANDS!$F$18</f>
+        <v>TRAPM</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2050</v>
+      </c>
+      <c r="G9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41759598665646924</v>
+      </c>
+      <c r="H9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>7.3130178801261643</v>
+      </c>
+      <c r="I9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.4891631363399678</v>
+      </c>
+      <c r="J9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70723250462692167</v>
+      </c>
+      <c r="K9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.5320970970139367</v>
+      </c>
+      <c r="L9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.27413368397028359</v>
+      </c>
+      <c r="M9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.73839338892997242</v>
+      </c>
+      <c r="N9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2819353269207252</v>
+      </c>
+      <c r="O9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.54327229481837269</v>
+      </c>
+      <c r="P9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.61327151585392625</v>
+      </c>
+      <c r="Q9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0876530773201545</v>
+      </c>
+      <c r="R9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.92296982879735212</v>
+      </c>
+      <c r="S9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.83708771880230992</v>
+      </c>
+      <c r="T9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>3.3829341613895312</v>
+      </c>
+      <c r="U9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.1072334414034699</v>
+      </c>
+      <c r="V9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2470297683222329</v>
+      </c>
+      <c r="W9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2094711222075432</v>
+      </c>
+      <c r="X9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.76302753220143149</v>
+      </c>
+      <c r="Y9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.7083727237416502</v>
+      </c>
+      <c r="Z9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.22390309944241621</v>
+      </c>
+      <c r="AA9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.94614973273866743</v>
+      </c>
+      <c r="AB9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.50943618663332069</v>
+      </c>
+      <c r="AC9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.41559560587830136</v>
+      </c>
+      <c r="AD9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45157456973551047</v>
+      </c>
+      <c r="AE9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.83164762836710771</v>
+      </c>
+      <c r="AF9" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.45737466284626727</v>
+      </c>
+    </row>
+    <row r="10" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3" t="str">
         <f>DEMANDS!$F$19</f>
         <v>TRAPL</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F10" s="3">
         <v>2020</v>
       </c>
-      <c r="G8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27435547637321495</v>
       </c>
-      <c r="H8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>4.8874675973215007</v>
       </c>
-      <c r="I8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.98750716185845822</v>
       </c>
-      <c r="J8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47552429060912443</v>
       </c>
-      <c r="K8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35331078909799174</v>
       </c>
-      <c r="L8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18192405921838437</v>
       </c>
-      <c r="M8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49433293928500699</v>
       </c>
-      <c r="N8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.84062004677085977</v>
-      </c>
-      <c r="O8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.84062004677085211</v>
+      </c>
+      <c r="O10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.36232197941731037</v>
       </c>
-      <c r="P8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40153594290187117</v>
       </c>
-      <c r="Q8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.71368599033539704</v>
       </c>
-      <c r="R8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61113233633908892</v>
       </c>
-      <c r="S8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54794246709160832</v>
       </c>
-      <c r="T8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2342931214267647</v>
       </c>
-      <c r="U8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.74304638421703217</v>
       </c>
-      <c r="V8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.82312954869858934</v>
       </c>
-      <c r="W8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.79632066689536773</v>
       </c>
-      <c r="X8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.5014811864865022</v>
       </c>
-      <c r="Y8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1393573908292929</v>
       </c>
-      <c r="Z8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.14698615350023855</v>
       </c>
-      <c r="AA8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.63179454507028443</v>
       </c>
-      <c r="AB8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33116307912916793</v>
-      </c>
-      <c r="AC8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.33116307912916709</v>
+      </c>
+      <c r="AC10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27602684102814479</v>
       </c>
-      <c r="AD8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2952095661319819</v>
       </c>
-      <c r="AE8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.54379756531765255</v>
       </c>
-      <c r="AF8" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E8,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F8,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E8,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF10" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+    <row r="11" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="3" t="str">
+      <c r="E11" s="3" t="str">
         <f>DEMANDS!$F$19</f>
         <v>TRAPL</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F11" s="3">
+        <v>2030</v>
+      </c>
+      <c r="G11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.35633571356022747</v>
+      </c>
+      <c r="H11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>6.3478931669835497</v>
+      </c>
+      <c r="I11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.2825844550957279</v>
+      </c>
+      <c r="J11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.61761583785161944</v>
+      </c>
+      <c r="K11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.4588836855237316</v>
+      </c>
+      <c r="L11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.23628483860541222</v>
+      </c>
+      <c r="M11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.64204470413714976</v>
+      </c>
+      <c r="N11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0918059597674847</v>
+      </c>
+      <c r="O11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.47058751216101496</v>
+      </c>
+      <c r="P11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.52151901112182775</v>
+      </c>
+      <c r="Q11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.92694270216845409</v>
+      </c>
+      <c r="R11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.79374496192990407</v>
+      </c>
+      <c r="S11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.71167331005061707</v>
+      </c>
+      <c r="T11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.9019228784894868</v>
+      </c>
+      <c r="U11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.965076283617325</v>
+      </c>
+      <c r="V11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0690891210387938</v>
+      </c>
+      <c r="W11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0342694697113035</v>
+      </c>
+      <c r="X11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.65132892109874119</v>
+      </c>
+      <c r="Y11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.4798090937648649</v>
+      </c>
+      <c r="Z11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.19090712743685584</v>
+      </c>
+      <c r="AA11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.82058125107306379</v>
+      </c>
+      <c r="AB11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.43011801209962869</v>
+      </c>
+      <c r="AC11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.35850649915855681</v>
+      </c>
+      <c r="AD11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.38342121975486437</v>
+      </c>
+      <c r="AE11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70628986900987611</v>
+      </c>
+      <c r="AF11" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.4079856816277293</v>
+      </c>
+      <c r="AG11" s="14"/>
+    </row>
+    <row r="12" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="11" t="str">
+        <f>DEMANDS!$F$19</f>
+        <v>TRAPL</v>
+      </c>
+      <c r="F12" s="11">
         <v>2050</v>
       </c>
-      <c r="G9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35538578065388149</v>
       </c>
-      <c r="H9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.3309707189217512</v>
       </c>
-      <c r="I9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.2791652940835176</v>
       </c>
-      <c r="J9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61596937473964586</v>
       </c>
-      <c r="K9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.45766037644615121</v>
       </c>
-      <c r="L9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23565494175555857</v>
       </c>
-      <c r="M9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64033311765116041</v>
       </c>
-      <c r="N9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.0888953831144683</v>
-      </c>
-      <c r="O9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>1.0888953831144585</v>
+      </c>
+      <c r="O12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46933300259010807</v>
       </c>
-      <c r="P9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.52012872647985364</v>
       </c>
-      <c r="Q9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.92447162407670325</v>
       </c>
-      <c r="R9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.79162896729369392</v>
       </c>
-      <c r="S9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.709776105055275</v>
       </c>
-      <c r="T9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8941868252984846</v>
       </c>
-      <c r="U9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.9625035476156969</v>
       </c>
-      <c r="V9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0662391037734891</v>
       </c>
-      <c r="W9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.0315122759585598</v>
       </c>
-      <c r="X9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.64959258440426626</v>
       </c>
-      <c r="Y9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.4758641640264663</v>
       </c>
-      <c r="Z9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.19039820016544551</v>
       </c>
-      <c r="AA9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.81839371526606663</v>
       </c>
-      <c r="AB9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4289713876167135</v>
-      </c>
-      <c r="AC9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.4289713876167125</v>
+      </c>
+      <c r="AC12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35755077929178558</v>
       </c>
-      <c r="AD9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38239908130571088</v>
       </c>
-      <c r="AE9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.70440701539049588</v>
       </c>
-      <c r="AF9" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E9,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F9,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E9,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF12" s="40">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D10" s="3" t="s">
+    <row r="13" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="3" t="str">
+      <c r="E13" s="3" t="str">
         <f>DEMANDS!$F$20</f>
         <v>TRAF</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F13" s="3">
         <v>2020</v>
       </c>
-      <c r="G10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17991488188042462</v>
       </c>
-      <c r="H10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.6871723541686299</v>
       </c>
-      <c r="I10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.48763398226070803</v>
       </c>
-      <c r="J10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3135901348759621</v>
       </c>
-      <c r="K10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22335515894815736</v>
       </c>
-      <c r="L10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.10778652622510916</v>
       </c>
-      <c r="M10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2824588239748011</v>
       </c>
-      <c r="N10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.43704621254646414</v>
       </c>
-      <c r="O10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="O13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20559159765702764</v>
       </c>
-      <c r="P10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.23409610092244049</v>
       </c>
-      <c r="Q10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.47314719217489071</v>
       </c>
-      <c r="R10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31213492756751032</v>
       </c>
-      <c r="S10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30715715583422787</v>
       </c>
-      <c r="T10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.643458450750628</v>
       </c>
-      <c r="U10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.44716269403431846</v>
       </c>
-      <c r="V10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.50383886577623815</v>
       </c>
-      <c r="W10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.41246493081645397</v>
       </c>
-      <c r="X10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38312416759737483</v>
       </c>
-      <c r="Y10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.61177286314532875</v>
       </c>
-      <c r="Z10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.1588596696128737E-2</v>
       </c>
-      <c r="AA10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.34456408847334713</v>
       </c>
-      <c r="AB10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15301315083761008</v>
       </c>
-      <c r="AC10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AC13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16686146187994025</v>
       </c>
-      <c r="AD10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1939549663563945</v>
       </c>
-      <c r="AE10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40532554878448751</v>
       </c>
-      <c r="AF10" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E10,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F10,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E10,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF13" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D11" s="3" t="s">
+    <row r="14" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="3" t="str">
+      <c r="E14" s="3" t="str">
         <f>DEMANDS!$F$20</f>
         <v>TRAF</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F14" s="3">
         <v>2050</v>
       </c>
-      <c r="G11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.1446419539275921</v>
       </c>
-      <c r="H11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.1603430232385223</v>
       </c>
-      <c r="I11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.39203167219129176</v>
       </c>
-      <c r="J11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25210971636588919</v>
       </c>
-      <c r="K11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17956561609806693</v>
       </c>
-      <c r="L11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.6654609098035573E-2</v>
       </c>
-      <c r="M11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.22708180544485712</v>
       </c>
-      <c r="N11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.3513618077541163</v>
       </c>
-      <c r="O11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="O14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16528466175450579</v>
       </c>
-      <c r="P11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18820075966120894</v>
       </c>
-      <c r="Q11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.38038506685075008</v>
       </c>
-      <c r="R11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.25093980742748312</v>
       </c>
-      <c r="S11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24693794486790879</v>
       </c>
-      <c r="T11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.3212528003846484</v>
       </c>
-      <c r="U11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.35949491844502668</v>
       </c>
-      <c r="V11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40505953286828184</v>
       </c>
-      <c r="W11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33159977038226424</v>
       </c>
-      <c r="X11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30801136414605851</v>
       </c>
-      <c r="Y11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.49183270088812792</v>
       </c>
-      <c r="Z11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.5592873257597661E-2</v>
       </c>
-      <c r="AA11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27701112042075737</v>
       </c>
-      <c r="AB11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12301439926730905</v>
       </c>
-      <c r="AC11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AC14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13414770156461955</v>
       </c>
-      <c r="AD11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15592943182095748</v>
       </c>
-      <c r="AE11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.32586008861638621</v>
       </c>
-      <c r="AF11" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E11,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F11,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E11,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF14" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D12" s="3" t="s">
+    <row r="15" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="3" t="str">
+      <c r="E15" s="3" t="str">
         <f>DEMANDS!$F$21</f>
         <v>TTURS</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F15" s="3">
         <v>2020</v>
       </c>
-      <c r="G12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.11877072280331726</v>
       </c>
-      <c r="H12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="H15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.8108410437988307</v>
       </c>
-      <c r="I12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.46418465725126973</v>
       </c>
-      <c r="J12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="J15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.20701637682180085</v>
       </c>
-      <c r="K12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="K15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.17669366804736417</v>
       </c>
-      <c r="L12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="L15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>8.5268667061406372E-2</v>
       </c>
-      <c r="M12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="M15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.26887595443305573</v>
       </c>
-      <c r="N12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="N15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.40689799863785192</v>
       </c>
-      <c r="O12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="O15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.16264112134598166</v>
       </c>
-      <c r="P12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="P15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.18519070229836443</v>
       </c>
-      <c r="Q12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Q15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.31234789151194903</v>
       </c>
-      <c r="R12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="R15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.29712499464734149</v>
       </c>
-      <c r="S12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="S15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2478743232509259</v>
       </c>
-      <c r="T12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>1.1325234445793442</v>
       </c>
-      <c r="U12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.30814422737844349</v>
       </c>
-      <c r="V12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.4065955017150939</v>
       </c>
-      <c r="W12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="W15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33285718287496763</v>
       </c>
-      <c r="X12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="X15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.2423647068853749</v>
       </c>
-      <c r="Y12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Y15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.53835690271162884</v>
       </c>
-      <c r="Z12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="Z15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>6.6849733743931328E-2</v>
       </c>
-      <c r="AA12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AA15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.27226183378227509</v>
       </c>
-      <c r="AB12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13465076815529611</v>
       </c>
-      <c r="AC12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AC15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.13671817815842413</v>
       </c>
-      <c r="AD12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AD15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.15891727991754154</v>
       </c>
-      <c r="AE12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AE15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.33210406984658275</v>
       </c>
-      <c r="AF12" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E12,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F12,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E12,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AF15" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D13" s="3" t="s">
+    <row r="16" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="3" t="str">
+      <c r="E16" s="3" t="str">
         <f>DEMANDS!$F$21</f>
         <v>TTURS</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F16" s="3">
         <v>2050</v>
-      </c>
-      <c r="G13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="V13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Z13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AA13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AC13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AD13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AE13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AF13" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E13,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F13,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E13,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D14" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="3" t="str">
-        <f>DEMANDS!$F$22</f>
-        <v>TNAV</v>
-      </c>
-      <c r="F14" s="3">
-        <v>2020</v>
-      </c>
-      <c r="G14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.2718404005341085E-2</v>
-      </c>
-      <c r="H14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.2476395718090449</v>
-      </c>
-      <c r="I14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.20603624964526826</v>
-      </c>
-      <c r="J14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1887737410560083E-2</v>
-      </c>
-      <c r="K14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.8428487740468913E-2</v>
-      </c>
-      <c r="L14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.7847947145898689E-2</v>
-      </c>
-      <c r="M14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11934516233092786</v>
-      </c>
-      <c r="N14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18060859254580502</v>
-      </c>
-      <c r="O14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.2191026042654344E-2</v>
-      </c>
-      <c r="P14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.2200040812796554E-2</v>
-      </c>
-      <c r="Q14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13864092047508789</v>
-      </c>
-      <c r="R14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13188397896544479</v>
-      </c>
-      <c r="S14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11002323137607345</v>
-      </c>
-      <c r="T14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.502689779835093</v>
-      </c>
-      <c r="U14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13677505270176574</v>
-      </c>
-      <c r="V14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18047432414524345</v>
-      </c>
-      <c r="W14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14774431803316512</v>
-      </c>
-      <c r="X14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.1075776945079131</v>
-      </c>
-      <c r="Y14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.23895886146297882</v>
-      </c>
-      <c r="Z14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.9672390535149896E-2</v>
-      </c>
-      <c r="AA14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.12084804242824863</v>
-      </c>
-      <c r="AB14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.9767032040341748E-2</v>
-      </c>
-      <c r="AC14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.0684687109007783E-2</v>
-      </c>
-      <c r="AD14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.0538135732292298E-2</v>
-      </c>
-      <c r="AE14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14741003601521568</v>
-      </c>
-      <c r="AF14" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E14,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F14,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E14,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6842758875006463E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" s="3" t="str">
-        <f>DEMANDS!$F$22</f>
-        <v>TNAV</v>
-      </c>
-      <c r="F15" s="3">
-        <v>2050</v>
-      </c>
-      <c r="G15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.2004379525771102E-2</v>
-      </c>
-      <c r="H15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.99408028513777102</v>
-      </c>
-      <c r="I15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16416325549782501</v>
-      </c>
-      <c r="J15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>7.3213282321037701E-2</v>
-      </c>
-      <c r="K15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.2489372105217399E-2</v>
-      </c>
-      <c r="L15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.0156063450376601E-2</v>
-      </c>
-      <c r="M15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.5090501840783506E-2</v>
-      </c>
-      <c r="N15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.143903291650118</v>
-      </c>
-      <c r="O15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.75195572298293E-2</v>
-      </c>
-      <c r="P15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>6.5494427922832596E-2</v>
-      </c>
-      <c r="Q15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.110464759912835</v>
-      </c>
-      <c r="R15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.105081039730871</v>
-      </c>
-      <c r="S15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.7663078095158206E-2</v>
-      </c>
-      <c r="T15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40052753292342302</v>
-      </c>
-      <c r="U15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.108978094685117</v>
-      </c>
-      <c r="V15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.14379631077765201</v>
-      </c>
-      <c r="W15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.117718063066032</v>
-      </c>
-      <c r="X15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>8.5714550618035304E-2</v>
-      </c>
-      <c r="Y15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.190394965426499</v>
-      </c>
-      <c r="Z15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.36420350158753E-2</v>
-      </c>
-      <c r="AA15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.6287949813282703E-2</v>
-      </c>
-      <c r="AB15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7620506430678201E-2</v>
-      </c>
-      <c r="AC15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.8351665359049598E-2</v>
-      </c>
-      <c r="AD15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>5.6202585799816303E-2</v>
-      </c>
-      <c r="AE15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.117451717583548</v>
-      </c>
-      <c r="AF15" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E15,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F15,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E15,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.5290536808279797E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
-      <c r="D16" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" s="3" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
-      </c>
-      <c r="F16" s="3">
-        <v>2020</v>
       </c>
       <c r="G16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.16235731275947515</v>
+        <v>0</v>
       </c>
       <c r="H16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>3.8423660957334085</v>
+        <v>0</v>
       </c>
       <c r="I16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.63453157307374231</v>
+        <v>0</v>
       </c>
       <c r="J16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.28298743869437681</v>
+        <v>0</v>
       </c>
       <c r="K16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24153687414440531</v>
+        <v>0</v>
       </c>
       <c r="L16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.11656064154461539</v>
+        <v>0</v>
       </c>
       <c r="M16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3675483014419349</v>
+        <v>0</v>
       </c>
       <c r="N16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55622180337699523</v>
+        <v>0</v>
       </c>
       <c r="O16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.22232731082767995</v>
+        <v>0</v>
       </c>
       <c r="P16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.25315215790168288</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.42697361028901426</v>
+        <v>0</v>
       </c>
       <c r="R16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.40616420062123709</v>
+        <v>0</v>
       </c>
       <c r="S16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.3388394721798389</v>
+        <v>0</v>
       </c>
       <c r="T16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>1.5481379481330504</v>
+        <v>0</v>
       </c>
       <c r="U16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.4212272815949526</v>
+        <v>0</v>
       </c>
       <c r="V16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.55580829585310521</v>
+        <v>0</v>
       </c>
       <c r="W16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45500942040877851</v>
+        <v>0</v>
       </c>
       <c r="X16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.33130793169298151</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.73592361793165129</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.1382311003734881E-2</v>
+        <v>0</v>
       </c>
       <c r="AA16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.37217673393347922</v>
+        <v>0</v>
       </c>
       <c r="AB16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18406503187570397</v>
+        <v>0</v>
       </c>
       <c r="AC16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.18689114191829229</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.21723689061978846</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.45397992926309294</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E16,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F16,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E16,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.17505912318297531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="4:32" x14ac:dyDescent="0.25">
@@ -5396,115 +5412,115 @@
         <v>59</v>
       </c>
       <c r="E17" s="3" t="str">
-        <f>DEMANDS!$F$23</f>
-        <v>TOTH</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F17" s="3">
-        <v>2050</v>
+        <v>2020</v>
       </c>
       <c r="G17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.2718404005341231E-2</v>
       </c>
       <c r="H17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>1.2476395718090483</v>
       </c>
       <c r="I17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.20603624964526884</v>
       </c>
       <c r="J17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.1887737410560347E-2</v>
       </c>
       <c r="K17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.8428487740469136E-2</v>
       </c>
       <c r="L17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.7847947145898793E-2</v>
       </c>
       <c r="M17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11934516233092819</v>
       </c>
       <c r="N17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18060859254580552</v>
       </c>
       <c r="O17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.2191026042654552E-2</v>
       </c>
       <c r="P17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.2200040812796776E-2</v>
       </c>
       <c r="Q17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13864092047508828</v>
       </c>
       <c r="R17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.13188397896544515</v>
       </c>
       <c r="S17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11002323137607375</v>
       </c>
       <c r="T17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.50268977983509444</v>
       </c>
       <c r="U17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1367750527017661</v>
       </c>
       <c r="V17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.18047432414524395</v>
       </c>
       <c r="W17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14774431803316554</v>
       </c>
       <c r="X17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.10757769450791341</v>
       </c>
       <c r="Y17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.23895886146297948</v>
       </c>
       <c r="Z17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.967239053514998E-2</v>
       </c>
       <c r="AA17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.12084804242824897</v>
       </c>
       <c r="AB17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.9767032040341915E-2</v>
       </c>
       <c r="AC17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.068468710900795E-2</v>
       </c>
       <c r="AD17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.0538135732292492E-2</v>
       </c>
       <c r="AE17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.1474100360152161</v>
       </c>
       <c r="AF17" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E17,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F17,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E17,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.6842758875006623E-2</v>
       </c>
     </row>
     <row r="18" spans="4:32" x14ac:dyDescent="0.25">
@@ -5512,115 +5528,115 @@
         <v>59</v>
       </c>
       <c r="E18" s="3" t="str">
-        <f>DEMANDS!$F$24</f>
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$22</f>
+        <v>TNAV</v>
       </c>
       <c r="F18" s="3">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.2004379525771102E-2</v>
       </c>
       <c r="H18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13395677260860595</v>
+        <v>0.99408028513777114</v>
       </c>
       <c r="I18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16416325549782501</v>
       </c>
       <c r="J18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>7.3213282321037701E-2</v>
       </c>
       <c r="K18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.2489372105217399E-2</v>
       </c>
       <c r="L18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>3.0156063450376601E-2</v>
       </c>
       <c r="M18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>9.5090501840783506E-2</v>
       </c>
       <c r="N18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.143903291650118</v>
       </c>
       <c r="O18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.75195572298293E-2</v>
       </c>
       <c r="P18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>6.5494427922832596E-2</v>
       </c>
       <c r="Q18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.110464759912835</v>
       </c>
       <c r="R18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.105081039730871</v>
       </c>
       <c r="S18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6779068407982807E-2</v>
+        <v>8.7663078095158192E-2</v>
       </c>
       <c r="T18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6352277307537207E-4</v>
+        <v>0.40052753292342302</v>
       </c>
       <c r="U18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.6529102661710439E-2</v>
+        <v>0.108978094685117</v>
       </c>
       <c r="V18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.14379631077765201</v>
       </c>
       <c r="W18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.11771806306603201</v>
       </c>
       <c r="X18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>8.5714550618035304E-2</v>
       </c>
       <c r="Y18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.190394965426499</v>
       </c>
       <c r="Z18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>2.36420350158753E-2</v>
       </c>
       <c r="AA18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.2704554615074527E-5</v>
+        <v>9.6287949813282703E-2</v>
       </c>
       <c r="AB18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.7620506430678201E-2</v>
       </c>
       <c r="AC18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.8351665359049598E-2</v>
       </c>
       <c r="AD18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>5.6202585799816303E-2</v>
       </c>
       <c r="AE18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.117451717583548</v>
       </c>
       <c r="AF18" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E18,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F18,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E18,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>4.529053680827979E-2</v>
       </c>
     </row>
     <row r="19" spans="4:32" x14ac:dyDescent="0.25">
@@ -5628,115 +5644,115 @@
         <v>59</v>
       </c>
       <c r="E19" s="3" t="str">
-        <f>DEMANDS!$F$24</f>
-        <v>TAVIDOM</v>
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
       </c>
       <c r="F19" s="3">
-        <v>2050</v>
-      </c>
-      <c r="G19" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.16235731275947515</v>
       </c>
       <c r="H19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.13599128494106499</v>
-      </c>
-      <c r="I19" s="3">
+        <v>3.8423660957334085</v>
+      </c>
+      <c r="I19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
+        <v>0.63453157307374231</v>
+      </c>
+      <c r="J19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K19" s="3">
+        <v>0.28298743869437681</v>
+      </c>
+      <c r="K19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="3">
+        <v>0.24153687414440531</v>
+      </c>
+      <c r="L19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="3">
+        <v>0.11656064154461539</v>
+      </c>
+      <c r="M19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N19" s="3">
+        <v>0.3675483014419349</v>
+      </c>
+      <c r="N19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O19" s="3">
+        <v>0.55622180337699523</v>
+      </c>
+      <c r="O19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="3">
+        <v>0.22232731082767995</v>
+      </c>
+      <c r="P19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="3">
+        <v>0.25315215790168288</v>
+      </c>
+      <c r="Q19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R19" s="3">
+        <v>0.42697361028901426</v>
+      </c>
+      <c r="R19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.40616420062123709</v>
       </c>
       <c r="S19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7489540821759602E-2</v>
+        <v>0.3388394721798389</v>
       </c>
       <c r="T19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7056267691773199E-4</v>
+        <v>1.5481379481330504</v>
       </c>
       <c r="U19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>4.7235778638893701E-2</v>
-      </c>
-      <c r="V19" s="3">
+        <v>0.4212272815949526</v>
+      </c>
+      <c r="V19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W19" s="3">
+        <v>0.55580829585310521</v>
+      </c>
+      <c r="W19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X19" s="3">
+        <v>0.45500942040877851</v>
+      </c>
+      <c r="X19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="3">
+        <v>0.33130793169298151</v>
+      </c>
+      <c r="Y19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="3">
+        <v>0.73592361793165129</v>
+      </c>
+      <c r="Z19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="15">
+        <v>9.1382311003734881E-2</v>
+      </c>
+      <c r="AA19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>9.4112535383546506E-5</v>
-      </c>
-      <c r="AB19" s="3">
+        <v>0.37217673393347922</v>
+      </c>
+      <c r="AB19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3">
+        <v>0.18406503187570397</v>
+      </c>
+      <c r="AC19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="3">
+        <v>0.18689114191829229</v>
+      </c>
+      <c r="AD19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="3">
+        <v>0.21723689061978846</v>
+      </c>
+      <c r="AE19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AF19" s="3">
+        <v>0.45397992926309294</v>
+      </c>
+      <c r="AF19" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E19,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F19,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E19,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
+        <v>0.17505912318297531</v>
       </c>
     </row>
     <row r="20" spans="4:32" x14ac:dyDescent="0.25">
@@ -5744,11 +5760,11 @@
         <v>59</v>
       </c>
       <c r="E20" s="3" t="str">
-        <f>DEMANDS!$F$25</f>
-        <v>TAVIINT</v>
+        <f>DEMANDS!$F$23</f>
+        <v>TOTH</v>
       </c>
       <c r="F20" s="3">
-        <v>2020</v>
+        <v>2050</v>
       </c>
       <c r="G20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5756,7 +5772,7 @@
       </c>
       <c r="H20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>41.184477806263274</v>
+        <v>0</v>
       </c>
       <c r="I20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5800,15 +5816,15 @@
       </c>
       <c r="S20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.4385793540260186</v>
+        <v>0</v>
       </c>
       <c r="T20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>2.2547565653239303</v>
+        <v>0</v>
       </c>
       <c r="U20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.24571396736982151</v>
+        <v>0</v>
       </c>
       <c r="V20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5832,7 +5848,7 @@
       </c>
       <c r="AA20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0.70149337318584271</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="14">
         <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E20,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F20,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E20,DEMANDS!$F$2:$F$25,0),FALSE)</f>
@@ -5860,114 +5876,462 @@
         <v>59</v>
       </c>
       <c r="E21" s="3" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13395677260860595</v>
+      </c>
+      <c r="I21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6779068407982807E-2</v>
+      </c>
+      <c r="T21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6352277307537207E-4</v>
+      </c>
+      <c r="U21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.6529102661710439E-2</v>
+      </c>
+      <c r="V21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.2704554615074527E-5</v>
+      </c>
+      <c r="AB21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF21" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E22" s="3" t="str">
+        <f>DEMANDS!$F$24</f>
+        <v>TAVIDOM</v>
+      </c>
+      <c r="F22" s="3">
+        <v>2050</v>
+      </c>
+      <c r="G22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.13599128494106499</v>
+      </c>
+      <c r="I22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7489540821759602E-2</v>
+      </c>
+      <c r="T22" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7056267691773199E-4</v>
+      </c>
+      <c r="U22" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>4.7235778638893701E-2</v>
+      </c>
+      <c r="V22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="15">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>9.4112535383546506E-5</v>
+      </c>
+      <c r="AB22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E22,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F22,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E22,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="3" t="str">
         <f>DEMANDS!$F$25</f>
         <v>TAVIINT</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F23" s="3">
+        <v>2020</v>
+      </c>
+      <c r="G23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>41.184477806263274</v>
+      </c>
+      <c r="I23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.4385793540260186</v>
+      </c>
+      <c r="T23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>2.2547565653239303</v>
+      </c>
+      <c r="U23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.24571396736982151</v>
+      </c>
+      <c r="V23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0.70149337318584271</v>
+      </c>
+      <c r="AB23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF23" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E23,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F23,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E23,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="3" t="str">
+        <f>DEMANDS!$F$25</f>
+        <v>TAVIINT</v>
+      </c>
+      <c r="F24" s="3">
         <v>2050</v>
       </c>
-      <c r="G21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="G24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!G$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!H$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>40.411547456014503</v>
       </c>
-      <c r="I21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="I24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!I$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!J$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!K$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!L$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!M$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!N$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!O$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!P$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Q$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!R$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!S$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.3928132767411898</v>
       </c>
-      <c r="T21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="T24" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!T$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>2.2124403851853902</v>
       </c>
-      <c r="U21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="U24" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!U$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.24110252653151398</v>
       </c>
-      <c r="V21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="14">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="V24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!V$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!W$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!X$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Y$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!Z$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="14">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AA$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0.68832808501139198</v>
       </c>
-      <c r="AB21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="AF21" s="3">
-        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E21,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F21,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E21,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+      <c r="AB24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AB$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AC$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AD$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AE$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <f>HLOOKUP(REG_TRA_DEMANDS!AF$3,'BY-Demands'!$J$5:$AK$14,MATCH($E24,'BY-Demands'!$I$5:$I$14,0),FALSE)*HLOOKUP(REG_TRA_DEMANDS!$F24,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)/HLOOKUP(2018,DEMANDS!$H$2:$CO$25,MATCH($E24,DEMANDS!$F$2:$F$25,0),FALSE)</f>
         <v>0</v>
       </c>
     </row>
@@ -5984,40 +6348,40 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.08984375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.08984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.5546875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.6328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.08984375" style="3"/>
+    <col min="29" max="29" width="5.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="C3" s="20" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -6136,7 +6500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -6251,7 +6615,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -6368,7 +6732,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -6485,7 +6849,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="19" t="s">
         <v>130</v>
       </c>
@@ -6701,7 +7065,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
         <v>102</v>
       </c>
@@ -6727,7 +7091,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>25400</xdr:colOff>
+                    <xdr:colOff>22860</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -6746,23 +7110,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6328125" customWidth="1"/>
-    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.36328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.90625" customWidth="1"/>
-    <col min="12" max="13" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.88671875" customWidth="1"/>
+    <col min="12" max="13" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -6770,7 +7134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -6801,8 +7165,11 @@
       <c r="L2" s="13">
         <v>2050</v>
       </c>
-    </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
+      <c r="M2" s="13" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="3" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6832,9 +7199,12 @@
       <c r="L3" s="36">
         <v>6.9541244411880462E-2</v>
       </c>
+      <c r="M3" s="36">
+        <v>0</v>
+      </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6864,9 +7234,12 @@
       <c r="L4" s="36">
         <v>18.697327501852616</v>
       </c>
+      <c r="M4" s="36">
+        <v>0</v>
+      </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6896,9 +7269,12 @@
       <c r="L5" s="36">
         <v>2.7347332528494115</v>
       </c>
+      <c r="M5" s="36">
+        <v>0</v>
+      </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6928,9 +7304,12 @@
       <c r="L6" s="36">
         <v>4.2089907338674086</v>
       </c>
+      <c r="M6" s="36">
+        <v>0</v>
+      </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6960,9 +7339,12 @@
       <c r="L7" s="36">
         <v>1.2712201490482398</v>
       </c>
+      <c r="M7" s="36">
+        <v>0</v>
+      </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -6992,9 +7374,12 @@
       <c r="L8" s="36">
         <v>7.2088571410846098</v>
       </c>
+      <c r="M8" s="36">
+        <v>0</v>
+      </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7024,9 +7409,12 @@
       <c r="L9" s="36">
         <v>0.48821533640581133</v>
       </c>
+      <c r="M9" s="36">
+        <v>0</v>
+      </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7056,9 +7444,12 @@
       <c r="L10" s="36">
         <v>8.8850491823775997</v>
       </c>
+      <c r="M10" s="36">
+        <v>0</v>
+      </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7088,9 +7479,12 @@
       <c r="L11" s="36">
         <v>11.953816850793071</v>
       </c>
+      <c r="M11" s="36">
+        <v>0</v>
+      </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7120,9 +7514,12 @@
       <c r="L12" s="36">
         <v>0.92767680170120992</v>
       </c>
+      <c r="M12" s="36">
+        <v>0</v>
+      </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7152,9 +7549,12 @@
       <c r="L13" s="36">
         <v>9.0033719900865421</v>
       </c>
+      <c r="M13" s="36">
+        <v>0</v>
+      </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7184,9 +7584,12 @@
       <c r="L14" s="36">
         <v>2.3155875486813523E-2</v>
       </c>
+      <c r="M14" s="36">
+        <v>0</v>
+      </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7216,9 +7619,12 @@
       <c r="L15" s="36">
         <v>3.3634789145880619</v>
       </c>
+      <c r="M15" s="36">
+        <v>0</v>
+      </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.3">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7248,9 +7654,12 @@
       <c r="L16" s="36">
         <v>3.2441660809438213</v>
       </c>
+      <c r="M16" s="36">
+        <v>0</v>
+      </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7280,9 +7689,12 @@
       <c r="L17" s="36">
         <v>18.550648173612263</v>
       </c>
+      <c r="M17" s="36">
+        <v>0</v>
+      </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7312,9 +7724,12 @@
       <c r="L18" s="36">
         <v>30.011573675084005</v>
       </c>
+      <c r="M18" s="36">
+        <v>0</v>
+      </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7344,9 +7759,12 @@
       <c r="L19" s="36">
         <v>25.788290151303741</v>
       </c>
+      <c r="M19" s="36">
+        <v>0</v>
+      </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7371,15 +7789,18 @@
         <v>11.754512350000001</v>
       </c>
       <c r="K20" s="36">
-        <f t="shared" ref="K17:K25" si="1">(J20*2/3)+(L20/3)</f>
+        <f t="shared" ref="K20:K25" si="1">(J20*2/3)+(L20/3)</f>
         <v>10.986341566666667</v>
       </c>
       <c r="L20" s="36">
         <v>9.4499999999999993</v>
       </c>
+      <c r="M20" s="36">
+        <v>0</v>
+      </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7409,9 +7830,12 @@
       <c r="L21" s="36">
         <v>0</v>
       </c>
+      <c r="M21" s="36">
+        <v>0</v>
+      </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7427,7 +7851,7 @@
       </c>
       <c r="H22" s="37">
         <f>VLOOKUP(F22,'BY-Demands'!$I$5:$J$38,2,FALSE)</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
       </c>
       <c r="I22" s="36">
         <v>4.2966351471015702</v>
@@ -7437,15 +7861,18 @@
       </c>
       <c r="K22" s="36">
         <f t="shared" si="1"/>
-        <v>4.1107229120604405</v>
+        <v>4.1107229120604369</v>
       </c>
       <c r="L22" s="36">
         <f>H22</f>
-        <v>3.5132998087277199</v>
+        <v>3.5132998087277101</v>
+      </c>
+      <c r="M22" s="36">
+        <v>0</v>
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7475,9 +7902,12 @@
       <c r="L23" s="36">
         <v>0</v>
       </c>
+      <c r="M23" s="36">
+        <v>0</v>
+      </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7509,9 +7939,12 @@
         <f>H24</f>
         <v>0.23349320028657899</v>
       </c>
+      <c r="M24" s="36">
+        <v>0</v>
+      </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -7543,9 +7976,12 @@
         <f>H25</f>
         <v>45.935836654432002</v>
       </c>
+      <c r="M25" s="36">
+        <v>0</v>
+      </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7574,9 +8010,12 @@
       <c r="L26" s="36">
         <v>614.82387830734103</v>
       </c>
+      <c r="M26" s="36">
+        <v>0</v>
+      </c>
       <c r="P26" s="1"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7605,9 +8044,12 @@
       <c r="L27" s="36">
         <v>1051.6575592105</v>
       </c>
+      <c r="M27" s="36">
+        <v>0</v>
+      </c>
       <c r="P27" s="1"/>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7636,9 +8078,12 @@
       <c r="L28" s="36">
         <v>889.16483547498206</v>
       </c>
+      <c r="M28" s="36">
+        <v>0</v>
+      </c>
       <c r="P28" s="1"/>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7668,8 +8113,11 @@
       <c r="L29" s="36">
         <v>32.772151050078904</v>
       </c>
-    </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="M29" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D30" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7699,8 +8147,11 @@
       <c r="L30" s="36">
         <v>66.089343999999997</v>
       </c>
-    </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="M30" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D31" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7725,8 +8176,11 @@
       <c r="L31" s="36">
         <v>40.299999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.35">
+      <c r="M31" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D32" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -7751,74 +8205,77 @@
       <c r="L32" s="36">
         <v>0.54</v>
       </c>
-    </row>
-    <row r="33" spans="8:11" x14ac:dyDescent="0.35">
+      <c r="M32" s="36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
     </row>
-    <row r="34" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
     </row>
-    <row r="36" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
     </row>
-    <row r="37" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
     </row>
-    <row r="40" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
     </row>
-    <row r="41" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
     </row>
-    <row r="42" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
     </row>
-    <row r="43" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
     </row>
-    <row r="44" spans="8:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="8:11" x14ac:dyDescent="0.3">
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -7838,15 +8295,15 @@
       <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.6328125" customWidth="1"/>
-    <col min="14" max="14" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="26" t="s">
         <v>150</v>
       </c>
@@ -7854,7 +8311,7 @@
       <c r="J4" s="27"/>
       <c r="K4" s="27"/>
     </row>
-    <row r="5" spans="3:14" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" ht="26.4" x14ac:dyDescent="0.3">
       <c r="C5" s="28" t="s">
         <v>65</v>
       </c>
@@ -7887,7 +8344,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C6" s="29" t="s">
         <v>153</v>
       </c>
@@ -7904,7 +8361,7 @@
       <c r="L6" s="29"/>
       <c r="N6" s="31"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C7" s="30"/>
       <c r="D7" s="30"/>
       <c r="E7" t="s">
@@ -7930,7 +8387,7 @@
       </c>
       <c r="L7" s="30"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C8" s="30"/>
       <c r="D8" s="30"/>
       <c r="E8" t="s">
@@ -7956,7 +8413,7 @@
       </c>
       <c r="L8" s="30"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
       <c r="E9" t="s">
@@ -7982,7 +8439,7 @@
       </c>
       <c r="L9" s="30"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C10" s="30" t="s">
         <v>159</v>
       </c>
@@ -8010,7 +8467,7 @@
       </c>
       <c r="L10" s="30"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C11" s="30" t="s">
         <v>159</v>
       </c>
@@ -8038,7 +8495,7 @@
       </c>
       <c r="L11" s="30"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C12" s="30" t="s">
         <v>159</v>
       </c>
@@ -8066,7 +8523,7 @@
       </c>
       <c r="L12" s="30"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" t="s">
@@ -8092,7 +8549,7 @@
       </c>
       <c r="L13" s="30"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C14" s="30"/>
       <c r="D14" s="30"/>
       <c r="E14" t="s">
@@ -8118,7 +8575,7 @@
       </c>
       <c r="L14" s="30"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" t="s">
@@ -8144,7 +8601,7 @@
       </c>
       <c r="L15" s="30"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" t="s">
@@ -8170,7 +8627,7 @@
       </c>
       <c r="L16" s="30"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" t="s">
@@ -8196,7 +8653,7 @@
       </c>
       <c r="L17" s="30"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" t="s">
@@ -8222,7 +8679,7 @@
       </c>
       <c r="L18" s="30"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" t="s">
@@ -8248,7 +8705,7 @@
       </c>
       <c r="L19" s="30"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" t="s">
@@ -8274,7 +8731,7 @@
       </c>
       <c r="L20" s="30"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" t="s">
@@ -8300,7 +8757,7 @@
       </c>
       <c r="L21" s="30"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -8323,7 +8780,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -8346,7 +8803,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -8369,7 +8826,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -8395,7 +8852,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -8421,7 +8878,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -8447,7 +8904,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -8470,7 +8927,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -8493,7 +8950,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -8516,7 +8973,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -8539,7 +8996,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -8562,7 +9019,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -8585,7 +9042,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -8608,7 +9065,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -8631,7 +9088,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -8654,7 +9111,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -8677,7 +9134,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -8700,7 +9157,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -8723,7 +9180,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -8746,7 +9203,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -8769,7 +9226,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -8792,7 +9249,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -8815,7 +9272,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -8838,7 +9295,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -8861,7 +9318,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -8884,7 +9341,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -8907,7 +9364,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -8930,7 +9387,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -8953,7 +9410,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -8976,7 +9433,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.3">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -9012,18 +9469,18 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.7265625" customWidth="1"/>
-    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" customWidth="1"/>
-    <col min="11" max="11" width="12.453125" customWidth="1"/>
-    <col min="12" max="12" width="19.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="26" t="s">
         <v>150</v>
       </c>
@@ -9031,7 +9488,7 @@
       <c r="J3" s="27"/>
       <c r="K3" s="27"/>
     </row>
-    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:14" ht="29.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="28" t="s">
         <v>65</v>
       </c>
@@ -9064,7 +9521,7 @@
       </c>
       <c r="N4" s="35"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C5" s="29" t="s">
         <v>153</v>
       </c>
@@ -9080,7 +9537,7 @@
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -9097,7 +9554,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -9114,7 +9571,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -9131,7 +9588,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -9148,7 +9605,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -9165,7 +9622,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -9182,7 +9639,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -9199,7 +9656,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -9216,7 +9673,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -9233,7 +9690,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -9250,7 +9707,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -9267,7 +9724,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -9284,7 +9741,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -9301,7 +9758,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -9318,7 +9775,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -9335,7 +9792,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -9352,7 +9809,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -9369,7 +9826,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -9386,7 +9843,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -9403,7 +9860,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -9420,7 +9877,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -9437,7 +9894,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -9454,7 +9911,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -9471,7 +9928,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -9488,7 +9945,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -9505,7 +9962,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -9522,7 +9979,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -9539,7 +9996,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.3">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AA639-E78C-4374-896F-B440DCF12F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7739537-8951-4A2E-B852-3C58479764D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -671,8 +671,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -975,7 +975,7 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -987,8 +987,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -3765,8 +3765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64845-990F-4F8F-9F7F-F4DBD3794313}">
   <dimension ref="B2:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8840,10 +8840,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C1:AQ42"/>
+  <dimension ref="C1:AQ39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="Z9" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AO40" sqref="AO40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10071,10 +10071,10 @@
         <v>492.828423833106</v>
       </c>
       <c r="AG34">
-        <v>502.36472594874499</v>
+        <v>496.36472594874499</v>
       </c>
       <c r="AH34">
-        <v>516.22001380752999</v>
+        <v>514.52001380752995</v>
       </c>
       <c r="AI34">
         <v>530.17405404626902</v>
@@ -10187,7 +10187,7 @@
         <v>1003.43540212397</v>
       </c>
       <c r="AG35">
-        <v>1002.11497030569</v>
+        <v>1003.61497030569</v>
       </c>
       <c r="AH35">
         <v>1009.1830944926101</v>
@@ -10303,10 +10303,10 @@
         <v>877.53441615506995</v>
       </c>
       <c r="AG36">
-        <v>873.21565965240802</v>
+        <v>877.71565965240802</v>
       </c>
       <c r="AH36">
-        <v>876.17112006521802</v>
+        <v>877.87112006521807</v>
       </c>
       <c r="AI36">
         <v>878.89535131181003</v>
@@ -10353,30 +10353,6 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-    </row>
-    <row r="40" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="H40" s="36"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="35"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="H41" s="36"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="35"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="3:43" x14ac:dyDescent="0.25">
-      <c r="H42" s="36"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="P42" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10388,8 +10364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <dimension ref="C4:N51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11563,7 +11539,7 @@
   <dimension ref="C3:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uccireland-my.sharepoint.com/personal/agaur_ucc_ie/Documents/TIM-2.0/TIM/SuppXLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3108" documentId="13_ncr:1_{D85AA639-E78C-4374-896F-B440DCF12F08}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{98A54E44-8DC0-4133-AACD-C6A5E8273298}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B33AD8-7BC5-45FB-8E3E-B736D90B8213}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7739537-8951-4A2E-B852-3C58479764D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785DBE6-E107-4693-A2FE-0EB0DCEB83A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1450" yWindow="830" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1351,21 +1351,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:37" ht="13" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
     </row>
-    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
     </row>
-    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
     </row>
-    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
     </row>
-    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
     </row>
-    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
     </row>
-    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
     </row>
-    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
     </row>
-    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
     </row>
-    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
     </row>
-    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
     </row>
-    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
     </row>
-    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="AJ30" s="22"/>
       <c r="AK30" s="22"/>
     </row>
-    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
     </row>
-    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="AJ32" s="22"/>
       <c r="AK32" s="22"/>
     </row>
-    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
     </row>
-    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
     </row>
-    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
     </row>
-    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3469,7 +3469,7 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
     </row>
-    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
     </row>
-    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
     </row>
-    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
     </row>
-    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3769,19 +3769,19 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.1796875" style="3"/>
+    <col min="4" max="4" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>0.14608329496284322</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>5.2992018186097681E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -8082,38 +8082,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="29" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="C3" s="19" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -8227,12 +8227,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>89</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>100</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>94</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>79</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>80</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>82</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>96</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>92</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>85</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>86</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
@@ -8823,7 +8823,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8846,19 +8846,19 @@
       <selection activeCell="AO40" sqref="AO40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9839,19 +9839,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>149</v>
       </c>
@@ -9863,7 +9863,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:43" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C33" s="13" t="s">
         <v>1</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="34" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:43" x14ac:dyDescent="0.35">
       <c r="D34" t="s">
         <v>59</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:43" x14ac:dyDescent="0.35">
       <c r="D35" t="s">
         <v>59</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:43" x14ac:dyDescent="0.35">
       <c r="D36" t="s">
         <v>59</v>
       </c>
@@ -10336,19 +10336,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:43" x14ac:dyDescent="0.35">
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:43" x14ac:dyDescent="0.35">
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
     </row>
-    <row r="39" spans="3:43" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:43" x14ac:dyDescent="0.35">
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -10368,15 +10368,15 @@
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="14.5703125" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="14.54296875" customWidth="1"/>
+    <col min="14" max="14" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="25" t="s">
         <v>150</v>
       </c>
@@ -10384,7 +10384,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" ht="26" x14ac:dyDescent="0.35">
       <c r="C5" s="27" t="s">
         <v>65</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C6" s="28" t="s">
         <v>153</v>
       </c>
@@ -10434,7 +10434,7 @@
       <c r="L6" s="28"/>
       <c r="N6" s="30"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C7" s="29"/>
       <c r="D7" s="29"/>
       <c r="E7" t="s">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="L7" s="29"/>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
       <c r="E8" t="s">
@@ -10486,7 +10486,7 @@
       </c>
       <c r="L8" s="29"/>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C9" s="29"/>
       <c r="D9" s="29"/>
       <c r="E9" t="s">
@@ -10512,7 +10512,7 @@
       </c>
       <c r="L9" s="29"/>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C10" s="29" t="s">
         <v>159</v>
       </c>
@@ -10540,7 +10540,7 @@
       </c>
       <c r="L10" s="29"/>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C11" s="29" t="s">
         <v>159</v>
       </c>
@@ -10568,7 +10568,7 @@
       </c>
       <c r="L11" s="29"/>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C12" s="29" t="s">
         <v>159</v>
       </c>
@@ -10596,7 +10596,7 @@
       </c>
       <c r="L12" s="29"/>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
       <c r="E13" t="s">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="L13" s="29"/>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C14" s="29"/>
       <c r="D14" s="29"/>
       <c r="E14" t="s">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="L14" s="29"/>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C15" s="29"/>
       <c r="D15" s="29"/>
       <c r="E15" t="s">
@@ -10674,7 +10674,7 @@
       </c>
       <c r="L15" s="29"/>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C16" s="29"/>
       <c r="D16" s="29"/>
       <c r="E16" t="s">
@@ -10700,7 +10700,7 @@
       </c>
       <c r="L16" s="29"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C17" s="29"/>
       <c r="D17" s="29"/>
       <c r="E17" t="s">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="L17" s="29"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C18" s="29"/>
       <c r="D18" s="29"/>
       <c r="E18" t="s">
@@ -10752,7 +10752,7 @@
       </c>
       <c r="L18" s="29"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C19" s="29"/>
       <c r="D19" s="29"/>
       <c r="E19" t="s">
@@ -10778,7 +10778,7 @@
       </c>
       <c r="L19" s="29"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C20" s="29"/>
       <c r="D20" s="29"/>
       <c r="E20" t="s">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="L20" s="29"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C21" s="29"/>
       <c r="D21" s="29"/>
       <c r="E21" t="s">
@@ -10830,7 +10830,7 @@
       </c>
       <c r="L21" s="29"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -10853,7 +10853,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -10899,7 +10899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C25" t="s">
         <v>159</v>
       </c>
@@ -10925,7 +10925,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C26" t="s">
         <v>159</v>
       </c>
@@ -10951,7 +10951,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.35">
       <c r="C27" t="s">
         <v>159</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="33" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>154</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="34" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E34" t="s">
         <v>154</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E35" t="s">
         <v>154</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E36" t="s">
         <v>154</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="37" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E37" t="s">
         <v>154</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="38" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E38" t="s">
         <v>154</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="39" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E39" t="s">
         <v>154</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="40" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E40" t="s">
         <v>154</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E41" t="s">
         <v>154</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="42" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E42" t="s">
         <v>154</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="43" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E43" t="s">
         <v>154</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="44" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E44" t="s">
         <v>154</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="45" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E45" t="s">
         <v>154</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="46" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E46" t="s">
         <v>154</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E47" t="s">
         <v>154</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="48" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E48" t="s">
         <v>154</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="49" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E49" t="s">
         <v>154</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E50" t="s">
         <v>154</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="51" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:11" x14ac:dyDescent="0.35">
       <c r="E51" t="s">
         <v>154</v>
       </c>
@@ -11542,18 +11542,18 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" customWidth="1"/>
+    <col min="12" max="12" width="19.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C3" s="25" t="s">
         <v>150</v>
       </c>
@@ -11561,7 +11561,7 @@
       <c r="J3" s="26"/>
       <c r="K3" s="26"/>
     </row>
-    <row r="4" spans="3:14" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:14" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C4" s="27" t="s">
         <v>65</v>
       </c>
@@ -11594,7 +11594,7 @@
       </c>
       <c r="N4" s="34"/>
     </row>
-    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.35">
       <c r="C5" s="28" t="s">
         <v>153</v>
       </c>
@@ -11610,7 +11610,7 @@
       <c r="K5" s="28"/>
       <c r="L5" s="28"/>
     </row>
-    <row r="6" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
         <v>154</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
         <v>154</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
         <v>154</v>
       </c>
@@ -11661,7 +11661,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="9" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
         <v>154</v>
       </c>
@@ -11678,7 +11678,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
         <v>154</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
         <v>154</v>
       </c>
@@ -11712,7 +11712,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
         <v>154</v>
       </c>
@@ -11729,7 +11729,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
         <v>154</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
         <v>154</v>
       </c>
@@ -11763,7 +11763,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
         <v>154</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:14" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
         <v>154</v>
       </c>
@@ -11797,7 +11797,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E17" t="s">
         <v>154</v>
       </c>
@@ -11814,7 +11814,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E18" t="s">
         <v>154</v>
       </c>
@@ -11831,7 +11831,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E19" t="s">
         <v>154</v>
       </c>
@@ -11848,7 +11848,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="20" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E20" t="s">
         <v>154</v>
       </c>
@@ -11865,7 +11865,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="21" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E21" t="s">
         <v>154</v>
       </c>
@@ -11882,7 +11882,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E22" t="s">
         <v>154</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="23" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E23" t="s">
         <v>154</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="24" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E24" t="s">
         <v>154</v>
       </c>
@@ -11933,7 +11933,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E25" t="s">
         <v>154</v>
       </c>
@@ -11950,7 +11950,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="26" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E26" t="s">
         <v>154</v>
       </c>
@@ -11967,7 +11967,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="27" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E27" t="s">
         <v>154</v>
       </c>
@@ -11984,7 +11984,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E28" t="s">
         <v>154</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E29" t="s">
         <v>154</v>
       </c>
@@ -12018,7 +12018,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E30" t="s">
         <v>154</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E31" t="s">
         <v>154</v>
       </c>
@@ -12052,7 +12052,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E32" t="s">
         <v>154</v>
       </c>
@@ -12069,7 +12069,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="5:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:10" x14ac:dyDescent="0.35">
       <c r="E33" t="s">
         <v>154</v>
       </c>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85AA639-E78C-4374-896F-B440DCF12F08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2BEA84-0F8E-412F-ABF2-0D9E74322239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -671,8 +671,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -776,7 +776,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,18 +827,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFD8E3F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -919,15 +913,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -935,39 +920,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="7">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -975,20 +956,18 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="12" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -997,10 +976,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Attrib" xfId="2" xr:uid="{16EBE39D-6598-42BD-A97C-1EF313EA2EC2}"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{B46BF257-55DB-413D-9B8E-80136AD91CC6}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1345,13 +1322,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226CF39-0357-4B21-823B-1B3093B14EE8}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:AK42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1360,7 +1338,7 @@
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:37" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
@@ -3763,25 +3741,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64845-990F-4F8F-9F7F-F4DBD3794313}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AF39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -4250,7 +4229,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4366,7 +4345,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4482,7 +4461,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4598,7 +4577,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4714,7 +4693,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4830,7 +4809,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4946,7 +4925,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5062,7 +5041,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5178,7 +5157,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5294,7 +5273,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5410,7 +5389,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5526,7 +5505,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5642,7 +5621,7 @@
         <v>0.14608329496284322</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5758,7 +5737,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5874,7 +5853,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -5989,7 +5968,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -6104,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -6219,7 +6198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -6335,7 +6314,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -6450,7 +6429,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -6565,7 +6544,7 @@
         <v>5.2992018186097681E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -6680,7 +6659,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -6796,7 +6775,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -6912,7 +6891,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -7028,7 +7007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -7144,7 +7123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -7260,7 +7239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -7375,7 +7354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -7490,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -7605,7 +7584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -7721,7 +7700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -7837,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -7953,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:32" ht="15" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -8076,13 +8055,14 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EEFD70-8C3B-4A33-8837-D811323F48D5}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:AD37"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
@@ -8113,7 +8093,7 @@
     <col min="31" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="C3" s="19" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -8227,12 +8207,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -8347,7 +8327,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -8464,7 +8444,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -8589,7 +8569,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
@@ -8597,7 +8577,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
@@ -8605,7 +8585,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
@@ -8613,7 +8593,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>89</v>
       </c>
@@ -8621,7 +8601,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>100</v>
       </c>
@@ -8629,7 +8609,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -8637,7 +8617,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>94</v>
       </c>
@@ -8645,7 +8625,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -8653,7 +8633,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
@@ -8661,7 +8641,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>79</v>
       </c>
@@ -8669,7 +8649,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>80</v>
       </c>
@@ -8677,7 +8657,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -8685,7 +8665,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -8693,7 +8673,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
@@ -8701,7 +8681,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>82</v>
       </c>
@@ -8709,7 +8689,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>96</v>
       </c>
@@ -8717,7 +8697,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
@@ -8725,7 +8705,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -8733,7 +8713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
@@ -8741,7 +8721,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
@@ -8749,7 +8729,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
@@ -8757,7 +8737,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>92</v>
       </c>
@@ -8765,7 +8745,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
@@ -8773,7 +8753,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>85</v>
       </c>
@@ -8781,7 +8761,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>86</v>
       </c>
@@ -8789,7 +8769,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -8797,7 +8777,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
@@ -8840,6 +8820,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10386,6 +10367,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="C4:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10408,7 +10390,7 @@
       <c r="J4" s="26"/>
       <c r="K4" s="26"/>
     </row>
-    <row r="5" spans="3:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:14" x14ac:dyDescent="0.25">
       <c r="C5" s="27" t="s">
         <v>65</v>
       </c>
@@ -11560,6 +11542,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2523A896-A3FC-4F9A-B5DF-A205D08521A3}">
+  <sheetPr codeName="Sheet6"/>
   <dimension ref="C3:N33"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,46 +8,75 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2BEA84-0F8E-412F-ABF2-0D9E74322239}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0425296F-D137-4445-B228-4074231E7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
-    <sheet name="REG_TRA_DEMANDS" sheetId="6" r:id="rId2"/>
-    <sheet name="Regions" sheetId="7" r:id="rId3"/>
-    <sheet name="DEMANDS" sheetId="1" r:id="rId4"/>
-    <sheet name="Residential" sheetId="8" r:id="rId5"/>
-    <sheet name="Services" sheetId="9" r:id="rId6"/>
+    <sheet name="Cover" sheetId="10" r:id="rId1"/>
+    <sheet name="BY-Demands" sheetId="5" r:id="rId2"/>
+    <sheet name="REG_TRA_DEMANDS" sheetId="6" r:id="rId3"/>
+    <sheet name="Regions" sheetId="7" r:id="rId4"/>
+    <sheet name="DEMANDS" sheetId="1" r:id="rId5"/>
+    <sheet name="Residential" sheetId="8" r:id="rId6"/>
+    <sheet name="Services" sheetId="9" r:id="rId7"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId8"/>
+  </externalReferences>
   <definedNames>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
-    <definedName name="__123Graph_AEUMILKPN" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="__123Graph_AEUMILKPN" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" hidden="1">#REF!</definedName>
-    <definedName name="_Regression_Y" localSheetId="0" hidden="1">#REF!</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_AutomaticResultsDisplayMode" hidden="1">2</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceConfidenceLevel" hidden="1">0.95</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePercentileToTest" hidden="1">0.9</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformMeanTest" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformPercentileTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergencePerformStdDeviationTest" hidden="1">FALSE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestAllOutputs" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTestingPeriod" hidden="1">100</definedName>
+    <definedName name="_AtRisk_SimSetting_ConvergenceTolerance" hidden="1">0.03</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdate" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_LiveUpdatePeriod" hidden="1">-1</definedName>
+    <definedName name="_AtRisk_SimSetting_RandomNumberGenerator" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_ReportsList" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SimNameCount" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_SmartSensitivityAnalysisEnabled" hidden="1">TRUE</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcBehavior" hidden="1">1</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStatic" hidden="1">0</definedName>
+    <definedName name="_AtRisk_SimSetting_StdRecalcWithoutRiskStaticPercentile" hidden="1">0.5</definedName>
     <definedName name="_Regression_Y" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" localSheetId="2" hidden="1">#REF!</definedName>
+    <definedName name="_Regression_Y" localSheetId="3" hidden="1">#REF!</definedName>
     <definedName name="_Regression_Y" hidden="1">#REF!</definedName>
+    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="aa" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="aa" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="aa" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec2" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec2" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elec3" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elec3" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elec3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="elecc" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="elecc" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="elecc" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="I_alku">"1.1."</definedName>
     <definedName name="I_loppu">"31.3."</definedName>
@@ -55,15 +84,53 @@
     <definedName name="II_loppu">"30.6."</definedName>
     <definedName name="III_alku">"1.7."</definedName>
     <definedName name="III_loppu">"30.9."</definedName>
+    <definedName name="IQ_FWD_CY" hidden="1">10001</definedName>
+    <definedName name="IQ_FWD_CY1" hidden="1">10002</definedName>
+    <definedName name="IQ_FWD_CY2" hidden="1">10003</definedName>
+    <definedName name="IQ_FWD_FY" hidden="1">1001</definedName>
+    <definedName name="IQ_FWD_FY1" hidden="1">1002</definedName>
+    <definedName name="IQ_FWD_FY2" hidden="1">1003</definedName>
+    <definedName name="IQ_FWD_Q" hidden="1">501</definedName>
+    <definedName name="IQ_FWD_Q1" hidden="1">502</definedName>
+    <definedName name="IQ_FWD_Q2" hidden="1">503</definedName>
+    <definedName name="IQ_LATESTK" hidden="1">1000</definedName>
+    <definedName name="IQ_LATESTQ" hidden="1">500</definedName>
+    <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
+    <definedName name="IQ_TODAY" hidden="1">0</definedName>
+    <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
     <definedName name="IV_alku">"1.10."</definedName>
     <definedName name="IV_loppu">"31.12."</definedName>
+    <definedName name="RiskAfterRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskAfterSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeRecalcMacro" hidden="1">""</definedName>
+    <definedName name="RiskBeforeSimMacro" hidden="1">""</definedName>
+    <definedName name="RiskCollectDistributionSamples" hidden="1">2</definedName>
+    <definedName name="RiskFixedSeed" hidden="1">2030000</definedName>
+    <definedName name="RiskHasSettings" hidden="1">5</definedName>
+    <definedName name="RiskMinimizeOnStart" hidden="1">FALSE</definedName>
+    <definedName name="RiskMonitorConvergence" hidden="1">FALSE</definedName>
+    <definedName name="RiskNumIterations" hidden="1">10000</definedName>
+    <definedName name="RiskNumSimulations" hidden="1">1</definedName>
+    <definedName name="RiskPauseOnError" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunAfterSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeRecalcMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskRunBeforeSimMacro" hidden="1">FALSE</definedName>
+    <definedName name="RiskSamplingType" hidden="1">3</definedName>
+    <definedName name="RiskStandardRecalc" hidden="1">2</definedName>
+    <definedName name="RiskUpdateDisplay" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseDifferentSeedForEachSim" hidden="1">FALSE</definedName>
+    <definedName name="RiskUseFixedSeed" hidden="1">TRUE</definedName>
+    <definedName name="RiskUseMultipleCPUs" hidden="1">FALSE</definedName>
+    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="table6" localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="table6" localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="table6" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="0" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
-    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="1" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." localSheetId="2" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
+    <definedName name="wrn.Electricity._.Questionnaire." localSheetId="3" hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
     <definedName name="wrn.Electricity._.Questionnaire." hidden="1">{#N/A,#N/A,FALSE,"Notes";#N/A,#N/A,FALSE,"Table1";#N/A,#N/A,FALSE,"Table2";#N/A,#N/A,FALSE,"Table3";#N/A,#N/A,FALSE,"Table4";#N/A,#N/A,FALSE,"Table5";#N/A,#N/A,FALSE,"Table6a";#N/A,#N/A,FALSE,"Table6b";#N/A,#N/A,FALSE,"Table6c";#N/A,#N/A,FALSE,"Table7a";#N/A,#N/A,FALSE,"Table7b";#N/A,#N/A,FALSE,"Table8a";#N/A,#N/A,FALSE,"Table8b";#N/A,#N/A,FALSE,"Table8c";#N/A,#N/A,FALSE,"Tables 9a-c";#N/A,#N/A,FALSE,"Tables 9d-f";#N/A,#N/A,FALSE,"Table 9g";#N/A,#N/A,FALSE,"Table 9h-j";#N/A,#N/A,FALSE,"Remarks"}</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -84,7 +151,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="203">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -664,17 +731,66 @@
   <si>
     <t>TS_Filter</t>
   </si>
+  <si>
+    <t>TIMES-Ireland Model</t>
+  </si>
+  <si>
+    <t>Document type:</t>
+  </si>
+  <si>
+    <t>Template type</t>
+  </si>
+  <si>
+    <t>Sector(s):</t>
+  </si>
+  <si>
+    <t>Sector name</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>Brief description of what this file is for</t>
+  </si>
+  <si>
+    <t>Original developer(s):</t>
+  </si>
+  <si>
+    <t>Full Name(s) (Affiliation, email)</t>
+  </si>
+  <si>
+    <t>Current maintainer(s):</t>
+  </si>
+  <si>
+    <t>Part of TIM version:</t>
+  </si>
+  <si>
+    <t>Model repository:</t>
+  </si>
+  <si>
+    <t>https://github.com/MaREI-EPMG/TIMES-Ireland-model</t>
+  </si>
+  <si>
+    <t>Licence:</t>
+  </si>
+  <si>
+    <t>CC BY-NC-SA 4.0 (unless specified otherwise)</t>
+  </si>
+  <si>
+    <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,8 +891,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -828,6 +995,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD8E3F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -920,10 +1105,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -975,9 +1162,65 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="14" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0CB343EE-8EF5-4039-B056-A39AE7D2D8C5}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -997,6 +1240,315 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14325</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38212</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{792F19A4-F3C1-4060-A832-2941269350EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="1"/>
+          <a:ext cx="5796000" cy="2324211"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2683</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5461D6A9-7CA5-4325-867E-528A650F94B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4620" t="8935" r="7748" b="12927"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="8810625"/>
+          <a:ext cx="1431433" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>509323</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>312511</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67D43401-6975-4CA9-A65A-90EF5B8A8F54}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1957123" y="8810625"/>
+          <a:ext cx="1250988" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1408474</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FAB907B-9BC9-4178-9F84-712BE42968BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733801" y="8810625"/>
+          <a:ext cx="2018073" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>732675</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>109275</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{794404CF-18CA-4F08-BF21-7F6289AD5541}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="1369" t="6565" r="4012" b="6338"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3628275" y="7962900"/>
+          <a:ext cx="1400925" cy="576000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE2046A1-69C1-440E-B2EB-7E1744F60DEA}"/>
+            </a:ext>
+            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
+              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B1489C0F-1609-4587-A5BA-D0B99739EA08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4000" t="26200" r="4000" b="26199"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="666750" y="8077200"/>
+          <a:ext cx="1676400" cy="428625"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1057,6 +1609,19 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Cover"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1321,6 +1886,2857 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4CF3712-19CC-4E57-A353-BD088DDFAAD0}">
+  <sheetPr codeName="Sheet7"/>
+  <dimension ref="A1:Z99"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="4" width="21.7109375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="14.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="3" customWidth="1"/>
+    <col min="8" max="10" width="8.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="10" style="3" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" style="3" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" style="3" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="40"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="41"/>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="40"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41"/>
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="40"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
+      <c r="O5" s="41"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="41"/>
+      <c r="U5" s="41"/>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="41"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="40"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="40"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="41"/>
+      <c r="Q6" s="41"/>
+      <c r="R6" s="41"/>
+      <c r="S6" s="41"/>
+      <c r="T6" s="41"/>
+      <c r="U6" s="41"/>
+      <c r="V6" s="41"/>
+      <c r="W6" s="41"/>
+      <c r="X6" s="41"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="41"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="40"/>
+      <c r="B7" s="40"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
+      <c r="O7" s="41"/>
+      <c r="P7" s="41"/>
+      <c r="Q7" s="41"/>
+      <c r="R7" s="41"/>
+      <c r="S7" s="41"/>
+      <c r="T7" s="41"/>
+      <c r="U7" s="41"/>
+      <c r="V7" s="41"/>
+      <c r="W7" s="41"/>
+      <c r="X7" s="41"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="40"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="41"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
+      <c r="M8" s="41"/>
+      <c r="N8" s="41"/>
+      <c r="O8" s="41"/>
+      <c r="P8" s="41"/>
+      <c r="Q8" s="41"/>
+      <c r="R8" s="41"/>
+      <c r="S8" s="41"/>
+      <c r="T8" s="41"/>
+      <c r="U8" s="41"/>
+      <c r="V8" s="41"/>
+      <c r="W8" s="41"/>
+      <c r="X8" s="41"/>
+      <c r="Y8" s="41"/>
+      <c r="Z8" s="41"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="40"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="40"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="41"/>
+      <c r="O9" s="41"/>
+      <c r="P9" s="41"/>
+      <c r="Q9" s="41"/>
+      <c r="R9" s="41"/>
+      <c r="S9" s="41"/>
+      <c r="T9" s="41"/>
+      <c r="U9" s="41"/>
+      <c r="V9" s="41"/>
+      <c r="W9" s="41"/>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="41"/>
+      <c r="Z9" s="41"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="41"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="41"/>
+      <c r="O10" s="41"/>
+      <c r="P10" s="41"/>
+      <c r="Q10" s="41"/>
+      <c r="R10" s="41"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="41"/>
+      <c r="U10" s="41"/>
+      <c r="V10" s="41"/>
+      <c r="W10" s="41"/>
+      <c r="X10" s="41"/>
+      <c r="Y10" s="41"/>
+      <c r="Z10" s="41"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="40"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="41"/>
+      <c r="O11" s="41"/>
+      <c r="P11" s="41"/>
+      <c r="Q11" s="41"/>
+      <c r="R11" s="41"/>
+      <c r="S11" s="41"/>
+      <c r="T11" s="41"/>
+      <c r="U11" s="41"/>
+      <c r="V11" s="41"/>
+      <c r="W11" s="41"/>
+      <c r="X11" s="41"/>
+      <c r="Y11" s="41"/>
+      <c r="Z11" s="41"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="40"/>
+      <c r="C12" s="40"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="41"/>
+      <c r="H12" s="41"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="41"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
+      <c r="M12" s="41"/>
+      <c r="N12" s="41"/>
+      <c r="O12" s="41"/>
+      <c r="P12" s="41"/>
+      <c r="Q12" s="41"/>
+      <c r="R12" s="41"/>
+      <c r="S12" s="41"/>
+      <c r="T12" s="41"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="41"/>
+      <c r="W12" s="41"/>
+      <c r="X12" s="41"/>
+      <c r="Y12" s="41"/>
+      <c r="Z12" s="41"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="40"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="41"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="41"/>
+      <c r="Q13" s="41"/>
+      <c r="R13" s="41"/>
+      <c r="S13" s="41"/>
+      <c r="T13" s="41"/>
+      <c r="U13" s="41"/>
+      <c r="V13" s="41"/>
+      <c r="W13" s="41"/>
+      <c r="X13" s="41"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="40"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="41"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
+      <c r="M14" s="41"/>
+      <c r="N14" s="41"/>
+      <c r="O14" s="41"/>
+      <c r="P14" s="41"/>
+      <c r="Q14" s="41"/>
+      <c r="R14" s="41"/>
+      <c r="S14" s="41"/>
+      <c r="T14" s="41"/>
+      <c r="U14" s="41"/>
+      <c r="V14" s="41"/>
+      <c r="W14" s="41"/>
+      <c r="X14" s="41"/>
+      <c r="Y14" s="41"/>
+      <c r="Z14" s="41"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="40"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="41"/>
+      <c r="N15" s="41"/>
+      <c r="O15" s="41"/>
+      <c r="P15" s="41"/>
+      <c r="Q15" s="41"/>
+      <c r="R15" s="41"/>
+      <c r="S15" s="41"/>
+      <c r="T15" s="41"/>
+      <c r="U15" s="41"/>
+      <c r="V15" s="41"/>
+      <c r="W15" s="41"/>
+      <c r="X15" s="41"/>
+      <c r="Y15" s="41"/>
+      <c r="Z15" s="41"/>
+    </row>
+    <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="42" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="41"/>
+      <c r="W16" s="41"/>
+      <c r="X16" s="41"/>
+      <c r="Y16" s="41"/>
+      <c r="Z16" s="41"/>
+    </row>
+    <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+      <c r="R17" s="41"/>
+      <c r="S17" s="41"/>
+      <c r="T17" s="41"/>
+      <c r="U17" s="41"/>
+      <c r="V17" s="41"/>
+      <c r="W17" s="41"/>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="41"/>
+      <c r="Z17" s="41"/>
+    </row>
+    <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="41"/>
+      <c r="S18" s="41"/>
+      <c r="T18" s="41"/>
+      <c r="U18" s="41"/>
+      <c r="V18" s="41"/>
+      <c r="W18" s="41"/>
+      <c r="X18" s="41"/>
+      <c r="Y18" s="41"/>
+      <c r="Z18" s="41"/>
+    </row>
+    <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="41"/>
+      <c r="N19" s="41"/>
+      <c r="O19" s="41"/>
+      <c r="P19" s="41"/>
+      <c r="Q19" s="41"/>
+      <c r="R19" s="41"/>
+      <c r="S19" s="41"/>
+      <c r="T19" s="41"/>
+      <c r="U19" s="41"/>
+      <c r="V19" s="41"/>
+      <c r="W19" s="41"/>
+      <c r="X19" s="41"/>
+      <c r="Y19" s="41"/>
+      <c r="Z19" s="41"/>
+    </row>
+    <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="48" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="51"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="51"/>
+      <c r="J20" s="51"/>
+      <c r="K20" s="51"/>
+      <c r="L20" s="51"/>
+      <c r="M20" s="41"/>
+      <c r="N20" s="41"/>
+      <c r="O20" s="41"/>
+      <c r="P20" s="41"/>
+      <c r="Q20" s="41"/>
+      <c r="R20" s="41"/>
+      <c r="S20" s="41"/>
+      <c r="T20" s="41"/>
+      <c r="U20" s="41"/>
+      <c r="V20" s="41"/>
+      <c r="W20" s="41"/>
+      <c r="X20" s="41"/>
+      <c r="Y20" s="41"/>
+      <c r="Z20" s="41"/>
+    </row>
+    <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="41"/>
+      <c r="R21" s="41"/>
+      <c r="S21" s="41"/>
+      <c r="T21" s="41"/>
+      <c r="U21" s="41"/>
+      <c r="V21" s="41"/>
+      <c r="W21" s="41"/>
+      <c r="X21" s="41"/>
+      <c r="Y21" s="41"/>
+      <c r="Z21" s="41"/>
+    </row>
+    <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="48"/>
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="51"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="51"/>
+      <c r="J22" s="51"/>
+      <c r="K22" s="51"/>
+      <c r="L22" s="51"/>
+      <c r="M22" s="41"/>
+      <c r="N22" s="41"/>
+      <c r="O22" s="41"/>
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="41"/>
+      <c r="S22" s="41"/>
+      <c r="T22" s="41"/>
+      <c r="U22" s="41"/>
+      <c r="V22" s="41"/>
+      <c r="W22" s="41"/>
+      <c r="X22" s="41"/>
+      <c r="Y22" s="41"/>
+      <c r="Z22" s="41"/>
+    </row>
+    <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="48" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="41"/>
+      <c r="Y23" s="41"/>
+      <c r="Z23" s="41"/>
+    </row>
+    <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="48"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="41"/>
+      <c r="N24" s="41"/>
+      <c r="O24" s="41"/>
+      <c r="P24" s="41"/>
+      <c r="Q24" s="41"/>
+      <c r="R24" s="41"/>
+      <c r="S24" s="41"/>
+      <c r="T24" s="41"/>
+      <c r="U24" s="41"/>
+      <c r="V24" s="41"/>
+      <c r="W24" s="41"/>
+      <c r="X24" s="41"/>
+      <c r="Y24" s="41"/>
+      <c r="Z24" s="41"/>
+    </row>
+    <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="48"/>
+      <c r="B25" s="52"/>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
+      <c r="M25" s="41"/>
+      <c r="N25" s="41"/>
+      <c r="O25" s="41"/>
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="41"/>
+      <c r="S25" s="41"/>
+      <c r="T25" s="41"/>
+      <c r="U25" s="41"/>
+      <c r="V25" s="41"/>
+      <c r="W25" s="41"/>
+      <c r="X25" s="41"/>
+      <c r="Y25" s="41"/>
+      <c r="Z25" s="41"/>
+    </row>
+    <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="B26" s="49" t="s">
+        <v>195</v>
+      </c>
+      <c r="C26" s="49"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="41"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
+      <c r="M26" s="41"/>
+      <c r="N26" s="41"/>
+      <c r="O26" s="41"/>
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="41"/>
+      <c r="S26" s="41"/>
+      <c r="T26" s="41"/>
+      <c r="U26" s="41"/>
+      <c r="V26" s="41"/>
+      <c r="W26" s="41"/>
+      <c r="X26" s="41"/>
+      <c r="Y26" s="41"/>
+      <c r="Z26" s="41"/>
+    </row>
+    <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="48"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="41"/>
+      <c r="N27" s="41"/>
+      <c r="O27" s="41"/>
+      <c r="P27" s="41"/>
+      <c r="Q27" s="41"/>
+      <c r="R27" s="41"/>
+      <c r="S27" s="41"/>
+      <c r="T27" s="41"/>
+      <c r="U27" s="41"/>
+      <c r="V27" s="41"/>
+      <c r="W27" s="41"/>
+      <c r="X27" s="41"/>
+      <c r="Y27" s="41"/>
+      <c r="Z27" s="41"/>
+    </row>
+    <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="48"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="41"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
+      <c r="M28" s="41"/>
+      <c r="N28" s="41"/>
+      <c r="O28" s="41"/>
+      <c r="P28" s="41"/>
+      <c r="Q28" s="41"/>
+      <c r="R28" s="41"/>
+      <c r="S28" s="41"/>
+      <c r="T28" s="41"/>
+      <c r="U28" s="41"/>
+      <c r="V28" s="41"/>
+      <c r="W28" s="41"/>
+      <c r="X28" s="41"/>
+      <c r="Y28" s="41"/>
+      <c r="Z28" s="41"/>
+    </row>
+    <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="B29" s="53">
+        <v>1</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="41"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="41"/>
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="41"/>
+      <c r="S29" s="41"/>
+      <c r="T29" s="41"/>
+      <c r="U29" s="41"/>
+      <c r="V29" s="41"/>
+      <c r="W29" s="41"/>
+      <c r="X29" s="41"/>
+      <c r="Y29" s="41"/>
+      <c r="Z29" s="41"/>
+    </row>
+    <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="41"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
+      <c r="M30" s="41"/>
+      <c r="N30" s="41"/>
+      <c r="O30" s="41"/>
+      <c r="P30" s="41"/>
+      <c r="Q30" s="41"/>
+      <c r="R30" s="41"/>
+      <c r="S30" s="41"/>
+      <c r="T30" s="41"/>
+      <c r="U30" s="41"/>
+      <c r="V30" s="41"/>
+      <c r="W30" s="41"/>
+      <c r="X30" s="41"/>
+      <c r="Y30" s="41"/>
+      <c r="Z30" s="41"/>
+    </row>
+    <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="48" t="s">
+        <v>200</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="41"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41"/>
+      <c r="X31" s="41"/>
+      <c r="Y31" s="41"/>
+      <c r="Z31" s="41"/>
+    </row>
+    <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="56"/>
+      <c r="B32" s="57" t="s">
+        <v>202</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="41"/>
+      <c r="F32" s="41"/>
+      <c r="G32" s="41"/>
+      <c r="H32" s="41"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="41"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="41"/>
+      <c r="N32" s="41"/>
+      <c r="O32" s="41"/>
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="41"/>
+      <c r="S32" s="41"/>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41"/>
+      <c r="X32" s="41"/>
+      <c r="Y32" s="41"/>
+      <c r="Z32" s="41"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A33" s="40"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="40"/>
+      <c r="D33" s="40"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
+      <c r="M33" s="41"/>
+      <c r="N33" s="41"/>
+      <c r="O33" s="41"/>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="41"/>
+      <c r="S33" s="41"/>
+      <c r="T33" s="41"/>
+      <c r="U33" s="41"/>
+      <c r="V33" s="41"/>
+      <c r="W33" s="41"/>
+      <c r="X33" s="41"/>
+      <c r="Y33" s="41"/>
+      <c r="Z33" s="41"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
+      <c r="M34" s="41"/>
+      <c r="N34" s="41"/>
+      <c r="O34" s="41"/>
+      <c r="P34" s="41"/>
+      <c r="Q34" s="41"/>
+      <c r="R34" s="41"/>
+      <c r="S34" s="41"/>
+      <c r="T34" s="41"/>
+      <c r="U34" s="41"/>
+      <c r="V34" s="41"/>
+      <c r="W34" s="41"/>
+      <c r="X34" s="41"/>
+      <c r="Y34" s="41"/>
+      <c r="Z34" s="41"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A35" s="40"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="40"/>
+      <c r="D35" s="40"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="41"/>
+      <c r="G35" s="41"/>
+      <c r="H35" s="41"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="41"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
+      <c r="M35" s="41"/>
+      <c r="N35" s="41"/>
+      <c r="O35" s="41"/>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="41"/>
+      <c r="S35" s="41"/>
+      <c r="T35" s="41"/>
+      <c r="U35" s="41"/>
+      <c r="V35" s="41"/>
+      <c r="W35" s="41"/>
+      <c r="X35" s="41"/>
+      <c r="Y35" s="41"/>
+      <c r="Z35" s="41"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="U36" s="41"/>
+      <c r="V36" s="41"/>
+      <c r="W36" s="41"/>
+      <c r="X36" s="41"/>
+      <c r="Y36" s="41"/>
+      <c r="Z36" s="41"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A37" s="40"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="41"/>
+      <c r="F37" s="41"/>
+      <c r="G37" s="41"/>
+      <c r="H37" s="41"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="41"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
+      <c r="M37" s="41"/>
+      <c r="N37" s="41"/>
+      <c r="O37" s="41"/>
+      <c r="P37" s="41"/>
+      <c r="Q37" s="41"/>
+      <c r="R37" s="41"/>
+      <c r="S37" s="41"/>
+      <c r="T37" s="41"/>
+      <c r="U37" s="41"/>
+      <c r="V37" s="41"/>
+      <c r="W37" s="41"/>
+      <c r="X37" s="41"/>
+      <c r="Y37" s="41"/>
+      <c r="Z37" s="41"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="41"/>
+      <c r="F38" s="41"/>
+      <c r="G38" s="41"/>
+      <c r="H38" s="41"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="41"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
+      <c r="M38" s="41"/>
+      <c r="N38" s="41"/>
+      <c r="O38" s="41"/>
+      <c r="P38" s="41"/>
+      <c r="Q38" s="41"/>
+      <c r="R38" s="41"/>
+      <c r="S38" s="41"/>
+      <c r="T38" s="41"/>
+      <c r="U38" s="41"/>
+      <c r="V38" s="41"/>
+      <c r="W38" s="41"/>
+      <c r="X38" s="41"/>
+      <c r="Y38" s="41"/>
+      <c r="Z38" s="41"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A39" s="40"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="40"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="41"/>
+      <c r="F39" s="41"/>
+      <c r="G39" s="41"/>
+      <c r="H39" s="41"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="41"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
+      <c r="M39" s="41"/>
+      <c r="N39" s="41"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="41"/>
+      <c r="Q39" s="41"/>
+      <c r="R39" s="41"/>
+      <c r="S39" s="41"/>
+      <c r="T39" s="41"/>
+      <c r="U39" s="41"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="41"/>
+      <c r="Y39" s="41"/>
+      <c r="Z39" s="41"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="41"/>
+      <c r="F40" s="41"/>
+      <c r="G40" s="41"/>
+      <c r="H40" s="41"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="41"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
+      <c r="M40" s="41"/>
+      <c r="N40" s="41"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="41"/>
+      <c r="Q40" s="41"/>
+      <c r="R40" s="41"/>
+      <c r="S40" s="41"/>
+      <c r="T40" s="41"/>
+      <c r="U40" s="41"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="41"/>
+      <c r="Y40" s="41"/>
+      <c r="Z40" s="41"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A41" s="40"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="40"/>
+      <c r="D41" s="40"/>
+      <c r="E41" s="41"/>
+      <c r="F41" s="41"/>
+      <c r="G41" s="41"/>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="41"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
+      <c r="M41" s="41"/>
+      <c r="N41" s="41"/>
+      <c r="O41" s="41"/>
+      <c r="P41" s="41"/>
+      <c r="Q41" s="41"/>
+      <c r="R41" s="41"/>
+      <c r="S41" s="41"/>
+      <c r="T41" s="41"/>
+      <c r="U41" s="41"/>
+      <c r="V41" s="41"/>
+      <c r="W41" s="41"/>
+      <c r="X41" s="41"/>
+      <c r="Y41" s="41"/>
+      <c r="Z41" s="41"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="41"/>
+      <c r="G42" s="41"/>
+      <c r="H42" s="41"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="41"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
+      <c r="M42" s="41"/>
+      <c r="N42" s="41"/>
+      <c r="O42" s="41"/>
+      <c r="P42" s="41"/>
+      <c r="Q42" s="41"/>
+      <c r="R42" s="41"/>
+      <c r="S42" s="41"/>
+      <c r="T42" s="41"/>
+      <c r="U42" s="41"/>
+      <c r="V42" s="41"/>
+      <c r="W42" s="41"/>
+      <c r="X42" s="41"/>
+      <c r="Y42" s="41"/>
+      <c r="Z42" s="41"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A43" s="41"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="41"/>
+      <c r="N43" s="41"/>
+      <c r="O43" s="41"/>
+      <c r="P43" s="41"/>
+      <c r="Q43" s="41"/>
+      <c r="R43" s="41"/>
+      <c r="S43" s="41"/>
+      <c r="T43" s="41"/>
+      <c r="U43" s="41"/>
+      <c r="V43" s="41"/>
+      <c r="W43" s="41"/>
+      <c r="X43" s="41"/>
+      <c r="Y43" s="41"/>
+      <c r="Z43" s="41"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="41"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="41"/>
+      <c r="F44" s="41"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="41"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="41"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
+      <c r="M44" s="41"/>
+      <c r="N44" s="41"/>
+      <c r="O44" s="41"/>
+      <c r="P44" s="41"/>
+      <c r="Q44" s="41"/>
+      <c r="R44" s="41"/>
+      <c r="S44" s="41"/>
+      <c r="T44" s="41"/>
+      <c r="U44" s="41"/>
+      <c r="V44" s="41"/>
+      <c r="W44" s="41"/>
+      <c r="X44" s="41"/>
+      <c r="Y44" s="41"/>
+      <c r="Z44" s="41"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="41"/>
+      <c r="B45" s="41"/>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="41"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="41"/>
+      <c r="H45" s="41"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="41"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
+      <c r="M45" s="41"/>
+      <c r="N45" s="41"/>
+      <c r="O45" s="41"/>
+      <c r="P45" s="41"/>
+      <c r="Q45" s="41"/>
+      <c r="R45" s="41"/>
+      <c r="S45" s="41"/>
+      <c r="T45" s="41"/>
+      <c r="U45" s="41"/>
+      <c r="V45" s="41"/>
+      <c r="W45" s="41"/>
+      <c r="X45" s="41"/>
+      <c r="Y45" s="41"/>
+      <c r="Z45" s="41"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="41"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="41"/>
+      <c r="F46" s="41"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="41"/>
+      <c r="N46" s="41"/>
+      <c r="O46" s="41"/>
+      <c r="P46" s="41"/>
+      <c r="Q46" s="41"/>
+      <c r="R46" s="41"/>
+      <c r="S46" s="41"/>
+      <c r="T46" s="41"/>
+      <c r="U46" s="41"/>
+      <c r="V46" s="41"/>
+      <c r="W46" s="41"/>
+      <c r="X46" s="41"/>
+      <c r="Y46" s="41"/>
+      <c r="Z46" s="41"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="41"/>
+      <c r="B47" s="41"/>
+      <c r="C47" s="41"/>
+      <c r="D47" s="41"/>
+      <c r="E47" s="41"/>
+      <c r="F47" s="41"/>
+      <c r="G47" s="41"/>
+      <c r="H47" s="41"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="41"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
+      <c r="M47" s="41"/>
+      <c r="N47" s="41"/>
+      <c r="O47" s="41"/>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="41"/>
+      <c r="S47" s="41"/>
+      <c r="T47" s="41"/>
+      <c r="U47" s="41"/>
+      <c r="V47" s="41"/>
+      <c r="W47" s="41"/>
+      <c r="X47" s="41"/>
+      <c r="Y47" s="41"/>
+      <c r="Z47" s="41"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="41"/>
+      <c r="B48" s="41"/>
+      <c r="C48" s="41"/>
+      <c r="D48" s="41"/>
+      <c r="E48" s="41"/>
+      <c r="F48" s="41"/>
+      <c r="G48" s="41"/>
+      <c r="H48" s="41"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="41"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
+      <c r="M48" s="41"/>
+      <c r="N48" s="41"/>
+      <c r="O48" s="41"/>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="41"/>
+      <c r="S48" s="41"/>
+      <c r="T48" s="41"/>
+      <c r="U48" s="41"/>
+      <c r="V48" s="41"/>
+      <c r="W48" s="41"/>
+      <c r="X48" s="41"/>
+      <c r="Y48" s="41"/>
+      <c r="Z48" s="41"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A49" s="41"/>
+      <c r="B49" s="41"/>
+      <c r="C49" s="41"/>
+      <c r="D49" s="41"/>
+      <c r="E49" s="41"/>
+      <c r="F49" s="41"/>
+      <c r="G49" s="41"/>
+      <c r="H49" s="41"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="41"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
+      <c r="M49" s="41"/>
+      <c r="N49" s="41"/>
+      <c r="O49" s="41"/>
+      <c r="P49" s="41"/>
+      <c r="Q49" s="41"/>
+      <c r="R49" s="41"/>
+      <c r="S49" s="41"/>
+      <c r="T49" s="41"/>
+      <c r="U49" s="41"/>
+      <c r="V49" s="41"/>
+      <c r="W49" s="41"/>
+      <c r="X49" s="41"/>
+      <c r="Y49" s="41"/>
+      <c r="Z49" s="41"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A50" s="41"/>
+      <c r="B50" s="41"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="41"/>
+      <c r="E50" s="41"/>
+      <c r="F50" s="41"/>
+      <c r="G50" s="41"/>
+      <c r="H50" s="41"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="41"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
+      <c r="M50" s="41"/>
+      <c r="N50" s="41"/>
+      <c r="O50" s="41"/>
+      <c r="P50" s="41"/>
+      <c r="Q50" s="41"/>
+      <c r="R50" s="41"/>
+      <c r="S50" s="41"/>
+      <c r="T50" s="41"/>
+      <c r="U50" s="41"/>
+      <c r="V50" s="41"/>
+      <c r="W50" s="41"/>
+      <c r="X50" s="41"/>
+      <c r="Y50" s="41"/>
+      <c r="Z50" s="41"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A51" s="41"/>
+      <c r="B51" s="41"/>
+      <c r="C51" s="41"/>
+      <c r="D51" s="41"/>
+      <c r="E51" s="41"/>
+      <c r="F51" s="41"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="41"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="41"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
+      <c r="M51" s="41"/>
+      <c r="N51" s="41"/>
+      <c r="O51" s="41"/>
+      <c r="P51" s="41"/>
+      <c r="Q51" s="41"/>
+      <c r="R51" s="41"/>
+      <c r="S51" s="41"/>
+      <c r="T51" s="41"/>
+      <c r="U51" s="41"/>
+      <c r="V51" s="41"/>
+      <c r="W51" s="41"/>
+      <c r="X51" s="41"/>
+      <c r="Y51" s="41"/>
+      <c r="Z51" s="41"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A52" s="41"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="41"/>
+      <c r="F52" s="41"/>
+      <c r="G52" s="41"/>
+      <c r="H52" s="41"/>
+      <c r="I52" s="41"/>
+      <c r="J52" s="41"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
+      <c r="M52" s="41"/>
+      <c r="N52" s="41"/>
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="41"/>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="41"/>
+      <c r="Y52" s="41"/>
+      <c r="Z52" s="41"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A53" s="41"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="41"/>
+      <c r="F53" s="41"/>
+      <c r="G53" s="41"/>
+      <c r="H53" s="41"/>
+      <c r="I53" s="41"/>
+      <c r="J53" s="41"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
+      <c r="M53" s="41"/>
+      <c r="N53" s="41"/>
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="41"/>
+      <c r="Y53" s="41"/>
+      <c r="Z53" s="41"/>
+    </row>
+    <row r="54" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A54" s="41"/>
+      <c r="B54" s="41"/>
+      <c r="C54" s="41"/>
+      <c r="D54" s="41"/>
+      <c r="E54" s="41"/>
+      <c r="F54" s="41"/>
+      <c r="G54" s="41"/>
+      <c r="H54" s="41"/>
+      <c r="I54" s="41"/>
+      <c r="J54" s="41"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
+      <c r="M54" s="41"/>
+      <c r="N54" s="41"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="41"/>
+      <c r="Y54" s="41"/>
+      <c r="Z54" s="41"/>
+    </row>
+    <row r="55" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A55" s="41"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
+    </row>
+    <row r="56" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A56" s="41"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="41"/>
+      <c r="D56" s="41"/>
+      <c r="E56" s="41"/>
+      <c r="F56" s="41"/>
+      <c r="G56" s="41"/>
+      <c r="H56" s="41"/>
+      <c r="I56" s="41"/>
+      <c r="J56" s="41"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
+      <c r="M56" s="41"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="41"/>
+      <c r="Y56" s="41"/>
+      <c r="Z56" s="41"/>
+    </row>
+    <row r="57" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A57" s="41"/>
+      <c r="B57" s="41"/>
+      <c r="C57" s="41"/>
+      <c r="D57" s="41"/>
+      <c r="E57" s="41"/>
+      <c r="F57" s="41"/>
+      <c r="G57" s="41"/>
+      <c r="H57" s="41"/>
+      <c r="I57" s="41"/>
+      <c r="J57" s="41"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
+      <c r="M57" s="41"/>
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="41"/>
+      <c r="W57" s="41"/>
+      <c r="X57" s="41"/>
+      <c r="Y57" s="41"/>
+      <c r="Z57" s="41"/>
+    </row>
+    <row r="58" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A58" s="41"/>
+      <c r="B58" s="41"/>
+      <c r="C58" s="41"/>
+      <c r="D58" s="41"/>
+      <c r="E58" s="41"/>
+      <c r="F58" s="41"/>
+      <c r="G58" s="41"/>
+      <c r="H58" s="41"/>
+      <c r="I58" s="41"/>
+      <c r="J58" s="41"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
+      <c r="M58" s="41"/>
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="41"/>
+      <c r="X58" s="41"/>
+      <c r="Y58" s="41"/>
+      <c r="Z58" s="41"/>
+    </row>
+    <row r="59" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A59" s="41"/>
+      <c r="B59" s="41"/>
+      <c r="C59" s="41"/>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="41"/>
+      <c r="G59" s="41"/>
+      <c r="H59" s="41"/>
+      <c r="I59" s="41"/>
+      <c r="J59" s="41"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
+      <c r="M59" s="41"/>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="41"/>
+      <c r="X59" s="41"/>
+      <c r="Y59" s="41"/>
+      <c r="Z59" s="41"/>
+    </row>
+    <row r="60" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A60" s="41"/>
+      <c r="B60" s="41"/>
+      <c r="C60" s="41"/>
+      <c r="D60" s="41"/>
+      <c r="E60" s="41"/>
+      <c r="F60" s="41"/>
+      <c r="G60" s="41"/>
+      <c r="H60" s="41"/>
+      <c r="I60" s="41"/>
+      <c r="J60" s="41"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
+      <c r="M60" s="41"/>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
+      <c r="W60" s="41"/>
+      <c r="X60" s="41"/>
+      <c r="Y60" s="41"/>
+      <c r="Z60" s="41"/>
+    </row>
+    <row r="61" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A61" s="41"/>
+      <c r="B61" s="41"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="41"/>
+      <c r="F61" s="41"/>
+      <c r="G61" s="41"/>
+      <c r="H61" s="41"/>
+      <c r="I61" s="41"/>
+      <c r="J61" s="41"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
+      <c r="M61" s="41"/>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="41"/>
+      <c r="W61" s="41"/>
+      <c r="X61" s="41"/>
+      <c r="Y61" s="41"/>
+      <c r="Z61" s="41"/>
+    </row>
+    <row r="62" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A62" s="41"/>
+      <c r="B62" s="41"/>
+      <c r="C62" s="41"/>
+      <c r="D62" s="41"/>
+      <c r="E62" s="41"/>
+      <c r="F62" s="41"/>
+      <c r="G62" s="41"/>
+      <c r="H62" s="41"/>
+      <c r="I62" s="41"/>
+      <c r="J62" s="41"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
+      <c r="M62" s="41"/>
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
+      <c r="V62" s="41"/>
+      <c r="W62" s="41"/>
+      <c r="X62" s="41"/>
+      <c r="Y62" s="41"/>
+      <c r="Z62" s="41"/>
+    </row>
+    <row r="63" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A63" s="41"/>
+      <c r="B63" s="41"/>
+      <c r="C63" s="41"/>
+      <c r="D63" s="41"/>
+      <c r="E63" s="41"/>
+      <c r="F63" s="41"/>
+      <c r="G63" s="41"/>
+      <c r="H63" s="41"/>
+      <c r="I63" s="41"/>
+      <c r="J63" s="41"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
+      <c r="M63" s="41"/>
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="41"/>
+      <c r="U63" s="41"/>
+      <c r="V63" s="41"/>
+      <c r="W63" s="41"/>
+      <c r="X63" s="41"/>
+      <c r="Y63" s="41"/>
+      <c r="Z63" s="41"/>
+    </row>
+    <row r="64" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A64" s="41"/>
+      <c r="B64" s="41"/>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41"/>
+      <c r="E64" s="41"/>
+      <c r="F64" s="41"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="41"/>
+      <c r="I64" s="41"/>
+      <c r="J64" s="41"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
+      <c r="M64" s="41"/>
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="41"/>
+      <c r="X64" s="41"/>
+      <c r="Y64" s="41"/>
+      <c r="Z64" s="41"/>
+    </row>
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A65" s="41"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41"/>
+      <c r="E65" s="41"/>
+      <c r="F65" s="41"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="41"/>
+      <c r="I65" s="41"/>
+      <c r="J65" s="41"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
+      <c r="M65" s="41"/>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="41"/>
+      <c r="X65" s="41"/>
+      <c r="Y65" s="41"/>
+      <c r="Z65" s="41"/>
+    </row>
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A66" s="41"/>
+      <c r="B66" s="41"/>
+      <c r="C66" s="41"/>
+      <c r="D66" s="41"/>
+      <c r="E66" s="41"/>
+      <c r="F66" s="41"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="41"/>
+      <c r="I66" s="41"/>
+      <c r="J66" s="41"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="41"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="41"/>
+      <c r="Z66" s="41"/>
+    </row>
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A67" s="41"/>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="41"/>
+      <c r="J67" s="41"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
+      <c r="M67" s="41"/>
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="41"/>
+      <c r="W67" s="41"/>
+      <c r="X67" s="41"/>
+      <c r="Y67" s="41"/>
+      <c r="Z67" s="41"/>
+    </row>
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A68" s="41"/>
+      <c r="B68" s="41"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41"/>
+      <c r="E68" s="41"/>
+      <c r="F68" s="41"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="41"/>
+      <c r="I68" s="41"/>
+      <c r="J68" s="41"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
+      <c r="M68" s="41"/>
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
+      <c r="X68" s="41"/>
+      <c r="Y68" s="41"/>
+      <c r="Z68" s="41"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A69" s="41"/>
+      <c r="B69" s="41"/>
+      <c r="C69" s="41"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="41"/>
+      <c r="F69" s="41"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="41"/>
+      <c r="I69" s="41"/>
+      <c r="J69" s="41"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
+      <c r="M69" s="41"/>
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="41"/>
+      <c r="X69" s="41"/>
+      <c r="Y69" s="41"/>
+      <c r="Z69" s="41"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
+      <c r="C70" s="41"/>
+      <c r="D70" s="41"/>
+      <c r="E70" s="41"/>
+      <c r="F70" s="41"/>
+      <c r="G70" s="41"/>
+      <c r="H70" s="41"/>
+      <c r="I70" s="41"/>
+      <c r="J70" s="41"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
+      <c r="M70" s="41"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="41"/>
+      <c r="W70" s="41"/>
+      <c r="X70" s="41"/>
+      <c r="Y70" s="41"/>
+      <c r="Z70" s="41"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
+      <c r="C71" s="41"/>
+      <c r="D71" s="41"/>
+      <c r="E71" s="41"/>
+      <c r="F71" s="41"/>
+      <c r="G71" s="41"/>
+      <c r="H71" s="41"/>
+      <c r="I71" s="41"/>
+      <c r="J71" s="41"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
+      <c r="M71" s="41"/>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="41"/>
+      <c r="W71" s="41"/>
+      <c r="X71" s="41"/>
+      <c r="Y71" s="41"/>
+      <c r="Z71" s="41"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
+      <c r="C72" s="41"/>
+      <c r="D72" s="41"/>
+      <c r="E72" s="41"/>
+      <c r="F72" s="41"/>
+      <c r="G72" s="41"/>
+      <c r="H72" s="41"/>
+      <c r="I72" s="41"/>
+      <c r="J72" s="41"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
+      <c r="M72" s="41"/>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="41"/>
+      <c r="X72" s="41"/>
+      <c r="Y72" s="41"/>
+      <c r="Z72" s="41"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="41"/>
+      <c r="F73" s="41"/>
+      <c r="G73" s="41"/>
+      <c r="H73" s="41"/>
+      <c r="I73" s="41"/>
+      <c r="J73" s="41"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
+      <c r="M73" s="41"/>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="41"/>
+      <c r="X73" s="41"/>
+      <c r="Y73" s="41"/>
+      <c r="Z73" s="41"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+      <c r="F74" s="41"/>
+      <c r="G74" s="41"/>
+      <c r="H74" s="41"/>
+      <c r="I74" s="41"/>
+      <c r="J74" s="41"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
+      <c r="M74" s="41"/>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="41"/>
+      <c r="X74" s="41"/>
+      <c r="Y74" s="41"/>
+      <c r="Z74" s="41"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
+      <c r="C75" s="41"/>
+      <c r="D75" s="41"/>
+      <c r="E75" s="41"/>
+      <c r="F75" s="41"/>
+      <c r="G75" s="41"/>
+      <c r="H75" s="41"/>
+      <c r="I75" s="41"/>
+      <c r="J75" s="41"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
+      <c r="M75" s="41"/>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="41"/>
+      <c r="X75" s="41"/>
+      <c r="Y75" s="41"/>
+      <c r="Z75" s="41"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
+      <c r="C76" s="41"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="41"/>
+      <c r="G76" s="41"/>
+      <c r="H76" s="41"/>
+      <c r="I76" s="41"/>
+      <c r="J76" s="41"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
+      <c r="M76" s="41"/>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="41"/>
+      <c r="W76" s="41"/>
+      <c r="X76" s="41"/>
+      <c r="Y76" s="41"/>
+      <c r="Z76" s="41"/>
+    </row>
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
+      <c r="C77" s="41"/>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+      <c r="F77" s="41"/>
+      <c r="G77" s="41"/>
+      <c r="H77" s="41"/>
+      <c r="I77" s="41"/>
+      <c r="J77" s="41"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
+      <c r="M77" s="41"/>
+      <c r="N77" s="41"/>
+      <c r="O77" s="41"/>
+      <c r="P77" s="41"/>
+      <c r="Q77" s="41"/>
+      <c r="R77" s="41"/>
+      <c r="S77" s="41"/>
+      <c r="T77" s="41"/>
+      <c r="U77" s="41"/>
+      <c r="V77" s="41"/>
+      <c r="W77" s="41"/>
+      <c r="X77" s="41"/>
+      <c r="Y77" s="41"/>
+      <c r="Z77" s="41"/>
+    </row>
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
+      <c r="C78" s="41"/>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+      <c r="F78" s="41"/>
+      <c r="G78" s="41"/>
+      <c r="H78" s="41"/>
+      <c r="I78" s="41"/>
+      <c r="J78" s="41"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
+      <c r="M78" s="41"/>
+      <c r="N78" s="41"/>
+      <c r="O78" s="41"/>
+      <c r="P78" s="41"/>
+      <c r="Q78" s="41"/>
+      <c r="R78" s="41"/>
+      <c r="S78" s="41"/>
+      <c r="T78" s="41"/>
+      <c r="U78" s="41"/>
+      <c r="V78" s="41"/>
+      <c r="W78" s="41"/>
+      <c r="X78" s="41"/>
+      <c r="Y78" s="41"/>
+      <c r="Z78" s="41"/>
+    </row>
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
+      <c r="C79" s="41"/>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+      <c r="F79" s="41"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
+      <c r="M79" s="41"/>
+      <c r="N79" s="41"/>
+      <c r="O79" s="41"/>
+      <c r="P79" s="41"/>
+      <c r="Q79" s="41"/>
+      <c r="R79" s="41"/>
+      <c r="S79" s="41"/>
+      <c r="T79" s="41"/>
+      <c r="U79" s="41"/>
+      <c r="V79" s="41"/>
+      <c r="W79" s="41"/>
+      <c r="X79" s="41"/>
+      <c r="Y79" s="41"/>
+      <c r="Z79" s="41"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+      <c r="F80" s="41"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
+      <c r="M80" s="41"/>
+      <c r="N80" s="41"/>
+      <c r="O80" s="41"/>
+      <c r="P80" s="41"/>
+      <c r="Q80" s="41"/>
+      <c r="R80" s="41"/>
+      <c r="S80" s="41"/>
+      <c r="T80" s="41"/>
+      <c r="U80" s="41"/>
+      <c r="V80" s="41"/>
+      <c r="W80" s="41"/>
+      <c r="X80" s="41"/>
+      <c r="Y80" s="41"/>
+      <c r="Z80" s="41"/>
+    </row>
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A81" s="41"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
+      <c r="M81" s="41"/>
+      <c r="N81" s="41"/>
+      <c r="O81" s="41"/>
+      <c r="P81" s="41"/>
+      <c r="Q81" s="41"/>
+      <c r="R81" s="41"/>
+      <c r="S81" s="41"/>
+      <c r="T81" s="41"/>
+      <c r="U81" s="41"/>
+      <c r="V81" s="41"/>
+      <c r="W81" s="41"/>
+      <c r="X81" s="41"/>
+      <c r="Y81" s="41"/>
+      <c r="Z81" s="41"/>
+    </row>
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="41"/>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+      <c r="F82" s="41"/>
+      <c r="G82" s="41"/>
+      <c r="H82" s="41"/>
+      <c r="I82" s="41"/>
+      <c r="J82" s="41"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
+      <c r="M82" s="41"/>
+      <c r="N82" s="41"/>
+      <c r="O82" s="41"/>
+      <c r="P82" s="41"/>
+      <c r="Q82" s="41"/>
+      <c r="R82" s="41"/>
+      <c r="S82" s="41"/>
+      <c r="T82" s="41"/>
+      <c r="U82" s="41"/>
+      <c r="V82" s="41"/>
+      <c r="W82" s="41"/>
+      <c r="X82" s="41"/>
+      <c r="Y82" s="41"/>
+      <c r="Z82" s="41"/>
+    </row>
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="41"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="41"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="41"/>
+      <c r="S83" s="41"/>
+      <c r="T83" s="41"/>
+      <c r="U83" s="41"/>
+      <c r="V83" s="41"/>
+      <c r="W83" s="41"/>
+      <c r="X83" s="41"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="41"/>
+    </row>
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="41"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="41"/>
+    </row>
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A85" s="41"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="41"/>
+      <c r="N85" s="41"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="41"/>
+      <c r="S85" s="41"/>
+      <c r="T85" s="41"/>
+      <c r="U85" s="41"/>
+      <c r="V85" s="41"/>
+      <c r="W85" s="41"/>
+      <c r="X85" s="41"/>
+      <c r="Y85" s="41"/>
+      <c r="Z85" s="41"/>
+    </row>
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="41"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="41"/>
+      <c r="W86" s="41"/>
+      <c r="X86" s="41"/>
+      <c r="Y86" s="41"/>
+      <c r="Z86" s="41"/>
+    </row>
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+    </row>
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="41"/>
+      <c r="S88" s="41"/>
+      <c r="T88" s="41"/>
+      <c r="U88" s="41"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="41"/>
+      <c r="X88" s="41"/>
+      <c r="Y88" s="41"/>
+      <c r="Z88" s="41"/>
+    </row>
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A89" s="41"/>
+      <c r="B89" s="41"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="41"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="41"/>
+      <c r="Z89" s="41"/>
+    </row>
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="41"/>
+      <c r="S90" s="41"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="41"/>
+      <c r="W90" s="41"/>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="41"/>
+      <c r="Z90" s="41"/>
+    </row>
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="41"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="41"/>
+      <c r="S91" s="41"/>
+      <c r="T91" s="41"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="41"/>
+      <c r="X91" s="41"/>
+      <c r="Y91" s="41"/>
+      <c r="Z91" s="41"/>
+    </row>
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A92" s="41"/>
+      <c r="B92" s="41"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="41"/>
+      <c r="N92" s="41"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="41"/>
+      <c r="S92" s="41"/>
+      <c r="T92" s="41"/>
+      <c r="U92" s="41"/>
+      <c r="V92" s="41"/>
+      <c r="W92" s="41"/>
+      <c r="X92" s="41"/>
+      <c r="Y92" s="41"/>
+      <c r="Z92" s="41"/>
+    </row>
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
+      <c r="C93" s="41"/>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="41"/>
+      <c r="G93" s="41"/>
+      <c r="H93" s="41"/>
+      <c r="I93" s="41"/>
+      <c r="J93" s="41"/>
+      <c r="K93" s="41"/>
+      <c r="L93" s="41"/>
+      <c r="M93" s="41"/>
+      <c r="N93" s="41"/>
+      <c r="O93" s="41"/>
+      <c r="P93" s="41"/>
+      <c r="Q93" s="41"/>
+      <c r="R93" s="41"/>
+      <c r="S93" s="41"/>
+      <c r="T93" s="41"/>
+      <c r="U93" s="41"/>
+      <c r="V93" s="41"/>
+      <c r="W93" s="41"/>
+      <c r="X93" s="41"/>
+      <c r="Y93" s="41"/>
+      <c r="Z93" s="41"/>
+    </row>
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A94" s="41"/>
+      <c r="B94" s="41"/>
+      <c r="C94" s="41"/>
+      <c r="D94" s="41"/>
+      <c r="E94" s="41"/>
+      <c r="F94" s="41"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="41"/>
+      <c r="I94" s="41"/>
+      <c r="J94" s="41"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
+      <c r="M94" s="41"/>
+      <c r="N94" s="41"/>
+      <c r="O94" s="41"/>
+      <c r="P94" s="41"/>
+      <c r="Q94" s="41"/>
+      <c r="R94" s="41"/>
+      <c r="S94" s="41"/>
+      <c r="T94" s="41"/>
+      <c r="U94" s="41"/>
+      <c r="V94" s="41"/>
+      <c r="W94" s="41"/>
+      <c r="X94" s="41"/>
+      <c r="Y94" s="41"/>
+      <c r="Z94" s="41"/>
+    </row>
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A95" s="41"/>
+      <c r="B95" s="41"/>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="41"/>
+      <c r="J95" s="41"/>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
+      <c r="M95" s="41"/>
+      <c r="N95" s="41"/>
+      <c r="O95" s="41"/>
+      <c r="P95" s="41"/>
+      <c r="Q95" s="41"/>
+      <c r="R95" s="41"/>
+      <c r="S95" s="41"/>
+      <c r="T95" s="41"/>
+      <c r="U95" s="41"/>
+      <c r="V95" s="41"/>
+      <c r="W95" s="41"/>
+      <c r="X95" s="41"/>
+      <c r="Y95" s="41"/>
+      <c r="Z95" s="41"/>
+    </row>
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41"/>
+      <c r="E96" s="41"/>
+      <c r="F96" s="41"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="41"/>
+      <c r="I96" s="41"/>
+      <c r="J96" s="41"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
+      <c r="M96" s="41"/>
+      <c r="N96" s="41"/>
+      <c r="O96" s="41"/>
+      <c r="P96" s="41"/>
+      <c r="Q96" s="41"/>
+      <c r="R96" s="41"/>
+      <c r="S96" s="41"/>
+      <c r="T96" s="41"/>
+      <c r="U96" s="41"/>
+      <c r="V96" s="41"/>
+      <c r="W96" s="41"/>
+      <c r="X96" s="41"/>
+      <c r="Y96" s="41"/>
+      <c r="Z96" s="41"/>
+    </row>
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
+      <c r="C97" s="41"/>
+      <c r="D97" s="41"/>
+      <c r="E97" s="41"/>
+      <c r="F97" s="41"/>
+      <c r="G97" s="41"/>
+      <c r="H97" s="41"/>
+      <c r="I97" s="41"/>
+      <c r="J97" s="41"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
+      <c r="M97" s="41"/>
+      <c r="N97" s="41"/>
+      <c r="O97" s="41"/>
+      <c r="P97" s="41"/>
+      <c r="Q97" s="41"/>
+      <c r="R97" s="41"/>
+      <c r="S97" s="41"/>
+      <c r="T97" s="41"/>
+      <c r="U97" s="41"/>
+      <c r="V97" s="41"/>
+      <c r="W97" s="41"/>
+      <c r="X97" s="41"/>
+      <c r="Y97" s="41"/>
+      <c r="Z97" s="41"/>
+    </row>
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
+      <c r="C98" s="41"/>
+      <c r="D98" s="41"/>
+      <c r="E98" s="41"/>
+      <c r="F98" s="41"/>
+      <c r="G98" s="41"/>
+      <c r="H98" s="41"/>
+      <c r="I98" s="41"/>
+      <c r="J98" s="41"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
+      <c r="M98" s="41"/>
+      <c r="N98" s="41"/>
+      <c r="O98" s="41"/>
+      <c r="P98" s="41"/>
+      <c r="Q98" s="41"/>
+      <c r="R98" s="41"/>
+      <c r="S98" s="41"/>
+      <c r="T98" s="41"/>
+      <c r="U98" s="41"/>
+      <c r="V98" s="41"/>
+      <c r="W98" s="41"/>
+      <c r="X98" s="41"/>
+      <c r="Y98" s="41"/>
+      <c r="Z98" s="41"/>
+    </row>
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A99" s="41"/>
+      <c r="B99" s="41"/>
+      <c r="C99" s="41"/>
+      <c r="D99" s="41"/>
+      <c r="E99" s="41"/>
+      <c r="F99" s="41"/>
+      <c r="G99" s="41"/>
+      <c r="H99" s="41"/>
+      <c r="I99" s="41"/>
+      <c r="J99" s="41"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
+      <c r="M99" s="41"/>
+      <c r="N99" s="41"/>
+      <c r="O99" s="41"/>
+      <c r="P99" s="41"/>
+      <c r="Q99" s="41"/>
+      <c r="R99" s="41"/>
+      <c r="S99" s="41"/>
+      <c r="T99" s="41"/>
+      <c r="U99" s="41"/>
+      <c r="V99" s="41"/>
+      <c r="W99" s="41"/>
+      <c r="X99" s="41"/>
+      <c r="Y99" s="41"/>
+      <c r="Z99" s="41"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{92C4EBB8-4139-40A1-B170-A9BA94CD6A15}"/>
+    <hyperlink ref="B32" r:id="rId2" xr:uid="{6D8677D2-13E2-4209-8603-60B26AE7F4A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226CF39-0357-4B21-823B-1B3093B14EE8}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C4:AK42"/>
@@ -1329,7 +4745,7 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="9.140625" style="3"/>
     <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -1338,7 +4754,7 @@
     <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
@@ -1478,7 +4894,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1577,7 +4993,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1676,7 +5092,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1775,7 +5191,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1874,7 +5290,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1973,7 +5389,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2072,7 +5488,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2171,7 +5587,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2270,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2369,7 +5785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2418,7 +5834,7 @@
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
     </row>
-    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2467,7 +5883,7 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
     </row>
-    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2516,7 +5932,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2565,7 +5981,7 @@
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
     </row>
-    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2614,7 +6030,7 @@
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
     </row>
-    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2663,7 +6079,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2712,7 +6128,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
     </row>
-    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2761,7 +6177,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
     </row>
-    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2810,7 +6226,7 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
     </row>
-    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2859,7 +6275,7 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2908,7 +6324,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
     </row>
-    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -2957,7 +6373,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
     </row>
-    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3006,7 +6422,7 @@
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
     </row>
-    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3055,7 +6471,7 @@
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
     </row>
-    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3104,7 +6520,7 @@
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
     </row>
-    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3153,7 +6569,7 @@
       <c r="AJ30" s="22"/>
       <c r="AK30" s="22"/>
     </row>
-    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3202,7 +6618,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
     </row>
-    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3251,7 +6667,7 @@
       <c r="AJ32" s="22"/>
       <c r="AK32" s="22"/>
     </row>
-    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3300,7 +6716,7 @@
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
     </row>
-    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3349,7 +6765,7 @@
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
     </row>
-    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3398,7 +6814,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
     </row>
-    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3447,7 +6863,7 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3496,7 +6912,7 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3545,7 +6961,7 @@
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
     </row>
-    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3590,7 +7006,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
     </row>
-    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3635,7 +7051,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
     </row>
-    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3684,7 +7100,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
     </row>
-    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" x14ac:dyDescent="0.25">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3739,23 +7155,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCA64845-990F-4F8F-9F7F-F4DBD3794313}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="B2:AF39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="9.140625" style="3"/>
     <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
@@ -3881,7 +7297,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -3997,7 +7413,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4113,7 +7529,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4229,7 +7645,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="7" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4345,7 +7761,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="8" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4461,7 +7877,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4577,7 +7993,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4693,7 +8109,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="11" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4809,7 +8225,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="12" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4925,7 +8341,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5041,7 +8457,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5157,7 +8573,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="15" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5273,7 +8689,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="16" spans="2:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5389,7 +8805,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5505,7 +8921,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5621,7 +9037,7 @@
         <v>0.14608329496284322</v>
       </c>
     </row>
-    <row r="19" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5737,7 +9153,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="20" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5853,7 +9269,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -5968,7 +9384,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -6083,7 +9499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -6198,7 +9614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -6314,7 +9730,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -6429,7 +9845,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -6544,7 +9960,7 @@
         <v>5.2992018186097681E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -6659,7 +10075,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -6775,7 +10191,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -6891,7 +10307,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -7007,7 +10423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -7123,7 +10539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -7239,7 +10655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -7354,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -7469,7 +10885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -7584,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -7700,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -7816,7 +11232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -7932,7 +11348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -8053,7 +11469,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72EEFD70-8C3B-4A33-8837-D811323F48D5}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A3:AD37"/>
@@ -8818,7 +12234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="C1:AQ42"/>
@@ -10365,7 +13781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E982DE-1A8D-4D0C-9CD3-51B0DFFDA372}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C4:N51"/>
@@ -11540,7 +14956,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2523A896-A3FC-4F9A-B5DF-A205D08521A3}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="C3:N33"/>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0425296F-D137-4445-B228-4074231E7448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35963459-CA74-4BFA-A761-F81A1CBD2DE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="2895" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="10" r:id="rId1"/>
@@ -21,9 +21,6 @@
     <sheet name="Residential" sheetId="8" r:id="rId6"/>
     <sheet name="Services" sheetId="9" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-  </externalReferences>
   <definedNames>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="1" hidden="1">#REF!</definedName>
     <definedName name="__123Graph_AEUMILKPN" localSheetId="0" hidden="1">#REF!</definedName>
@@ -151,7 +148,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="681" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="205">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -738,27 +735,15 @@
     <t>Document type:</t>
   </si>
   <si>
-    <t>Template type</t>
-  </si>
-  <si>
     <t>Sector(s):</t>
   </si>
   <si>
-    <t>Sector name</t>
-  </si>
-  <si>
     <t>Purpose:</t>
   </si>
   <si>
-    <t>Brief description of what this file is for</t>
-  </si>
-  <si>
     <t>Original developer(s):</t>
   </si>
   <si>
-    <t>Full Name(s) (Affiliation, email)</t>
-  </si>
-  <si>
     <t>Current maintainer(s):</t>
   </si>
   <si>
@@ -778,6 +763,24 @@
   </si>
   <si>
     <t>https://creativecommons.org/licenses/by-nc-sa/4.0/</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>All end-use sectors</t>
+  </si>
+  <si>
+    <t>Ankita Gaur (UCC, agaur@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Vahid Aryanpur (UCC, vahid.aryanpur@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Olexandr Balyk (UCC, olexandr.balyk@ucc.ie)</t>
+  </si>
+  <si>
+    <t>Specify end-use demand projections (low energy demand variant)</t>
   </si>
 </sst>
 </file>
@@ -1168,9 +1171,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1189,9 +1189,6 @@
     <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1204,14 +1201,20 @@
     <xf numFmtId="167" fontId="14" fillId="10" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1573,7 +1576,7 @@
                   <a14:compatExt spid="_x0000_s5121"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000001140000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000001140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1609,19 +1612,6 @@
     <mc:Fallback/>
   </mc:AlternateContent>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1890,8 +1880,8 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:Z99"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2329,20 +2319,20 @@
       <c r="Z15" s="41"/>
     </row>
     <row r="16" spans="1:26" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="56" t="s">
         <v>187</v>
       </c>
-      <c r="B16" s="42"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
+      <c r="B16" s="56"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43"/>
       <c r="M16" s="41"/>
       <c r="N16" s="41"/>
       <c r="O16" s="41"/>
@@ -2359,10 +2349,10 @@
       <c r="Z16" s="41"/>
     </row>
     <row r="17" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="45"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
       <c r="G17" s="41"/>
@@ -2387,18 +2377,18 @@
       <c r="Z17" s="41"/>
     </row>
     <row r="18" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="46"/>
+      <c r="L18" s="46"/>
       <c r="M18" s="41"/>
       <c r="N18" s="41"/>
       <c r="O18" s="41"/>
@@ -2415,22 +2405,22 @@
       <c r="Z18" s="41"/>
     </row>
     <row r="19" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="48" t="s">
+      <c r="A19" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="B19" s="49" t="s">
-        <v>189</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
+      <c r="B19" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="49"/>
+      <c r="L19" s="49"/>
       <c r="M19" s="41"/>
       <c r="N19" s="41"/>
       <c r="O19" s="41"/>
@@ -2447,22 +2437,22 @@
       <c r="Z19" s="41"/>
     </row>
     <row r="20" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>191</v>
-      </c>
-      <c r="C20" s="49"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-      <c r="I20" s="51"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="51"/>
-      <c r="L20" s="51"/>
+      <c r="A20" s="47" t="s">
+        <v>189</v>
+      </c>
+      <c r="B20" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
+      <c r="K20" s="49"/>
+      <c r="L20" s="49"/>
       <c r="M20" s="41"/>
       <c r="N20" s="41"/>
       <c r="O20" s="41"/>
@@ -2479,22 +2469,22 @@
       <c r="Z20" s="41"/>
     </row>
     <row r="21" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="B21" s="52" t="s">
-        <v>193</v>
-      </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
+      <c r="A21" s="47" t="s">
+        <v>190</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
       <c r="M21" s="41"/>
       <c r="N21" s="41"/>
       <c r="O21" s="41"/>
@@ -2511,18 +2501,18 @@
       <c r="Z21" s="41"/>
     </row>
     <row r="22" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="48"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="51"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="51"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="51"/>
-      <c r="L22" s="51"/>
+      <c r="A22" s="47"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
       <c r="M22" s="41"/>
       <c r="N22" s="41"/>
       <c r="O22" s="41"/>
@@ -2539,14 +2529,14 @@
       <c r="Z22" s="41"/>
     </row>
     <row r="23" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="48" t="s">
-        <v>194</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="49"/>
+      <c r="A23" s="47" t="s">
+        <v>191</v>
+      </c>
+      <c r="B23" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
       <c r="E23" s="41"/>
       <c r="F23" s="41"/>
       <c r="G23" s="41"/>
@@ -2571,10 +2561,12 @@
       <c r="Z23" s="41"/>
     </row>
     <row r="24" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="48"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
+      <c r="A24" s="47"/>
+      <c r="B24" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
       <c r="E24" s="41"/>
       <c r="F24" s="41"/>
       <c r="G24" s="41"/>
@@ -2599,10 +2591,12 @@
       <c r="Z24" s="41"/>
     </row>
     <row r="25" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="48"/>
-      <c r="B25" s="52"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
+      <c r="A25" s="47"/>
+      <c r="B25" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
       <c r="E25" s="41"/>
       <c r="F25" s="41"/>
       <c r="G25" s="41"/>
@@ -2627,14 +2621,14 @@
       <c r="Z25" s="41"/>
     </row>
     <row r="26" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="49" t="s">
-        <v>195</v>
-      </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
+      <c r="A26" s="47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
       <c r="E26" s="41"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
@@ -2659,10 +2653,12 @@
       <c r="Z26" s="41"/>
     </row>
     <row r="27" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="48"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
+      <c r="A27" s="47"/>
+      <c r="B27" s="55" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
       <c r="E27" s="41"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
@@ -2687,10 +2683,12 @@
       <c r="Z27" s="41"/>
     </row>
     <row r="28" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="48"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
+      <c r="A28" s="47"/>
+      <c r="B28" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="50"/>
+      <c r="D28" s="50"/>
       <c r="E28" s="41"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
@@ -2715,14 +2713,14 @@
       <c r="Z28" s="41"/>
     </row>
     <row r="29" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="B29" s="53">
+      <c r="A29" s="47" t="s">
+        <v>193</v>
+      </c>
+      <c r="B29" s="51">
         <v>1</v>
       </c>
-      <c r="C29" s="52"/>
-      <c r="D29" s="52"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="50"/>
       <c r="E29" s="41"/>
       <c r="F29" s="41"/>
       <c r="G29" s="41"/>
@@ -2747,16 +2745,16 @@
       <c r="Z29" s="41"/>
     </row>
     <row r="30" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="B30" s="54" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
+      <c r="A30" s="47" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="57" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
       <c r="G30" s="41"/>
       <c r="H30" s="41"/>
       <c r="I30" s="41"/>
@@ -2779,16 +2777,16 @@
       <c r="Z30" s="41"/>
     </row>
     <row r="31" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="48" t="s">
-        <v>200</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="55"/>
-      <c r="F31" s="55"/>
+      <c r="A31" s="47" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
       <c r="G31" s="41"/>
       <c r="H31" s="41"/>
       <c r="I31" s="41"/>
@@ -2811,12 +2809,12 @@
       <c r="Z31" s="41"/>
     </row>
     <row r="32" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57" t="s">
-        <v>202</v>
-      </c>
-      <c r="C32" s="56"/>
-      <c r="D32" s="56"/>
+      <c r="A32" s="53"/>
+      <c r="B32" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
       <c r="E32" s="41"/>
       <c r="F32" s="41"/>
       <c r="G32" s="41"/>
@@ -4717,7 +4715,7 @@
       <c r="Z99" s="41"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="9">
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="B19:D19"/>
@@ -4725,6 +4723,8 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B30" r:id="rId1" xr:uid="{92C4EBB8-4139-40A1-B170-A9BA94CD6A15}"/>

--- a/SuppXLS/Scen_SYS_Demands_LED.xlsx
+++ b/SuppXLS/Scen_SYS_Demands_LED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olex\Documents\MANRID\ResLab\Modelling\TIMES\TIMES-IE\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIM-2.0\TIM\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7739537-8951-4A2E-B852-3C58479764D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2993F71-2661-4B7A-BAAB-0E43AAC2495D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1450" yWindow="830" windowWidth="14400" windowHeight="7360" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY-Demands" sheetId="5" r:id="rId1"/>
@@ -1032,7 +1032,7 @@
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>28575</xdr:colOff>
+          <xdr:colOff>31750</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
@@ -1351,21 +1351,21 @@
       <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="9.140625" style="3"/>
-    <col min="7" max="7" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" style="3"/>
-    <col min="9" max="9" width="11.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="6" width="9.1796875" style="3"/>
+    <col min="7" max="7" width="10.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="3"/>
+    <col min="9" max="9" width="11.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:37" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:37" ht="13" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="3:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:37" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C5" s="4" t="s">
         <v>63</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
         <v>66</v>
       </c>
@@ -1599,7 +1599,7 @@
         <v>0.20769618859639599</v>
       </c>
     </row>
-    <row r="7" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
         <v>66</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0.47664625412085698</v>
       </c>
     </row>
-    <row r="8" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C8" s="3" t="s">
         <v>66</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0.42809298937083901</v>
       </c>
     </row>
-    <row r="9" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
         <v>66</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>0.154582741264056</v>
       </c>
     </row>
-    <row r="10" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>9.95787628254481E-2</v>
       </c>
     </row>
-    <row r="11" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
         <v>66</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>4.5290536808279797E-2</v>
       </c>
     </row>
-    <row r="12" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C12" s="3" t="s">
         <v>66</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>0.28082969344526898</v>
       </c>
     </row>
-    <row r="13" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C13" s="3" t="s">
         <v>66</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C14" s="3" t="s">
         <v>66</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C15" s="3" t="s">
         <v>66</v>
       </c>
@@ -2440,7 +2440,7 @@
       <c r="AJ15" s="22"/>
       <c r="AK15" s="22"/>
     </row>
-    <row r="16" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C16" s="3" t="s">
         <v>66</v>
       </c>
@@ -2489,7 +2489,7 @@
       <c r="AJ16" s="22"/>
       <c r="AK16" s="22"/>
     </row>
-    <row r="17" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C17" s="3" t="s">
         <v>66</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="AJ17" s="22"/>
       <c r="AK17" s="22"/>
     </row>
-    <row r="18" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C18" s="3" t="s">
         <v>66</v>
       </c>
@@ -2587,7 +2587,7 @@
       <c r="AJ18" s="22"/>
       <c r="AK18" s="22"/>
     </row>
-    <row r="19" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C19" s="3" t="s">
         <v>66</v>
       </c>
@@ -2636,7 +2636,7 @@
       <c r="AJ19" s="22"/>
       <c r="AK19" s="22"/>
     </row>
-    <row r="20" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
@@ -2685,7 +2685,7 @@
       <c r="AJ20" s="22"/>
       <c r="AK20" s="22"/>
     </row>
-    <row r="21" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C21" s="3" t="s">
         <v>66</v>
       </c>
@@ -2734,7 +2734,7 @@
       <c r="AJ21" s="22"/>
       <c r="AK21" s="22"/>
     </row>
-    <row r="22" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
         <v>66</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="AJ22" s="22"/>
       <c r="AK22" s="22"/>
     </row>
-    <row r="23" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="AJ23" s="22"/>
       <c r="AK23" s="22"/>
     </row>
-    <row r="24" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
         <v>66</v>
       </c>
@@ -2881,7 +2881,7 @@
       <c r="AJ24" s="22"/>
       <c r="AK24" s="22"/>
     </row>
-    <row r="25" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
         <v>66</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="AJ25" s="22"/>
       <c r="AK25" s="22"/>
     </row>
-    <row r="26" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C26" s="3" t="s">
         <v>66</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="AJ26" s="22"/>
       <c r="AK26" s="22"/>
     </row>
-    <row r="27" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
         <v>66</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="AJ27" s="22"/>
       <c r="AK27" s="22"/>
     </row>
-    <row r="28" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C28" s="3" t="s">
         <v>66</v>
       </c>
@@ -3077,7 +3077,7 @@
       <c r="AJ28" s="22"/>
       <c r="AK28" s="22"/>
     </row>
-    <row r="29" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C29" s="3" t="s">
         <v>66</v>
       </c>
@@ -3126,7 +3126,7 @@
       <c r="AJ29" s="22"/>
       <c r="AK29" s="22"/>
     </row>
-    <row r="30" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C30" s="3" t="s">
         <v>66</v>
       </c>
@@ -3175,7 +3175,7 @@
       <c r="AJ30" s="22"/>
       <c r="AK30" s="22"/>
     </row>
-    <row r="31" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C31" s="3" t="s">
         <v>66</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="AJ31" s="22"/>
       <c r="AK31" s="22"/>
     </row>
-    <row r="32" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C32" s="3" t="s">
         <v>66</v>
       </c>
@@ -3273,7 +3273,7 @@
       <c r="AJ32" s="22"/>
       <c r="AK32" s="22"/>
     </row>
-    <row r="33" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C33" s="3" t="s">
         <v>66</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="AJ33" s="22"/>
       <c r="AK33" s="22"/>
     </row>
-    <row r="34" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C34" s="3" t="s">
         <v>66</v>
       </c>
@@ -3371,7 +3371,7 @@
       <c r="AJ34" s="22"/>
       <c r="AK34" s="22"/>
     </row>
-    <row r="35" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C35" s="3" t="s">
         <v>66</v>
       </c>
@@ -3420,7 +3420,7 @@
       <c r="AJ35" s="22"/>
       <c r="AK35" s="22"/>
     </row>
-    <row r="36" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C36" s="3" t="s">
         <v>66</v>
       </c>
@@ -3469,7 +3469,7 @@
       <c r="AJ36" s="22"/>
       <c r="AK36" s="22"/>
     </row>
-    <row r="37" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C37" s="3" t="s">
         <v>66</v>
       </c>
@@ -3518,7 +3518,7 @@
       <c r="AJ37" s="22"/>
       <c r="AK37" s="22"/>
     </row>
-    <row r="38" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C38" s="3" t="s">
         <v>66</v>
       </c>
@@ -3567,7 +3567,7 @@
       <c r="AJ38" s="22"/>
       <c r="AK38" s="22"/>
     </row>
-    <row r="39" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
@@ -3612,7 +3612,7 @@
       <c r="AJ39" s="22"/>
       <c r="AK39" s="22"/>
     </row>
-    <row r="40" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C40" s="3" t="s">
         <v>66</v>
       </c>
@@ -3657,7 +3657,7 @@
       <c r="AJ40" s="22"/>
       <c r="AK40" s="22"/>
     </row>
-    <row r="41" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="s">
         <v>66</v>
       </c>
@@ -3706,7 +3706,7 @@
       <c r="AJ41" s="22"/>
       <c r="AK41" s="22"/>
     </row>
-    <row r="42" spans="3:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:37" ht="14.5" x14ac:dyDescent="0.35">
       <c r="C42" s="3" t="s">
         <v>66</v>
       </c>
@@ -3769,19 +3769,19 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="3" width="9.1796875" style="3"/>
+    <col min="4" max="4" width="11.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:32" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>65</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D4" s="3" t="s">
         <v>59</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>0.2122596962048626</v>
       </c>
     </row>
-    <row r="5" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="s">
         <v>59</v>
       </c>
@@ -4134,7 +4134,7 @@
         <v>0.15354445783325901</v>
       </c>
     </row>
-    <row r="6" spans="2:32" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:32" customFormat="1" ht="14.5" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="s">
         <v>59</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>0.23967972865007509</v>
       </c>
     </row>
-    <row r="7" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D7" s="3" t="s">
         <v>59</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>0.26468469422110324</v>
       </c>
     </row>
-    <row r="8" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D8" s="3" t="s">
         <v>59</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>0.48743823497682215</v>
       </c>
     </row>
-    <row r="9" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D9" s="3" t="s">
         <v>59</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>0.35260315962707711</v>
       </c>
     </row>
-    <row r="10" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D10" s="3" t="s">
         <v>59</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>0.45747736907548092</v>
       </c>
     </row>
-    <row r="11" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D11" s="3" t="s">
         <v>59</v>
       </c>
@@ -4830,7 +4830,7 @@
         <v>0.45737466284626727</v>
       </c>
     </row>
-    <row r="12" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D12" s="3" t="s">
         <v>59</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>0.43424277040967463</v>
       </c>
     </row>
-    <row r="13" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D13" s="3" t="s">
         <v>59</v>
       </c>
@@ -5062,7 +5062,7 @@
         <v>0.31412261464919838</v>
       </c>
     </row>
-    <row r="14" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D14" s="3" t="s">
         <v>59</v>
       </c>
@@ -5178,7 +5178,7 @@
         <v>0.4079856816277293</v>
       </c>
     </row>
-    <row r="15" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D15" s="3" t="s">
         <v>59</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>0.40689805832883513</v>
       </c>
     </row>
-    <row r="16" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="D16" s="3" t="s">
         <v>59</v>
       </c>
@@ -5410,7 +5410,7 @@
         <v>0.18922217409036649</v>
       </c>
     </row>
-    <row r="17" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>0.15629751581539669</v>
       </c>
     </row>
-    <row r="18" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D18" s="3" t="s">
         <v>59</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>0.14608329496284322</v>
       </c>
     </row>
-    <row r="19" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D19" s="3" t="s">
         <v>59</v>
       </c>
@@ -5758,7 +5758,7 @@
         <v>0.12565485325773626</v>
       </c>
     </row>
-    <row r="20" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D20" s="3" t="s">
         <v>59</v>
       </c>
@@ -5874,7 +5874,7 @@
         <v>0.14086885317580392</v>
       </c>
     </row>
-    <row r="21" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D21" s="3" t="s">
         <v>59</v>
       </c>
@@ -5989,7 +5989,7 @@
         <v>0.12806259379618537</v>
       </c>
     </row>
-    <row r="22" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D22" s="3" t="s">
         <v>59</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D23" s="3" t="s">
         <v>59</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D24" s="3" t="s">
         <v>59</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>5.5388643974572375E-2</v>
       </c>
     </row>
-    <row r="25" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D25" s="3" t="s">
         <v>59</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>5.6842758875006623E-2</v>
       </c>
     </row>
-    <row r="26" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D26" s="3" t="s">
         <v>59</v>
       </c>
@@ -6565,7 +6565,7 @@
         <v>5.2992018186097681E-2</v>
       </c>
     </row>
-    <row r="27" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D27" s="3" t="s">
         <v>59</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>4.529053680827979E-2</v>
       </c>
     </row>
-    <row r="28" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D28" s="3" t="s">
         <v>59</v>
       </c>
@@ -6796,7 +6796,7 @@
         <v>0.17571155329873456</v>
       </c>
     </row>
-    <row r="29" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D29" s="3" t="s">
         <v>59</v>
       </c>
@@ -6912,7 +6912,7 @@
         <v>0.17505912318297531</v>
       </c>
     </row>
-    <row r="30" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D31" s="3" t="s">
         <v>59</v>
       </c>
@@ -7144,7 +7144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D32" s="3" t="s">
         <v>59</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D33" s="3" t="s">
         <v>59</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D35" s="3" t="s">
         <v>59</v>
       </c>
@@ -7605,7 +7605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D36" s="3" t="s">
         <v>59</v>
       </c>
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D37" s="3" t="s">
         <v>59</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D38" s="3" t="s">
         <v>59</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:32" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:32" x14ac:dyDescent="0.25">
       <c r="D39" s="3" t="s">
         <v>59</v>
       </c>
@@ -8082,38 +8082,38 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="4.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7.5703125" style="3" customWidth="1"/>
-    <col min="25" max="25" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="6.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="11.54296875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="3.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="4.81640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="7.54296875" style="3" customWidth="1"/>
+    <col min="25" max="25" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.1796875" style="3" bestFit="1" customWidth="1"/>
     <col min="27" max="28" width="6" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="3"/>
+    <col min="29" max="29" width="5.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="C3" s="19" t="str">
         <f t="array" ref="C3">INDEX(C5:C7,$A$4)</f>
         <v>IE</v>
@@ -8227,12 +8227,12 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>133</v>
       </c>
@@ -8347,7 +8347,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="6" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>132</v>
       </c>
@@ -8464,7 +8464,7 @@
         <v>*IE-MN</v>
       </c>
     </row>
-    <row r="7" spans="1:30" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>131</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>IE-MN</v>
       </c>
     </row>
-    <row r="10" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
         <v>130</v>
       </c>
@@ -8589,7 +8589,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>76</v>
       </c>
@@ -8597,7 +8597,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>99</v>
       </c>
@@ -8605,7 +8605,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>88</v>
       </c>
@@ -8613,7 +8613,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
         <v>89</v>
       </c>
@@ -8621,7 +8621,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>100</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>77</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>94</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>90</v>
       </c>
@@ -8653,7 +8653,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>78</v>
       </c>
@@ -8661,7 +8661,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>79</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
         <v>80</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
         <v>95</v>
       </c>
@@ -8685,7 +8685,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>91</v>
       </c>
@@ -8693,7 +8693,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>81</v>
       </c>
@@ -8701,7 +8701,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>82</v>
       </c>
@@ -8709,7 +8709,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>96</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>83</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
@@ -8733,7 +8733,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>84</v>
       </c>
@@ -8741,7 +8741,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>97</v>
       </c>
@@ -8749,7 +8749,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>98</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>92</v>
       </c>
@@ -8765,7 +8765,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
         <v>93</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>85</v>
       </c>
@@ -8781,7 +8781,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>86</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>87</v>
       </c>
@@ -8797,7 +8797,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A37" s="15" t="s">
         <v>102</v>
       </c>
@@ -8823,7 +8823,7 @@
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
-                    <xdr:colOff>28575</xdr:colOff>
+                    <xdr:colOff>31750</xdr:colOff>
                     <xdr:row>3</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
@@ -8846,19 +8846,19 @@
       <selection activeCell="AO40" sqref="AO40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.85546875" customWidth="1"/>
-    <col min="12" max="13" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" customWidth="1"/>
+    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.81640625" customWidth="1"/>
+    <col min="12" max="13" width="15.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C1" t="s">
         <v>149</v>
       </c>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C2" s="13" t="s">
         <v>1</v>
       </c>
@@ -8901,7 +8901,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="3" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D3" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8936,7 +8936,7 @@
       </c>
       <c r="P3" s="1"/>
     </row>
-    <row r="4" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D4" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -8971,7 +8971,7 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row r="5" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D5" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9006,7 +9006,7 @@
       </c>
       <c r="P5" s="1"/>
     </row>
-    <row r="6" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D6" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9041,7 +9041,7 @@
       </c>
       <c r="P6" s="1"/>
     </row>
-    <row r="7" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D7" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9076,7 +9076,7 @@
       </c>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D8" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9111,7 +9111,7 @@
       </c>
       <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D9" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9146,7 +9146,7 @@
       </c>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D10" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9181,7 +9181,7 @@
       </c>
       <c r="P10" s="1"/>
     </row>
-    <row r="11" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D11" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9216,7 +9216,7 @@
       </c>
       <c r="P11" s="1"/>
     </row>
-    <row r="12" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D12" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9251,7 +9251,7 @@
       </c>
       <c r="P12" s="1"/>
     </row>
-    <row r="13" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D13" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9286,7 +9286,7 @@
       </c>
       <c r="P13" s="1"/>
     </row>
-    <row r="14" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D14" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D15" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9356,7 +9356,7 @@
       </c>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D16" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9391,7 +9391,7 @@
       </c>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D17" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9426,7 +9426,7 @@
       </c>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D18" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9461,7 +9461,7 @@
       </c>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D19" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9496,7 +9496,7 @@
       </c>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D20" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9532,7 +9532,7 @@
       </c>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D21" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9567,7 +9567,7 @@
       </c>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D22" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9604,7 +9604,7 @@
       </c>
       <c r="P22" s="1"/>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D23" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9639,7 +9639,7 @@
       </c>
       <c r="P23" s="1"/>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D24" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9676,7 +9676,7 @@
       </c>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D25" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3)</f>
         <v>IE</v>
@@ -9713,7 +9713,7 @@
       </c>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D26" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D27" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9781,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D28" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:16" x14ac:dyDescent="0.35">
       <c r="D29" t="str">
         <f>_xlfn.TEXTJOIN(",",TRUE,Regions!$C$3,Regions!$D$3)</f>
         <v>IE,National</v>
@@ -9839,19 +9839,19 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:16" x14ac:dyDescent="0.35">
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:16" x14ac:dyDescent="0.35">
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.35">
       <c r="C32" t="s">
         <v>149</v>
       </c>
@@ -9863,7 +9863,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
     </row>
-    <row r="33" spans="3:43" ht="15.75" thickBot="1" x14ac:dyDescent